--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/Workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:801_{A0DEB77E-1438-435D-BD6D-30D8F13B3089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F929B8F6-7423-4623-A5CB-667B2253B52C}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:801_{A0DEB77E-1438-435D-BD6D-30D8F13B3089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6868C208-E9D6-4D86-B63A-39BFE509E144}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>Application_Name</t>
   </si>
@@ -246,119 +246,34 @@
     <t>Launch and login to application.Capture customer details</t>
   </si>
   <si>
-    <t/>
+    <t>F9Z2G8A</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>'2021/11/08 20:41:18</t>
+  </si>
+  <si>
+    <t>'2021/11/08 20:42:20</t>
+  </si>
+  <si>
+    <t>'2021/11/11 12:31:01</t>
+  </si>
+  <si>
+    <t>'2021/11/11 12:49:51</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>F9Z2G8A</t>
-  </si>
-  <si>
-    <t>'2021/10/28 21:20:47</t>
-  </si>
-  <si>
-    <t>'2021/10/28 21:23:42</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>'2021/10/28 21:27:11</t>
-  </si>
-  <si>
-    <t>'2021/10/28 21:28:09</t>
-  </si>
-  <si>
-    <t>'2021/10/28 22:25:56</t>
-  </si>
-  <si>
-    <t>'2021/10/28 22:34:02</t>
-  </si>
-  <si>
-    <t>'2021/10/28 22:45:36</t>
-  </si>
-  <si>
-    <t>'2021/10/28 22:47:15</t>
-  </si>
-  <si>
-    <t>'2021/10/29 12:45:26</t>
-  </si>
-  <si>
-    <t>'2021/10/29 12:46:27</t>
-  </si>
-  <si>
-    <t>'2021/11/01 12:06:36</t>
-  </si>
-  <si>
-    <t>'2021/11/01 12:10:17</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:22:05</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:24:39</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:53:03</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:53:37</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:56:47</t>
-  </si>
-  <si>
-    <t>'2021/11/01 13:59:10</t>
-  </si>
-  <si>
-    <t>'2021/11/01 14:12:55</t>
-  </si>
-  <si>
-    <t>'2021/11/01 14:13:26</t>
-  </si>
-  <si>
-    <t>'2021/11/01 14:47:29</t>
-  </si>
-  <si>
-    <t>'2021/11/01 14:49:52</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:34:27</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:36:04</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:45:31</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:46:26</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:47:45</t>
-  </si>
-  <si>
-    <t>'2021/11/01 16:50:05</t>
-  </si>
-  <si>
-    <t>'2021/11/01 17:42:10</t>
-  </si>
-  <si>
-    <t>'2021/11/01 17:43:00</t>
-  </si>
-  <si>
-    <t>'2021/11/08 20:41:18</t>
-  </si>
-  <si>
-    <t>'2021/11/08 20:42:20</t>
+    <t>'2021/11/11 13:14:03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -829,15 +744,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -859,7 +774,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -898,7 +813,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -922,22 +837,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1261,19 +1175,19 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1319,7 +1233,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1347,13 +1261,25 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1361,13 +1287,25 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1379,22 +1317,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="53.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1449,16 +1387,16 @@
         <v>71</v>
       </c>
       <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:801_{A0DEB77E-1438-435D-BD6D-30D8F13B3089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6868C208-E9D6-4D86-B63A-39BFE509E144}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:801_{A0DEB77E-1438-435D-BD6D-30D8F13B3089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{68EF597F-24F6-4CC5-BFB8-FFDAA97B114B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>Application_Name</t>
   </si>
@@ -258,16 +258,55 @@
     <t>'2021/11/08 20:42:20</t>
   </si>
   <si>
-    <t>'2021/11/11 12:31:01</t>
-  </si>
-  <si>
-    <t>'2021/11/11 12:49:51</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>'2021/11/11 13:14:03</t>
+    <t>EPP_TC005</t>
+  </si>
+  <si>
+    <t>Cancel a Duplicate payment</t>
+  </si>
+  <si>
+    <t>EPP_TC006</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Release a Duplicate payment</t>
+  </si>
+  <si>
+    <t>EPP_TC007</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Repair And Approve a Duplicate payment</t>
+  </si>
+  <si>
+    <t>EPP_TC008</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Repair And Cancel a Duplicate payment</t>
+  </si>
+  <si>
+    <t>EPP_TC009</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Create a Manual Payment with FutureDated</t>
+  </si>
+  <si>
+    <t>EPP_TC010</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Create a Manual Payment with Over limit Amount</t>
   </si>
 </sst>
 </file>
@@ -837,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,25 +1300,13 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1287,7 +1314,7 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -1295,17 +1322,89 @@
       <c r="F5" t="s">
         <v>59</v>
       </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
-        <v>78</v>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:801_{A0DEB77E-1438-435D-BD6D-30D8F13B3089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{68EF597F-24F6-4CC5-BFB8-FFDAA97B114B}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:801_{A0DEB77E-1438-435D-BD6D-30D8F13B3089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AA5352EC-1E7B-4C4F-82F2-146D7C46461D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="102">
   <si>
     <t>Application_Name</t>
   </si>
@@ -307,12 +307,40 @@
   </si>
   <si>
     <t>Create a Manual Payment with Over limit Amount</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:19:06</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:19:56</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:20:43</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:21:20</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:21:58</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2021/11/17 22:27:44</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:28:31</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:29:17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,15 +811,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -813,7 +841,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -824,7 +852,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -876,21 +904,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -936,7 +964,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -946,6 +974,18 @@
       </c>
       <c r="F2" t="s">
         <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -953,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -963,6 +1003,18 @@
       </c>
       <c r="F3" t="s">
         <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -981,6 +1033,18 @@
       <c r="F4" t="s">
         <v>34</v>
       </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -998,6 +1062,18 @@
       <c r="F5" t="s">
         <v>32</v>
       </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1055,7 +1131,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1213,20 +1289,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,16 +1498,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="53.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="108">
   <si>
     <t>Application_Name</t>
   </si>
@@ -334,6 +334,24 @@
   </si>
   <si>
     <t>'2021/11/17 22:29:17</t>
+  </si>
+  <si>
+    <t>'2021/11/18 13:27:13</t>
+  </si>
+  <si>
+    <t>'2021/11/18 13:28:24</t>
+  </si>
+  <si>
+    <t>'2021/11/18 13:29:14</t>
+  </si>
+  <si>
+    <t>'2021/11/18 13:34:38</t>
+  </si>
+  <si>
+    <t>'2021/11/18 13:35:32</t>
+  </si>
+  <si>
+    <t>'2021/11/18 13:36:26</t>
   </si>
 </sst>
 </file>
@@ -979,10 +997,10 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
         <v>73</v>
@@ -1008,10 +1026,10 @@
         <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
         <v>73</v>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:801_{A0DEB77E-1438-435D-BD6D-30D8F13B3089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AA5352EC-1E7B-4C4F-82F2-146D7C46461D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
   <si>
     <t>Application_Name</t>
   </si>
@@ -240,9 +240,6 @@
     <t>https://navtest01.fiservse.net/nav_nav1151/nav1151.aspx</t>
   </si>
   <si>
-    <t>PREMIER_TC001</t>
-  </si>
-  <si>
     <t>Launch and login to application.Capture customer details</t>
   </si>
   <si>
@@ -252,12 +249,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>'2021/11/08 20:41:18</t>
-  </si>
-  <si>
-    <t>'2021/11/08 20:42:20</t>
-  </si>
-  <si>
     <t>EPP_TC005</t>
   </si>
   <si>
@@ -312,39 +303,12 @@
     <t>'2021/11/17 22:19:06</t>
   </si>
   <si>
-    <t>'2021/11/17 22:19:56</t>
-  </si>
-  <si>
-    <t>'2021/11/17 22:20:43</t>
-  </si>
-  <si>
     <t>'2021/11/17 22:21:20</t>
   </si>
   <si>
     <t>'2021/11/17 22:21:58</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>'2021/11/17 22:27:44</t>
-  </si>
-  <si>
-    <t>'2021/11/17 22:28:31</t>
-  </si>
-  <si>
-    <t>'2021/11/17 22:29:17</t>
-  </si>
-  <si>
-    <t>'2021/11/18 13:27:13</t>
-  </si>
-  <si>
-    <t>'2021/11/18 13:28:24</t>
-  </si>
-  <si>
-    <t>'2021/11/18 13:29:14</t>
-  </si>
-  <si>
     <t>'2021/11/18 13:34:38</t>
   </si>
   <si>
@@ -352,13 +316,150 @@
   </si>
   <si>
     <t>'2021/11/18 13:36:26</t>
+  </si>
+  <si>
+    <t>PREMIER_POC</t>
+  </si>
+  <si>
+    <t>Premier_TC001</t>
+  </si>
+  <si>
+    <t>Premier_TC002</t>
+  </si>
+  <si>
+    <t>Premier_TC003</t>
+  </si>
+  <si>
+    <t>Premier_TC004</t>
+  </si>
+  <si>
+    <t>Premier_TC005</t>
+  </si>
+  <si>
+    <t>Premier_TC006</t>
+  </si>
+  <si>
+    <t>Premier_TC007</t>
+  </si>
+  <si>
+    <t>Premier_TC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a individual customer+ without withholding + add relationship whose is control person only +add address+ add contact </t>
+  </si>
+  <si>
+    <t>Create a individual customer + without withholding+ add relationship whose is control person and beneficiary +add address+ add contact + customer inquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a individual customer + without withholding+ add two relationship, one as control person and- another as beneficiary +add address+ add contact </t>
+  </si>
+  <si>
+    <t>Create a individual customer + with withholding+ add relationship whose is control person and beneficiary +add address+ add contact + customer inquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a business customer+ without withholding + add relationship whose is control person only+add address+ add contact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a business customer + without withholding+ add two relationship, one as control person and- another as beneficiary+add address+ add contact </t>
+  </si>
+  <si>
+    <t>FARK7SF</t>
+  </si>
+  <si>
+    <t>Create a business customer + with withholding+ add relationship whose is control person and beneficiary+add address+ add contact + customer inquiry</t>
+  </si>
+  <si>
+    <t>Create a business customer + without withholding+ add relationship whose is control person and beneficiary + add address+ add contact + customer inquiry</t>
+  </si>
+  <si>
+    <t>'2021/11/18 21:22:14</t>
+  </si>
+  <si>
+    <t>'2021/11/18 21:23:20</t>
+  </si>
+  <si>
+    <t>'2021/11/22 18:09:14</t>
+  </si>
+  <si>
+    <t>'2021/11/22 18:10:22</t>
+  </si>
+  <si>
+    <t>'2021/11/22 18:18:48</t>
+  </si>
+  <si>
+    <t>'2021/11/22 18:19:53</t>
+  </si>
+  <si>
+    <t>Premier_TC009</t>
+  </si>
+  <si>
+    <t>Premier_TC010</t>
+  </si>
+  <si>
+    <t>Premier_TC011</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>Premier_TC012</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>Premier_TC013</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>Premier_TC014</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>Premier_TC015</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Premier_TC016</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC9 - Update Customer</t>
+  </si>
+  <si>
+    <t>TC10 - Update Customer</t>
+  </si>
+  <si>
+    <t>TC11 - Update Customer</t>
+  </si>
+  <si>
+    <t>TC12 - Portfolio Creation</t>
+  </si>
+  <si>
+    <t>TC13 - Portfolio Creation</t>
+  </si>
+  <si>
+    <t>TC14 - Portfolio Creation</t>
+  </si>
+  <si>
+    <t>TC15 - Portfolio Creation</t>
+  </si>
+  <si>
+    <t>TC16 - Portfolio Creation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -829,15 +930,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -870,7 +971,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -898,7 +999,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -922,21 +1023,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -994,16 +1095,16 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
         <v>72</v>
-      </c>
-      <c r="I2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1023,16 +1124,16 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" t="s">
         <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1052,16 +1153,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
         <v>72</v>
-      </c>
-      <c r="I4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1081,16 +1182,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
-      </c>
-      <c r="I5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1313,14 +1414,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1419,7 +1520,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1428,77 +1529,77 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1508,24 +1609,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="53.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1568,31 +1669,281 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
-        <v>73</v>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{269DD782-E083-495D-ACF2-79195DE91070}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="157">
   <si>
     <t>Application_Name</t>
   </si>
@@ -297,9 +297,6 @@
     <t>TC010</t>
   </si>
   <si>
-    <t>Create a Manual Payment with Over limit Amount</t>
-  </si>
-  <si>
     <t>'2021/11/17 22:19:06</t>
   </si>
   <si>
@@ -454,6 +451,54 @@
   </si>
   <si>
     <t>TC16 - Portfolio Creation</t>
+  </si>
+  <si>
+    <t>Create a Manual Payment with Over limit Payment-Business Filter and Approve Action</t>
+  </si>
+  <si>
+    <t>EPP_TC011</t>
+  </si>
+  <si>
+    <t>Create a Manual Payment with Over limit Payment-Business Filter and Cancel Action</t>
+  </si>
+  <si>
+    <t>EPP_TC012</t>
+  </si>
+  <si>
+    <t>Create a Manual Payment with Over limit Payment-Internal Filter and Approve Action</t>
+  </si>
+  <si>
+    <t>EPP_TC013</t>
+  </si>
+  <si>
+    <t>Create a Manual Payment with Over limit Payment-Internal Filter and Cancel Action</t>
+  </si>
+  <si>
+    <t>EPP_TC014</t>
+  </si>
+  <si>
+    <t>Verify that Outgoing transaction failed due to Internal filter can be released from the Internal filter pool</t>
+  </si>
+  <si>
+    <t>EPP_TC015</t>
+  </si>
+  <si>
+    <t>Verify that Outgoing transaction failed due to Internal filter can be cancelled from the Internal filter pool</t>
+  </si>
+  <si>
+    <t>EPP_TC016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Outgoing transaction sent to notification pool due to Business intervention can be released from the pool </t>
+  </si>
+  <si>
+    <t>EPP_TC017</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>Verify recall and return of an Outgoing CT file</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1143,10 @@
         <v>71</v>
       </c>
       <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
         <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
       </c>
       <c r="K2" t="s">
         <v>72</v>
@@ -1127,10 +1172,10 @@
         <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>72</v>
@@ -1156,10 +1201,10 @@
         <v>71</v>
       </c>
       <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
         <v>90</v>
-      </c>
-      <c r="J4" t="s">
-        <v>91</v>
       </c>
       <c r="K4" t="s">
         <v>72</v>
@@ -1185,10 +1230,10 @@
         <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
         <v>72</v>
@@ -1406,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,13 +1638,111 @@
         <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1611,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1812,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1681,13 +1824,13 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" t="s">
         <v>118</v>
-      </c>
-      <c r="J2" t="s">
-        <v>119</v>
       </c>
       <c r="K2" t="s">
         <v>72</v>
@@ -1695,7 +1838,7 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1704,16 +1847,16 @@
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
         <v>114</v>
-      </c>
-      <c r="J3" t="s">
-        <v>115</v>
       </c>
       <c r="K3" t="s">
         <v>72</v>
@@ -1721,7 +1864,7 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1730,16 +1873,16 @@
         <v>22</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
         <v>116</v>
-      </c>
-      <c r="J4" t="s">
-        <v>117</v>
       </c>
       <c r="K4" t="s">
         <v>72</v>
@@ -1747,7 +1890,7 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1756,12 +1899,12 @@
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1770,12 +1913,12 @@
         <v>29</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1784,12 +1927,12 @@
         <v>30</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1798,12 +1941,12 @@
         <v>76</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1812,12 +1955,12 @@
         <v>79</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1826,12 +1969,12 @@
         <v>82</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1840,12 +1983,12 @@
         <v>85</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1854,91 +1997,91 @@
         <v>88</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
         <v>122</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>123</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>125</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
         <v>126</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>128</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>129</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>130</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>131</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>132</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{269DD782-E083-495D-ACF2-79195DE91070}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -1453,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F03119-CD44-4A77-A268-4A5F53D9026A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="144">
   <si>
     <t>Application_Name</t>
   </si>
@@ -441,19 +441,30 @@
     <t>TC11 - Update Customer</t>
   </si>
   <si>
-    <t>TC12 - Portfolio Creation</t>
-  </si>
-  <si>
-    <t>TC13 - Portfolio Creation</t>
-  </si>
-  <si>
-    <t>TC14 - Portfolio Creation</t>
-  </si>
-  <si>
-    <t>TC15 - Portfolio Creation</t>
-  </si>
-  <si>
-    <t>TC16 - Portfolio Creation</t>
+    <t>Create new Portfolio for Business Customer
+Create Business customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact)+go to portfolio+create new portfolio+search for created customer and add it to name+create portfolio for business</t>
+  </si>
+  <si>
+    <t>Create new Portfolio for individual Customer
+Create individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact)+go to portfolio+create new portfolio+enter name/taxcode/taxnumber/dob in name search criteria+click next+select existing option on dulplicate page+click next+create portfolio for individual</t>
+  </si>
+  <si>
+    <t>Create new Portfolio using name and Address - More than three names
+Create 4 customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact)+go to portfolio+create new portfolio+search for created customers and add it to name+create portfolio for same</t>
+  </si>
+  <si>
+    <t>Create new Portfolio while adding a new customer along with it  (business)
+enter name/taxcode/taxnumber/dob in name search criteria+add address+click next+select new option on dulplicate page+create portfolio for same</t>
+  </si>
+  <si>
+    <t>Create new Portfolio while adding a new customer more than 3 along with it(individual)
+enter name/taxcode/taxnumber/dob in name search criteria for more than 3 customers +add address+click next+select new option on dulplicate page+create portfolio for same</t>
+  </si>
+  <si>
+    <t>'2021/11/24 20:40:03</t>
+  </si>
+  <si>
+    <t>'2021/11/24 20:44:20</t>
   </si>
 </sst>
 </file>
@@ -1611,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1632,7 @@
     <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="77.28515625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1834,7 +1845,7 @@
         <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>85</v>
@@ -1871,7 +1882,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -1885,7 +1896,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -1898,8 +1909,20 @@
       <c r="F15" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -1913,7 +1936,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -1927,12 +1950,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>133</v>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{269DD782-E083-495D-ACF2-79195DE91070}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{70D978DF-5214-4BDC-9D52-942C79FC893E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="165">
   <si>
     <t>Application_Name</t>
   </si>
@@ -429,12 +429,6 @@
     <t>TC016</t>
   </si>
   <si>
-    <t>TC9 - Update Customer</t>
-  </si>
-  <si>
-    <t>TC10 - Update Customer</t>
-  </si>
-  <si>
     <t>TC11 - Update Customer</t>
   </si>
   <si>
@@ -499,12 +493,43 @@
   </si>
   <si>
     <t>Verify recall and return of an Outgoing CT file</t>
+  </si>
+  <si>
+    <t>Create a individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+modify last name/phone number(add multiple)/email address(add multiple)/add a new beneficiary(add multiple)</t>
+  </si>
+  <si>
+    <t>Create a business customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+ change last name/add a phone number/add a email address/remove a  beneficiary</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>'2021/11/26 19:37:47</t>
+  </si>
+  <si>
+    <t>'2021/11/26 19:43:56</t>
+  </si>
+  <si>
+    <t>'2021/11/26 21:54:27</t>
+  </si>
+  <si>
+    <t>'2021/11/26 21:58:27</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2021/11/26 22:04:02</t>
+  </si>
+  <si>
+    <t>'2021/11/26 22:07:02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -659,12 +684,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,6 +730,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -980,10 +1023,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1074,15 +1117,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1459,14 +1502,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1644,12 +1687,12 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -1658,12 +1701,12 @@
         <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1672,12 +1715,12 @@
         <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1686,12 +1729,12 @@
         <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1700,12 +1743,12 @@
         <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1714,12 +1757,12 @@
         <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1728,21 +1771,21 @@
         <v>132</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1754,22 +1797,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1972,32 +2015,56 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>134</v>
+      <c r="F12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2011,7 +2078,7 @@
         <v>122</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2025,7 +2092,7 @@
         <v>124</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2039,7 +2106,7 @@
         <v>126</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2053,7 +2120,7 @@
         <v>128</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,7 +2134,7 @@
         <v>130</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,7 +2148,7 @@
         <v>132</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{70D978DF-5214-4BDC-9D52-942C79FC893E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7854ED11-C6A0-40E7-A04B-873F85C2D56A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,26 @@
     <sheet name="EPP" sheetId="5" r:id="rId3"/>
     <sheet name="Premier" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="170">
   <si>
     <t>Application_Name</t>
   </si>
@@ -363,12 +372,6 @@
     <t>FARK7SF</t>
   </si>
   <si>
-    <t>Create a business customer + with withholding+ add relationship whose is control person and beneficiary+add address+ add contact + customer inquiry</t>
-  </si>
-  <si>
-    <t>Create a business customer + without withholding+ add relationship whose is control person and beneficiary + add address+ add contact + customer inquiry</t>
-  </si>
-  <si>
     <t>'2021/11/18 21:22:14</t>
   </si>
   <si>
@@ -429,24 +432,6 @@
     <t>TC016</t>
   </si>
   <si>
-    <t>TC11 - Update Customer</t>
-  </si>
-  <si>
-    <t>TC12 - Portfolio Creation</t>
-  </si>
-  <si>
-    <t>TC13 - Portfolio Creation</t>
-  </si>
-  <si>
-    <t>TC14 - Portfolio Creation</t>
-  </si>
-  <si>
-    <t>TC15 - Portfolio Creation</t>
-  </si>
-  <si>
-    <t>TC16 - Portfolio Creation</t>
-  </si>
-  <si>
     <t>Create a Manual Payment with Over limit Payment-Business Filter and Approve Action</t>
   </si>
   <si>
@@ -495,41 +480,89 @@
     <t>Verify recall and return of an Outgoing CT file</t>
   </si>
   <si>
-    <t>Create a individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+modify last name/phone number(add multiple)/email address(add multiple)/add a new beneficiary(add multiple)</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>'2021/11/26 21:54:27</t>
+  </si>
+  <si>
+    <t>'2021/11/26 21:58:27</t>
+  </si>
+  <si>
+    <t>'2021/11/26 22:04:02</t>
+  </si>
+  <si>
+    <t>'2021/11/26 22:07:02</t>
+  </si>
+  <si>
+    <t>Create a individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+modify last name/phone number/email address/add a new beneficiary</t>
+  </si>
+  <si>
+    <t>Create a individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+modify phone number(add multiple)/email address(add multiple)/add a new beneficiary(add multiple)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a business customer + without withholding+ add relationship whose is control person and beneficiary+add address+ add contact </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a business customer + with withholding+ add relationship whose is control person and beneficiary+add address+ add contact </t>
+  </si>
+  <si>
+    <t>Create a multiple customers</t>
   </si>
   <si>
     <t>Create a business customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+ change last name/add a phone number/add a email address/remove a  beneficiary</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>'2021/11/26 19:37:47</t>
-  </si>
-  <si>
-    <t>'2021/11/26 19:43:56</t>
-  </si>
-  <si>
-    <t>'2021/11/26 21:54:27</t>
-  </si>
-  <si>
-    <t>'2021/11/26 21:58:27</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>'2021/11/26 22:04:02</t>
-  </si>
-  <si>
-    <t>'2021/11/26 22:07:02</t>
+    <t>Create a individual customer( without withholding + add relationship whose is control person only +add address)+ Change Address(On Change Address -&gt; Address Page:
+• Click on .Address to modify mailing, physical, and seasonal address information
+1. Mailing section: Click on following fields to update:
+Address 1, Address 2, City State Zip, Foreign, Handling Code Option, Delivery Point, Handling Code, Branch Region, Responsibility Code, Accounting Branch, Referral Responsibility Code, Census Tract, Address Retention Code, MSA Code, Creation Date, Country Code
+2. Physical address
+3. Seasonal address information section consist of: Address 1, Address 2, City State ZIP, Foreign, MSA code, From Date, Country date, Through Date, Handling Code Option, Delivery Point, Handling Code, Census Tract and Home Phone number.)</t>
+  </si>
+  <si>
+    <t>Create new Portfolio for Business Customer
+Create Business customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact)+go to portfolio+create new portfolio+search for created customer and add it to name+create portfolio for business</t>
+  </si>
+  <si>
+    <t>Create new Portfolio for individual Customer
+Create individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact)+go to portfolio+create new portfolio+enter name/taxcode/taxnumber/dob in name search criteria+click next+select existing option on dulplicate page+click next+create portfolio for individual</t>
+  </si>
+  <si>
+    <t>Create new Portfolio using name and Address - More than three names
+Create 4 customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact)+go to portfolio+create new portfolio+search for created customers and add it to name+create portfolio for same</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create new Portfolio while adding a new customer along with it  (business)
+enter name/taxcode/taxnumber/dob in name search criteria+add address+click next+select new option on dulplicate page+create portfolio for same</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create new Portfolio while adding a new customer more than 3 along with it(individual)
+enter name/taxcode/taxnumber/dob in name search criteria for more than 3 customers +add address+click next+select new option on dulplicate page+create portfolio for same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create portfolio with existing customer </t>
+  </si>
+  <si>
+    <t>Update existing portfolio branch region/ responsibility code and relationship type/add customer</t>
+  </si>
+  <si>
+    <t>Premier_TC017</t>
+  </si>
+  <si>
+    <t>Premier_TC018</t>
+  </si>
+  <si>
+    <t>Premier_TC019</t>
+  </si>
+  <si>
+    <t>Premier_TC020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,8 +607,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -699,12 +738,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,6 +786,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1023,10 +1088,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1117,15 +1182,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1502,14 +1567,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1687,105 +1752,105 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1795,58 +1860,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L1" t="s">
@@ -1854,302 +1919,453 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
+      <c r="I2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="K2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" t="s">
-        <v>114</v>
+      <c r="I3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="K3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" t="s">
-        <v>116</v>
+      <c r="I4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="K4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>106</v>
       </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>107</v>
       </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="F8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I11" t="s">
-        <v>160</v>
-      </c>
-      <c r="J11" t="s">
-        <v>161</v>
+      <c r="I11" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="K11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="F13" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="J12" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="K12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{4F30ED4D-2080-4198-AE1C-FBE57AB9BE8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7854ED11-C6A0-40E7-A04B-873F85C2D56A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299391E0-8BE4-4C8C-BE58-65CA9E77E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="170">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1862,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,7 +2159,7 @@
         <v>118</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2307,7 +2307,9 @@
       <c r="A19" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -2323,7 +2325,9 @@
       <c r="A20" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2339,7 +2343,9 @@
       <c r="A21" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2355,7 +2361,9 @@
       <c r="A22" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299391E0-8BE4-4C8C-BE58-65CA9E77E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{299391E0-8BE4-4C8C-BE58-65CA9E77E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C8CCF22E-6311-48EB-9D5F-810589C1DC3A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="175">
   <si>
     <t>Application_Name</t>
   </si>
@@ -558,11 +558,27 @@
   <si>
     <t>Premier_TC020</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2021/12/06 21:01:29</t>
+  </si>
+  <si>
+    <t>'2021/12/06 21:21:27</t>
+  </si>
+  <si>
+    <t>'2021/12/07 10:54:15</t>
+  </si>
+  <si>
+    <t>'2021/12/07 11:09:11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1088,10 +1104,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1182,15 +1198,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1567,14 +1583,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1862,22 +1878,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2130,7 +2146,7 @@
         <v>117</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2141,17 +2157,17 @@
         <v>156</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="H11" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>149</v>
+      <c r="I11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11" t="s">
+        <v>174</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2362,7 +2378,7 @@
         <v>169</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{299391E0-8BE4-4C8C-BE58-65CA9E77E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C8CCF22E-6311-48EB-9D5F-810589C1DC3A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{299391E0-8BE4-4C8C-BE58-65CA9E77E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08B36E56-7D55-47CC-BA1F-B4BF7603A803}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="186">
   <si>
     <t>Application_Name</t>
   </si>
@@ -481,12 +481,6 @@
   </si>
   <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>'2021/11/26 21:54:27</t>
-  </si>
-  <si>
-    <t>'2021/11/26 21:58:27</t>
   </si>
   <si>
     <t>'2021/11/26 22:04:02</t>
@@ -559,26 +553,74 @@
     <t>Premier_TC020</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>'2021/12/06 21:01:29</t>
-  </si>
-  <si>
-    <t>'2021/12/06 21:21:27</t>
-  </si>
-  <si>
     <t>'2021/12/07 10:54:15</t>
   </si>
   <si>
     <t>'2021/12/07 11:09:11</t>
+  </si>
+  <si>
+    <t>Premier_TC021</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Create a Saving Account for individual customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Saving account+account inquiry</t>
+  </si>
+  <si>
+    <t>'2021/12/03 15:25:41</t>
+  </si>
+  <si>
+    <t>'2021/12/03 15:27:07</t>
+  </si>
+  <si>
+    <t>Premier_TC022</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>Create a Saving Account for business customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Saving account+account inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC023</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>Create a Saving Account for individual customers(Search Customer)
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Saving account+account inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC024</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  DDA account+account inquiry
+if account does not exist create DDA account </t>
+  </si>
+  <si>
+    <t>'2021/12/03 20:40:10</t>
+  </si>
+  <si>
+    <t>'2021/12/03 20:42:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1104,10 +1146,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1198,15 +1240,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1583,14 +1625,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1876,24 +1918,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2094,7 +2136,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -2134,7 +2176,7 @@
         <v>82</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -2154,17 +2196,17 @@
         <v>85</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" t="s">
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
         <v>147</v>
@@ -2183,17 +2225,17 @@
         <v>88</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
         <v>147</v>
@@ -2212,7 +2254,7 @@
         <v>120</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2232,7 +2274,7 @@
         <v>122</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -2252,7 +2294,7 @@
         <v>124</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2272,14 +2314,14 @@
         <v>126</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>127</v>
       </c>
@@ -2292,14 +2334,14 @@
         <v>128</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
@@ -2312,16 +2354,16 @@
         <v>130</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>6</v>
@@ -2330,16 +2372,16 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>6</v>
@@ -2348,16 +2390,16 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>6</v>
@@ -2366,16 +2408,16 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>6</v>
@@ -2384,12 +2426,112 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299391E0-8BE4-4C8C-BE58-65CA9E77E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E0637C-E972-4493-B645-0950A716D8B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="193">
   <si>
     <t>Application_Name</t>
   </si>
@@ -557,6 +557,85 @@
   </si>
   <si>
     <t>Premier_TC020</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>'2021/12/03 11:59:27</t>
+  </si>
+  <si>
+    <t>'2021/12/03 12:02:01</t>
+  </si>
+  <si>
+    <t>Premier_TC021</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Create a Saving Account for individual customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Saving account+account inquiry</t>
+  </si>
+  <si>
+    <t>'2021/12/03 15:25:41</t>
+  </si>
+  <si>
+    <t>'2021/12/03 15:27:07</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>Premier_TC022</t>
+  </si>
+  <si>
+    <t>Premier_TC023</t>
+  </si>
+  <si>
+    <t>Create a Saving Account for business customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Saving account+account inquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  DDA account+account inquiry
+if account does not exist create DDA account </t>
+  </si>
+  <si>
+    <t>'2021/12/03 20:40:10</t>
+  </si>
+  <si>
+    <t>'2021/12/03 20:42:00</t>
+  </si>
+  <si>
+    <t>Premier_TC024</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>Create a Saving Account for individual customers(Search Customer)
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Saving account+account inquiry</t>
+  </si>
+  <si>
+    <t>'2021/12/07 16:32:11</t>
+  </si>
+  <si>
+    <t>'2021/12/07 16:33:17</t>
   </si>
 </sst>
 </file>
@@ -614,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -751,12 +830,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,6 +891,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1860,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,11 +2355,20 @@
         <v>159</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>191</v>
+      </c>
+      <c r="J16" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>127</v>
       </c>
@@ -2283,7 +2388,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
@@ -2303,7 +2408,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>166</v>
       </c>
@@ -2312,7 +2417,9 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>145</v>
+      </c>
       <c r="F19" s="11" t="s">
         <v>162</v>
       </c>
@@ -2321,7 +2428,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>167</v>
       </c>
@@ -2330,16 +2437,27 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="F20" s="11" t="s">
         <v>163</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>168</v>
       </c>
@@ -2348,7 +2466,9 @@
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>171</v>
+      </c>
       <c r="F21" s="11" t="s">
         <v>164</v>
       </c>
@@ -2357,23 +2477,125 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{299391E0-8BE4-4C8C-BE58-65CA9E77E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08B36E56-7D55-47CC-BA1F-B4BF7603A803}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECE7A6B-BD6E-47FD-A3C9-1F7CC335A799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="189">
   <si>
     <t>Application_Name</t>
   </si>
@@ -378,12 +378,6 @@
     <t>'2021/11/18 21:23:20</t>
   </si>
   <si>
-    <t>'2021/11/22 18:09:14</t>
-  </si>
-  <si>
-    <t>'2021/11/22 18:10:22</t>
-  </si>
-  <si>
     <t>'2021/11/22 18:18:48</t>
   </si>
   <si>
@@ -505,14 +499,6 @@
   </si>
   <si>
     <t>Create a business customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+ change last name/add a phone number/add a email address/remove a  beneficiary</t>
-  </si>
-  <si>
-    <t>Create a individual customer( without withholding + add relationship whose is control person only +add address)+ Change Address(On Change Address -&gt; Address Page:
-• Click on .Address to modify mailing, physical, and seasonal address information
-1. Mailing section: Click on following fields to update:
-Address 1, Address 2, City State Zip, Foreign, Handling Code Option, Delivery Point, Handling Code, Branch Region, Responsibility Code, Accounting Branch, Referral Responsibility Code, Census Tract, Address Retention Code, MSA Code, Creation Date, Country Code
-2. Physical address
-3. Seasonal address information section consist of: Address 1, Address 2, City State ZIP, Foreign, MSA code, From Date, Country date, Through Date, Handling Code Option, Delivery Point, Handling Code, Census Tract and Home Phone number.)</t>
   </si>
   <si>
     <t>Create new Portfolio for Business Customer
@@ -615,12 +601,31 @@
   </si>
   <si>
     <t>'2021/12/03 20:42:00</t>
+  </si>
+  <si>
+    <t>Update Customer Address</t>
+  </si>
+  <si>
+    <t>'2021/12/10 13:19:37</t>
+  </si>
+  <si>
+    <t>'2021/12/10 13:28:01</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2021/12/10 14:31:56</t>
+  </si>
+  <si>
+    <t>'2021/12/10 14:36:46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1146,10 +1151,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1240,15 +1245,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1625,14 +1630,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1810,105 +1815,105 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1920,22 +1925,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1996,10 +2001,10 @@
         <v>110</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
         <v>72</v>
@@ -2050,17 +2055,17 @@
         <v>105</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>114</v>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" t="s">
+        <v>185</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2136,7 +2141,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -2176,7 +2181,7 @@
         <v>82</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -2185,10 +2190,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2196,28 +2201,28 @@
         <v>85</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" t="s">
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2225,25 +2230,25 @@
         <v>88</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>149</v>
+      <c r="I12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" t="s">
+        <v>188</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>6</v>
@@ -2251,10 +2256,10 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2263,7 +2268,7 @@
     </row>
     <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>6</v>
@@ -2271,19 +2276,19 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>6</v>
@@ -2291,10 +2296,10 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2303,7 +2308,7 @@
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>6</v>
@@ -2311,10 +2316,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -2323,7 +2328,7 @@
     </row>
     <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>6</v>
@@ -2331,10 +2336,10 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2343,7 +2348,7 @@
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>6</v>
@@ -2351,10 +2356,10 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2363,7 +2368,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>6</v>
@@ -2372,7 +2377,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -2381,7 +2386,7 @@
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>6</v>
@@ -2390,7 +2395,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -2399,7 +2404,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>6</v>
@@ -2408,7 +2413,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -2417,7 +2422,7 @@
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>6</v>
@@ -2426,7 +2431,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -2435,7 +2440,7 @@
     </row>
     <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>6</v>
@@ -2443,20 +2448,20 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
         <v>110</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>72</v>
@@ -2464,7 +2469,7 @@
     </row>
     <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>6</v>
@@ -2472,10 +2477,10 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -2485,18 +2490,18 @@
     </row>
     <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2506,7 +2511,7 @@
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>6</v>
@@ -2514,20 +2519,20 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="s">
         <v>110</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>72</v>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{299391E0-8BE4-4C8C-BE58-65CA9E77E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{08B36E56-7D55-47CC-BA1F-B4BF7603A803}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501BC71B-20F2-4D2F-8CFE-B2202B1CE827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="227">
   <si>
     <t>Application_Name</t>
   </si>
@@ -616,11 +616,164 @@
   <si>
     <t>'2021/12/03 20:42:00</t>
   </si>
+  <si>
+    <t>Premier_TC025</t>
+  </si>
+  <si>
+    <t>Premier_TC026</t>
+  </si>
+  <si>
+    <t>Premier_TC027</t>
+  </si>
+  <si>
+    <t>Premier_TC028</t>
+  </si>
+  <si>
+    <t>Premier_TC029</t>
+  </si>
+  <si>
+    <t>Premier_TC030</t>
+  </si>
+  <si>
+    <t>Premier_TC031</t>
+  </si>
+  <si>
+    <t>Premier_TC032</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>Create a Demand Deposit Account for individual customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Demand Deposit account+account inquiry</t>
+  </si>
+  <si>
+    <t>Create a Demand Deposit Account for business customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Demand Deposit account+account inquiry</t>
+  </si>
+  <si>
+    <t>Create a Demand Deposit Account for individual customers(Search Customer)
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Demand Deposit account+account inquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  Saving account+account inquiry
+if account does not exist create Saving account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  Certificate  account+account inquiry
+if account does not exist create Certificate  account </t>
+  </si>
+  <si>
+    <t>Create a Certificate  Account for individual customers(Search Customer)
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Certificate  account+account inquiry</t>
+  </si>
+  <si>
+    <t>Create a Certificate  Account for individual customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Certificate  account+account inquiry</t>
+  </si>
+  <si>
+    <t>Create a Certificate  Account for business customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Certificate  account+account inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC033</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>'2021/12/10 15:10:22</t>
+  </si>
+  <si>
+    <t>'2021/12/10 15:12:44</t>
+  </si>
+  <si>
+    <t>Premier_TC034</t>
+  </si>
+  <si>
+    <t>Premier_TC035</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>Create a Loan Account for individual customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Loan account+Loan inquiry</t>
+  </si>
+  <si>
+    <t>Create a Loan Account for business customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Loan account+Loan inquiry</t>
+  </si>
+  <si>
+    <t>Create a Loan Account for individual customers(search)
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Loan account+Loan inquiry</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2021/12/10 15:52:31</t>
+  </si>
+  <si>
+    <t>'2021/12/10 15:55:41</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1146,10 +1299,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1240,15 +1393,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1625,14 +1778,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1918,24 +2071,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2188,7 +2341,7 @@
         <v>117</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2370,7 +2523,9 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>145</v>
+      </c>
       <c r="F19" s="11" t="s">
         <v>160</v>
       </c>
@@ -2388,7 +2543,9 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>194</v>
+      </c>
       <c r="F20" s="11" t="s">
         <v>161</v>
       </c>
@@ -2406,7 +2563,9 @@
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="F21" s="11" t="s">
         <v>162</v>
       </c>
@@ -2424,7 +2583,9 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15" t="s">
+        <v>196</v>
+      </c>
       <c r="F22" s="11" t="s">
         <v>163</v>
       </c>
@@ -2446,7 +2607,7 @@
         <v>171</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
@@ -2475,7 +2636,7 @@
         <v>176</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -2488,7 +2649,7 @@
         <v>178</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2496,7 +2657,7 @@
         <v>179</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2530,6 +2691,253 @@
         <v>185</v>
       </c>
       <c r="K26" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" t="s">
         <v>72</v>
       </c>
     </row>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECE7A6B-BD6E-47FD-A3C9-1F7CC335A799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9AAB88-D216-49EC-8687-A22151A1A3A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="216">
   <si>
     <t>Application_Name</t>
   </si>
@@ -475,12 +475,6 @@
   </si>
   <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>'2021/11/26 22:04:02</t>
-  </si>
-  <si>
-    <t>'2021/11/26 22:07:02</t>
   </si>
   <si>
     <t>Create a individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+modify last name/phone number/email address/add a new beneficiary</t>
@@ -612,20 +606,126 @@
     <t>'2021/12/10 13:28:01</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>'2021/12/10 14:31:56</t>
   </si>
   <si>
     <t>'2021/12/10 14:36:46</t>
+  </si>
+  <si>
+    <t>Premier_TC025</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>Premier_TC026</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>Premier_TC027</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>Premier_TC028</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  Saving account+account inquiry
+if account does not exist create Saving account </t>
+  </si>
+  <si>
+    <t>Premier_TC029</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>Create a Certificate  Account for individual customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Certificate  account+account inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC030</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>Create a Certificate  Account for business customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Certificate  account+account inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC031</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>Create a Certificate  Account for individual customers(Search Customer)
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Certificate  account+account inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC032</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  Certificate  account+account inquiry
+if account does not exist create Certificate  account </t>
+  </si>
+  <si>
+    <t>Premier_TC033</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>Create a Loan Account for individual customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Loan account+Loan inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC034</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>Create a Loan Account for business customers
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Loan account+Loan inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC035</t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>Create a Loan Account for individual customers(search)
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Loan account+Loan inquiry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1151,10 +1251,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1245,15 +1345,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1630,14 +1730,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1923,24 +2023,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2059,10 +2159,10 @@
         <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K4" t="s">
         <v>145</v>
@@ -2141,7 +2241,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -2181,7 +2281,7 @@
         <v>82</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -2201,17 +2301,17 @@
         <v>85</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" t="s">
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K11" t="s">
         <v>145</v>
@@ -2230,17 +2330,17 @@
         <v>88</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" t="s">
         <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K12" t="s">
         <v>145</v>
@@ -2259,7 +2359,7 @@
         <v>118</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2279,7 +2379,7 @@
         <v>120</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -2299,7 +2399,7 @@
         <v>122</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2319,7 +2419,7 @@
         <v>124</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -2339,7 +2439,7 @@
         <v>126</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2359,7 +2459,7 @@
         <v>128</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2368,7 +2468,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>6</v>
@@ -2377,7 +2477,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -2386,7 +2486,7 @@
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>6</v>
@@ -2395,7 +2495,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -2404,7 +2504,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>6</v>
@@ -2413,7 +2513,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -2422,7 +2522,7 @@
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>6</v>
@@ -2431,7 +2531,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -2440,7 +2540,7 @@
     </row>
     <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>6</v>
@@ -2448,20 +2548,20 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
         <v>110</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>72</v>
@@ -2469,7 +2569,7 @@
     </row>
     <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>6</v>
@@ -2477,10 +2577,10 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -2490,7 +2590,7 @@
     </row>
     <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>6</v>
@@ -2498,10 +2598,10 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -2511,7 +2611,7 @@
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>6</v>
@@ -2519,24 +2619,255 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="s">
         <v>110</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+    </row>
+    <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+    </row>
+    <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9AAB88-D216-49EC-8687-A22151A1A3A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C06560-5496-40ED-A557-C369130150DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="230">
   <si>
     <t>Application_Name</t>
   </si>
@@ -720,13 +720,56 @@
 Search existing porfolio number
 if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
 +Create Loan account+Loan inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC044</t>
+  </si>
+  <si>
+    <t>Premier_TC045</t>
+  </si>
+  <si>
+    <t>Premier_TC046</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>TC045</t>
+  </si>
+  <si>
+    <t>TC046</t>
+  </si>
+  <si>
+    <t>TC047</t>
+  </si>
+  <si>
+    <t>Premier_TC047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create and Inquire SDB Account for individual customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create and Inquire SDB Account for business customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create and Inquire SDB Account for individual customer(search functionality)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDB-SDB account maintenance update Codes+account inquiry
+if account does not exist create SDB account </t>
+  </si>
+  <si>
+    <t>'2021/12/17 19:54:21</t>
+  </si>
+  <si>
+    <t>'2021/12/17 19:56:23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +798,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -919,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,6 +1011,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2023,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,7 +2378,7 @@
         <v>116</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2853,7 +2909,7 @@
         <v>213</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -2868,6 +2924,98 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>228</v>
+      </c>
+      <c r="J41" t="s">
+        <v>229</v>
+      </c>
+      <c r="K41" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C06560-5496-40ED-A557-C369130150DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{18C06560-5496-40ED-A557-C369130150DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9EB16C1F-514C-4F62-844C-0F1BB706F8BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="363">
   <si>
     <t>Application_Name</t>
   </si>
@@ -587,10 +587,6 @@
     <t>TC024</t>
   </si>
   <si>
-    <t xml:space="preserve">Update  DDA account+account inquiry
-if account does not exist create DDA account </t>
-  </si>
-  <si>
     <t>'2021/12/03 20:40:10</t>
   </si>
   <si>
@@ -722,6 +718,109 @@
 +Create Loan account+Loan inquiry</t>
   </si>
   <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create and Inquire SDB Account for individual customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create and Inquire SDB Account for business customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create and Inquire SDB Account for individual customer(search functionality)</t>
+  </si>
+  <si>
+    <t>'2021/12/17 19:54:21</t>
+  </si>
+  <si>
+    <t>'2021/12/17 19:56:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  sdb account codes - payment+account inquiry
+if account does not exist create sdb account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  sdb account codes - codes+account inquiry
+if account does not exist create sdb account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  sdb account codes -status+account inquiry
+if account does not exist create sdb account </t>
+  </si>
+  <si>
+    <t>Premier_TC050</t>
+  </si>
+  <si>
+    <t>Premier_TC051</t>
+  </si>
+  <si>
+    <t>Premier_TC052</t>
+  </si>
+  <si>
+    <t>Premier_TC053</t>
+  </si>
+  <si>
+    <t>Premier_TC054</t>
+  </si>
+  <si>
+    <t>Premier_TC055</t>
+  </si>
+  <si>
+    <t>TC051</t>
+  </si>
+  <si>
+    <t>TC054</t>
+  </si>
+  <si>
+    <t>TC055</t>
+  </si>
+  <si>
+    <t>TC052</t>
+  </si>
+  <si>
+    <t>TC053</t>
+  </si>
+  <si>
+    <t>'2021/12/20 19:35:01</t>
+  </si>
+  <si>
+    <t>'2021/12/20 19:36:35</t>
+  </si>
+  <si>
+    <t>'2021/12/20 19:38:09</t>
+  </si>
+  <si>
+    <t>'2021/12/20 19:40:04</t>
+  </si>
+  <si>
+    <t>Update  DDA account warnings +account inquiry
+if account does not exist create DDA account</t>
+  </si>
+  <si>
+    <t>Premier_TC036</t>
+  </si>
+  <si>
+    <t>Premier_TC037</t>
+  </si>
+  <si>
+    <t>Premier_TC038</t>
+  </si>
+  <si>
+    <t>Premier_TC039</t>
+  </si>
+  <si>
+    <t>Premier_TC040</t>
+  </si>
+  <si>
+    <t>Premier_TC041</t>
+  </si>
+  <si>
+    <t>Premier_TC042</t>
+  </si>
+  <si>
+    <t>Premier_TC043</t>
+  </si>
+  <si>
     <t>Premier_TC044</t>
   </si>
   <si>
@@ -731,7 +830,37 @@
     <t>Premier_TC046</t>
   </si>
   <si>
-    <t>TC044</t>
+    <t>Premier_TC047</t>
+  </si>
+  <si>
+    <t>Premier_TC048</t>
+  </si>
+  <si>
+    <t>Premier_TC049</t>
+  </si>
+  <si>
+    <t>TC036</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>TC038</t>
+  </si>
+  <si>
+    <t>TC039</t>
+  </si>
+  <si>
+    <t>TC040</t>
+  </si>
+  <si>
+    <t>TC041</t>
+  </si>
+  <si>
+    <t>TC042</t>
+  </si>
+  <si>
+    <t>TC043</t>
   </si>
   <si>
     <t>TC045</t>
@@ -743,33 +872,346 @@
     <t>TC047</t>
   </si>
   <si>
-    <t>Premier_TC047</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create and Inquire SDB Account for individual customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create and Inquire SDB Account for business customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create and Inquire SDB Account for individual customer(search functionality)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDB-SDB account maintenance update Codes+account inquiry
-if account does not exist create SDB account </t>
-  </si>
-  <si>
-    <t>'2021/12/17 19:54:21</t>
-  </si>
-  <si>
-    <t>'2021/12/17 19:56:23</t>
+    <t>TC048</t>
+  </si>
+  <si>
+    <t>TC049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Codes+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Warnings+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Status+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Restriction+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Bankruptcy information+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Relationship(Add relationship)+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Relationship(Update relationship)+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Relationship(Remove relationship)+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Balances Non Accural information+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update balances- add existing Collateral account inquiry
+if account does not exist create Loan account and if collateral does not exist create collateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a real estate collateral for loan account
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a life insurance collateral for loan account
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a investment collateral for loan account
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a basic collateral for loan account
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t>TC050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  sdb account relationships -add new+account inquiry
+if account does not exist create sdb account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  sdb account relationships -update+account inquiry
+if account does not exist create sdb account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  sdb account relationships -remove+account inquiry
+if account does not exist create sdb account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance update Tickler+account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance update hold+account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance update overdrafts+account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance add new relationship+account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance update relationship+account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance remove relationship+account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance update status+account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance update codes-suspended+account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance update codes -statement notifications+account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance update Tickler+account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance update hold+account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance Savings add new relationship+account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance update relationship+account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance remove relationship+account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance update status+account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance update codes suspended+account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance update codes statement notification+account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance update Tickler+account inquiry
+if account does not exist create Certificates account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance update hold+account inquiry
+if account does not exist create Certificates account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance Certificates add new relationship+account inquiry
+if account does not exist create Certificates account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance update status+account inquiry
+if account does not exist create Certificates account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance update relationship+account inquiry
+if account does not exist create Certificates account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance remove relationship+account inquiry
+if account does not exist create Certificates account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance update codes - statement notiifcation +account inquiry
+if account does not exist create Certificates account </t>
+  </si>
+  <si>
+    <t>Premier_TC056</t>
+  </si>
+  <si>
+    <t>TC056</t>
+  </si>
+  <si>
+    <t>Premier_TC057</t>
+  </si>
+  <si>
+    <t>TC057</t>
+  </si>
+  <si>
+    <t>Premier_TC058</t>
+  </si>
+  <si>
+    <t>TC058</t>
+  </si>
+  <si>
+    <t>Premier_TC059</t>
+  </si>
+  <si>
+    <t>TC059</t>
+  </si>
+  <si>
+    <t>Premier_TC060</t>
+  </si>
+  <si>
+    <t>TC060</t>
+  </si>
+  <si>
+    <t>Premier_TC061</t>
+  </si>
+  <si>
+    <t>TC061</t>
+  </si>
+  <si>
+    <t>Premier_TC062</t>
+  </si>
+  <si>
+    <t>TC062</t>
+  </si>
+  <si>
+    <t>Premier_TC063</t>
+  </si>
+  <si>
+    <t>TC063</t>
+  </si>
+  <si>
+    <t>Premier_TC064</t>
+  </si>
+  <si>
+    <t>TC064</t>
+  </si>
+  <si>
+    <t>Premier_TC065</t>
+  </si>
+  <si>
+    <t>TC065</t>
+  </si>
+  <si>
+    <t>Premier_TC066</t>
+  </si>
+  <si>
+    <t>TC066</t>
+  </si>
+  <si>
+    <t>Premier_TC067</t>
+  </si>
+  <si>
+    <t>TC067</t>
+  </si>
+  <si>
+    <t>Premier_TC068</t>
+  </si>
+  <si>
+    <t>TC068</t>
+  </si>
+  <si>
+    <t>Premier_TC069</t>
+  </si>
+  <si>
+    <t>TC069</t>
+  </si>
+  <si>
+    <t>Premier_TC070</t>
+  </si>
+  <si>
+    <t>TC070</t>
+  </si>
+  <si>
+    <t>Premier_TC071</t>
+  </si>
+  <si>
+    <t>TC071</t>
+  </si>
+  <si>
+    <t>Premier_TC072</t>
+  </si>
+  <si>
+    <t>TC072</t>
+  </si>
+  <si>
+    <t>Premier_TC073</t>
+  </si>
+  <si>
+    <t>TC073</t>
+  </si>
+  <si>
+    <t>Premier_TC074</t>
+  </si>
+  <si>
+    <t>TC074</t>
+  </si>
+  <si>
+    <t>Premier_TC075</t>
+  </si>
+  <si>
+    <t>TC075</t>
+  </si>
+  <si>
+    <t>Premier_TC076</t>
+  </si>
+  <si>
+    <t>TC076</t>
+  </si>
+  <si>
+    <t>Premier_TC077</t>
+  </si>
+  <si>
+    <t>TC077</t>
+  </si>
+  <si>
+    <t>Premier_TC078</t>
+  </si>
+  <si>
+    <t>TC078</t>
+  </si>
+  <si>
+    <t>Premier_TC079</t>
+  </si>
+  <si>
+    <t>TC079</t>
+  </si>
+  <si>
+    <t>Premier_TC080</t>
+  </si>
+  <si>
+    <t>TC080</t>
+  </si>
+  <si>
+    <t>Premier_TC081</t>
+  </si>
+  <si>
+    <t>TC081</t>
+  </si>
+  <si>
+    <t>Premier_TC082</t>
+  </si>
+  <si>
+    <t>TC082</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +1246,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -968,7 +1417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1011,12 +1460,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2079,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,10 +2667,10 @@
         <v>71</v>
       </c>
       <c r="I4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" t="s">
         <v>182</v>
-      </c>
-      <c r="J4" t="s">
-        <v>183</v>
       </c>
       <c r="K4" t="s">
         <v>145</v>
@@ -2393,10 +2845,10 @@
         <v>71</v>
       </c>
       <c r="I12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" t="s">
         <v>184</v>
-      </c>
-      <c r="J12" t="s">
-        <v>185</v>
       </c>
       <c r="K12" t="s">
         <v>145</v>
@@ -2455,7 +2907,7 @@
         <v>122</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2678,17 +3130,17 @@
         <v>177</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="s">
         <v>110</v>
       </c>
       <c r="I26" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>72</v>
@@ -2696,7 +3148,7 @@
     </row>
     <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>6</v>
@@ -2704,7 +3156,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>167</v>
@@ -2717,7 +3169,7 @@
     </row>
     <row r="28" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>6</v>
@@ -2725,7 +3177,7 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>172</v>
@@ -2738,7 +3190,7 @@
     </row>
     <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>6</v>
@@ -2746,7 +3198,7 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>175</v>
@@ -2759,7 +3211,7 @@
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>6</v>
@@ -2767,10 +3219,10 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -2780,7 +3232,7 @@
     </row>
     <row r="31" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>6</v>
@@ -2788,10 +3240,10 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -2801,7 +3253,7 @@
     </row>
     <row r="32" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>6</v>
@@ -2809,10 +3261,10 @@
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -2822,7 +3274,7 @@
     </row>
     <row r="33" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>6</v>
@@ -2830,10 +3282,10 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -2843,7 +3295,7 @@
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>6</v>
@@ -2851,10 +3303,10 @@
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -2864,7 +3316,7 @@
     </row>
     <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>6</v>
@@ -2872,10 +3324,10 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2885,7 +3337,7 @@
     </row>
     <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>6</v>
@@ -2893,10 +3345,10 @@
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -2906,7 +3358,7 @@
     </row>
     <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>6</v>
@@ -2914,10 +3366,10 @@
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -2925,20 +3377,20 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="17" t="s">
-        <v>219</v>
+      <c r="E38" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -2946,20 +3398,20 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="17" t="s">
-        <v>220</v>
+      <c r="E39" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -2967,20 +3419,20 @@
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="17" t="s">
-        <v>221</v>
+      <c r="E40" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -2990,32 +3442,951 @@
     </row>
     <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+    </row>
+    <row r="43" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+    </row>
+    <row r="44" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+    </row>
+    <row r="45" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+    </row>
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+    </row>
+    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+    </row>
+    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" t="s">
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I41" t="s">
-        <v>228</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I56" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="K41" t="s">
+      <c r="B57" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>72</v>
       </c>
+    </row>
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+    </row>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+    </row>
+    <row r="61" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+    </row>
+    <row r="62" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+    </row>
+    <row r="63" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+    </row>
+    <row r="64" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+    </row>
+    <row r="65" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+    </row>
+    <row r="66" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+    </row>
+    <row r="67" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+    </row>
+    <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+    </row>
+    <row r="69" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+    </row>
+    <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+    </row>
+    <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+    </row>
+    <row r="72" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+    </row>
+    <row r="73" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+    </row>
+    <row r="74" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+    </row>
+    <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+    </row>
+    <row r="76" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+    </row>
+    <row r="77" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+    </row>
+    <row r="78" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+    </row>
+    <row r="79" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+    </row>
+    <row r="80" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+    </row>
+    <row r="81" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+    </row>
+    <row r="82" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+    </row>
+    <row r="84" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{18C06560-5496-40ED-A557-C369130150DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9EB16C1F-514C-4F62-844C-0F1BB706F8BE}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{18C06560-5496-40ED-A557-C369130150DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D860488-127E-4782-BB8E-A600D3E6C0BC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2533,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4036,7 +4036,7 @@
         <v>329</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -4057,7 +4057,7 @@
         <v>331</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{18C06560-5496-40ED-A557-C369130150DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D860488-127E-4782-BB8E-A600D3E6C0BC}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{18C06560-5496-40ED-A557-C369130150DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C53FD165-1933-40D3-B952-44BD391EC418}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="367">
   <si>
     <t>Application_Name</t>
   </si>
@@ -721,15 +721,6 @@
     <t>TC044</t>
   </si>
   <si>
-    <t xml:space="preserve"> Create and Inquire SDB Account for individual customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create and Inquire SDB Account for business customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create and Inquire SDB Account for individual customer(search functionality)</t>
-  </si>
-  <si>
     <t>'2021/12/17 19:54:21</t>
   </si>
   <si>
@@ -1205,6 +1196,27 @@
   </si>
   <si>
     <t>TC082</t>
+  </si>
+  <si>
+    <t>'2021/12/22 11:01:11</t>
+  </si>
+  <si>
+    <t>'2021/12/22 11:08:58</t>
+  </si>
+  <si>
+    <t>'2021/12/22 11:13:32</t>
+  </si>
+  <si>
+    <t>'2021/12/22 11:16:26</t>
+  </si>
+  <si>
+    <t>Create and Inquire SDB Account for individual customer</t>
+  </si>
+  <si>
+    <t>Create and Inquire SDB Account for business customer</t>
+  </si>
+  <si>
+    <t>Create and Inquire SDB Account for individual customer(search functionality)</t>
   </si>
 </sst>
 </file>
@@ -2533,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,7 +3142,7 @@
         <v>177</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="s">
@@ -3379,7 +3391,7 @@
     </row>
     <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
@@ -3387,10 +3399,10 @@
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -3400,7 +3412,7 @@
     </row>
     <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>6</v>
@@ -3408,10 +3420,10 @@
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -3421,7 +3433,7 @@
     </row>
     <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>6</v>
@@ -3429,10 +3441,10 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -3442,7 +3454,7 @@
     </row>
     <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>6</v>
@@ -3450,10 +3462,10 @@
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -3463,7 +3475,7 @@
     </row>
     <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>6</v>
@@ -3471,10 +3483,10 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -3484,7 +3496,7 @@
     </row>
     <row r="43" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -3492,10 +3504,10 @@
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -3505,7 +3517,7 @@
     </row>
     <row r="44" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>6</v>
@@ -3513,10 +3525,10 @@
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -3526,7 +3538,7 @@
     </row>
     <row r="45" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>6</v>
@@ -3534,10 +3546,10 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -3547,7 +3559,7 @@
     </row>
     <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>6</v>
@@ -3558,7 +3570,7 @@
         <v>215</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -3568,7 +3580,7 @@
     </row>
     <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>6</v>
@@ -3576,10 +3588,10 @@
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3589,7 +3601,7 @@
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>6</v>
@@ -3597,10 +3609,10 @@
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -3610,7 +3622,7 @@
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>6</v>
@@ -3618,10 +3630,10 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -3631,7 +3643,7 @@
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>6</v>
@@ -3639,10 +3651,10 @@
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -3652,7 +3664,7 @@
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>6</v>
@@ -3660,10 +3672,10 @@
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -3673,7 +3685,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>6</v>
@@ -3681,10 +3693,10 @@
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>216</v>
+        <v>364</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -3694,7 +3706,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>6</v>
@@ -3702,10 +3714,10 @@
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>217</v>
+        <v>365</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -3715,7 +3727,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>6</v>
@@ -3723,10 +3735,10 @@
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>218</v>
+        <v>366</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -3736,7 +3748,7 @@
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>6</v>
@@ -3744,20 +3756,20 @@
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>72</v>
@@ -3765,7 +3777,7 @@
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>6</v>
@@ -3773,20 +3785,20 @@
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>72</v>
@@ -3794,7 +3806,7 @@
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>6</v>
@@ -3802,20 +3814,20 @@
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="15" t="s">
         <v>71</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>72</v>
@@ -3823,7 +3835,7 @@
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>6</v>
@@ -3831,10 +3843,10 @@
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -3844,7 +3856,7 @@
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>6</v>
@@ -3852,10 +3864,10 @@
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -3865,7 +3877,7 @@
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>6</v>
@@ -3873,10 +3885,10 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -3886,7 +3898,7 @@
     </row>
     <row r="61" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>6</v>
@@ -3894,10 +3906,10 @@
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -3907,7 +3919,7 @@
     </row>
     <row r="62" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>6</v>
@@ -3915,10 +3927,10 @@
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -3928,7 +3940,7 @@
     </row>
     <row r="63" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>6</v>
@@ -3936,10 +3948,10 @@
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -3949,7 +3961,7 @@
     </row>
     <row r="64" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>6</v>
@@ -3957,10 +3969,10 @@
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -3970,7 +3982,7 @@
     </row>
     <row r="65" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>6</v>
@@ -3978,10 +3990,10 @@
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -3991,7 +4003,7 @@
     </row>
     <row r="66" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>6</v>
@@ -3999,10 +4011,10 @@
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -4012,7 +4024,7 @@
     </row>
     <row r="67" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>6</v>
@@ -4020,10 +4032,10 @@
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -4033,28 +4045,36 @@
     </row>
     <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68" t="s">
+        <v>360</v>
+      </c>
+      <c r="J68" t="s">
+        <v>361</v>
+      </c>
+      <c r="K68" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>5</v>
@@ -4062,20 +4082,28 @@
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
+      <c r="H69" t="s">
+        <v>71</v>
+      </c>
+      <c r="I69" t="s">
+        <v>362</v>
+      </c>
+      <c r="J69" t="s">
+        <v>363</v>
+      </c>
+      <c r="K69" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>6</v>
@@ -4083,10 +4111,10 @@
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -4096,7 +4124,7 @@
     </row>
     <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>6</v>
@@ -4104,10 +4132,10 @@
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -4117,7 +4145,7 @@
     </row>
     <row r="72" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>6</v>
@@ -4125,10 +4153,10 @@
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -4138,7 +4166,7 @@
     </row>
     <row r="73" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>6</v>
@@ -4146,10 +4174,10 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -4159,7 +4187,7 @@
     </row>
     <row r="74" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>6</v>
@@ -4167,10 +4195,10 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -4180,7 +4208,7 @@
     </row>
     <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>6</v>
@@ -4188,10 +4216,10 @@
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -4201,7 +4229,7 @@
     </row>
     <row r="76" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>6</v>
@@ -4209,10 +4237,10 @@
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -4222,7 +4250,7 @@
     </row>
     <row r="77" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>6</v>
@@ -4230,10 +4258,10 @@
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -4243,7 +4271,7 @@
     </row>
     <row r="78" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>6</v>
@@ -4251,10 +4279,10 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -4264,7 +4292,7 @@
     </row>
     <row r="79" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>6</v>
@@ -4272,10 +4300,10 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -4285,7 +4313,7 @@
     </row>
     <row r="80" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>6</v>
@@ -4293,10 +4321,10 @@
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="16" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -4306,7 +4334,7 @@
     </row>
     <row r="81" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>6</v>
@@ -4314,10 +4342,10 @@
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -4327,7 +4355,7 @@
     </row>
     <row r="82" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>6</v>
@@ -4335,10 +4363,10 @@
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -4348,7 +4376,7 @@
     </row>
     <row r="83" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>6</v>
@@ -4356,10 +4384,10 @@
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -4369,7 +4397,7 @@
     </row>
     <row r="84" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>6</v>
@@ -4377,10 +4405,10 @@
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9AAB88-D216-49EC-8687-A22151A1A3A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF15A90C-DAC2-48B4-A26A-3AE63F28FA43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="265">
   <si>
     <t>Application_Name</t>
   </si>
@@ -720,12 +720,170 @@
 Search existing porfolio number
 if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
 +Create Loan account+Loan inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC036</t>
+  </si>
+  <si>
+    <t>TC036</t>
+  </si>
+  <si>
+    <t>Premier_TC037</t>
+  </si>
+  <si>
+    <t>Premier_TC038</t>
+  </si>
+  <si>
+    <t>Premier_TC039</t>
+  </si>
+  <si>
+    <t>Premier_TC040</t>
+  </si>
+  <si>
+    <t>Premier_TC041</t>
+  </si>
+  <si>
+    <t>Premier_TC042</t>
+  </si>
+  <si>
+    <t>Premier_TC043</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>TC038</t>
+  </si>
+  <si>
+    <t>TC039</t>
+  </si>
+  <si>
+    <t>TC040</t>
+  </si>
+  <si>
+    <t>TC041</t>
+  </si>
+  <si>
+    <t>TC042</t>
+  </si>
+  <si>
+    <t>TC043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Codes+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Warnings+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Status+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Restriction+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Bankruptcy information+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Relationship(Add relationship)+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Relationship(Update relationship)+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Relationship(Remove relationship)+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t>'2021/12/20 14:50:13</t>
+  </si>
+  <si>
+    <t>'2021/12/20 14:51:51</t>
+  </si>
+  <si>
+    <t>'2021/12/20 15:16:57</t>
+  </si>
+  <si>
+    <t>'2021/12/20 15:21:16</t>
+  </si>
+  <si>
+    <t>'2021/12/20 15:23:36</t>
+  </si>
+  <si>
+    <t>'2021/12/20 15:25:04</t>
+  </si>
+  <si>
+    <t>'2021/12/20 15:27:32</t>
+  </si>
+  <si>
+    <t>'2021/12/20 15:29:09</t>
+  </si>
+  <si>
+    <t>'2021/12/20 16:25:12</t>
+  </si>
+  <si>
+    <t>'2021/12/20 16:27:21</t>
+  </si>
+  <si>
+    <t>'2021/12/21 14:06:14</t>
+  </si>
+  <si>
+    <t>'2021/12/21 14:08:29</t>
+  </si>
+  <si>
+    <t>'2021/12/21 14:10:30</t>
+  </si>
+  <si>
+    <t>'2021/12/21 14:13:12</t>
+  </si>
+  <si>
+    <t>Premier_TC044</t>
+  </si>
+  <si>
+    <t>Premier_TC045</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>TC045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Balances Non Accural information+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update balances- add existing Collateral account inquiry
+if account does not exist create Loan account and if collateral does not exist create collateral</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2021/12/21 18:27:28</t>
+  </si>
+  <si>
+    <t>'2021/12/21 18:28:54</t>
+  </si>
+  <si>
+    <t>'2021/12/21 18:30:57</t>
+  </si>
+  <si>
+    <t>'2021/12/21 18:33:12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1251,10 +1409,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1345,15 +1503,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1730,14 +1888,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2023,24 +2181,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F50" sqref="F49:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2322,7 +2480,7 @@
         <v>116</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2853,7 +3011,7 @@
         <v>213</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -2868,6 +3026,284 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
+    </row>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" t="s">
+        <v>241</v>
+      </c>
+      <c r="K38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" t="s">
+        <v>244</v>
+      </c>
+      <c r="J40" t="s">
+        <v>245</v>
+      </c>
+      <c r="K40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="15"/>
+      <c r="H42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" t="s">
+        <v>248</v>
+      </c>
+      <c r="J42" t="s">
+        <v>249</v>
+      </c>
+      <c r="K42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" t="s">
+        <v>250</v>
+      </c>
+      <c r="J43" t="s">
+        <v>251</v>
+      </c>
+      <c r="K43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="15"/>
+      <c r="H44" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" t="s">
+        <v>250</v>
+      </c>
+      <c r="J44" t="s">
+        <v>252</v>
+      </c>
+      <c r="K44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" s="15"/>
+      <c r="H45" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J45" t="s">
+        <v>253</v>
+      </c>
+      <c r="K45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="H46" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" t="s">
+        <v>263</v>
+      </c>
+      <c r="J46" t="s">
+        <v>264</v>
+      </c>
+      <c r="K46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{18C06560-5496-40ED-A557-C369130150DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C53FD165-1933-40D3-B952-44BD391EC418}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669C97FC-14ED-4520-BA11-CB12CC2B56FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="370">
   <si>
     <t>Application_Name</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>Premier</t>
-  </si>
-  <si>
-    <t>https://navtest01.fiservse.net/nav_nav1151/nav1151.aspx</t>
   </si>
   <si>
     <t>Launch and login to application.Capture customer details</t>
@@ -1217,12 +1214,25 @@
   </si>
   <si>
     <t>Create and Inquire SDB Account for individual customer(search functionality)</t>
+  </si>
+  <si>
+    <t>https://navfarm11.fiservse.net/NAV_NAV1151/NAV1151.ASPX?Group=IB65&amp;Inst=65</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2021/12/22 14:06:45</t>
+  </si>
+  <si>
+    <t>'2021/12/22 14:13:11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1766,15 +1776,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1841,7 +1851,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -1865,15 +1875,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1931,16 +1941,16 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" t="s">
         <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1960,16 +1970,16 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
         <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1989,16 +1999,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
         <v>71</v>
-      </c>
-      <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2018,16 +2028,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2250,14 +2260,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2356,7 +2366,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2365,175 +2375,175 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>82</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>85</v>
-      </c>
-      <c r="F10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
         <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
         <v>134</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
         <v>136</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
         <v>138</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
         <v>140</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" t="s">
         <v>143</v>
-      </c>
-      <c r="F18" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2546,21 +2556,21 @@
   <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2603,7 +2613,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>6</v>
@@ -2614,28 +2624,28 @@
         <v>15</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>114</v>
-      </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -2643,25 +2653,25 @@
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>112</v>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J3" t="s">
+        <v>369</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>6</v>
@@ -2672,25 +2682,25 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" t="s">
         <v>181</v>
       </c>
-      <c r="J4" t="s">
-        <v>182</v>
-      </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -2701,7 +2711,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -2710,7 +2720,7 @@
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>6</v>
@@ -2721,7 +2731,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2730,7 +2740,7 @@
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>6</v>
@@ -2741,7 +2751,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -2750,7 +2760,7 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>6</v>
@@ -2758,10 +2768,10 @@
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -2770,7 +2780,7 @@
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>6</v>
@@ -2778,10 +2788,10 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -2790,7 +2800,7 @@
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>6</v>
@@ -2798,10 +2808,10 @@
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -2810,7 +2820,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>6</v>
@@ -2818,28 +2828,28 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
         <v>163</v>
       </c>
-      <c r="J11" t="s">
-        <v>164</v>
-      </c>
       <c r="K11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>6</v>
@@ -2847,28 +2857,28 @@
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" t="s">
         <v>183</v>
       </c>
-      <c r="J12" t="s">
-        <v>184</v>
-      </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>6</v>
@@ -2876,10 +2886,10 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2888,7 +2898,7 @@
     </row>
     <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>6</v>
@@ -2896,10 +2906,10 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -2908,7 +2918,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>6</v>
@@ -2916,10 +2926,10 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2928,7 +2938,7 @@
     </row>
     <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>6</v>
@@ -2936,10 +2946,10 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -2948,7 +2958,7 @@
     </row>
     <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>6</v>
@@ -2956,10 +2966,10 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2968,7 +2978,7 @@
     </row>
     <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>6</v>
@@ -2976,10 +2986,10 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2988,7 +2998,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>6</v>
@@ -2997,7 +3007,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -3006,7 +3016,7 @@
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>6</v>
@@ -3015,7 +3025,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -3024,7 +3034,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>6</v>
@@ -3033,7 +3043,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -3042,7 +3052,7 @@
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>6</v>
@@ -3051,7 +3061,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -3060,7 +3070,7 @@
     </row>
     <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>6</v>
@@ -3068,28 +3078,28 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I23" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="K23" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>6</v>
@@ -3097,10 +3107,10 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -3110,7 +3120,7 @@
     </row>
     <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>6</v>
@@ -3118,10 +3128,10 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -3131,7 +3141,7 @@
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>6</v>
@@ -3139,28 +3149,28 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="K26" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>6</v>
@@ -3168,10 +3178,10 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -3181,7 +3191,7 @@
     </row>
     <row r="28" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>6</v>
@@ -3189,10 +3199,10 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -3202,7 +3212,7 @@
     </row>
     <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>6</v>
@@ -3210,10 +3220,10 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -3223,7 +3233,7 @@
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>6</v>
@@ -3231,10 +3241,10 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -3244,7 +3254,7 @@
     </row>
     <row r="31" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>6</v>
@@ -3252,10 +3262,10 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -3265,7 +3275,7 @@
     </row>
     <row r="32" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>6</v>
@@ -3273,10 +3283,10 @@
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -3286,7 +3296,7 @@
     </row>
     <row r="33" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>6</v>
@@ -3294,10 +3304,10 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -3307,7 +3317,7 @@
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>6</v>
@@ -3315,10 +3325,10 @@
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -3328,7 +3338,7 @@
     </row>
     <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>6</v>
@@ -3336,10 +3346,10 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -3349,7 +3359,7 @@
     </row>
     <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>6</v>
@@ -3357,10 +3367,10 @@
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -3370,7 +3380,7 @@
     </row>
     <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>6</v>
@@ -3378,10 +3388,10 @@
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -3391,7 +3401,7 @@
     </row>
     <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
@@ -3399,10 +3409,10 @@
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -3412,7 +3422,7 @@
     </row>
     <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>6</v>
@@ -3420,10 +3430,10 @@
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -3433,7 +3443,7 @@
     </row>
     <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>6</v>
@@ -3441,10 +3451,10 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -3454,7 +3464,7 @@
     </row>
     <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>6</v>
@@ -3462,10 +3472,10 @@
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -3475,7 +3485,7 @@
     </row>
     <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>6</v>
@@ -3483,10 +3493,10 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -3496,7 +3506,7 @@
     </row>
     <row r="43" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -3504,10 +3514,10 @@
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -3517,7 +3527,7 @@
     </row>
     <row r="44" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>6</v>
@@ -3525,10 +3535,10 @@
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -3538,7 +3548,7 @@
     </row>
     <row r="45" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>6</v>
@@ -3546,10 +3556,10 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -3559,7 +3569,7 @@
     </row>
     <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>6</v>
@@ -3567,10 +3577,10 @@
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -3580,7 +3590,7 @@
     </row>
     <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>6</v>
@@ -3588,10 +3598,10 @@
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3601,7 +3611,7 @@
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>6</v>
@@ -3609,10 +3619,10 @@
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -3622,7 +3632,7 @@
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>6</v>
@@ -3630,10 +3640,10 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -3643,7 +3653,7 @@
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>6</v>
@@ -3651,10 +3661,10 @@
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -3664,7 +3674,7 @@
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>6</v>
@@ -3672,10 +3682,10 @@
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -3685,7 +3695,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>6</v>
@@ -3693,10 +3703,10 @@
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -3706,7 +3716,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>6</v>
@@ -3714,10 +3724,10 @@
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -3727,7 +3737,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>6</v>
@@ -3735,10 +3745,10 @@
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -3748,7 +3758,7 @@
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>6</v>
@@ -3756,28 +3766,28 @@
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>6</v>
@@ -3785,28 +3795,28 @@
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="K56" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>6</v>
@@ -3814,28 +3824,28 @@
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>6</v>
@@ -3843,10 +3853,10 @@
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -3856,7 +3866,7 @@
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>6</v>
@@ -3864,10 +3874,10 @@
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -3877,7 +3887,7 @@
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>6</v>
@@ -3885,10 +3895,10 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -3898,7 +3908,7 @@
     </row>
     <row r="61" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>6</v>
@@ -3906,10 +3916,10 @@
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -3919,7 +3929,7 @@
     </row>
     <row r="62" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>6</v>
@@ -3927,10 +3937,10 @@
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -3940,7 +3950,7 @@
     </row>
     <row r="63" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>6</v>
@@ -3948,10 +3958,10 @@
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -3961,7 +3971,7 @@
     </row>
     <row r="64" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>6</v>
@@ -3969,10 +3979,10 @@
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -3982,7 +3992,7 @@
     </row>
     <row r="65" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>6</v>
@@ -3990,10 +4000,10 @@
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -4003,7 +4013,7 @@
     </row>
     <row r="66" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>6</v>
@@ -4011,10 +4021,10 @@
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -4024,7 +4034,7 @@
     </row>
     <row r="67" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>6</v>
@@ -4032,10 +4042,10 @@
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -4045,7 +4055,7 @@
     </row>
     <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>6</v>
@@ -4053,57 +4063,57 @@
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" t="s">
+        <v>359</v>
+      </c>
+      <c r="J68" t="s">
+        <v>360</v>
+      </c>
+      <c r="K68" t="s">
         <v>71</v>
-      </c>
-      <c r="I68" t="s">
-        <v>360</v>
-      </c>
-      <c r="J68" t="s">
-        <v>361</v>
-      </c>
-      <c r="K68" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69" t="s">
+        <v>361</v>
+      </c>
+      <c r="J69" t="s">
+        <v>362</v>
+      </c>
+      <c r="K69" t="s">
         <v>71</v>
-      </c>
-      <c r="I69" t="s">
-        <v>362</v>
-      </c>
-      <c r="J69" t="s">
-        <v>363</v>
-      </c>
-      <c r="K69" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>6</v>
@@ -4111,10 +4121,10 @@
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -4124,7 +4134,7 @@
     </row>
     <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>6</v>
@@ -4132,10 +4142,10 @@
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -4145,7 +4155,7 @@
     </row>
     <row r="72" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>6</v>
@@ -4153,10 +4163,10 @@
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -4166,7 +4176,7 @@
     </row>
     <row r="73" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>6</v>
@@ -4174,10 +4184,10 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -4187,7 +4197,7 @@
     </row>
     <row r="74" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>6</v>
@@ -4195,10 +4205,10 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -4208,7 +4218,7 @@
     </row>
     <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>6</v>
@@ -4216,10 +4226,10 @@
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -4229,7 +4239,7 @@
     </row>
     <row r="76" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>6</v>
@@ -4237,10 +4247,10 @@
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -4250,7 +4260,7 @@
     </row>
     <row r="77" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>6</v>
@@ -4258,10 +4268,10 @@
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -4271,7 +4281,7 @@
     </row>
     <row r="78" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>6</v>
@@ -4279,10 +4289,10 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -4292,7 +4302,7 @@
     </row>
     <row r="79" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>6</v>
@@ -4300,10 +4310,10 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -4313,7 +4323,7 @@
     </row>
     <row r="80" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>6</v>
@@ -4321,10 +4331,10 @@
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -4334,7 +4344,7 @@
     </row>
     <row r="81" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>6</v>
@@ -4342,10 +4352,10 @@
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -4355,7 +4365,7 @@
     </row>
     <row r="82" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>6</v>
@@ -4363,10 +4373,10 @@
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -4376,7 +4386,7 @@
     </row>
     <row r="83" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>6</v>
@@ -4384,10 +4394,10 @@
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -4397,7 +4407,7 @@
     </row>
     <row r="84" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>6</v>
@@ -4405,10 +4415,10 @@
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669C97FC-14ED-4520-BA11-CB12CC2B56FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{669C97FC-14ED-4520-BA11-CB12CC2B56FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6CC20CA8-BEEE-4599-9C5C-CB5E7AA1B799}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="374">
   <si>
     <t>Application_Name</t>
   </si>
@@ -348,33 +348,9 @@
     <t>Premier_TC008</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a individual customer+ without withholding + add relationship whose is control person only +add address+ add contact </t>
-  </si>
-  <si>
-    <t>Create a individual customer + without withholding+ add relationship whose is control person and beneficiary +add address+ add contact + customer inquiry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a individual customer + without withholding+ add two relationship, one as control person and- another as beneficiary +add address+ add contact </t>
-  </si>
-  <si>
-    <t>Create a individual customer + with withholding+ add relationship whose is control person and beneficiary +add address+ add contact + customer inquiry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a business customer+ without withholding + add relationship whose is control person only+add address+ add contact </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a business customer + without withholding+ add two relationship, one as control person and- another as beneficiary+add address+ add contact </t>
-  </si>
-  <si>
     <t>FARK7SF</t>
   </si>
   <si>
-    <t>'2021/11/18 21:22:14</t>
-  </si>
-  <si>
-    <t>'2021/11/18 21:23:20</t>
-  </si>
-  <si>
     <t>'2021/11/22 18:18:48</t>
   </si>
   <si>
@@ -474,44 +450,9 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>Create a individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+modify last name/phone number/email address/add a new beneficiary</t>
-  </si>
-  <si>
-    <t>Create a individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+modify phone number(add multiple)/email address(add multiple)/add a new beneficiary(add multiple)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a business customer + without withholding+ add relationship whose is control person and beneficiary+add address+ add contact </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a business customer + with withholding+ add relationship whose is control person and beneficiary+add address+ add contact </t>
-  </si>
-  <si>
     <t>Create a multiple customers</t>
   </si>
   <si>
-    <t>Create a business customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact) +Change Name+ change last name/add a phone number/add a email address/remove a  beneficiary</t>
-  </si>
-  <si>
-    <t>Create new Portfolio for Business Customer
-Create Business customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact)+go to portfolio+create new portfolio+search for created customer and add it to name+create portfolio for business</t>
-  </si>
-  <si>
-    <t>Create new Portfolio for individual Customer
-Create individual customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact)+go to portfolio+create new portfolio+enter name/taxcode/taxnumber/dob in name search criteria+click next+select existing option on dulplicate page+click next+create portfolio for individual</t>
-  </si>
-  <si>
-    <t>Create new Portfolio using name and Address - More than three names
-Create 4 customer(without withholding+ add relationship whose is control person and beneficiary +add address+ add contact)+go to portfolio+create new portfolio+search for created customers and add it to name+create portfolio for same</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create new Portfolio while adding a new customer along with it  (business)
-enter name/taxcode/taxnumber/dob in name search criteria+add address+click next+select new option on dulplicate page+create portfolio for same</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create new Portfolio while adding a new customer more than 3 along with it(individual)
-enter name/taxcode/taxnumber/dob in name search criteria for more than 3 customers +add address+click next+select new option on dulplicate page+create portfolio for same</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create portfolio with existing customer </t>
   </si>
   <si>
@@ -542,12 +483,6 @@
     <t>TC021</t>
   </si>
   <si>
-    <t>Create a Saving Account for individual customers
-Search existing porfolio number
-if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
-+Create Saving account+account inquiry</t>
-  </si>
-  <si>
     <t>'2021/12/03 15:25:41</t>
   </si>
   <si>
@@ -560,24 +495,12 @@
     <t>TC022</t>
   </si>
   <si>
-    <t>Create a Saving Account for business customers
-Search existing porfolio number
-if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
-+Create Saving account+account inquiry</t>
-  </si>
-  <si>
     <t>Premier_TC023</t>
   </si>
   <si>
     <t>TC023</t>
   </si>
   <si>
-    <t>Create a Saving Account for individual customers(Search Customer)
-Search existing porfolio number
-if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
-+Create Saving account+account inquiry</t>
-  </si>
-  <si>
     <t>Premier_TC024</t>
   </si>
   <si>
@@ -629,92 +552,48 @@
     <t>TC028</t>
   </si>
   <si>
-    <t xml:space="preserve">Update  Saving account+account inquiry
-if account does not exist create Saving account </t>
-  </si>
-  <si>
     <t>Premier_TC029</t>
   </si>
   <si>
     <t>TC029</t>
   </si>
   <si>
-    <t>Create a Certificate  Account for individual customers
-Search existing porfolio number
-if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
-+Create Certificate  account+account inquiry</t>
-  </si>
-  <si>
     <t>Premier_TC030</t>
   </si>
   <si>
     <t>TC030</t>
   </si>
   <si>
-    <t>Create a Certificate  Account for business customers
-Search existing porfolio number
-if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
-+Create Certificate  account+account inquiry</t>
-  </si>
-  <si>
     <t>Premier_TC031</t>
   </si>
   <si>
     <t>TC031</t>
   </si>
   <si>
-    <t>Create a Certificate  Account for individual customers(Search Customer)
-Search existing porfolio number
-if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
-+Create Certificate  account+account inquiry</t>
-  </si>
-  <si>
     <t>Premier_TC032</t>
   </si>
   <si>
     <t>TC032</t>
   </si>
   <si>
-    <t xml:space="preserve">Update  Certificate  account+account inquiry
-if account does not exist create Certificate  account </t>
-  </si>
-  <si>
     <t>Premier_TC033</t>
   </si>
   <si>
     <t>TC033</t>
   </si>
   <si>
-    <t>Create a Loan Account for individual customers
-Search existing porfolio number
-if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
-+Create Loan account+Loan inquiry</t>
-  </si>
-  <si>
     <t>Premier_TC034</t>
   </si>
   <si>
     <t>TC034</t>
   </si>
   <si>
-    <t>Create a Loan Account for business customers
-Search existing porfolio number
-if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
-+Create Loan account+Loan inquiry</t>
-  </si>
-  <si>
     <t>Premier_TC035</t>
   </si>
   <si>
     <t>TC035</t>
   </si>
   <si>
-    <t>Create a Loan Account for individual customers(search)
-Search existing porfolio number
-if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
-+Create Loan account+Loan inquiry</t>
-  </si>
-  <si>
     <t>TC044</t>
   </si>
   <si>
@@ -724,18 +603,6 @@
     <t>'2021/12/17 19:56:23</t>
   </si>
   <si>
-    <t xml:space="preserve">Update  sdb account codes - payment+account inquiry
-if account does not exist create sdb account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update  sdb account codes - codes+account inquiry
-if account does not exist create sdb account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update  sdb account codes -status+account inquiry
-if account does not exist create sdb account </t>
-  </si>
-  <si>
     <t>Premier_TC050</t>
   </si>
   <si>
@@ -781,10 +648,6 @@
     <t>'2021/12/20 19:40:04</t>
   </si>
   <si>
-    <t>Update  DDA account warnings +account inquiry
-if account does not exist create DDA account</t>
-  </si>
-  <si>
     <t>Premier_TC036</t>
   </si>
   <si>
@@ -866,173 +729,9 @@
     <t>TC049</t>
   </si>
   <si>
-    <t xml:space="preserve">Loans-Loan account maintenance update Codes+account inquiry
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loans-Loan account maintenance update Warnings+account inquiry
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loans-Loan account maintenance update Status+account inquiry
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loans-Loan account maintenance update Restriction+account inquiry
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loans-Loan account maintenance update Bankruptcy information+account inquiry
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loans-Loan account maintenance update Relationship(Add relationship)+account inquiry
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loans-Loan account maintenance update Relationship(Update relationship)+account inquiry
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loans-Loan account maintenance update Relationship(Remove relationship)+account inquiry
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loans-Loan account maintenance update Balances Non Accural information+account inquiry
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t>Loans-Loan account maintenance update balances- add existing Collateral account inquiry
-if account does not exist create Loan account and if collateral does not exist create collateral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a real estate collateral for loan account
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a life insurance collateral for loan account
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a investment collateral for loan account
-if account does not exist create Loan account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a basic collateral for loan account
-if account does not exist create Loan account </t>
-  </si>
-  <si>
     <t>TC050</t>
   </si>
   <si>
-    <t xml:space="preserve">Update  sdb account relationships -add new+account inquiry
-if account does not exist create sdb account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update  sdb account relationships -update+account inquiry
-if account does not exist create sdb account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update  sdb account relationships -remove+account inquiry
-if account does not exist create sdb account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-DD account maintenance update Tickler+account inquiry
-if account does not exist create DD account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-DD account maintenance update hold+account inquiry
-if account does not exist create DD account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-DD account maintenance update overdrafts+account inquiry
-if account does not exist create DD account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-DD account maintenance add new relationship+account inquiry
-if account does not exist create DD account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-DD account maintenance update relationship+account inquiry
-if account does not exist create DD account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-DD account maintenance remove relationship+account inquiry
-if account does not exist create DD account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-DD account maintenance update status+account inquiry
-if account does not exist create DD account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-DD account maintenance update codes-suspended+account inquiry
-if account does not exist create DD account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD-DD account maintenance update codes -statement notifications+account inquiry
-if account does not exist create DD account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings-Savings account maintenance update Tickler+account inquiry
-if account does not exist create Savings account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings-Savings account maintenance update hold+account inquiry
-if account does not exist create Savings account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings-Savings account maintenance Savings add new relationship+account inquiry
-if account does not exist create Savings account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings-Savings account maintenance update relationship+account inquiry
-if account does not exist create Savings account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings-Savings account maintenance remove relationship+account inquiry
-if account does not exist create Savings account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings-Savings account maintenance update status+account inquiry
-if account does not exist create Savings account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings-Savings account maintenance update codes suspended+account inquiry
-if account does not exist create Savings account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savings-Savings account maintenance update codes statement notification+account inquiry
-if account does not exist create Savings account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificates-Certificates account maintenance update Tickler+account inquiry
-if account does not exist create Certificates account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificates-Certificates account maintenance update hold+account inquiry
-if account does not exist create Certificates account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificates-Certificates account maintenance Certificates add new relationship+account inquiry
-if account does not exist create Certificates account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificates-Certificates account maintenance update status+account inquiry
-if account does not exist create Certificates account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificates-Certificates account maintenance update relationship+account inquiry
-if account does not exist create Certificates account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificates-Certificates account maintenance remove relationship+account inquiry
-if account does not exist create Certificates account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificates-Certificates account maintenance update codes - statement notiifcation +account inquiry
-if account does not exist create Certificates account </t>
-  </si>
-  <si>
     <t>Premier_TC056</t>
   </si>
   <si>
@@ -1219,13 +918,247 @@
     <t>https://navfarm11.fiservse.net/NAV_NAV1151/NAV1151.ASPX?Group=IB65&amp;Inst=65</t>
   </si>
   <si>
+    <t>'2021/12/22 14:06:45</t>
+  </si>
+  <si>
+    <t>'2021/12/22 14:13:11</t>
+  </si>
+  <si>
+    <t>Create a individual customer without withholding and add relationship as a control person only</t>
+  </si>
+  <si>
+    <t>Create a individual customer without withholding and add relationship as a control person and beneficiary</t>
+  </si>
+  <si>
+    <t>Create a individual customer without withholding and add two relationship, one as control person and another as beneficiary</t>
+  </si>
+  <si>
+    <t>Create a individual customer with withholding and add relationship whose is control person and beneficiary</t>
+  </si>
+  <si>
+    <t>Create a business customer without withholding and add relationship as control person and beneficiary</t>
+  </si>
+  <si>
+    <t>Create a business customer without withholding and add two relationship, one as control person and another as beneficiary</t>
+  </si>
+  <si>
+    <t>Create a business customer with withholding and add relationship whose is control person and beneficiary</t>
+  </si>
+  <si>
+    <t>Update a individual customer - modify last name/phone number/email address</t>
+  </si>
+  <si>
+    <t>Update a individual customer - add new phone number(add multiple) ,email address(add multiple) add a new beneficiary(add multiple)</t>
+  </si>
+  <si>
+    <t>Create a business customer -remove a  beneficiary</t>
+  </si>
+  <si>
+    <t>Create new Portfolio for Business Customer</t>
+  </si>
+  <si>
+    <t>Create new Portfolio for individual Customer</t>
+  </si>
+  <si>
+    <t>Create new Portfolio using name and Address - More than three names</t>
+  </si>
+  <si>
+    <t>Create new Portfolio while adding a new customer along with it  (business)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create new Portfolio while adding a new customer more than 3 along with it(individual)</t>
+  </si>
+  <si>
+    <t>Create a Saving Account for individual customers</t>
+  </si>
+  <si>
+    <t>Create a Saving Account for business customers</t>
+  </si>
+  <si>
+    <t>Create a Saving Account for individual customers(Search Customer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  DDA account  with warnings </t>
+  </si>
+  <si>
+    <t>Create a Demand deposit Account for individual customers</t>
+  </si>
+  <si>
+    <t>Create a Demand deposit Account for business customers</t>
+  </si>
+  <si>
+    <t>Create a Demand deposit Account for individual customers(Search Customer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  Saving account </t>
+  </si>
+  <si>
+    <t>Create a Certificate  Account for individual customers</t>
+  </si>
+  <si>
+    <t>Create a Certificate  Account for business customers</t>
+  </si>
+  <si>
+    <t>Create a Certificate  Account for individual customers(Search Customer)</t>
+  </si>
+  <si>
+    <t>Update  Certificate  account</t>
+  </si>
+  <si>
+    <t>Create a Loan Account for individual customers</t>
+  </si>
+  <si>
+    <t>Create a Loan Account for business customers</t>
+  </si>
+  <si>
+    <t>Create a Loan Account for individual customers(search)</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Warnings</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Codes</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Status</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Restriction</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Bankruptcy information</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Relationship(Add relationship)</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Relationship(Update relationship)</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Relationship(Remove relationship)</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Balances Non Accural information</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update balances- add existing Collateral account inquiry</t>
+  </si>
+  <si>
+    <t>Create a real estate collateral for loan account</t>
+  </si>
+  <si>
+    <t>Create a life insurance collateral for loan account</t>
+  </si>
+  <si>
+    <t>Create a investment collateral for loan account</t>
+  </si>
+  <si>
+    <t>Create a basic collateral for loan account</t>
+  </si>
+  <si>
+    <t>Update  sdb account codes - payment</t>
+  </si>
+  <si>
+    <t>Update  sdb account codes - codes</t>
+  </si>
+  <si>
+    <t>Update  sdb account codes -status</t>
+  </si>
+  <si>
+    <t>Update  sdb account relationships -add new</t>
+  </si>
+  <si>
+    <t>Update  sdb account relationships -update</t>
+  </si>
+  <si>
+    <t>Update  sdb account relationships -remove</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance update Tickler</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance update hold</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance update overdrafts</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance add new relationship</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance update relationship</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance remove relationship</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance update status</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance update codes-suspended</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance update codes -statement notifications</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance update Tickler</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance update hold</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance Savings add new relationship</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance update relationship</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance remove relationship</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance update status</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance update codes suspended</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance update codes statement notification</t>
+  </si>
+  <si>
+    <t>Certificates-Certificates account maintenance update Tickler</t>
+  </si>
+  <si>
+    <t>Certificates-Certificates account maintenance update hold</t>
+  </si>
+  <si>
+    <t>Certificates-Certificates account maintenance Certificates add new relationship</t>
+  </si>
+  <si>
+    <t>Certificates-Certificates account maintenance update status</t>
+  </si>
+  <si>
+    <t>Certificates-Certificates account maintenance update relationship</t>
+  </si>
+  <si>
+    <t>Certificates-Certificates account maintenance remove relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance update codes - statement notiifcation </t>
+  </si>
+  <si>
+    <t>Create a business customer without withholding and add relationship as a control person only</t>
+  </si>
+  <si>
+    <t>https://navtest01.fiservse.net/nav_nav1151/nav1151.aspx</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>'2021/12/22 14:06:45</t>
-  </si>
-  <si>
-    <t>'2021/12/22 14:13:11</t>
+    <t>'2021/12/23 20:41:25</t>
+  </si>
+  <si>
+    <t>'2021/12/23 20:43:44</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,7 +1784,12 @@
         <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="7" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1797,8 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{4D28C060-3FC7-4384-B377-95BDC209822A}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{E2A5E61D-28EC-4233-AFA8-278DC779E7DC}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{795D2318-ED88-4911-BD2D-6C2865044338}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{2A8B23C1-C7BA-47E8-B0D7-206F6F1578A8}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{2A8B23C1-C7BA-47E8-B0D7-206F6F1578A8}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{C94CB2B9-6D7A-4894-8E51-4E71FE112B0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2445,105 +2384,105 @@
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2555,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,13 +2567,13 @@
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
         <v>71</v>
@@ -2645,7 +2584,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -2653,20 +2592,20 @@
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="J3" t="s">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2682,20 +2621,20 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" t="s">
         <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2711,7 +2650,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -2731,7 +2670,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2751,7 +2690,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>107</v>
+        <v>369</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -2771,7 +2710,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -2791,7 +2730,7 @@
         <v>78</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>108</v>
+        <v>300</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -2811,7 +2750,7 @@
         <v>81</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -2820,7 +2759,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>6</v>
@@ -2831,25 +2770,25 @@
         <v>84</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" t="s">
         <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="J11" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>6</v>
@@ -2860,25 +2799,25 @@
         <v>87</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" t="s">
         <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>6</v>
@@ -2886,19 +2825,19 @@
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>6</v>
@@ -2906,10 +2845,10 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -2918,7 +2857,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>6</v>
@@ -2926,19 +2865,19 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>6</v>
@@ -2946,19 +2885,19 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>6</v>
@@ -2966,19 +2905,19 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>6</v>
@@ -2986,19 +2925,19 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>6</v>
@@ -3007,16 +2946,16 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="11" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>6</v>
@@ -3025,7 +2964,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="11" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -3034,7 +2973,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>6</v>
@@ -3043,7 +2982,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="11" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -3052,7 +2991,7 @@
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>6</v>
@@ -3061,16 +3000,16 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="11" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>6</v>
@@ -3078,28 +3017,28 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>6</v>
@@ -3107,10 +3046,10 @@
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -3118,9 +3057,9 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>6</v>
@@ -3128,10 +3067,10 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -3139,9 +3078,9 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>6</v>
@@ -3149,28 +3088,28 @@
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>6</v>
@@ -3178,10 +3117,10 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -3189,9 +3128,9 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>6</v>
@@ -3199,10 +3138,10 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -3210,9 +3149,9 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>6</v>
@@ -3220,10 +3159,10 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -3231,9 +3170,9 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>6</v>
@@ -3241,10 +3180,10 @@
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>192</v>
+        <v>317</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -3252,9 +3191,9 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>6</v>
@@ -3262,10 +3201,10 @@
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -3273,9 +3212,9 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>6</v>
@@ -3283,10 +3222,10 @@
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -3294,9 +3233,9 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>6</v>
@@ -3304,10 +3243,10 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -3315,9 +3254,9 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>6</v>
@@ -3325,10 +3264,10 @@
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -3336,9 +3275,9 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>6</v>
@@ -3346,10 +3285,10 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -3357,9 +3296,9 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>6</v>
@@ -3367,10 +3306,10 @@
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -3378,9 +3317,9 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>6</v>
@@ -3388,10 +3327,10 @@
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -3399,9 +3338,9 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
@@ -3409,10 +3348,10 @@
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -3420,9 +3359,9 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>6</v>
@@ -3430,10 +3369,10 @@
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -3441,9 +3380,9 @@
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>6</v>
@@ -3451,10 +3390,10 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -3462,9 +3401,9 @@
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>6</v>
@@ -3472,10 +3411,10 @@
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -3483,9 +3422,9 @@
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>6</v>
@@ -3493,10 +3432,10 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -3504,9 +3443,9 @@
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>6</v>
@@ -3514,10 +3453,10 @@
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -3525,9 +3464,9 @@
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>6</v>
@@ -3535,10 +3474,10 @@
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -3546,9 +3485,9 @@
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>6</v>
@@ -3556,10 +3495,10 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -3567,9 +3506,9 @@
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>6</v>
@@ -3577,10 +3516,10 @@
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -3588,9 +3527,9 @@
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>6</v>
@@ -3598,10 +3537,10 @@
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3609,9 +3548,9 @@
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>6</v>
@@ -3619,10 +3558,10 @@
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -3630,9 +3569,9 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>6</v>
@@ -3640,10 +3579,10 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -3651,9 +3590,9 @@
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>6</v>
@@ -3661,10 +3600,10 @@
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -3672,9 +3611,9 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>6</v>
@@ -3682,10 +3621,10 @@
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -3695,7 +3634,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>6</v>
@@ -3703,10 +3642,10 @@
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -3716,7 +3655,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>6</v>
@@ -3724,10 +3663,10 @@
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="16" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -3737,7 +3676,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>6</v>
@@ -3745,10 +3684,10 @@
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="16" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -3756,9 +3695,9 @@
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>6</v>
@@ -3766,28 +3705,28 @@
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15" t="s">
         <v>70</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>6</v>
@@ -3795,28 +3734,28 @@
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="16" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15" t="s">
         <v>70</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>6</v>
@@ -3824,28 +3763,28 @@
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="16" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="15" t="s">
         <v>70</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>6</v>
@@ -3853,10 +3792,10 @@
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="16" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -3864,9 +3803,9 @@
       <c r="J58" s="15"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>6</v>
@@ -3874,10 +3813,10 @@
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="16" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -3885,9 +3824,9 @@
       <c r="J59" s="15"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>6</v>
@@ -3895,10 +3834,10 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="16" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -3906,9 +3845,9 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>6</v>
@@ -3916,10 +3855,10 @@
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="16" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -3927,30 +3866,38 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="16" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" t="s">
+        <v>372</v>
+      </c>
+      <c r="J62" t="s">
+        <v>373</v>
+      </c>
+      <c r="K62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>6</v>
@@ -3958,10 +3905,10 @@
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="16" t="s">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>283</v>
+        <v>347</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -3969,9 +3916,9 @@
       <c r="J63" s="15"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>6</v>
@@ -3979,10 +3926,10 @@
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="16" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -3990,9 +3937,9 @@
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>6</v>
@@ -4000,10 +3947,10 @@
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="16" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>285</v>
+        <v>349</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -4011,9 +3958,9 @@
       <c r="J65" s="15"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>6</v>
@@ -4021,10 +3968,10 @@
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="16" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>286</v>
+        <v>350</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -4032,9 +3979,9 @@
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>6</v>
@@ -4042,10 +3989,10 @@
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="16" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>287</v>
+        <v>351</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -4053,9 +4000,9 @@
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>6</v>
@@ -4063,28 +4010,28 @@
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="16" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" t="s">
         <v>70</v>
       </c>
       <c r="I68" t="s">
-        <v>359</v>
+        <v>285</v>
       </c>
       <c r="J68" t="s">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="K68" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>6</v>
@@ -4092,28 +4039,28 @@
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="16" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" t="s">
         <v>70</v>
       </c>
       <c r="I69" t="s">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="J69" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="K69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>6</v>
@@ -4121,10 +4068,10 @@
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="16" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -4132,9 +4079,9 @@
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>6</v>
@@ -4142,10 +4089,10 @@
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="16" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -4153,9 +4100,9 @@
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>6</v>
@@ -4163,10 +4110,10 @@
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="16" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>292</v>
+        <v>356</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -4174,9 +4121,9 @@
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>6</v>
@@ -4184,10 +4131,10 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="16" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -4195,9 +4142,9 @@
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>6</v>
@@ -4205,10 +4152,10 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="16" t="s">
-        <v>338</v>
+        <v>264</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -4216,9 +4163,9 @@
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>6</v>
@@ -4226,10 +4173,10 @@
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="16" t="s">
-        <v>340</v>
+        <v>266</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -4237,9 +4184,9 @@
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>6</v>
@@ -4247,10 +4194,10 @@
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="16" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>296</v>
+        <v>360</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -4258,9 +4205,9 @@
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>6</v>
@@ -4268,10 +4215,10 @@
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="16" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -4279,9 +4226,9 @@
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>345</v>
+        <v>271</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>6</v>
@@ -4289,10 +4236,10 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="16" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>298</v>
+        <v>362</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -4300,9 +4247,9 @@
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>6</v>
@@ -4310,10 +4257,10 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="16" t="s">
-        <v>348</v>
+        <v>274</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -4321,9 +4268,9 @@
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>6</v>
@@ -4331,10 +4278,10 @@
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="16" t="s">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -4342,9 +4289,9 @@
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>351</v>
+        <v>277</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>6</v>
@@ -4352,10 +4299,10 @@
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="16" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -4363,9 +4310,9 @@
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>6</v>
@@ -4373,10 +4320,10 @@
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="16" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>302</v>
+        <v>366</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -4384,9 +4331,9 @@
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>6</v>
@@ -4394,10 +4341,10 @@
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="16" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -4405,9 +4352,9 @@
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>357</v>
+        <v>283</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>6</v>
@@ -4415,10 +4362,10 @@
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="16" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{669C97FC-14ED-4520-BA11-CB12CC2B56FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6CC20CA8-BEEE-4599-9C5C-CB5E7AA1B799}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{669C97FC-14ED-4520-BA11-CB12CC2B56FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4ED46B81-DFF7-4AAF-9B01-DEF7DEF84111}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="373">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1150,9 +1150,6 @@
   </si>
   <si>
     <t>https://navtest01.fiservse.net/nav_nav1151/nav1151.aspx</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>'2021/12/23 20:41:25</t>
@@ -1165,7 +1162,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1708,16 +1704,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1764,7 +1760,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1778,7 +1774,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -1808,21 +1804,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1868,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1897,7 +1893,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -2120,7 +2116,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -2199,14 +2195,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,16 +2496,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3886,10 +3882,10 @@
         <v>70</v>
       </c>
       <c r="I62" t="s">
+        <v>371</v>
+      </c>
+      <c r="J62" t="s">
         <v>372</v>
-      </c>
-      <c r="J62" t="s">
-        <v>373</v>
       </c>
       <c r="K62" t="s">
         <v>71</v>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{669C97FC-14ED-4520-BA11-CB12CC2B56FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4ED46B81-DFF7-4AAF-9B01-DEF7DEF84111}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="EPP" sheetId="5" r:id="rId3"/>
     <sheet name="Premier" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Premier!$A$1:$L$84</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="422">
   <si>
     <t>Application_Name</t>
   </si>
@@ -471,24 +474,12 @@
     <t>Premier_TC020</t>
   </si>
   <si>
-    <t>'2021/12/07 10:54:15</t>
-  </si>
-  <si>
-    <t>'2021/12/07 11:09:11</t>
-  </si>
-  <si>
     <t>Premier_TC021</t>
   </si>
   <si>
     <t>TC021</t>
   </si>
   <si>
-    <t>'2021/12/03 15:25:41</t>
-  </si>
-  <si>
-    <t>'2021/12/03 15:27:07</t>
-  </si>
-  <si>
     <t>Premier_TC022</t>
   </si>
   <si>
@@ -507,27 +498,9 @@
     <t>TC024</t>
   </si>
   <si>
-    <t>'2021/12/03 20:40:10</t>
-  </si>
-  <si>
-    <t>'2021/12/03 20:42:00</t>
-  </si>
-  <si>
     <t>Update Customer Address</t>
   </si>
   <si>
-    <t>'2021/12/10 13:19:37</t>
-  </si>
-  <si>
-    <t>'2021/12/10 13:28:01</t>
-  </si>
-  <si>
-    <t>'2021/12/10 14:31:56</t>
-  </si>
-  <si>
-    <t>'2021/12/10 14:36:46</t>
-  </si>
-  <si>
     <t>Premier_TC025</t>
   </si>
   <si>
@@ -918,12 +891,6 @@
     <t>https://navfarm11.fiservse.net/NAV_NAV1151/NAV1151.ASPX?Group=IB65&amp;Inst=65</t>
   </si>
   <si>
-    <t>'2021/12/22 14:06:45</t>
-  </si>
-  <si>
-    <t>'2021/12/22 14:13:11</t>
-  </si>
-  <si>
     <t>Create a individual customer without withholding and add relationship as a control person only</t>
   </si>
   <si>
@@ -939,6 +906,9 @@
     <t>Create a business customer without withholding and add relationship as control person and beneficiary</t>
   </si>
   <si>
+    <t>Create a business customer without withholdingand add relationship as a control person only</t>
+  </si>
+  <si>
     <t>Create a business customer without withholding and add two relationship, one as control person and another as beneficiary</t>
   </si>
   <si>
@@ -1146,16 +1116,196 @@
     <t xml:space="preserve">Certificates-Certificates account maintenance update codes - statement notiifcation </t>
   </si>
   <si>
-    <t>Create a business customer without withholding and add relationship as a control person only</t>
-  </si>
-  <si>
-    <t>https://navtest01.fiservse.net/nav_nav1151/nav1151.aspx</t>
-  </si>
-  <si>
-    <t>'2021/12/23 20:41:25</t>
-  </si>
-  <si>
-    <t>'2021/12/23 20:43:44</t>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>'2021/12/22 21:37:13</t>
+  </si>
+  <si>
+    <t>'2021/12/22 23:04:23</t>
+  </si>
+  <si>
+    <t>'2021/12/22 23:08:23</t>
+  </si>
+  <si>
+    <t>'2021/12/22 23:55:54</t>
+  </si>
+  <si>
+    <t>'2021/12/23 00:16:25</t>
+  </si>
+  <si>
+    <t>'2021/12/23 00:20:26</t>
+  </si>
+  <si>
+    <t>'2021/12/23 00:23:18</t>
+  </si>
+  <si>
+    <t>'2021/12/23 00:26:04</t>
+  </si>
+  <si>
+    <t>'2021/12/23 00:29:23</t>
+  </si>
+  <si>
+    <t>'2021/12/23 00:33:31</t>
+  </si>
+  <si>
+    <t>'2021/12/23 00:36:16</t>
+  </si>
+  <si>
+    <t>'2021/12/23 00:39:29</t>
+  </si>
+  <si>
+    <t>'2021/12/23 00:43:04</t>
+  </si>
+  <si>
+    <t>'2021/12/23 21:57:38</t>
+  </si>
+  <si>
+    <t>'2021/12/23 21:59:24</t>
+  </si>
+  <si>
+    <t>'2021/12/23 22:05:53</t>
+  </si>
+  <si>
+    <t>'2021/12/23 22:09:54</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:16:20</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:21:22</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:26:25</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:31:48</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:46:56</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:52:53</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:54:19</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:55:42</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:57:03</t>
+  </si>
+  <si>
+    <t>'2021/12/24 13:58:32</t>
+  </si>
+  <si>
+    <t>'2021/12/24 14:47:35</t>
+  </si>
+  <si>
+    <t>'2021/12/24 14:56:50</t>
+  </si>
+  <si>
+    <t>'2021/12/24 15:04:58</t>
+  </si>
+  <si>
+    <t>'2021/12/24 15:07:51</t>
+  </si>
+  <si>
+    <t>'2021/12/24 15:14:44</t>
+  </si>
+  <si>
+    <t>'2021/12/24 15:16:38</t>
+  </si>
+  <si>
+    <t>'2021/12/24 20:09:17</t>
+  </si>
+  <si>
+    <t>'2021/12/24 20:13:50</t>
+  </si>
+  <si>
+    <t>'2021/12/27 12:41:11</t>
+  </si>
+  <si>
+    <t>'2021/12/27 12:48:08</t>
+  </si>
+  <si>
+    <t>'2021/12/27 13:35:39</t>
+  </si>
+  <si>
+    <t>'2021/12/27 13:53:19</t>
+  </si>
+  <si>
+    <t>'2021/12/27 15:38:50</t>
+  </si>
+  <si>
+    <t>'2021/12/27 15:47:13</t>
+  </si>
+  <si>
+    <t>'2021/12/27 20:40:54</t>
+  </si>
+  <si>
+    <t>'2021/12/27 20:50:43</t>
+  </si>
+  <si>
+    <t>'2021/12/28 12:30:48</t>
+  </si>
+  <si>
+    <t>'2021/12/28 12:32:59</t>
+  </si>
+  <si>
+    <t>'2021/12/28 12:59:56</t>
+  </si>
+  <si>
+    <t>'2021/12/28 13:06:00</t>
+  </si>
+  <si>
+    <t>'2021/12/28 14:49:38</t>
+  </si>
+  <si>
+    <t>'2021/12/28 14:54:22</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:14:51</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:18:40</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:22:24</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:26:09</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:29:43</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:33:55</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:37:24</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:41:13</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:44:51</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_3</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_4</t>
+  </si>
+  <si>
+    <t>'2021/12/28 22:50:05</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,12 +1366,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,7 +1512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,9 +1543,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1702,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1901,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1774,18 +1915,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -1793,8 +1929,7 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{4D28C060-3FC7-4384-B377-95BDC209822A}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{E2A5E61D-28EC-4233-AFA8-278DC779E7DC}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{795D2318-ED88-4911-BD2D-6C2865044338}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{2A8B23C1-C7BA-47E8-B0D7-206F6F1578A8}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{C94CB2B9-6D7A-4894-8E51-4E71FE112B0B}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{2A8B23C1-C7BA-47E8-B0D7-206F6F1578A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1804,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1999,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1893,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -2116,7 +2251,7 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -2488,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,1871 +2638,2206 @@
     <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="M1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>105</v>
       </c>
       <c r="K2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G3" s="15"/>
+        <v>283</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="H3" t="s">
         <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="J3" t="s">
-        <v>294</v>
+        <v>411</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" s="15"/>
+        <v>284</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>410</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>412</v>
       </c>
       <c r="K4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>410</v>
+      </c>
+      <c r="J5" t="s">
+        <v>413</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J6" t="s">
+        <v>414</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>410</v>
+      </c>
+      <c r="J7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J8" t="s">
+        <v>416</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="B9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>78</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" t="s">
+        <v>410</v>
+      </c>
+      <c r="J9" t="s">
+        <v>417</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" t="s">
+        <v>410</v>
+      </c>
+      <c r="J10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>402</v>
       </c>
       <c r="J11" t="s">
-        <v>145</v>
+        <v>403</v>
       </c>
       <c r="K11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>394</v>
+      </c>
+      <c r="J12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J13" t="s">
+        <v>399</v>
+      </c>
+      <c r="K13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>111</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>400</v>
+      </c>
+      <c r="J14" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>113</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" t="s">
+        <v>396</v>
+      </c>
+      <c r="J15" t="s">
+        <v>397</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="F16" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" t="s">
+        <v>361</v>
+      </c>
+      <c r="J16" t="s">
+        <v>362</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="B17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>117</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
+        <v>361</v>
+      </c>
+      <c r="J17" t="s">
+        <v>363</v>
+      </c>
+      <c r="K17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="B18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="F18" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" t="s">
+        <v>406</v>
+      </c>
+      <c r="J18" t="s">
+        <v>407</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="F19" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>410</v>
+      </c>
+      <c r="J19" t="s">
+        <v>421</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>358</v>
+      </c>
       <c r="F20" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>404</v>
+      </c>
+      <c r="J20" t="s">
+        <v>405</v>
+      </c>
+      <c r="K20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="B21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
+        <v>359</v>
+      </c>
       <c r="F21" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>374</v>
+      </c>
+      <c r="J21" t="s">
+        <v>375</v>
+      </c>
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>360</v>
+      </c>
       <c r="F22" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" t="s">
+        <v>408</v>
+      </c>
+      <c r="J22" t="s">
+        <v>409</v>
+      </c>
+      <c r="K22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>361</v>
+      </c>
+      <c r="J23" t="s">
+        <v>364</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="B24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F24" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" t="s">
+        <v>374</v>
+      </c>
+      <c r="J24" t="s">
+        <v>376</v>
+      </c>
+      <c r="K24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" t="s">
+        <v>361</v>
+      </c>
+      <c r="J25" t="s">
+        <v>365</v>
+      </c>
+      <c r="K25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" t="s">
+        <v>361</v>
+      </c>
+      <c r="J26" t="s">
+        <v>366</v>
+      </c>
+      <c r="K26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" t="s">
+        <v>361</v>
+      </c>
+      <c r="J27" t="s">
+        <v>367</v>
+      </c>
+      <c r="K27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" t="s">
+        <v>361</v>
+      </c>
+      <c r="J28" t="s">
+        <v>368</v>
+      </c>
+      <c r="K28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" t="s">
+        <v>361</v>
+      </c>
+      <c r="J29" t="s">
+        <v>369</v>
+      </c>
+      <c r="K29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" t="s">
+        <v>361</v>
+      </c>
+      <c r="J30" t="s">
+        <v>370</v>
+      </c>
+      <c r="K30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>361</v>
+      </c>
+      <c r="J31" t="s">
+        <v>371</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" t="s">
+        <v>361</v>
+      </c>
+      <c r="J32" t="s">
+        <v>372</v>
+      </c>
+      <c r="K32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" t="s">
+        <v>361</v>
+      </c>
+      <c r="J33" t="s">
+        <v>373</v>
+      </c>
+      <c r="K33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" t="s">
+        <v>374</v>
+      </c>
+      <c r="J34" t="s">
+        <v>377</v>
+      </c>
+      <c r="K34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" t="s">
+        <v>378</v>
+      </c>
+      <c r="J35" t="s">
+        <v>379</v>
+      </c>
+      <c r="K35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" t="s">
+        <v>378</v>
+      </c>
+      <c r="J36" t="s">
+        <v>380</v>
+      </c>
+      <c r="K36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" t="s">
+        <v>378</v>
+      </c>
+      <c r="J37" t="s">
+        <v>381</v>
+      </c>
+      <c r="K37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" t="s">
+        <v>382</v>
+      </c>
+      <c r="J38" t="s">
+        <v>383</v>
+      </c>
+      <c r="K38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15" t="s">
+      <c r="G39" s="14"/>
+      <c r="H39" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="I39" t="s">
+        <v>382</v>
+      </c>
+      <c r="J39" t="s">
+        <v>384</v>
+      </c>
+      <c r="K39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="I40" t="s">
+        <v>382</v>
+      </c>
+      <c r="J40" t="s">
+        <v>385</v>
+      </c>
+      <c r="K40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="11" t="s">
+      <c r="G41" s="14"/>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" t="s">
+        <v>382</v>
+      </c>
+      <c r="J41" t="s">
+        <v>386</v>
+      </c>
+      <c r="K41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="G42" s="14"/>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" t="s">
+        <v>382</v>
+      </c>
+      <c r="J42" t="s">
+        <v>387</v>
+      </c>
+      <c r="K42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="G43" s="14"/>
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" t="s">
+        <v>388</v>
+      </c>
+      <c r="J43" t="s">
+        <v>389</v>
+      </c>
+      <c r="K43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" t="s">
+        <v>391</v>
+      </c>
+      <c r="K44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>392</v>
+      </c>
+      <c r="K45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
+      <c r="F46" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>393</v>
+      </c>
+      <c r="K46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="J55" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15" t="s">
+      <c r="K55" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="B56" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="B57" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
+      <c r="B58" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
+      <c r="F58" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15" t="s">
+      <c r="B59" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F59" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="11" t="s">
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-    </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F47" s="11" t="s">
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F48" s="11" t="s">
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F63" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" s="11" t="s">
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="11" t="s">
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F65" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" s="11" t="s">
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F56" s="11" t="s">
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F57" s="11" t="s">
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="G62" s="15"/>
-      <c r="H62" t="s">
-        <v>70</v>
-      </c>
-      <c r="I62" t="s">
-        <v>371</v>
-      </c>
-      <c r="J62" t="s">
-        <v>372</v>
-      </c>
-      <c r="K62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="G68" s="15"/>
+      <c r="G68" s="14"/>
       <c r="H68" t="s">
         <v>70</v>
       </c>
       <c r="I68" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J68" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="K68" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="G69" s="15"/>
+      <c r="A69" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="G69" s="14"/>
       <c r="H69" t="s">
         <v>70</v>
       </c>
       <c r="I69" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J69" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="K69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="16" t="s">
+      <c r="B75" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F75" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="F71" s="18" t="s">
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F82" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="F72" s="18" t="s">
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="F83" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="F73" s="18" t="s">
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F84" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F82" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="F83" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299391E0-8BE4-4C8C-BE58-65CA9E77E00F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20305BAC-C33D-4B9D-8EFA-6CA0D414AE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="231">
   <si>
     <t>Application_Name</t>
   </si>
@@ -558,11 +557,205 @@
   <si>
     <t>Premier_TC020</t>
   </si>
+  <si>
+    <t>sthangapalam</t>
+  </si>
+  <si>
+    <t>'2021/11/30 19:14:11</t>
+  </si>
+  <si>
+    <t>'2021/11/30 19:16:35</t>
+  </si>
+  <si>
+    <t>'2021/11/30 19:49:25</t>
+  </si>
+  <si>
+    <t>'2021/11/30 20:08:23</t>
+  </si>
+  <si>
+    <t>'2021/12/01 13:56:45</t>
+  </si>
+  <si>
+    <t>'2021/12/01 14:18:20</t>
+  </si>
+  <si>
+    <t>EPP_TC001_01</t>
+  </si>
+  <si>
+    <t>EPP_TC012_01</t>
+  </si>
+  <si>
+    <t>'2021/12/01 14:48:20</t>
+  </si>
+  <si>
+    <t>'2021/12/01 15:09:52</t>
+  </si>
+  <si>
+    <t>'2021/12/01 15:26:03</t>
+  </si>
+  <si>
+    <t>'2021/12/03 11:17:58</t>
+  </si>
+  <si>
+    <t>'2021/12/03 11:20:10</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC012</t>
+  </si>
+  <si>
+    <t>Create a batch template and search it
+(flexbile to add 1 to any number of payees)</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC013</t>
+  </si>
+  <si>
+    <t>Edit a batch template and Seach it
+if Existing template , do a edit
+else create new template and do edit</t>
+  </si>
+  <si>
+    <t>'2021/12/16 12:04:44</t>
+  </si>
+  <si>
+    <t>'2021/12/16 12:13:43</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC014</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment using batch template- Approval
+if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments</t>
+  </si>
+  <si>
+    <t>'2021/12/21 00:13:42</t>
+  </si>
+  <si>
+    <t>'2021/12/21 00:25:44</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment using batch template- Reject
+if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC015</t>
+  </si>
+  <si>
+    <t>'2021/12/21 01:14:00</t>
+  </si>
+  <si>
+    <t>'2021/12/21 01:21:13</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC016</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment using batch template- Cancel
+if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments</t>
+  </si>
+  <si>
+    <t>'2021/12/21 15:31:44</t>
+  </si>
+  <si>
+    <t>'2021/12/21 15:38:37</t>
+  </si>
+  <si>
+    <t>'2021/12/21 16:17:50</t>
+  </si>
+  <si>
+    <t>'2021/12/21 16:29:20</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC020</t>
+  </si>
+  <si>
+    <t>Create a confidential batch template and search it
+(flexbile to add 1 to any number of payees)</t>
+  </si>
+  <si>
+    <t>'2021/12/21 18:51:15</t>
+  </si>
+  <si>
+    <t>'2021/12/21 19:05:08</t>
+  </si>
+  <si>
+    <t>'2021/12/22 16:56:10</t>
+  </si>
+  <si>
+    <t>'2021/12/22 17:15:05</t>
+  </si>
+  <si>
+    <t>'2021/12/23 16:53:46</t>
+  </si>
+  <si>
+    <t>'2021/12/23 16:56:12</t>
+  </si>
+  <si>
+    <t>'2021/12/23 19:31:45</t>
+  </si>
+  <si>
+    <t>'2021/12/23 19:39:36</t>
+  </si>
+  <si>
+    <t>'2021/12/23 21:35:20</t>
+  </si>
+  <si>
+    <t>'2021/12/23 21:42:51</t>
+  </si>
+  <si>
+    <t>'2021/12/23 21:48:42</t>
+  </si>
+  <si>
+    <t>'2021/12/23 21:58:14</t>
+  </si>
+  <si>
+    <t>'2021/12/24 12:27:18</t>
+  </si>
+  <si>
+    <t>'2021/12/24 12:39:16</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC017</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment using free form- Approval</t>
+  </si>
+  <si>
+    <t>'2022/01/03 12:58:15</t>
+  </si>
+  <si>
+    <t>'2022/01/03 13:01:06</t>
+  </si>
+  <si>
+    <t>'2022/01/03 17:22:57</t>
+  </si>
+  <si>
+    <t>'2022/01/03 17:29:38</t>
+  </si>
+  <si>
+    <t>'2022/01/03 17:42:48</t>
+  </si>
+  <si>
+    <t>'2022/01/03 17:48:05</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/01/04 16:47:04</t>
+  </si>
+  <si>
+    <t>'2022/01/04 17:00:57</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1083,15 +1276,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1138,7 +1331,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1152,7 +1345,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -1174,23 +1367,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1236,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1265,7 +1458,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1380,6 +1573,18 @@
       <c r="F7" t="s">
         <v>38</v>
       </c>
+      <c r="H7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1397,6 +1602,18 @@
       <c r="F8" t="s">
         <v>40</v>
       </c>
+      <c r="H8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1414,6 +1631,18 @@
       <c r="F9" t="s">
         <v>42</v>
       </c>
+      <c r="H9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1431,6 +1660,18 @@
       <c r="F10" t="s">
         <v>44</v>
       </c>
+      <c r="H10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1448,6 +1689,18 @@
       <c r="F11" t="s">
         <v>47</v>
       </c>
+      <c r="H11" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1465,6 +1718,18 @@
       <c r="F12" t="s">
         <v>49</v>
       </c>
+      <c r="H12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1482,6 +1747,18 @@
       <c r="F13" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="H13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1499,6 +1776,18 @@
       <c r="F14" s="9" t="s">
         <v>52</v>
       </c>
+      <c r="H14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" t="s">
+        <v>222</v>
+      </c>
+      <c r="J14" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1516,6 +1805,18 @@
       <c r="F15" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" t="s">
+        <v>225</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1533,8 +1834,20 @@
       <c r="F16" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1549,6 +1862,209 @@
       </c>
       <c r="F17" s="9" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1559,22 +2075,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="104.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1617,7 +2134,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1771,7 +2288,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -1781,6 +2298,18 @@
       </c>
       <c r="F13" t="s">
         <v>135</v>
+      </c>
+      <c r="H13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1824,8 +2353,20 @@
       <c r="F16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -1839,18 +2380,70 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
         <v>145</v>
       </c>
       <c r="F18" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1862,22 +2455,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2263,7 +2856,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>127</v>
       </c>
@@ -2283,7 +2876,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>129</v>
       </c>
@@ -2303,12 +2896,12 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -2317,11 +2910,20 @@
         <v>162</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>167</v>
       </c>
@@ -2339,7 +2941,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>168</v>
       </c>
@@ -2357,12 +2959,12 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -2371,9 +2973,18 @@
         <v>165</v>
       </c>
       <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="H22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F82ED467-6B2F-4061-8B20-3AA82EE6B714}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD5A7062-2158-4798-9481-31FE02BBF837}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="474">
   <si>
     <t>Application_Name</t>
   </si>
@@ -304,15 +304,6 @@
   </si>
   <si>
     <t>TC010</t>
-  </si>
-  <si>
-    <t>'2021/11/17 22:19:06</t>
-  </si>
-  <si>
-    <t>'2021/11/17 22:21:20</t>
-  </si>
-  <si>
-    <t>'2021/11/17 22:21:58</t>
   </si>
   <si>
     <t>'2021/11/18 13:34:38</t>
@@ -1457,12 +1448,37 @@
   </si>
   <si>
     <t>'2021/12/21 19:05:08</t>
+  </si>
+  <si>
+    <t>'2022/01/04 21:56:18</t>
+  </si>
+  <si>
+    <t>'2022/01/04 22:01:18</t>
+  </si>
+  <si>
+    <t>'2022/01/04 22:08:28</t>
+  </si>
+  <si>
+    <t>'2022/01/04 22:15:20</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/01/05 15:33:25</t>
+  </si>
+  <si>
+    <t>'2022/01/05 15:37:38</t>
+  </si>
+  <si>
+    <t>'2022/01/05 15:42:03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1997,15 +2013,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2038,7 +2054,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2066,13 +2082,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2090,21 +2106,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2165,10 +2181,10 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
         <v>71</v>
@@ -2194,10 +2210,10 @@
         <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
         <v>71</v>
@@ -2223,10 +2239,10 @@
         <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>466</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>467</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
@@ -2237,7 +2253,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -2252,10 +2268,10 @@
         <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>471</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>472</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -2266,7 +2282,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -2276,6 +2292,18 @@
       </c>
       <c r="F6" t="s">
         <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>471</v>
+      </c>
+      <c r="J6" t="s">
+        <v>473</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2295,13 +2323,13 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
@@ -2324,13 +2352,13 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
+        <v>419</v>
+      </c>
+      <c r="I8" t="s">
         <v>422</v>
       </c>
-      <c r="I8" t="s">
-        <v>425</v>
-      </c>
       <c r="J8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
@@ -2353,13 +2381,13 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" t="s">
         <v>422</v>
       </c>
-      <c r="I9" t="s">
-        <v>425</v>
-      </c>
       <c r="J9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
@@ -2382,13 +2410,13 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -2411,13 +2439,13 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
@@ -2440,13 +2468,13 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" t="s">
         <v>422</v>
       </c>
-      <c r="I12" t="s">
-        <v>425</v>
-      </c>
       <c r="J12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -2469,13 +2497,13 @@
         <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -2498,13 +2526,13 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J14" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -2527,13 +2555,13 @@
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -2556,16 +2584,16 @@
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2587,7 +2615,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2596,19 +2624,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H18" t="s">
+        <v>419</v>
+      </c>
+      <c r="I18" t="s">
+        <v>440</v>
+      </c>
+      <c r="J18" t="s">
         <v>441</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H18" t="s">
-        <v>422</v>
-      </c>
-      <c r="I18" t="s">
-        <v>443</v>
-      </c>
-      <c r="J18" t="s">
-        <v>444</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
@@ -2616,7 +2644,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2625,19 +2653,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H19" t="s">
+        <v>419</v>
+      </c>
+      <c r="I19" t="s">
+        <v>444</v>
+      </c>
+      <c r="J19" t="s">
         <v>445</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="H19" t="s">
-        <v>422</v>
-      </c>
-      <c r="I19" t="s">
-        <v>447</v>
-      </c>
-      <c r="J19" t="s">
-        <v>448</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -2645,7 +2673,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2654,19 +2682,19 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
+        <v>446</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H20" t="s">
+        <v>419</v>
+      </c>
+      <c r="I20" t="s">
+        <v>448</v>
+      </c>
+      <c r="J20" t="s">
         <v>449</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="H20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I20" t="s">
-        <v>451</v>
-      </c>
-      <c r="J20" t="s">
-        <v>452</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
@@ -2674,7 +2702,7 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2683,19 +2711,19 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="H21" t="s">
+        <v>419</v>
+      </c>
+      <c r="I21" t="s">
+        <v>452</v>
+      </c>
+      <c r="J21" t="s">
         <v>453</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="H21" t="s">
-        <v>422</v>
-      </c>
-      <c r="I21" t="s">
-        <v>455</v>
-      </c>
-      <c r="J21" t="s">
-        <v>456</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
@@ -2703,7 +2731,7 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2712,19 +2740,19 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>454</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="H22" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22" t="s">
+        <v>456</v>
+      </c>
+      <c r="J22" t="s">
         <v>457</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="H22" t="s">
-        <v>422</v>
-      </c>
-      <c r="I22" t="s">
-        <v>459</v>
-      </c>
-      <c r="J22" t="s">
-        <v>460</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
@@ -2732,7 +2760,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2741,19 +2769,19 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>458</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="H23" t="s">
+        <v>419</v>
+      </c>
+      <c r="I23" t="s">
+        <v>460</v>
+      </c>
+      <c r="J23" t="s">
         <v>461</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="H23" t="s">
-        <v>422</v>
-      </c>
-      <c r="I23" t="s">
-        <v>463</v>
-      </c>
-      <c r="J23" t="s">
-        <v>464</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
@@ -2761,7 +2789,7 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2770,19 +2798,19 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>462</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="H24" t="s">
+        <v>419</v>
+      </c>
+      <c r="I24" t="s">
+        <v>464</v>
+      </c>
+      <c r="J24" t="s">
         <v>465</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="H24" t="s">
-        <v>422</v>
-      </c>
-      <c r="I24" t="s">
-        <v>467</v>
-      </c>
-      <c r="J24" t="s">
-        <v>468</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
@@ -2804,14 +2832,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2989,105 +3017,105 @@
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3099,22 +3127,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3155,15 +3183,15 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>6</v>
@@ -3178,13 +3206,13 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
         <v>71</v>
@@ -3192,7 +3220,7 @@
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
@@ -3203,17 +3231,17 @@
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K3" t="s">
         <v>71</v>
@@ -3221,7 +3249,7 @@
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -3232,17 +3260,17 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
@@ -3250,7 +3278,7 @@
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>6</v>
@@ -3261,17 +3289,17 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
+        <v>407</v>
+      </c>
+      <c r="J5" t="s">
         <v>410</v>
-      </c>
-      <c r="J5" t="s">
-        <v>413</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -3279,7 +3307,7 @@
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>6</v>
@@ -3290,17 +3318,17 @@
         <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -3308,7 +3336,7 @@
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -3319,17 +3347,17 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
@@ -3337,7 +3365,7 @@
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>6</v>
@@ -3348,17 +3376,17 @@
         <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
@@ -3366,7 +3394,7 @@
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>6</v>
@@ -3377,17 +3405,17 @@
         <v>78</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
@@ -3395,7 +3423,7 @@
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -3406,17 +3434,17 @@
         <v>81</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -3424,7 +3452,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>6</v>
@@ -3435,17 +3463,17 @@
         <v>84</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
@@ -3453,7 +3481,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>6</v>
@@ -3464,17 +3492,17 @@
         <v>87</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -3482,7 +3510,7 @@
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>6</v>
@@ -3490,28 +3518,28 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>6</v>
@@ -3519,20 +3547,20 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -3540,7 +3568,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>6</v>
@@ -3548,20 +3576,20 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J15" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -3569,7 +3597,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>6</v>
@@ -3577,20 +3605,20 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K16" t="s">
         <v>71</v>
@@ -3598,7 +3626,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>6</v>
@@ -3606,20 +3634,20 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K17" t="s">
         <v>71</v>
@@ -3627,7 +3655,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>6</v>
@@ -3635,20 +3663,20 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
@@ -3656,7 +3684,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>6</v>
@@ -3664,20 +3692,20 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -3694,7 +3722,7 @@
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -3702,20 +3730,20 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
@@ -3723,7 +3751,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>6</v>
@@ -3731,20 +3759,20 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
@@ -3752,7 +3780,7 @@
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>6</v>
@@ -3760,20 +3788,20 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
@@ -3781,7 +3809,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>6</v>
@@ -3789,20 +3817,20 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
+        <v>358</v>
+      </c>
+      <c r="J23" t="s">
         <v>361</v>
-      </c>
-      <c r="J23" t="s">
-        <v>364</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
@@ -3810,7 +3838,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>6</v>
@@ -3818,20 +3846,20 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
@@ -3839,7 +3867,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>6</v>
@@ -3847,20 +3875,20 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K25" t="s">
         <v>71</v>
@@ -3868,7 +3896,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>6</v>
@@ -3876,20 +3904,20 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K26" t="s">
         <v>71</v>
@@ -3897,7 +3925,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>6</v>
@@ -3905,20 +3933,20 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J27" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K27" t="s">
         <v>71</v>
@@ -3926,7 +3954,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>6</v>
@@ -3934,20 +3962,20 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K28" t="s">
         <v>71</v>
@@ -3955,7 +3983,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>6</v>
@@ -3963,20 +3991,20 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K29" t="s">
         <v>71</v>
@@ -3984,7 +4012,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>6</v>
@@ -3992,20 +4020,20 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J30" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K30" t="s">
         <v>71</v>
@@ -4013,7 +4041,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>6</v>
@@ -4021,20 +4049,20 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K31" t="s">
         <v>71</v>
@@ -4042,7 +4070,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>6</v>
@@ -4050,20 +4078,20 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K32" t="s">
         <v>71</v>
@@ -4071,7 +4099,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -4079,20 +4107,20 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J33" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K33" t="s">
         <v>71</v>
@@ -4100,7 +4128,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -4108,20 +4136,20 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
+        <v>371</v>
+      </c>
+      <c r="J34" t="s">
         <v>374</v>
-      </c>
-      <c r="J34" t="s">
-        <v>377</v>
       </c>
       <c r="K34" t="s">
         <v>71</v>
@@ -4129,7 +4157,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>6</v>
@@ -4137,20 +4165,20 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J35" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K35" t="s">
         <v>71</v>
@@ -4158,7 +4186,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>6</v>
@@ -4166,20 +4194,20 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J36" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K36" t="s">
         <v>71</v>
@@ -4187,7 +4215,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>6</v>
@@ -4195,20 +4223,20 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I37" t="s">
+        <v>375</v>
+      </c>
+      <c r="J37" t="s">
         <v>378</v>
-      </c>
-      <c r="J37" t="s">
-        <v>381</v>
       </c>
       <c r="K37" t="s">
         <v>71</v>
@@ -4216,7 +4244,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>6</v>
@@ -4224,20 +4252,20 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J38" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K38" t="s">
         <v>71</v>
@@ -4245,7 +4273,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>6</v>
@@ -4253,20 +4281,20 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J39" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K39" t="s">
         <v>71</v>
@@ -4274,7 +4302,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>6</v>
@@ -4282,20 +4310,20 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
+        <v>379</v>
+      </c>
+      <c r="J40" t="s">
         <v>382</v>
-      </c>
-      <c r="J40" t="s">
-        <v>385</v>
       </c>
       <c r="K40" t="s">
         <v>71</v>
@@ -4303,7 +4331,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>6</v>
@@ -4311,20 +4339,20 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K41" t="s">
         <v>71</v>
@@ -4332,7 +4360,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>6</v>
@@ -4340,20 +4368,20 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K42" t="s">
         <v>71</v>
@@ -4361,7 +4389,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>6</v>
@@ -4369,20 +4397,20 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K43" t="s">
         <v>71</v>
@@ -4390,7 +4418,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>6</v>
@@ -4398,20 +4426,20 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K44" t="s">
         <v>71</v>
@@ -4419,7 +4447,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>6</v>
@@ -4427,20 +4455,20 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J45" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s">
         <v>71</v>
@@ -4448,7 +4476,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>6</v>
@@ -4456,20 +4484,20 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I46" t="s">
+        <v>387</v>
+      </c>
+      <c r="J46" t="s">
         <v>390</v>
-      </c>
-      <c r="J46" t="s">
-        <v>393</v>
       </c>
       <c r="K46" t="s">
         <v>71</v>
@@ -4477,7 +4505,7 @@
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>6</v>
@@ -4485,10 +4513,10 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -4498,7 +4526,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>5</v>
@@ -4506,10 +4534,10 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -4519,7 +4547,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>6</v>
@@ -4527,10 +4555,10 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -4540,7 +4568,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>6</v>
@@ -4548,10 +4576,10 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
@@ -4561,7 +4589,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>6</v>
@@ -4569,10 +4597,10 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -4582,7 +4610,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>6</v>
@@ -4590,10 +4618,10 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -4603,7 +4631,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>6</v>
@@ -4611,10 +4639,10 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -4624,7 +4652,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>6</v>
@@ -4632,10 +4660,10 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -4645,7 +4673,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>6</v>
@@ -4653,20 +4681,20 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14" t="s">
         <v>70</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K55" s="14" t="s">
         <v>71</v>
@@ -4674,7 +4702,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>6</v>
@@ -4682,20 +4710,20 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14" t="s">
         <v>70</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K56" s="14" t="s">
         <v>71</v>
@@ -4703,7 +4731,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>6</v>
@@ -4711,20 +4739,20 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14" t="s">
         <v>70</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K57" s="14" t="s">
         <v>71</v>
@@ -4732,7 +4760,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>6</v>
@@ -4740,10 +4768,10 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
@@ -4753,7 +4781,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>6</v>
@@ -4761,10 +4789,10 @@
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -4774,7 +4802,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>6</v>
@@ -4782,10 +4810,10 @@
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -4795,7 +4823,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>6</v>
@@ -4803,10 +4831,10 @@
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
@@ -4816,7 +4844,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>6</v>
@@ -4824,10 +4852,10 @@
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -4837,7 +4865,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>6</v>
@@ -4845,10 +4873,10 @@
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -4858,7 +4886,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>6</v>
@@ -4866,10 +4894,10 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -4879,7 +4907,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>6</v>
@@ -4887,10 +4915,10 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
@@ -4900,7 +4928,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>6</v>
@@ -4908,10 +4936,10 @@
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -4921,7 +4949,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>6</v>
@@ -4929,10 +4957,10 @@
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
@@ -4942,7 +4970,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>6</v>
@@ -4950,20 +4978,20 @@
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" t="s">
         <v>70</v>
       </c>
       <c r="I68" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J68" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K68" t="s">
         <v>71</v>
@@ -4971,7 +4999,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>6</v>
@@ -4979,20 +5007,20 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" t="s">
         <v>70</v>
       </c>
       <c r="I69" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J69" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K69" t="s">
         <v>71</v>
@@ -5000,7 +5028,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>6</v>
@@ -5008,10 +5036,10 @@
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
@@ -5021,7 +5049,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>6</v>
@@ -5029,10 +5057,10 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -5042,7 +5070,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>6</v>
@@ -5050,10 +5078,10 @@
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -5063,7 +5091,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>6</v>
@@ -5071,10 +5099,10 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
@@ -5084,7 +5112,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>6</v>
@@ -5092,10 +5120,10 @@
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
@@ -5105,7 +5133,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>6</v>
@@ -5113,10 +5141,10 @@
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -5126,7 +5154,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>6</v>
@@ -5134,10 +5162,10 @@
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -5147,7 +5175,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>6</v>
@@ -5155,10 +5183,10 @@
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
@@ -5168,7 +5196,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>6</v>
@@ -5176,10 +5204,10 @@
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
@@ -5189,7 +5217,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>6</v>
@@ -5197,10 +5225,10 @@
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
@@ -5210,7 +5238,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>6</v>
@@ -5218,10 +5246,10 @@
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
@@ -5231,7 +5259,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>6</v>
@@ -5239,10 +5267,10 @@
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
@@ -5252,7 +5280,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>6</v>
@@ -5260,10 +5288,10 @@
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
@@ -5273,7 +5301,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>6</v>
@@ -5281,10 +5309,10 @@
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
@@ -5294,7 +5322,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>6</v>
@@ -5302,10 +5330,10 @@
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BD5A7062-2158-4798-9481-31FE02BBF837}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F0DA2E32-BCB4-4CEB-A70F-85462BC2DBB8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="471">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1454,15 +1454,6 @@
   </si>
   <si>
     <t>'2022/01/04 22:01:18</t>
-  </si>
-  <si>
-    <t>'2022/01/04 22:08:28</t>
-  </si>
-  <si>
-    <t>'2022/01/04 22:15:20</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>'2022/01/05 15:33:25</t>
@@ -1478,7 +1469,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2013,15 +2003,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2054,7 +2044,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2082,7 +2072,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -2106,21 +2096,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="79" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="79" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2268,10 +2258,10 @@
         <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -2297,10 +2287,10 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -2832,14 +2822,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3127,22 +3117,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4529,7 +4519,7 @@
         <v>200</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -4826,7 +4816,7 @@
         <v>224</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -4847,7 +4837,7 @@
         <v>226</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F74762F-F1B3-47B4-9306-B57182ACABB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="435">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1134,57 +1134,24 @@
     <t>'2021/12/22 23:08:23</t>
   </si>
   <si>
-    <t>'2021/12/22 23:55:54</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:16:25</t>
-  </si>
-  <si>
     <t>'2021/12/23 00:20:26</t>
   </si>
   <si>
-    <t>'2021/12/23 00:23:18</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:26:04</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:29:23</t>
-  </si>
-  <si>
     <t>'2021/12/23 00:33:31</t>
   </si>
   <si>
-    <t>'2021/12/23 00:36:16</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:39:29</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:43:04</t>
-  </si>
-  <si>
     <t>'2021/12/23 21:57:38</t>
   </si>
   <si>
     <t>'2021/12/23 21:59:24</t>
   </si>
   <si>
-    <t>'2021/12/23 22:05:53</t>
-  </si>
-  <si>
     <t>'2021/12/23 22:09:54</t>
   </si>
   <si>
     <t>'2021/12/24 13:16:20</t>
   </si>
   <si>
-    <t>'2021/12/24 13:21:22</t>
-  </si>
-  <si>
-    <t>'2021/12/24 13:26:25</t>
-  </si>
-  <si>
     <t>'2021/12/24 13:31:48</t>
   </si>
   <si>
@@ -1306,6 +1273,78 @@
   </si>
   <si>
     <t>'2021/12/28 22:50:05</t>
+  </si>
+  <si>
+    <t>'2022/01/04 22:54:31</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_5</t>
+  </si>
+  <si>
+    <t>'2022/01/05 00:52:18</t>
+  </si>
+  <si>
+    <t>'2022/01/05 01:40:51</t>
+  </si>
+  <si>
+    <t>'2022/01/05 01:59:16</t>
+  </si>
+  <si>
+    <t>'2022/01/05 02:44:34</t>
+  </si>
+  <si>
+    <t>'2022/01/05 03:36:14</t>
+  </si>
+  <si>
+    <t>'2022/01/05 03:54:39</t>
+  </si>
+  <si>
+    <t>'2022/01/05 04:50:43</t>
+  </si>
+  <si>
+    <t>'2022/01/05 19:28:39</t>
+  </si>
+  <si>
+    <t>'2022/01/05 19:32:47</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_6</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_7</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_8</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_9</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_10</t>
+  </si>
+  <si>
+    <t>'2022/01/06 15:59:57</t>
+  </si>
+  <si>
+    <t>'2022/01/06 16:13:01</t>
+  </si>
+  <si>
+    <t>'2022/01/06 16:40:34</t>
+  </si>
+  <si>
+    <t>'2022/01/06 16:54:54</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:05:13</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:08:43</t>
+  </si>
+  <si>
+    <t>'2022/01/06 20:33:14</t>
+  </si>
+  <si>
+    <t>'2022/01/06 20:36:38</t>
   </si>
 </sst>
 </file>
@@ -2623,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2682,7 @@
     <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -2681,13 +2720,31 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="N1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="O1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>423</v>
+      </c>
+      <c r="R1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S1" t="s">
+        <v>425</v>
+      </c>
+      <c r="T1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>94</v>
       </c>
@@ -2716,7 +2773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>95</v>
       </c>
@@ -2736,16 +2793,16 @@
         <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>96</v>
       </c>
@@ -2765,16 +2822,16 @@
         <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>97</v>
       </c>
@@ -2794,16 +2851,16 @@
         <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J5" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>98</v>
       </c>
@@ -2823,16 +2880,16 @@
         <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J6" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>99</v>
       </c>
@@ -2852,16 +2909,16 @@
         <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>100</v>
       </c>
@@ -2881,16 +2938,16 @@
         <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J8" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>101</v>
       </c>
@@ -2910,16 +2967,16 @@
         <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J9" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>102</v>
       </c>
@@ -2939,16 +2996,16 @@
         <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J10" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>106</v>
       </c>
@@ -2968,16 +3025,16 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="J11" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>107</v>
       </c>
@@ -2997,16 +3054,16 @@
         <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="J12" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>108</v>
       </c>
@@ -3026,16 +3083,16 @@
         <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="J13" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="K13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>110</v>
       </c>
@@ -3055,16 +3112,16 @@
         <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="J14" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>112</v>
       </c>
@@ -3084,16 +3141,16 @@
         <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="J15" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>114</v>
       </c>
@@ -3122,7 +3179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>116</v>
       </c>
@@ -3151,7 +3208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>118</v>
       </c>
@@ -3171,16 +3228,16 @@
         <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="J18" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>140</v>
       </c>
@@ -3200,11 +3257,11 @@
         <v>103</v>
       </c>
       <c r="I19" t="s">
+        <v>399</v>
+      </c>
+      <c r="J19" t="s">
         <v>410</v>
       </c>
-      <c r="J19" t="s">
-        <v>421</v>
-      </c>
       <c r="K19" t="s">
         <v>71</v>
       </c>
@@ -3218,7 +3275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>141</v>
       </c>
@@ -3238,16 +3295,16 @@
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="J20" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>142</v>
       </c>
@@ -3267,16 +3324,16 @@
         <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J21" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>143</v>
       </c>
@@ -3296,16 +3353,16 @@
         <v>103</v>
       </c>
       <c r="I22" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="J22" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>144</v>
       </c>
@@ -3325,16 +3382,28 @@
         <v>103</v>
       </c>
       <c r="I23" t="s">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="J23" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" t="s">
+        <v>136</v>
+      </c>
+      <c r="O23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>146</v>
       </c>
@@ -3354,21 +3423,21 @@
         <v>103</v>
       </c>
       <c r="I24" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="J24" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3378,21 +3447,35 @@
       <c r="F25" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="14">
+        <v>4</v>
+      </c>
       <c r="H25" t="s">
         <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J25" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="L25" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" t="s">
+        <v>136</v>
+      </c>
+      <c r="N25" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>150</v>
       </c>
@@ -3415,18 +3498,18 @@
         <v>361</v>
       </c>
       <c r="J26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>153</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -3436,26 +3519,40 @@
       <c r="F27" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
       <c r="H27" t="s">
         <v>103</v>
       </c>
       <c r="I27" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J27" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="L27" t="s">
+        <v>136</v>
+      </c>
+      <c r="M27" t="s">
+        <v>136</v>
+      </c>
+      <c r="N27" t="s">
+        <v>136</v>
+      </c>
+      <c r="O27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -3470,21 +3567,21 @@
         <v>103</v>
       </c>
       <c r="I28" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J28" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>157</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -3494,21 +3591,35 @@
       <c r="F29" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="14">
+        <v>4</v>
+      </c>
       <c r="H29" t="s">
         <v>103</v>
       </c>
       <c r="I29" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J29" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="K29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" t="s">
+        <v>136</v>
+      </c>
+      <c r="N29" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>159</v>
       </c>
@@ -3531,18 +3642,18 @@
         <v>361</v>
       </c>
       <c r="J30" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -3552,26 +3663,40 @@
       <c r="F31" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="14">
+        <v>4</v>
+      </c>
       <c r="H31" t="s">
         <v>103</v>
       </c>
       <c r="I31" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J31" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="L31" t="s">
+        <v>136</v>
+      </c>
+      <c r="M31" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -3586,21 +3711,21 @@
         <v>103</v>
       </c>
       <c r="I32" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J32" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>165</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -3610,21 +3735,35 @@
       <c r="F33" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="14">
+        <v>4</v>
+      </c>
       <c r="H33" t="s">
         <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="J33" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="K33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="L33" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" t="s">
+        <v>136</v>
+      </c>
+      <c r="O33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>167</v>
       </c>
@@ -3644,16 +3783,16 @@
         <v>103</v>
       </c>
       <c r="I34" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J34" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="K34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>169</v>
       </c>
@@ -3673,21 +3812,30 @@
         <v>103</v>
       </c>
       <c r="I35" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="J35" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="K35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>136</v>
+      </c>
+      <c r="M35" t="s">
+        <v>136</v>
+      </c>
+      <c r="N35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -3697,21 +3845,50 @@
       <c r="F36" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="14">
+        <v>10</v>
+      </c>
       <c r="H36" t="s">
         <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="J36" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="K36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" t="s">
+        <v>71</v>
+      </c>
+      <c r="N36" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36" t="s">
+        <v>136</v>
+      </c>
+      <c r="P36" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s">
+        <v>136</v>
+      </c>
+      <c r="S36" t="s">
+        <v>136</v>
+      </c>
+      <c r="T36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>173</v>
       </c>
@@ -3731,16 +3908,16 @@
         <v>103</v>
       </c>
       <c r="I37" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="J37" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="K37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>193</v>
       </c>
@@ -3760,16 +3937,16 @@
         <v>103</v>
       </c>
       <c r="I38" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="J38" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="K38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>194</v>
       </c>
@@ -3789,16 +3966,16 @@
         <v>103</v>
       </c>
       <c r="I39" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="K39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>195</v>
       </c>
@@ -3818,16 +3995,16 @@
         <v>103</v>
       </c>
       <c r="I40" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="J40" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="K40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>196</v>
       </c>
@@ -3847,16 +4024,16 @@
         <v>103</v>
       </c>
       <c r="I41" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="J41" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="K41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>197</v>
       </c>
@@ -3876,16 +4053,16 @@
         <v>103</v>
       </c>
       <c r="I42" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="J42" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="K42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>198</v>
       </c>
@@ -3905,16 +4082,16 @@
         <v>103</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="K43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>199</v>
       </c>
@@ -3934,16 +4111,16 @@
         <v>103</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>200</v>
       </c>
@@ -3963,16 +4140,16 @@
         <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="J45" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>201</v>
       </c>
@@ -3992,16 +4169,16 @@
         <v>103</v>
       </c>
       <c r="I46" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="J46" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="K46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>202</v>
       </c>
@@ -4022,7 +4199,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>203</v>
       </c>
@@ -4038,10 +4215,18 @@
         <v>324</v>
       </c>
       <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" t="s">
+        <v>431</v>
+      </c>
+      <c r="J48" t="s">
+        <v>432</v>
+      </c>
+      <c r="K48" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F0DA2E32-BCB4-4CEB-A70F-85462BC2DBB8}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9DB26682-CAE1-4D78-AC77-D2D2F129E94D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="484">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1125,55 +1125,22 @@
     <t>'2021/12/22 23:08:23</t>
   </si>
   <si>
-    <t>'2021/12/22 23:55:54</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:16:25</t>
-  </si>
-  <si>
     <t>'2021/12/23 00:20:26</t>
   </si>
   <si>
-    <t>'2021/12/23 00:23:18</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:26:04</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:29:23</t>
-  </si>
-  <si>
     <t>'2021/12/23 00:33:31</t>
   </si>
   <si>
-    <t>'2021/12/23 00:36:16</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:39:29</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:43:04</t>
-  </si>
-  <si>
     <t>'2021/12/23 21:57:38</t>
   </si>
   <si>
     <t>'2021/12/23 21:59:24</t>
   </si>
   <si>
-    <t>'2021/12/23 22:05:53</t>
-  </si>
-  <si>
     <t>'2021/12/23 22:09:54</t>
   </si>
   <si>
     <t>'2021/12/24 13:16:20</t>
-  </si>
-  <si>
-    <t>'2021/12/24 13:21:22</t>
-  </si>
-  <si>
-    <t>'2021/12/24 13:26:25</t>
   </si>
   <si>
     <t>'2021/12/24 13:31:48</t>
@@ -1463,6 +1430,78 @@
   </si>
   <si>
     <t>'2022/01/05 15:42:03</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_5</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_6</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_7</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_8</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_9</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_10</t>
+  </si>
+  <si>
+    <t>'2022/01/06 16:40:34</t>
+  </si>
+  <si>
+    <t>'2022/01/06 16:54:54</t>
+  </si>
+  <si>
+    <t>'2022/01/06 20:33:14</t>
+  </si>
+  <si>
+    <t>'2022/01/06 20:36:38</t>
+  </si>
+  <si>
+    <t>'2022/01/04 22:54:31</t>
+  </si>
+  <si>
+    <t>'2022/01/05 00:52:18</t>
+  </si>
+  <si>
+    <t>'2022/01/05 01:40:51</t>
+  </si>
+  <si>
+    <t>'2022/01/05 01:59:16</t>
+  </si>
+  <si>
+    <t>'2022/01/05 02:44:34</t>
+  </si>
+  <si>
+    <t>'2022/01/05 03:36:14</t>
+  </si>
+  <si>
+    <t>'2022/01/05 03:54:39</t>
+  </si>
+  <si>
+    <t>'2022/01/05 04:50:43</t>
+  </si>
+  <si>
+    <t>'2022/01/05 19:28:39</t>
+  </si>
+  <si>
+    <t>'2022/01/05 19:32:47</t>
+  </si>
+  <si>
+    <t>'2022/01/06 15:59:57</t>
+  </si>
+  <si>
+    <t>'2022/01/06 16:13:01</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:05:13</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:08:43</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1709,10 +1748,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2229,10 +2264,10 @@
         <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J4" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
@@ -2258,10 +2293,10 @@
         <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="J5" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -2287,10 +2322,10 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="J6" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -2313,13 +2348,13 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="J7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
@@ -2342,13 +2377,13 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I8" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="J8" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
@@ -2371,13 +2406,13 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I9" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="J9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
@@ -2400,13 +2435,13 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I10" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="J10" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -2429,13 +2464,13 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I11" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="J11" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
@@ -2458,13 +2493,13 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I12" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="J12" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -2487,13 +2522,13 @@
         <v>61</v>
       </c>
       <c r="H13" t="s">
+        <v>408</v>
+      </c>
+      <c r="I13" t="s">
         <v>419</v>
       </c>
-      <c r="I13" t="s">
-        <v>430</v>
-      </c>
       <c r="J13" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -2516,13 +2551,13 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I14" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="J14" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -2545,13 +2580,13 @@
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I15" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="J15" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -2574,13 +2609,13 @@
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I16" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="J16" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="K16" t="s">
         <v>133</v>
@@ -2605,7 +2640,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2614,19 +2649,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="H18" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I18" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="J18" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
@@ -2634,7 +2669,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2643,19 +2678,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="H19" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I19" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="J19" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -2663,7 +2698,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2672,19 +2707,19 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="H20" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I20" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="J20" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
@@ -2692,7 +2727,7 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2701,19 +2736,19 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H21" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I21" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J21" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
@@ -2721,7 +2756,7 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2730,19 +2765,19 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H22" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I22" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="J22" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
@@ -2750,7 +2785,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2759,19 +2794,19 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="H23" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I23" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="J23" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
@@ -2779,7 +2814,7 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2788,19 +2823,19 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="H24" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="I24" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="J24" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
@@ -3115,10 +3150,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3135,7 +3170,7 @@
     <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -3173,13 +3208,31 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="N1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="O1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P1" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>462</v>
+      </c>
+      <c r="R1" t="s">
+        <v>463</v>
+      </c>
+      <c r="S1" t="s">
+        <v>464</v>
+      </c>
+      <c r="T1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>91</v>
       </c>
@@ -3208,7 +3261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>92</v>
       </c>
@@ -3228,16 +3281,16 @@
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J3" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>93</v>
       </c>
@@ -3257,16 +3310,16 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>94</v>
       </c>
@@ -3286,16 +3339,16 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J5" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>95</v>
       </c>
@@ -3315,16 +3368,16 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J6" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>96</v>
       </c>
@@ -3344,16 +3397,16 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>97</v>
       </c>
@@ -3373,16 +3426,16 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J8" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>98</v>
       </c>
@@ -3402,16 +3455,16 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J9" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>99</v>
       </c>
@@ -3431,16 +3484,16 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="J10" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>103</v>
       </c>
@@ -3460,16 +3513,16 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="J11" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>104</v>
       </c>
@@ -3489,16 +3542,16 @@
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="J12" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>105</v>
       </c>
@@ -3518,16 +3571,16 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="J13" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="K13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>107</v>
       </c>
@@ -3547,16 +3600,16 @@
         <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="J14" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>109</v>
       </c>
@@ -3576,16 +3629,16 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="J15" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>111</v>
       </c>
@@ -3614,7 +3667,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>113</v>
       </c>
@@ -3643,7 +3696,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>115</v>
       </c>
@@ -3663,16 +3716,16 @@
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="J18" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>137</v>
       </c>
@@ -3692,11 +3745,11 @@
         <v>100</v>
       </c>
       <c r="I19" t="s">
+        <v>396</v>
+      </c>
+      <c r="J19" t="s">
         <v>407</v>
       </c>
-      <c r="J19" t="s">
-        <v>418</v>
-      </c>
       <c r="K19" t="s">
         <v>71</v>
       </c>
@@ -3710,7 +3763,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>138</v>
       </c>
@@ -3730,16 +3783,16 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="J20" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>139</v>
       </c>
@@ -3759,16 +3812,16 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J21" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>140</v>
       </c>
@@ -3788,16 +3841,16 @@
         <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="J22" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>141</v>
       </c>
@@ -3817,16 +3870,28 @@
         <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>358</v>
+        <v>466</v>
       </c>
       <c r="J23" t="s">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" t="s">
+        <v>133</v>
+      </c>
+      <c r="N23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>143</v>
       </c>
@@ -3846,21 +3911,21 @@
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="J24" t="s">
-        <v>373</v>
+        <v>469</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3870,21 +3935,35 @@
       <c r="F25" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="14">
+        <v>4</v>
+      </c>
       <c r="H25" t="s">
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="J25" t="s">
-        <v>362</v>
+        <v>471</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="L25" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" t="s">
+        <v>133</v>
+      </c>
+      <c r="N25" t="s">
+        <v>133</v>
+      </c>
+      <c r="O25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>147</v>
       </c>
@@ -3907,18 +3986,18 @@
         <v>358</v>
       </c>
       <c r="J26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -3928,26 +4007,40 @@
       <c r="F27" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
       <c r="H27" t="s">
         <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="J27" t="s">
-        <v>364</v>
+        <v>472</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="L27" t="s">
+        <v>133</v>
+      </c>
+      <c r="M27" t="s">
+        <v>133</v>
+      </c>
+      <c r="N27" t="s">
+        <v>133</v>
+      </c>
+      <c r="O27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -3962,21 +4055,21 @@
         <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="J28" t="s">
-        <v>365</v>
+        <v>473</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -3986,21 +4079,35 @@
       <c r="F29" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="14">
+        <v>4</v>
+      </c>
       <c r="H29" t="s">
         <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="J29" t="s">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="K29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29" t="s">
+        <v>133</v>
+      </c>
+      <c r="N29" t="s">
+        <v>133</v>
+      </c>
+      <c r="O29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>156</v>
       </c>
@@ -4023,18 +4130,18 @@
         <v>358</v>
       </c>
       <c r="J30" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -4044,26 +4151,40 @@
       <c r="F31" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="14">
+        <v>4</v>
+      </c>
       <c r="H31" t="s">
         <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="J31" t="s">
-        <v>368</v>
+        <v>475</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="L31" t="s">
+        <v>133</v>
+      </c>
+      <c r="M31" t="s">
+        <v>133</v>
+      </c>
+      <c r="N31" t="s">
+        <v>133</v>
+      </c>
+      <c r="O31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -4078,21 +4199,21 @@
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="J32" t="s">
-        <v>369</v>
+        <v>476</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -4102,21 +4223,35 @@
       <c r="F33" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="14">
+        <v>4</v>
+      </c>
       <c r="H33" t="s">
         <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>358</v>
+        <v>470</v>
       </c>
       <c r="J33" t="s">
-        <v>370</v>
+        <v>477</v>
       </c>
       <c r="K33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="L33" t="s">
+        <v>133</v>
+      </c>
+      <c r="M33" t="s">
+        <v>133</v>
+      </c>
+      <c r="N33" t="s">
+        <v>133</v>
+      </c>
+      <c r="O33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>164</v>
       </c>
@@ -4136,16 +4271,16 @@
         <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J34" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>166</v>
       </c>
@@ -4165,21 +4300,30 @@
         <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>375</v>
+        <v>478</v>
       </c>
       <c r="J35" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
       <c r="K35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" t="s">
+        <v>133</v>
+      </c>
+      <c r="N35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -4189,21 +4333,50 @@
       <c r="F36" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="14">
+        <v>10</v>
+      </c>
       <c r="H36" t="s">
         <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
       <c r="J36" t="s">
-        <v>377</v>
+        <v>481</v>
       </c>
       <c r="K36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" t="s">
+        <v>71</v>
+      </c>
+      <c r="N36" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36" t="s">
+        <v>133</v>
+      </c>
+      <c r="P36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>71</v>
+      </c>
+      <c r="R36" t="s">
+        <v>133</v>
+      </c>
+      <c r="S36" t="s">
+        <v>133</v>
+      </c>
+      <c r="T36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>170</v>
       </c>
@@ -4223,16 +4396,16 @@
         <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="K37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>190</v>
       </c>
@@ -4244,7 +4417,7 @@
       <c r="E38" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="15" t="s">
         <v>312</v>
       </c>
       <c r="G38" s="14"/>
@@ -4252,16 +4425,16 @@
         <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J38" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="K38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>191</v>
       </c>
@@ -4273,7 +4446,7 @@
       <c r="E39" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="15" t="s">
         <v>311</v>
       </c>
       <c r="G39" s="14"/>
@@ -4281,16 +4454,16 @@
         <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="K39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>192</v>
       </c>
@@ -4302,7 +4475,7 @@
       <c r="E40" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="15" t="s">
         <v>313</v>
       </c>
       <c r="G40" s="14"/>
@@ -4310,16 +4483,16 @@
         <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="K40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>193</v>
       </c>
@@ -4331,7 +4504,7 @@
       <c r="E41" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="15" t="s">
         <v>314</v>
       </c>
       <c r="G41" s="14"/>
@@ -4339,16 +4512,16 @@
         <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J41" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="K41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>194</v>
       </c>
@@ -4360,7 +4533,7 @@
       <c r="E42" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="15" t="s">
         <v>315</v>
       </c>
       <c r="G42" s="14"/>
@@ -4368,16 +4541,16 @@
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="J42" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>195</v>
       </c>
@@ -4389,7 +4562,7 @@
       <c r="E43" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="16" t="s">
         <v>316</v>
       </c>
       <c r="G43" s="14"/>
@@ -4397,16 +4570,16 @@
         <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="K43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>196</v>
       </c>
@@ -4418,7 +4591,7 @@
       <c r="E44" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="16" t="s">
         <v>317</v>
       </c>
       <c r="G44" s="14"/>
@@ -4426,16 +4599,16 @@
         <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="K44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>197</v>
       </c>
@@ -4447,7 +4620,7 @@
       <c r="E45" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="16" t="s">
         <v>318</v>
       </c>
       <c r="G45" s="14"/>
@@ -4455,16 +4628,16 @@
         <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="K45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>198</v>
       </c>
@@ -4484,16 +4657,16 @@
         <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="J46" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>199</v>
       </c>
@@ -4514,12 +4687,12 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>200</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -4530,10 +4703,18 @@
         <v>321</v>
       </c>
       <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="H48" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" t="s">
+        <v>482</v>
+      </c>
+      <c r="J48" t="s">
+        <v>483</v>
+      </c>
+      <c r="K48" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
@@ -4610,7 +4791,7 @@
       <c r="E52" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="11" t="s">
         <v>276</v>
       </c>
       <c r="G52" s="14"/>
@@ -4628,10 +4809,10 @@
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="11" t="s">
         <v>277</v>
       </c>
       <c r="G53" s="14"/>
@@ -4649,10 +4830,10 @@
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="11" t="s">
         <v>278</v>
       </c>
       <c r="G54" s="14"/>
@@ -4670,7 +4851,7 @@
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="14" t="s">
         <v>185</v>
       </c>
       <c r="F55" s="11" t="s">
@@ -4699,7 +4880,7 @@
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="14" t="s">
         <v>182</v>
       </c>
       <c r="F56" s="11" t="s">
@@ -4728,7 +4909,7 @@
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="14" t="s">
         <v>183</v>
       </c>
       <c r="F57" s="11" t="s">
@@ -4757,7 +4938,7 @@
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="14" t="s">
         <v>219</v>
       </c>
       <c r="F58" s="11" t="s">
@@ -4778,7 +4959,7 @@
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="14" t="s">
         <v>221</v>
       </c>
       <c r="F59" s="11" t="s">
@@ -4799,7 +4980,7 @@
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="14" t="s">
         <v>223</v>
       </c>
       <c r="F60" s="11" t="s">
@@ -4816,14 +4997,14 @@
         <v>224</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F61" s="15" t="s">
         <v>331</v>
       </c>
       <c r="G61" s="14"/>
@@ -4837,14 +5018,14 @@
         <v>226</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F62" s="15" t="s">
         <v>332</v>
       </c>
       <c r="G62" s="14"/>
@@ -4862,10 +5043,10 @@
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="15" t="s">
+      <c r="E63" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="15" t="s">
         <v>333</v>
       </c>
       <c r="G63" s="14"/>
@@ -4883,10 +5064,10 @@
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="15" t="s">
         <v>334</v>
       </c>
       <c r="G64" s="14"/>
@@ -4904,10 +5085,10 @@
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="15" t="s">
         <v>335</v>
       </c>
       <c r="G65" s="14"/>
@@ -4925,10 +5106,10 @@
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="15" t="s">
         <v>336</v>
       </c>
       <c r="G66" s="14"/>
@@ -4946,10 +5127,10 @@
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="15" t="s">
         <v>337</v>
       </c>
       <c r="G67" s="14"/>
@@ -4967,10 +5148,10 @@
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="15" t="s">
+      <c r="E68" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="15" t="s">
         <v>338</v>
       </c>
       <c r="G68" s="14"/>
@@ -4996,10 +5177,10 @@
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="15" t="s">
         <v>339</v>
       </c>
       <c r="G69" s="14"/>
@@ -5025,10 +5206,10 @@
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="15" t="s">
         <v>340</v>
       </c>
       <c r="G70" s="14"/>
@@ -5046,10 +5227,10 @@
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="15" t="s">
         <v>341</v>
       </c>
       <c r="G71" s="14"/>
@@ -5067,10 +5248,10 @@
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="15" t="s">
         <v>342</v>
       </c>
       <c r="G72" s="14"/>
@@ -5088,10 +5269,10 @@
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="15" t="s">
         <v>343</v>
       </c>
       <c r="G73" s="14"/>
@@ -5109,10 +5290,10 @@
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="15" t="s">
         <v>344</v>
       </c>
       <c r="G74" s="14"/>
@@ -5130,10 +5311,10 @@
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="15" t="s">
         <v>345</v>
       </c>
       <c r="G75" s="14"/>
@@ -5151,10 +5332,10 @@
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="15" t="s">
         <v>346</v>
       </c>
       <c r="G76" s="14"/>
@@ -5172,10 +5353,10 @@
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="15" t="s">
         <v>347</v>
       </c>
       <c r="G77" s="14"/>
@@ -5193,10 +5374,10 @@
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="15" t="s">
         <v>348</v>
       </c>
       <c r="G78" s="14"/>
@@ -5214,10 +5395,10 @@
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="F79" s="17" t="s">
+      <c r="F79" s="15" t="s">
         <v>349</v>
       </c>
       <c r="G79" s="14"/>
@@ -5235,10 +5416,10 @@
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="F80" s="17" t="s">
+      <c r="F80" s="15" t="s">
         <v>350</v>
       </c>
       <c r="G80" s="14"/>
@@ -5256,10 +5437,10 @@
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="15" t="s">
         <v>351</v>
       </c>
       <c r="G81" s="14"/>
@@ -5277,10 +5458,10 @@
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="15" t="s">
         <v>352</v>
       </c>
       <c r="G82" s="14"/>
@@ -5298,10 +5479,10 @@
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="15" t="s">
         <v>353</v>
       </c>
       <c r="G83" s="14"/>
@@ -5319,10 +5500,10 @@
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="15" t="s">
         <v>354</v>
       </c>
       <c r="G84" s="14"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9DB26682-CAE1-4D78-AC77-D2D2F129E94D}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D381F74-C112-4ED5-A232-450C41E3EA96}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="490">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1502,12 +1502,31 @@
   </si>
   <si>
     <t>'2022/01/06 19:08:43</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/01/07 20:20:46</t>
+  </si>
+  <si>
+    <t>'2022/01/07 20:25:21</t>
+  </si>
+  <si>
+    <t>'2022/01/07 21:13:07</t>
+  </si>
+  <si>
+    <t>'2022/01/07 21:14:27</t>
+  </si>
+  <si>
+    <t>'2022/01/07 21:16:54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2043,10 +2062,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2137,15 +2156,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2857,14 +2876,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3152,22 +3171,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3925,7 +3944,7 @@
         <v>145</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3997,7 +4016,7 @@
         <v>150</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -4040,7 +4059,7 @@
         <v>152</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -4069,7 +4088,7 @@
         <v>154</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -4141,7 +4160,7 @@
         <v>158</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -4184,7 +4203,7 @@
         <v>160</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -4213,7 +4232,7 @@
         <v>162</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -4323,7 +4342,7 @@
         <v>168</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -4692,7 +4711,7 @@
         <v>200</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -4997,7 +5016,7 @@
         <v>224</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -5008,10 +5027,18 @@
         <v>331</v>
       </c>
       <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
@@ -5039,7 +5066,7 @@
         <v>228</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -5050,10 +5077,18 @@
         <v>333</v>
       </c>
       <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" t="s">
+        <v>487</v>
+      </c>
+      <c r="J63" t="s">
+        <v>489</v>
+      </c>
+      <c r="K63" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1D381F74-C112-4ED5-A232-450C41E3EA96}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7D221B7-984C-47A3-9092-74BEFA241AA4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="494">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1042,12 +1042,6 @@
   </si>
   <si>
     <t>DD-DD account maintenance update overdrafts</t>
-  </si>
-  <si>
-    <t>DD-DD account maintenance add new relationship</t>
-  </si>
-  <si>
-    <t>DD-DD account maintenance update relationship</t>
   </si>
   <si>
     <t>DD-DD account maintenance remove relationship</t>
@@ -1504,22 +1498,40 @@
     <t>'2022/01/06 19:08:43</t>
   </si>
   <si>
+    <t>DD-DD account maintenance Stop Payments</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance add new/update relationship</t>
+  </si>
+  <si>
+    <t>'2022/01/10 22:35:22</t>
+  </si>
+  <si>
+    <t>'2022/01/10 22:37:25</t>
+  </si>
+  <si>
+    <t>'2022/01/10 22:39:32</t>
+  </si>
+  <si>
+    <t>'2022/01/10 23:17:04</t>
+  </si>
+  <si>
+    <t>'2022/01/10 23:18:51</t>
+  </si>
+  <si>
+    <t>'2022/01/11 14:28:36</t>
+  </si>
+  <si>
+    <t>'2022/01/11 14:30:27</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>'2022/01/07 20:20:46</t>
-  </si>
-  <si>
-    <t>'2022/01/07 20:25:21</t>
-  </si>
-  <si>
-    <t>'2022/01/07 21:13:07</t>
-  </si>
-  <si>
-    <t>'2022/01/07 21:14:27</t>
-  </si>
-  <si>
-    <t>'2022/01/07 21:16:54</t>
+    <t>'2022/01/11 20:57:53</t>
+  </si>
+  <si>
+    <t>'2022/01/11 21:01:38</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2069,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,10 +2295,10 @@
         <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
@@ -2312,10 +2324,10 @@
         <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -2341,10 +2353,10 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J6" t="s">
         <v>457</v>
-      </c>
-      <c r="J6" t="s">
-        <v>459</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -2367,13 +2379,13 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J7" t="s">
         <v>408</v>
-      </c>
-      <c r="I7" t="s">
-        <v>409</v>
-      </c>
-      <c r="J7" t="s">
-        <v>410</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
@@ -2396,13 +2408,13 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
@@ -2425,13 +2437,13 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I9" t="s">
+        <v>409</v>
+      </c>
+      <c r="J9" t="s">
         <v>411</v>
-      </c>
-      <c r="J9" t="s">
-        <v>413</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
@@ -2454,13 +2466,13 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -2483,13 +2495,13 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
@@ -2512,13 +2524,13 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -2541,13 +2553,13 @@
         <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -2570,13 +2582,13 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -2599,13 +2611,13 @@
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -2628,13 +2640,13 @@
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K16" t="s">
         <v>133</v>
@@ -2659,7 +2671,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2668,19 +2680,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H18" t="s">
+        <v>406</v>
+      </c>
+      <c r="I18" t="s">
         <v>427</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="J18" t="s">
         <v>428</v>
-      </c>
-      <c r="H18" t="s">
-        <v>408</v>
-      </c>
-      <c r="I18" t="s">
-        <v>429</v>
-      </c>
-      <c r="J18" t="s">
-        <v>430</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
@@ -2688,7 +2700,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2697,19 +2709,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
+        <v>429</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H19" t="s">
+        <v>406</v>
+      </c>
+      <c r="I19" t="s">
         <v>431</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="J19" t="s">
         <v>432</v>
-      </c>
-      <c r="H19" t="s">
-        <v>408</v>
-      </c>
-      <c r="I19" t="s">
-        <v>433</v>
-      </c>
-      <c r="J19" t="s">
-        <v>434</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -2717,7 +2729,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2726,19 +2738,19 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H20" t="s">
+        <v>406</v>
+      </c>
+      <c r="I20" t="s">
         <v>435</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="J20" t="s">
         <v>436</v>
-      </c>
-      <c r="H20" t="s">
-        <v>408</v>
-      </c>
-      <c r="I20" t="s">
-        <v>437</v>
-      </c>
-      <c r="J20" t="s">
-        <v>438</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
@@ -2746,7 +2758,7 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2755,19 +2767,19 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
+        <v>437</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="H21" t="s">
+        <v>406</v>
+      </c>
+      <c r="I21" t="s">
         <v>439</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="J21" t="s">
         <v>440</v>
-      </c>
-      <c r="H21" t="s">
-        <v>408</v>
-      </c>
-      <c r="I21" t="s">
-        <v>441</v>
-      </c>
-      <c r="J21" t="s">
-        <v>442</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
@@ -2775,7 +2787,7 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2784,19 +2796,19 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>441</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H22" t="s">
+        <v>406</v>
+      </c>
+      <c r="I22" t="s">
         <v>443</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="J22" t="s">
         <v>444</v>
-      </c>
-      <c r="H22" t="s">
-        <v>408</v>
-      </c>
-      <c r="I22" t="s">
-        <v>445</v>
-      </c>
-      <c r="J22" t="s">
-        <v>446</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
@@ -2804,7 +2816,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2813,19 +2825,19 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>445</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="H23" t="s">
+        <v>406</v>
+      </c>
+      <c r="I23" t="s">
         <v>447</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="J23" t="s">
         <v>448</v>
-      </c>
-      <c r="H23" t="s">
-        <v>408</v>
-      </c>
-      <c r="I23" t="s">
-        <v>449</v>
-      </c>
-      <c r="J23" t="s">
-        <v>450</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
@@ -2833,7 +2845,7 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2842,19 +2854,19 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>449</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="H24" t="s">
+        <v>406</v>
+      </c>
+      <c r="I24" t="s">
         <v>451</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="J24" t="s">
         <v>452</v>
-      </c>
-      <c r="H24" t="s">
-        <v>408</v>
-      </c>
-      <c r="I24" t="s">
-        <v>453</v>
-      </c>
-      <c r="J24" t="s">
-        <v>454</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
@@ -3171,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,28 +3239,28 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q1" t="s">
         <v>460</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>461</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>462</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>463</v>
-      </c>
-      <c r="S1" t="s">
-        <v>464</v>
-      </c>
-      <c r="T1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3300,10 +3312,10 @@
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K3" t="s">
         <v>71</v>
@@ -3329,10 +3341,10 @@
         <v>100</v>
       </c>
       <c r="I4" t="s">
+        <v>394</v>
+      </c>
+      <c r="J4" t="s">
         <v>396</v>
-      </c>
-      <c r="J4" t="s">
-        <v>398</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
@@ -3358,10 +3370,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -3387,10 +3399,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -3416,10 +3428,10 @@
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
@@ -3445,10 +3457,10 @@
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
@@ -3474,10 +3486,10 @@
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
@@ -3503,10 +3515,10 @@
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -3532,10 +3544,10 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
@@ -3561,10 +3573,10 @@
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -3590,10 +3602,10 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K13" t="s">
         <v>133</v>
@@ -3619,10 +3631,10 @@
         <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -3648,10 +3660,10 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -3677,10 +3689,10 @@
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K16" t="s">
         <v>71</v>
@@ -3706,10 +3718,10 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
+        <v>356</v>
+      </c>
+      <c r="J17" t="s">
         <v>358</v>
-      </c>
-      <c r="J17" t="s">
-        <v>360</v>
       </c>
       <c r="K17" t="s">
         <v>71</v>
@@ -3735,10 +3747,10 @@
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
@@ -3764,10 +3776,10 @@
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -3792,7 +3804,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>295</v>
@@ -3802,10 +3814,10 @@
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
@@ -3821,7 +3833,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>135</v>
@@ -3831,10 +3843,10 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
@@ -3850,7 +3862,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>136</v>
@@ -3860,10 +3872,10 @@
         <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
@@ -3889,10 +3901,10 @@
         <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
@@ -3930,10 +3942,10 @@
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
@@ -3961,10 +3973,10 @@
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K25" t="s">
         <v>133</v>
@@ -4002,10 +4014,10 @@
         <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K26" t="s">
         <v>71</v>
@@ -4033,10 +4045,10 @@
         <v>100</v>
       </c>
       <c r="I27" t="s">
+        <v>468</v>
+      </c>
+      <c r="J27" t="s">
         <v>470</v>
-      </c>
-      <c r="J27" t="s">
-        <v>472</v>
       </c>
       <c r="K27" t="s">
         <v>133</v>
@@ -4074,10 +4086,10 @@
         <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J28" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K28" t="s">
         <v>133</v>
@@ -4105,10 +4117,10 @@
         <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K29" t="s">
         <v>71</v>
@@ -4146,10 +4158,10 @@
         <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J30" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K30" t="s">
         <v>71</v>
@@ -4177,10 +4189,10 @@
         <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K31" t="s">
         <v>133</v>
@@ -4218,10 +4230,10 @@
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J32" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K32" t="s">
         <v>133</v>
@@ -4249,10 +4261,10 @@
         <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J33" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K33" t="s">
         <v>133</v>
@@ -4290,10 +4302,10 @@
         <v>100</v>
       </c>
       <c r="I34" t="s">
+        <v>361</v>
+      </c>
+      <c r="J34" t="s">
         <v>363</v>
-      </c>
-      <c r="J34" t="s">
-        <v>365</v>
       </c>
       <c r="K34" t="s">
         <v>71</v>
@@ -4319,10 +4331,10 @@
         <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J35" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K35" t="s">
         <v>71</v>
@@ -4359,10 +4371,10 @@
         <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J36" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K36" t="s">
         <v>71</v>
@@ -4415,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K37" t="s">
         <v>71</v>
@@ -4444,10 +4456,10 @@
         <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K38" t="s">
         <v>71</v>
@@ -4473,10 +4485,10 @@
         <v>100</v>
       </c>
       <c r="I39" t="s">
+        <v>366</v>
+      </c>
+      <c r="J39" t="s">
         <v>368</v>
-      </c>
-      <c r="J39" t="s">
-        <v>370</v>
       </c>
       <c r="K39" t="s">
         <v>71</v>
@@ -4502,10 +4514,10 @@
         <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J40" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K40" t="s">
         <v>71</v>
@@ -4531,10 +4543,10 @@
         <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s">
         <v>71</v>
@@ -4560,10 +4572,10 @@
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s">
         <v>71</v>
@@ -4589,10 +4601,10 @@
         <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
         <v>71</v>
@@ -4618,10 +4630,10 @@
         <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K44" t="s">
         <v>71</v>
@@ -4647,10 +4659,10 @@
         <v>100</v>
       </c>
       <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
         <v>376</v>
-      </c>
-      <c r="J45" t="s">
-        <v>378</v>
       </c>
       <c r="K45" t="s">
         <v>71</v>
@@ -4676,10 +4688,10 @@
         <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J46" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K46" t="s">
         <v>71</v>
@@ -4726,10 +4738,10 @@
         <v>100</v>
       </c>
       <c r="I48" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J48" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K48" t="s">
         <v>71</v>
@@ -5016,7 +5028,7 @@
         <v>224</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -5031,10 +5043,10 @@
         <v>70</v>
       </c>
       <c r="I61" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J61" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K61" t="s">
         <v>71</v>
@@ -5056,17 +5068,25 @@
         <v>332</v>
       </c>
       <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" t="s">
+        <v>484</v>
+      </c>
+      <c r="J62" t="s">
+        <v>486</v>
+      </c>
+      <c r="K62" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>228</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -5084,10 +5104,10 @@
         <v>487</v>
       </c>
       <c r="J63" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K63" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -5095,7 +5115,7 @@
         <v>230</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -5103,13 +5123,21 @@
         <v>231</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>334</v>
+        <v>483</v>
       </c>
       <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
+      <c r="H64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64" t="s">
+        <v>492</v>
+      </c>
+      <c r="J64" t="s">
+        <v>493</v>
+      </c>
+      <c r="K64" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
@@ -5124,13 +5152,21 @@
         <v>233</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>335</v>
+        <v>482</v>
       </c>
       <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65" t="s">
+        <v>489</v>
+      </c>
+      <c r="J65" t="s">
+        <v>490</v>
+      </c>
+      <c r="K65" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
@@ -5145,7 +5181,7 @@
         <v>235</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -5166,7 +5202,7 @@
         <v>237</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
@@ -5187,7 +5223,7 @@
         <v>239</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" t="s">
@@ -5216,7 +5252,7 @@
         <v>241</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" t="s">
@@ -5245,7 +5281,7 @@
         <v>243</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
@@ -5266,7 +5302,7 @@
         <v>245</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -5287,7 +5323,7 @@
         <v>247</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -5308,7 +5344,7 @@
         <v>249</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
@@ -5329,7 +5365,7 @@
         <v>251</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
@@ -5350,7 +5386,7 @@
         <v>253</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -5371,7 +5407,7 @@
         <v>255</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -5392,7 +5428,7 @@
         <v>257</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
@@ -5413,7 +5449,7 @@
         <v>259</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
@@ -5434,7 +5470,7 @@
         <v>261</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
@@ -5455,7 +5491,7 @@
         <v>263</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
@@ -5476,7 +5512,7 @@
         <v>265</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
@@ -5497,7 +5533,7 @@
         <v>267</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
@@ -5518,7 +5554,7 @@
         <v>269</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
@@ -5539,7 +5575,7 @@
         <v>271</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7D221B7-984C-47A3-9092-74BEFA241AA4}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3E863C4-8B8E-4248-BC86-34505C6322EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Premier" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Premier!$A$1:$L$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Premier!$A$1:$L$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="478">
   <si>
     <t>Application_Name</t>
   </si>
@@ -816,48 +816,6 @@
     <t>TC075</t>
   </si>
   <si>
-    <t>Premier_TC076</t>
-  </si>
-  <si>
-    <t>TC076</t>
-  </si>
-  <si>
-    <t>Premier_TC077</t>
-  </si>
-  <si>
-    <t>TC077</t>
-  </si>
-  <si>
-    <t>Premier_TC078</t>
-  </si>
-  <si>
-    <t>TC078</t>
-  </si>
-  <si>
-    <t>Premier_TC079</t>
-  </si>
-  <si>
-    <t>TC079</t>
-  </si>
-  <si>
-    <t>Premier_TC080</t>
-  </si>
-  <si>
-    <t>TC080</t>
-  </si>
-  <si>
-    <t>Premier_TC081</t>
-  </si>
-  <si>
-    <t>TC081</t>
-  </si>
-  <si>
-    <t>Premier_TC082</t>
-  </si>
-  <si>
-    <t>TC082</t>
-  </si>
-  <si>
     <t>'2021/12/22 11:01:11</t>
   </si>
   <si>
@@ -951,9 +909,6 @@
     <t>Create a Demand deposit Account for individual customers(Search Customer)</t>
   </si>
   <si>
-    <t xml:space="preserve">Update  Saving account </t>
-  </si>
-  <si>
     <t>Create a Certificate  Account for individual customers</t>
   </si>
   <si>
@@ -963,9 +918,6 @@
     <t>Create a Certificate  Account for individual customers(Search Customer)</t>
   </si>
   <si>
-    <t>Update  Certificate  account</t>
-  </si>
-  <si>
     <t>Create a Loan Account for individual customers</t>
   </si>
   <si>
@@ -1044,9 +996,6 @@
     <t>DD-DD account maintenance update overdrafts</t>
   </si>
   <si>
-    <t>DD-DD account maintenance remove relationship</t>
-  </si>
-  <si>
     <t>DD-DD account maintenance update status</t>
   </si>
   <si>
@@ -1056,18 +1005,9 @@
     <t>DD-DD account maintenance update codes -statement notifications</t>
   </si>
   <si>
-    <t>Savings-Savings account maintenance update Tickler</t>
-  </si>
-  <si>
     <t>Savings-Savings account maintenance update hold</t>
   </si>
   <si>
-    <t>Savings-Savings account maintenance Savings add new relationship</t>
-  </si>
-  <si>
-    <t>Savings-Savings account maintenance update relationship</t>
-  </si>
-  <si>
     <t>Savings-Savings account maintenance remove relationship</t>
   </si>
   <si>
@@ -1080,22 +1020,10 @@
     <t>Savings-Savings account maintenance update codes statement notification</t>
   </si>
   <si>
-    <t>Certificates-Certificates account maintenance update Tickler</t>
-  </si>
-  <si>
     <t>Certificates-Certificates account maintenance update hold</t>
   </si>
   <si>
-    <t>Certificates-Certificates account maintenance Certificates add new relationship</t>
-  </si>
-  <si>
     <t>Certificates-Certificates account maintenance update status</t>
-  </si>
-  <si>
-    <t>Certificates-Certificates account maintenance update relationship</t>
-  </si>
-  <si>
-    <t>Certificates-Certificates account maintenance remove relationship</t>
   </si>
   <si>
     <t xml:space="preserve">Certificates-Certificates account maintenance update codes - statement notiifcation </t>
@@ -1525,13 +1453,37 @@
     <t>'2022/01/11 14:30:27</t>
   </si>
   <si>
+    <t>'2022/01/12 13:36:57</t>
+  </si>
+  <si>
+    <t>'2022/01/12 13:40:03</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance Stop Payments</t>
+  </si>
+  <si>
+    <t>Update  Saving account with warnings</t>
+  </si>
+  <si>
+    <t>Update  Certificate  account with warnings</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>'2022/01/11 20:57:53</t>
-  </si>
-  <si>
-    <t>'2022/01/11 21:01:38</t>
+    <t>'2022/01/12 18:29:48</t>
+  </si>
+  <si>
+    <t>'2022/01/12 18:39:15</t>
+  </si>
+  <si>
+    <t>'2022/01/12 19:45:22</t>
+  </si>
+  <si>
+    <t>'2022/01/12 19:47:53</t>
+  </si>
+  <si>
+    <t>'2022/01/12 19:49:00</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1593,6 +1545,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,7 +1697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,6 +1743,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2144,7 +2103,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2295,10 +2254,10 @@
         <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="J4" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
@@ -2324,10 +2283,10 @@
         <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="J5" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -2353,10 +2312,10 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="J6" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -2379,13 +2338,13 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I7" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="J7" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
@@ -2408,13 +2367,13 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I8" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="J8" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
@@ -2437,13 +2396,13 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I9" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="J9" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
@@ -2466,13 +2425,13 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I10" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="J10" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -2495,13 +2454,13 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I11" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="J11" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
@@ -2524,13 +2483,13 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I12" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="J12" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -2553,13 +2512,13 @@
         <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I13" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="J13" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -2582,13 +2541,13 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I14" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="J14" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -2611,13 +2570,13 @@
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I15" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="J15" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -2640,13 +2599,13 @@
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I16" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="J16" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="K16" t="s">
         <v>133</v>
@@ -2671,7 +2630,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2680,19 +2639,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="H18" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I18" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="J18" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
@@ -2700,7 +2659,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2709,19 +2668,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="H19" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I19" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="J19" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -2729,7 +2688,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2738,19 +2697,19 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="H20" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I20" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="J20" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
@@ -2758,7 +2717,7 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2767,19 +2726,19 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="H21" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I21" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="J21" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
@@ -2787,7 +2746,7 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2796,19 +2755,19 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="H22" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I22" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="J22" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
@@ -2816,7 +2775,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2825,19 +2784,19 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="H23" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I23" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="J23" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
@@ -2845,7 +2804,7 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2854,19 +2813,19 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="H24" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="I24" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="J24" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
@@ -3181,10 +3140,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3196,7 +3155,7 @@
     <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
@@ -3239,28 +3198,28 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="N1" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="O1" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="P1" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="Q1" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="R1" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="S1" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="T1" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3305,17 +3264,17 @@
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="J3" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="K3" t="s">
         <v>71</v>
@@ -3334,17 +3293,17 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="J4" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
@@ -3363,17 +3322,17 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="J5" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -3392,17 +3351,17 @@
         <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="J6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -3421,17 +3380,17 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" t="s">
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="J7" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
@@ -3450,17 +3409,17 @@
         <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" t="s">
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="J8" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
@@ -3479,17 +3438,17 @@
         <v>78</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" t="s">
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="J9" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
@@ -3508,17 +3467,17 @@
         <v>81</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" t="s">
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="J10" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -3544,10 +3503,10 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="J11" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
@@ -3566,17 +3525,17 @@
         <v>87</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" t="s">
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="J12" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -3595,17 +3554,17 @@
         <v>106</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" t="s">
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="J13" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="K13" t="s">
         <v>133</v>
@@ -3624,17 +3583,17 @@
         <v>108</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" t="s">
         <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="J14" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -3660,10 +3619,10 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="J15" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -3682,17 +3641,17 @@
         <v>112</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" t="s">
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="J16" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="K16" t="s">
         <v>71</v>
@@ -3711,17 +3670,17 @@
         <v>114</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" t="s">
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="J17" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="K17" t="s">
         <v>71</v>
@@ -3740,17 +3699,17 @@
         <v>116</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" t="s">
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="J18" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
@@ -3769,17 +3728,17 @@
         <v>131</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" t="s">
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="J19" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -3804,20 +3763,20 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" t="s">
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="J20" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
@@ -3833,7 +3792,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>135</v>
@@ -3843,10 +3802,10 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="J21" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
@@ -3862,7 +3821,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>136</v>
@@ -3872,10 +3831,10 @@
         <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="J22" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
@@ -3894,17 +3853,17 @@
         <v>142</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" t="s">
         <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="J23" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
@@ -3935,17 +3894,17 @@
         <v>144</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" t="s">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="J24" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
@@ -3964,7 +3923,7 @@
         <v>146</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G25" s="14">
         <v>4</v>
@@ -3973,10 +3932,10 @@
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="J25" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="K25" t="s">
         <v>133</v>
@@ -4007,17 +3966,17 @@
         <v>148</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" t="s">
         <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="J26" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="K26" t="s">
         <v>71</v>
@@ -4036,7 +3995,7 @@
         <v>151</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G27" s="14">
         <v>4</v>
@@ -4045,10 +4004,10 @@
         <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="J27" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="K27" t="s">
         <v>133</v>
@@ -4079,17 +4038,17 @@
         <v>153</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" t="s">
         <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="J28" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="K28" t="s">
         <v>133</v>
@@ -4108,7 +4067,7 @@
         <v>155</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G29" s="14">
         <v>4</v>
@@ -4117,10 +4076,10 @@
         <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="J29" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="K29" t="s">
         <v>71</v>
@@ -4151,17 +4110,17 @@
         <v>157</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>303</v>
+        <v>470</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" t="s">
         <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="J30" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="K30" t="s">
         <v>71</v>
@@ -4180,7 +4139,7 @@
         <v>159</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G31" s="14">
         <v>4</v>
@@ -4189,10 +4148,10 @@
         <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="J31" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="K31" t="s">
         <v>133</v>
@@ -4223,17 +4182,17 @@
         <v>161</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" t="s">
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="J32" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="K32" t="s">
         <v>133</v>
@@ -4252,7 +4211,7 @@
         <v>163</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G33" s="14">
         <v>4</v>
@@ -4261,10 +4220,10 @@
         <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="J33" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="K33" t="s">
         <v>133</v>
@@ -4295,17 +4254,17 @@
         <v>165</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>307</v>
+        <v>471</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" t="s">
         <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="J34" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
         <v>71</v>
@@ -4324,17 +4283,17 @@
         <v>167</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" t="s">
         <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="J35" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="K35" t="s">
         <v>71</v>
@@ -4362,7 +4321,7 @@
         <v>169</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="G36" s="14">
         <v>10</v>
@@ -4371,10 +4330,10 @@
         <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="J36" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="K36" t="s">
         <v>71</v>
@@ -4420,17 +4379,17 @@
         <v>171</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" t="s">
         <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="K37" t="s">
         <v>71</v>
@@ -4449,17 +4408,17 @@
         <v>204</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" t="s">
         <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
         <v>71</v>
@@ -4478,17 +4437,17 @@
         <v>205</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" t="s">
         <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J39" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s">
         <v>71</v>
@@ -4507,17 +4466,17 @@
         <v>206</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" t="s">
         <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J40" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
         <v>71</v>
@@ -4536,17 +4495,17 @@
         <v>207</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" t="s">
         <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s">
         <v>71</v>
@@ -4565,17 +4524,17 @@
         <v>208</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" t="s">
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J42" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K42" t="s">
         <v>71</v>
@@ -4594,17 +4553,17 @@
         <v>209</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" t="s">
         <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="K43" t="s">
         <v>71</v>
@@ -4623,17 +4582,17 @@
         <v>210</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" t="s">
         <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="J44" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s">
         <v>71</v>
@@ -4652,17 +4611,17 @@
         <v>211</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" t="s">
         <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="J45" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s">
         <v>71</v>
@@ -4681,17 +4640,17 @@
         <v>172</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" t="s">
         <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="J46" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s">
         <v>71</v>
@@ -4710,7 +4669,7 @@
         <v>212</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -4731,17 +4690,17 @@
         <v>213</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" t="s">
         <v>100</v>
       </c>
       <c r="I48" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J48" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="K48" t="s">
         <v>71</v>
@@ -4760,7 +4719,7 @@
         <v>214</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -4781,7 +4740,7 @@
         <v>215</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
@@ -4802,7 +4761,7 @@
         <v>216</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -4823,7 +4782,7 @@
         <v>217</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -4844,7 +4803,7 @@
         <v>181</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -4865,7 +4824,7 @@
         <v>184</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -4886,7 +4845,7 @@
         <v>185</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14" t="s">
@@ -4915,7 +4874,7 @@
         <v>182</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14" t="s">
@@ -4944,7 +4903,7 @@
         <v>183</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14" t="s">
@@ -4973,7 +4932,7 @@
         <v>219</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
@@ -4994,7 +4953,7 @@
         <v>221</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -5015,7 +4974,7 @@
         <v>223</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -5036,17 +4995,17 @@
         <v>225</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" t="s">
         <v>70</v>
       </c>
       <c r="I61" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="J61" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="K61" t="s">
         <v>71</v>
@@ -5065,17 +5024,17 @@
         <v>227</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" t="s">
         <v>70</v>
       </c>
       <c r="I62" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="J62" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="K62" t="s">
         <v>71</v>
@@ -5094,17 +5053,17 @@
         <v>229</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" t="s">
         <v>70</v>
       </c>
       <c r="I63" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="J63" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="K63" t="s">
         <v>71</v>
@@ -5115,7 +5074,7 @@
         <v>230</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -5123,20 +5082,20 @@
         <v>231</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" t="s">
         <v>70</v>
       </c>
       <c r="I64" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="J64" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="K64" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -5152,17 +5111,17 @@
         <v>233</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" t="s">
         <v>70</v>
       </c>
       <c r="I65" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="J65" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="K65" t="s">
         <v>71</v>
@@ -5181,7 +5140,7 @@
         <v>235</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -5202,13 +5161,21 @@
         <v>237</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67" t="s">
+        <v>258</v>
+      </c>
+      <c r="J67" t="s">
+        <v>259</v>
+      </c>
+      <c r="K67" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
@@ -5223,17 +5190,17 @@
         <v>239</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" t="s">
         <v>70</v>
       </c>
       <c r="I68" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="J68" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="K68" t="s">
         <v>71</v>
@@ -5252,42 +5219,42 @@
         <v>241</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="G69" s="14"/>
-      <c r="H69" t="s">
-        <v>70</v>
-      </c>
-      <c r="I69" t="s">
-        <v>274</v>
-      </c>
-      <c r="J69" t="s">
-        <v>275</v>
-      </c>
-      <c r="K69" t="s">
-        <v>71</v>
-      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>242</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="17" t="s">
         <v>243</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
+      <c r="H70" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" t="s">
+        <v>475</v>
+      </c>
+      <c r="J70" t="s">
+        <v>476</v>
+      </c>
+      <c r="K70" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
@@ -5302,7 +5269,7 @@
         <v>245</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>339</v>
+        <v>469</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -5315,21 +5282,29 @@
         <v>246</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="17" t="s">
         <v>247</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72" t="s">
+        <v>475</v>
+      </c>
+      <c r="J72" t="s">
+        <v>477</v>
+      </c>
+      <c r="K72" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
@@ -5344,7 +5319,7 @@
         <v>249</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
@@ -5357,15 +5332,15 @@
         <v>250</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="17" t="s">
         <v>251</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
@@ -5386,7 +5361,7 @@
         <v>253</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -5407,7 +5382,7 @@
         <v>255</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -5428,160 +5403,13 @@
         <v>257</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3E863C4-8B8E-4248-BC86-34505C6322EF}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{660004C8-89B3-4B98-B5B1-4AA088484D6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="526">
   <si>
     <t>Application_Name</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>Create a Manual payment[Incoming_Bank FRB]</t>
-  </si>
-  <si>
-    <t>https://portal.uat.fec-frms.fiservapps.com/portal/login?c=D02T021</t>
   </si>
   <si>
     <t>Initiate Transfer recurring day many to one account (Status-Pending) +Checking +saving to loan</t>
@@ -1339,21 +1336,6 @@
     <t>'2021/12/21 19:05:08</t>
   </si>
   <si>
-    <t>'2022/01/04 21:56:18</t>
-  </si>
-  <si>
-    <t>'2022/01/04 22:01:18</t>
-  </si>
-  <si>
-    <t>'2022/01/05 15:33:25</t>
-  </si>
-  <si>
-    <t>'2022/01/05 15:37:38</t>
-  </si>
-  <si>
-    <t>'2022/01/05 15:42:03</t>
-  </si>
-  <si>
     <t>ExecutionStatus_5</t>
   </si>
   <si>
@@ -1468,22 +1450,194 @@
     <t>Update  Certificate  account with warnings</t>
   </si>
   <si>
+    <t>'2022/01/12 19:45:22</t>
+  </si>
+  <si>
+    <t>'2022/01/12 19:47:53</t>
+  </si>
+  <si>
+    <t>'2022/01/12 19:49:00</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:19:06</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:21:20</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:21:58</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC018</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment  using free form-- Reject</t>
+  </si>
+  <si>
+    <t>'2022/01/05 15:10:20</t>
+  </si>
+  <si>
+    <t>'2022/01/05 15:29:39</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC019</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment  using free form-- Cancel</t>
+  </si>
+  <si>
+    <t>'2022/01/05 18:04:15</t>
+  </si>
+  <si>
+    <t>'2022/01/05 18:24:32</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC021</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment same day using batch template- Approval
+if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments</t>
+  </si>
+  <si>
+    <t>'2022/01/06 14:26:00</t>
+  </si>
+  <si>
+    <t>'2022/01/06 14:44:22</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC022</t>
+  </si>
+  <si>
+    <t>Edit Ach Payment via payment activity and approve it
+If Ach Payment does not exist create Ach Payment(if Existing template ,do a payment activity
+elseCreate batch template, use that template and do payments)</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:15:53</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:31:28</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC023</t>
+  </si>
+  <si>
+    <t>Edit Ach Payment via payment activity and Cancel it
+If Ach Payment does not exist create Ach Payment(if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments)</t>
+  </si>
+  <si>
+    <t>'2022/01/07 12:53:35</t>
+  </si>
+  <si>
+    <t>'2022/01/07 13:17:32</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC024</t>
+  </si>
+  <si>
+    <t>Edit Ach Payment via payment activity and reject it
+If Ach Payment does not exist create Ach Payment(if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments)</t>
+  </si>
+  <si>
+    <t>'2022/01/07 13:34:09</t>
+  </si>
+  <si>
+    <t>'2022/01/07 13:58:23</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC025</t>
+  </si>
+  <si>
+    <t>Create a Payee for Wire Transfer</t>
+  </si>
+  <si>
+    <t>'2022/01/11 16:59:18</t>
+  </si>
+  <si>
+    <t>'2022/01/11 17:02:29</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a wire transfer template (select Payee)and search it
+if payee exist use that else
+create a payee and use that payee for wire transfer </t>
+  </si>
+  <si>
+    <t>'2022/01/12 14:38:36</t>
+  </si>
+  <si>
+    <t>'2022/01/12 14:46:06</t>
+  </si>
+  <si>
+    <t>'2022/01/12 22:12:40</t>
+  </si>
+  <si>
+    <t>'2022/01/12 22:15:02</t>
+  </si>
+  <si>
+    <t>https://portal.cert.fec-frms.fiservapps.com/portal/login?c=D010019</t>
+  </si>
+  <si>
+    <t>'2022/01/13 19:43:01</t>
+  </si>
+  <si>
+    <t>'2022/01/13 19:53:41</t>
+  </si>
+  <si>
+    <t>'2022/01/13 22:01:14</t>
+  </si>
+  <si>
+    <t>'2022/01/13 22:05:29</t>
+  </si>
+  <si>
+    <t>'2022/01/14 08:38:46</t>
+  </si>
+  <si>
+    <t>'2022/01/14 08:41:38</t>
+  </si>
+  <si>
+    <t>'2022/01/14 09:43:22</t>
+  </si>
+  <si>
+    <t>'2022/01/14 09:55:02</t>
+  </si>
+  <si>
+    <t>'2022/01/14 10:23:21</t>
+  </si>
+  <si>
+    <t>'2022/01/14 10:33:54</t>
+  </si>
+  <si>
+    <t>'2022/01/14 15:37:39</t>
+  </si>
+  <si>
+    <t>'2022/01/14 15:43:25</t>
+  </si>
+  <si>
+    <t>'2022/01/14 15:45:25</t>
+  </si>
+  <si>
+    <t>'2022/01/14 15:57:59</t>
+  </si>
+  <si>
+    <t>'2022/01/14 16:44:49</t>
+  </si>
+  <si>
+    <t>'2022/01/14 17:03:27</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>'2022/01/12 18:29:48</t>
-  </si>
-  <si>
-    <t>'2022/01/12 18:39:15</t>
-  </si>
-  <si>
-    <t>'2022/01/12 19:45:22</t>
-  </si>
-  <si>
-    <t>'2022/01/12 19:47:53</t>
-  </si>
-  <si>
-    <t>'2022/01/12 19:49:00</t>
+    <t>'2022/01/14 17:09:28</t>
+  </si>
+  <si>
+    <t>'2022/01/14 17:23:23</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1744,6 +1898,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2028,7 +2183,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,13 +2213,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,13 +2252,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2119,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A23" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2288,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
     <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
@@ -2193,16 +2348,16 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
         <v>88</v>
       </c>
-      <c r="J2" t="s">
-        <v>89</v>
-      </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2222,16 +2377,16 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2251,16 +2406,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="J4" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2268,7 +2423,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -2280,16 +2435,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="J5" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2297,7 +2452,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -2307,18 +2462,6 @@
       </c>
       <c r="F6" t="s">
         <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>431</v>
-      </c>
-      <c r="J6" t="s">
-        <v>433</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2338,16 +2481,16 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I7" t="s">
         <v>382</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>383</v>
       </c>
-      <c r="J7" t="s">
-        <v>384</v>
-      </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2367,16 +2510,16 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I8" t="s">
+        <v>384</v>
+      </c>
+      <c r="J8" t="s">
         <v>385</v>
       </c>
-      <c r="J8" t="s">
-        <v>386</v>
-      </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2396,16 +2539,16 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2425,16 +2568,16 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I10" t="s">
+        <v>387</v>
+      </c>
+      <c r="J10" t="s">
         <v>388</v>
       </c>
-      <c r="J10" t="s">
-        <v>389</v>
-      </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2454,16 +2597,16 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I11" t="s">
+        <v>389</v>
+      </c>
+      <c r="J11" t="s">
         <v>390</v>
       </c>
-      <c r="J11" t="s">
-        <v>391</v>
-      </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2483,16 +2626,16 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2509,19 +2652,19 @@
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I13" t="s">
+        <v>392</v>
+      </c>
+      <c r="J13" t="s">
         <v>393</v>
       </c>
-      <c r="J13" t="s">
-        <v>394</v>
-      </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2541,21 +2684,21 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I14" t="s">
+        <v>394</v>
+      </c>
+      <c r="J14" t="s">
         <v>395</v>
       </c>
-      <c r="J14" t="s">
-        <v>396</v>
-      </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2564,27 +2707,27 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="H15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I15" t="s">
+        <v>396</v>
+      </c>
+      <c r="J15" t="s">
         <v>397</v>
       </c>
-      <c r="J15" t="s">
-        <v>398</v>
-      </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -2593,27 +2736,27 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I16" t="s">
+        <v>398</v>
+      </c>
+      <c r="J16" t="s">
         <v>399</v>
       </c>
-      <c r="J16" t="s">
-        <v>400</v>
-      </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -2622,15 +2765,15 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2639,27 +2782,27 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I18" t="s">
         <v>402</v>
       </c>
-      <c r="H18" t="s">
-        <v>382</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>403</v>
       </c>
-      <c r="J18" t="s">
-        <v>404</v>
-      </c>
       <c r="K18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2668,27 +2811,27 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="H19" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19" t="s">
         <v>406</v>
       </c>
-      <c r="H19" t="s">
-        <v>382</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>407</v>
       </c>
-      <c r="J19" t="s">
-        <v>408</v>
-      </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2697,27 +2840,27 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="H20" t="s">
+        <v>381</v>
+      </c>
+      <c r="I20" t="s">
         <v>410</v>
       </c>
-      <c r="H20" t="s">
-        <v>382</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>411</v>
       </c>
-      <c r="J20" t="s">
-        <v>412</v>
-      </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2726,27 +2869,27 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="H21" t="s">
+        <v>381</v>
+      </c>
+      <c r="I21" t="s">
         <v>414</v>
       </c>
-      <c r="H21" t="s">
-        <v>382</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>415</v>
       </c>
-      <c r="J21" t="s">
-        <v>416</v>
-      </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2755,56 +2898,56 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>416</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="H22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I22" t="s">
         <v>418</v>
       </c>
-      <c r="H22" t="s">
-        <v>382</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>419</v>
       </c>
-      <c r="J22" t="s">
-        <v>420</v>
-      </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="H23" t="s">
+        <v>381</v>
+      </c>
+      <c r="I23" t="s">
         <v>422</v>
       </c>
-      <c r="H23" t="s">
-        <v>382</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>423</v>
       </c>
-      <c r="J23" t="s">
-        <v>424</v>
-      </c>
       <c r="K23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2813,22 +2956,254 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>472</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H24" t="s">
+        <v>381</v>
+      </c>
+      <c r="I24" t="s">
+        <v>474</v>
+      </c>
+      <c r="J24" t="s">
+        <v>475</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>476</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>476</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="H25" t="s">
+        <v>381</v>
+      </c>
+      <c r="I25" t="s">
+        <v>478</v>
+      </c>
+      <c r="J25" t="s">
+        <v>479</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>424</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="H26" t="s">
+        <v>381</v>
+      </c>
+      <c r="I26" t="s">
         <v>426</v>
       </c>
-      <c r="H24" t="s">
-        <v>382</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J26" t="s">
         <v>427</v>
       </c>
-      <c r="J24" t="s">
-        <v>428</v>
-      </c>
-      <c r="K24" t="s">
-        <v>71</v>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>480</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>480</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="H27" t="s">
+        <v>381</v>
+      </c>
+      <c r="I27" t="s">
+        <v>482</v>
+      </c>
+      <c r="J27" t="s">
+        <v>483</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>484</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>484</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H28" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" t="s">
+        <v>486</v>
+      </c>
+      <c r="J28" t="s">
+        <v>487</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>488</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>488</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H29" t="s">
+        <v>381</v>
+      </c>
+      <c r="I29" t="s">
+        <v>490</v>
+      </c>
+      <c r="J29" t="s">
+        <v>491</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>492</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>492</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H30" t="s">
+        <v>381</v>
+      </c>
+      <c r="I30" t="s">
+        <v>494</v>
+      </c>
+      <c r="J30" t="s">
+        <v>495</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>496</v>
+      </c>
+      <c r="F31" t="s">
+        <v>497</v>
+      </c>
+      <c r="H31" t="s">
+        <v>381</v>
+      </c>
+      <c r="I31" t="s">
+        <v>498</v>
+      </c>
+      <c r="J31" t="s">
+        <v>499</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>500</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>500</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="H32" t="s">
+        <v>381</v>
+      </c>
+      <c r="I32" t="s">
+        <v>502</v>
+      </c>
+      <c r="J32" t="s">
+        <v>503</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2839,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,7 +3232,7 @@
     <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2894,8 +3269,11 @@
       <c r="L1" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2908,8 +3286,29 @@
       <c r="F2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G2" s="18">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2923,7 +3322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2937,7 +3336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2951,9 +3350,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2962,175 +3361,271 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>509</v>
+      </c>
+      <c r="J7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>78</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>511</v>
+      </c>
+      <c r="J8" t="s">
+        <v>512</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>81</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>513</v>
+      </c>
+      <c r="J9" t="s">
+        <v>514</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>84</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
       <c r="F11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
         <v>118</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
         <v>120</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>521</v>
+      </c>
+      <c r="J13" t="s">
+        <v>522</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
         <v>122</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>524</v>
+      </c>
+      <c r="J14" t="s">
+        <v>525</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
         <v>124</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J15" t="s">
+        <v>518</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
         <v>126</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>519</v>
+      </c>
+      <c r="J16" t="s">
+        <v>520</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
         <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>131</v>
-      </c>
-      <c r="F18" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3142,8 +3637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,33 +3693,33 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N1" t="s">
         <v>379</v>
       </c>
-      <c r="N1" t="s">
-        <v>380</v>
-      </c>
       <c r="O1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Q1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="R1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="S1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="T1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>6</v>
@@ -3235,25 +3730,25 @@
         <v>15</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>102</v>
-      </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
@@ -3264,25 +3759,25 @@
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J3" t="s">
         <v>370</v>
       </c>
-      <c r="J3" t="s">
-        <v>371</v>
-      </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -3293,25 +3788,25 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>6</v>
@@ -3322,25 +3817,25 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>6</v>
@@ -3351,25 +3846,25 @@
         <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -3380,25 +3875,25 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>6</v>
@@ -3406,28 +3901,28 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>6</v>
@@ -3435,28 +3930,28 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -3464,28 +3959,28 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>6</v>
@@ -3493,28 +3988,28 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
+        <v>361</v>
+      </c>
+      <c r="J11" t="s">
         <v>362</v>
       </c>
-      <c r="J11" t="s">
-        <v>363</v>
-      </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>6</v>
@@ -3522,28 +4017,28 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
+        <v>353</v>
+      </c>
+      <c r="J12" t="s">
         <v>354</v>
       </c>
-      <c r="J12" t="s">
-        <v>355</v>
-      </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>6</v>
@@ -3551,28 +4046,28 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
+        <v>357</v>
+      </c>
+      <c r="J13" t="s">
         <v>358</v>
       </c>
-      <c r="J13" t="s">
-        <v>359</v>
-      </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>6</v>
@@ -3580,28 +4075,28 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
+        <v>359</v>
+      </c>
+      <c r="J14" t="s">
         <v>360</v>
       </c>
-      <c r="J14" t="s">
-        <v>361</v>
-      </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>6</v>
@@ -3609,28 +4104,28 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
+        <v>355</v>
+      </c>
+      <c r="J15" t="s">
         <v>356</v>
       </c>
-      <c r="J15" t="s">
-        <v>357</v>
-      </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>6</v>
@@ -3638,28 +4133,28 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
+        <v>331</v>
+      </c>
+      <c r="J16" t="s">
         <v>332</v>
       </c>
-      <c r="J16" t="s">
-        <v>333</v>
-      </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>6</v>
@@ -3667,28 +4162,28 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>6</v>
@@ -3696,28 +4191,28 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
+        <v>365</v>
+      </c>
+      <c r="J18" t="s">
         <v>366</v>
       </c>
-      <c r="J18" t="s">
-        <v>367</v>
-      </c>
       <c r="K18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>6</v>
@@ -3725,37 +4220,37 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -3763,28 +4258,28 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
+        <v>363</v>
+      </c>
+      <c r="J20" t="s">
         <v>364</v>
       </c>
-      <c r="J20" t="s">
-        <v>365</v>
-      </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>6</v>
@@ -3792,28 +4287,28 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I21" t="s">
+        <v>336</v>
+      </c>
+      <c r="J21" t="s">
         <v>337</v>
       </c>
-      <c r="J21" t="s">
-        <v>338</v>
-      </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>6</v>
@@ -3821,28 +4316,28 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I22" t="s">
+        <v>367</v>
+      </c>
+      <c r="J22" t="s">
         <v>368</v>
       </c>
-      <c r="J22" t="s">
-        <v>369</v>
-      </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>6</v>
@@ -3850,40 +4345,40 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I23" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J23" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>6</v>
@@ -3891,28 +4386,28 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="J24" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>6</v>
@@ -3920,42 +4415,42 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G25" s="14">
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J25" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>6</v>
@@ -3963,28 +4458,28 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>6</v>
@@ -3992,42 +4487,42 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G27" s="14">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J27" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>6</v>
@@ -4035,28 +4530,28 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J28" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>6</v>
@@ -4064,42 +4559,42 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G29" s="14">
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J29" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>6</v>
@@ -4107,28 +4602,28 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>6</v>
@@ -4136,42 +4631,42 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G31" s="14">
         <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J31" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>6</v>
@@ -4179,28 +4674,28 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" t="s">
+        <v>438</v>
+      </c>
+      <c r="J32" t="s">
         <v>444</v>
       </c>
-      <c r="J32" t="s">
-        <v>450</v>
-      </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -4208,42 +4703,42 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G33" s="14">
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="J33" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -4251,28 +4746,28 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>6</v>
@@ -4280,37 +4775,37 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I35" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J35" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>6</v>
@@ -4318,57 +4813,57 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G36" s="14">
         <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I36" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J36" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>6</v>
@@ -4376,28 +4871,28 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I37" t="s">
+        <v>339</v>
+      </c>
+      <c r="J37" t="s">
         <v>340</v>
       </c>
-      <c r="J37" t="s">
-        <v>341</v>
-      </c>
       <c r="K37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>6</v>
@@ -4405,28 +4900,28 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I38" t="s">
+        <v>341</v>
+      </c>
+      <c r="J38" t="s">
         <v>342</v>
       </c>
-      <c r="J38" t="s">
-        <v>343</v>
-      </c>
       <c r="K38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>6</v>
@@ -4434,28 +4929,28 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>6</v>
@@ -4463,28 +4958,28 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>6</v>
@@ -4492,28 +4987,28 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>6</v>
@@ -4521,28 +5016,28 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>6</v>
@@ -4550,28 +5045,28 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I43" t="s">
+        <v>347</v>
+      </c>
+      <c r="J43" t="s">
         <v>348</v>
       </c>
-      <c r="J43" t="s">
-        <v>349</v>
-      </c>
       <c r="K43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>6</v>
@@ -4579,28 +5074,28 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I44" t="s">
+        <v>349</v>
+      </c>
+      <c r="J44" t="s">
         <v>350</v>
       </c>
-      <c r="J44" t="s">
-        <v>351</v>
-      </c>
       <c r="K44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>6</v>
@@ -4608,28 +5103,28 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>6</v>
@@ -4637,28 +5132,28 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>6</v>
@@ -4666,10 +5161,10 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -4679,7 +5174,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>6</v>
@@ -4687,28 +5182,28 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I48" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="J48" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>6</v>
@@ -4716,10 +5211,10 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -4729,7 +5224,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>6</v>
@@ -4737,10 +5232,10 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
@@ -4750,7 +5245,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>6</v>
@@ -4758,10 +5253,10 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -4771,7 +5266,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>6</v>
@@ -4779,10 +5274,10 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -4792,7 +5287,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>6</v>
@@ -4800,10 +5295,10 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -4813,7 +5308,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>6</v>
@@ -4821,10 +5316,10 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -4834,7 +5329,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>6</v>
@@ -4842,28 +5337,28 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="J55" s="14" t="s">
-        <v>174</v>
-      </c>
       <c r="K55" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>6</v>
@@ -4871,28 +5366,28 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I56" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="J56" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J56" s="14" t="s">
-        <v>187</v>
-      </c>
       <c r="K56" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>6</v>
@@ -4900,28 +5395,28 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="J57" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>189</v>
-      </c>
       <c r="K57" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>6</v>
@@ -4929,10 +5424,10 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
@@ -4942,7 +5437,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>6</v>
@@ -4950,10 +5445,10 @@
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -4963,7 +5458,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>6</v>
@@ -4971,10 +5466,10 @@
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -4984,7 +5479,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>6</v>
@@ -4992,28 +5487,28 @@
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I61" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="J61" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>6</v>
@@ -5021,28 +5516,28 @@
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="J62" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>6</v>
@@ -5050,28 +5545,28 @@
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I63" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="J63" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>6</v>
@@ -5079,28 +5574,28 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I64" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J64" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>6</v>
@@ -5108,28 +5603,28 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I65" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="J65" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>6</v>
@@ -5137,10 +5632,10 @@
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -5150,7 +5645,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>6</v>
@@ -5158,28 +5653,28 @@
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I67" t="s">
+        <v>257</v>
+      </c>
+      <c r="J67" t="s">
         <v>258</v>
       </c>
-      <c r="J67" t="s">
-        <v>259</v>
-      </c>
       <c r="K67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>6</v>
@@ -5187,28 +5682,28 @@
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I68" t="s">
+        <v>259</v>
+      </c>
+      <c r="J68" t="s">
         <v>260</v>
       </c>
-      <c r="J68" t="s">
-        <v>261</v>
-      </c>
       <c r="K68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>6</v>
@@ -5216,10 +5711,10 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
@@ -5229,36 +5724,36 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I70" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="J70" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>6</v>
@@ -5266,10 +5761,10 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -5279,36 +5774,36 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I72" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="J72" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="K72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>6</v>
@@ -5316,10 +5811,10 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
@@ -5329,7 +5824,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>5</v>
@@ -5337,20 +5832,28 @@
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
+      <c r="H74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" t="s">
+        <v>504</v>
+      </c>
+      <c r="J74" t="s">
+        <v>505</v>
+      </c>
+      <c r="K74" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>6</v>
@@ -5358,10 +5861,10 @@
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -5371,7 +5874,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>6</v>
@@ -5379,10 +5882,10 @@
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -5392,7 +5895,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>6</v>
@@ -5400,10 +5903,10 @@
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F82ED467-6B2F-4061-8B20-3AA82EE6B714}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414AA4E1-2F53-4458-9B23-2B82D433B8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="503">
   <si>
     <t>Application_Name</t>
   </si>
@@ -220,9 +219,6 @@
   </si>
   <si>
     <t>Create a Manual payment[Incoming_Bank FRB]</t>
-  </si>
-  <si>
-    <t>https://portal.uat.fec-frms.fiservapps.com/portal/login?c=D02T021</t>
   </si>
   <si>
     <t>Initiate Transfer recurring day many to one account (Status-Pending) +Checking +saving to loan</t>
@@ -1457,6 +1453,121 @@
   </si>
   <si>
     <t>'2021/12/21 19:05:08</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC018</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment  using free form-- Reject</t>
+  </si>
+  <si>
+    <t>'2022/01/05 15:10:20</t>
+  </si>
+  <si>
+    <t>'2022/01/05 15:29:39</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC019</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment  using free form-- Cancel</t>
+  </si>
+  <si>
+    <t>'2022/01/05 18:04:15</t>
+  </si>
+  <si>
+    <t>'2022/01/05 18:24:32</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC021</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment same day using batch template- Approval
+if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments</t>
+  </si>
+  <si>
+    <t>'2022/01/06 14:26:00</t>
+  </si>
+  <si>
+    <t>'2022/01/06 14:44:22</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC022</t>
+  </si>
+  <si>
+    <t>Edit Ach Payment via payment activity and approve it
+If Ach Payment does not exist create Ach Payment(if Existing template ,do a payment activity
+elseCreate batch template, use that template and do payments)</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:15:53</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:31:28</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC023</t>
+  </si>
+  <si>
+    <t>Edit Ach Payment via payment activity and Cancel it
+If Ach Payment does not exist create Ach Payment(if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments)</t>
+  </si>
+  <si>
+    <t>'2022/01/07 12:53:35</t>
+  </si>
+  <si>
+    <t>'2022/01/07 13:17:32</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC024</t>
+  </si>
+  <si>
+    <t>Edit Ach Payment via payment activity and reject it
+If Ach Payment does not exist create Ach Payment(if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments)</t>
+  </si>
+  <si>
+    <t>'2022/01/07 13:34:09</t>
+  </si>
+  <si>
+    <t>'2022/01/07 13:58:23</t>
+  </si>
+  <si>
+    <t>https://portal.cert.fec-frms.fiservapps.com/portal/login?c=D010019</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC025</t>
+  </si>
+  <si>
+    <t>Create a Payee for Wire Transfer</t>
+  </si>
+  <si>
+    <t>'2022/01/11 16:59:18</t>
+  </si>
+  <si>
+    <t>'2022/01/11 17:02:29</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a wire transfer template (select Payee)and search it
+if payee exist use that else
+create a payee and use that payee for wire transfer </t>
+  </si>
+  <si>
+    <t>'2022/01/12 14:38:36</t>
+  </si>
+  <si>
+    <t>'2022/01/12 14:46:06</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC027</t>
+  </si>
+  <si>
+    <t>Create a wire transfer template (free form)and search it</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2108,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2052,7 +2163,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2066,43 +2177,44 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{4D28C060-3FC7-4384-B377-95BDC209822A}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{E2A5E61D-28EC-4233-AFA8-278DC779E7DC}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{795D2318-ED88-4911-BD2D-6C2865044338}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{2A8B23C1-C7BA-47E8-B0D7-206F6F1578A8}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{2A8B23C1-C7BA-47E8-B0D7-206F6F1578A8}"/>
+    <hyperlink ref="E2" r:id="rId4" tooltip="https://portal.cert.fec-frms.fiservapps.com/portal/login?c=d010019" xr:uid="{C2F5B005-8811-4AAA-9A78-6DA23B925BF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A16" sqref="A16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -2162,16 +2274,16 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
         <v>91</v>
       </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2191,16 +2303,16 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2220,16 +2332,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
         <v>88</v>
       </c>
-      <c r="J4" t="s">
-        <v>89</v>
-      </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2249,16 +2361,16 @@
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2295,16 +2407,16 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>421</v>
+      </c>
+      <c r="I7" t="s">
         <v>422</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>423</v>
       </c>
-      <c r="J7" t="s">
-        <v>424</v>
-      </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2324,16 +2436,16 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I8" t="s">
+        <v>424</v>
+      </c>
+      <c r="J8" t="s">
         <v>425</v>
       </c>
-      <c r="J8" t="s">
-        <v>426</v>
-      </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2353,16 +2465,16 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2382,16 +2494,16 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I10" t="s">
+        <v>427</v>
+      </c>
+      <c r="J10" t="s">
         <v>428</v>
       </c>
-      <c r="J10" t="s">
-        <v>429</v>
-      </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2411,16 +2523,16 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I11" t="s">
+        <v>429</v>
+      </c>
+      <c r="J11" t="s">
         <v>430</v>
       </c>
-      <c r="J11" t="s">
-        <v>431</v>
-      </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2440,16 +2552,16 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2466,19 +2578,19 @@
         <v>50</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I13" t="s">
+        <v>432</v>
+      </c>
+      <c r="J13" t="s">
         <v>433</v>
       </c>
-      <c r="J13" t="s">
-        <v>434</v>
-      </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2498,21 +2610,21 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I14" t="s">
+        <v>434</v>
+      </c>
+      <c r="J14" t="s">
         <v>435</v>
       </c>
-      <c r="J14" t="s">
-        <v>436</v>
-      </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -2521,56 +2633,56 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="H15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I15" t="s">
+        <v>436</v>
+      </c>
+      <c r="J15" t="s">
         <v>437</v>
       </c>
-      <c r="J15" t="s">
-        <v>438</v>
-      </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="H16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I16" t="s">
+        <v>438</v>
+      </c>
+      <c r="J16" t="s">
         <v>439</v>
       </c>
-      <c r="J16" t="s">
-        <v>440</v>
-      </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -2579,15 +2691,15 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2596,27 +2708,27 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
+        <v>440</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" t="s">
+        <v>421</v>
+      </c>
+      <c r="I18" t="s">
         <v>442</v>
       </c>
-      <c r="H18" t="s">
-        <v>422</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>443</v>
       </c>
-      <c r="J18" t="s">
-        <v>444</v>
-      </c>
       <c r="K18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2625,27 +2737,27 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
+        <v>444</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="H19" t="s">
+        <v>421</v>
+      </c>
+      <c r="I19" t="s">
         <v>446</v>
       </c>
-      <c r="H19" t="s">
-        <v>422</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>447</v>
       </c>
-      <c r="J19" t="s">
-        <v>448</v>
-      </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2654,27 +2766,27 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
+        <v>448</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="H20" t="s">
+        <v>421</v>
+      </c>
+      <c r="I20" t="s">
         <v>450</v>
       </c>
-      <c r="H20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>451</v>
       </c>
-      <c r="J20" t="s">
-        <v>452</v>
-      </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2683,27 +2795,27 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
+        <v>452</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="H21" t="s">
+        <v>421</v>
+      </c>
+      <c r="I21" t="s">
         <v>454</v>
       </c>
-      <c r="H21" t="s">
-        <v>422</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>455</v>
       </c>
-      <c r="J21" t="s">
-        <v>456</v>
-      </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2712,56 +2824,56 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>456</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="H22" t="s">
+        <v>421</v>
+      </c>
+      <c r="I22" t="s">
         <v>458</v>
       </c>
-      <c r="H22" t="s">
-        <v>422</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>459</v>
       </c>
-      <c r="J22" t="s">
-        <v>460</v>
-      </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>460</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="H23" t="s">
+        <v>421</v>
+      </c>
+      <c r="I23" t="s">
         <v>462</v>
       </c>
-      <c r="H23" t="s">
-        <v>422</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>463</v>
       </c>
-      <c r="J23" t="s">
-        <v>464</v>
-      </c>
       <c r="K23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2770,22 +2882,283 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>468</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="H24" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24" t="s">
+        <v>470</v>
+      </c>
+      <c r="J24" t="s">
+        <v>471</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H25" t="s">
+        <v>421</v>
+      </c>
+      <c r="I25" t="s">
+        <v>474</v>
+      </c>
+      <c r="J25" t="s">
+        <v>475</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>464</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>464</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="H26" t="s">
+        <v>421</v>
+      </c>
+      <c r="I26" t="s">
         <v>466</v>
       </c>
-      <c r="H24" t="s">
-        <v>422</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J26" t="s">
         <v>467</v>
       </c>
-      <c r="J24" t="s">
-        <v>468</v>
-      </c>
-      <c r="K24" t="s">
-        <v>71</v>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>476</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>476</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="H27" t="s">
+        <v>421</v>
+      </c>
+      <c r="I27" t="s">
+        <v>478</v>
+      </c>
+      <c r="J27" t="s">
+        <v>479</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>480</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>480</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="H28" t="s">
+        <v>421</v>
+      </c>
+      <c r="I28" t="s">
+        <v>482</v>
+      </c>
+      <c r="J28" t="s">
+        <v>483</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>484</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="H29" t="s">
+        <v>421</v>
+      </c>
+      <c r="I29" t="s">
+        <v>486</v>
+      </c>
+      <c r="J29" t="s">
+        <v>487</v>
+      </c>
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>488</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>488</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H30" t="s">
+        <v>421</v>
+      </c>
+      <c r="I30" t="s">
+        <v>490</v>
+      </c>
+      <c r="J30" t="s">
+        <v>491</v>
+      </c>
+      <c r="K30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>493</v>
+      </c>
+      <c r="F31" t="s">
+        <v>494</v>
+      </c>
+      <c r="H31" t="s">
+        <v>421</v>
+      </c>
+      <c r="I31" t="s">
+        <v>495</v>
+      </c>
+      <c r="J31" t="s">
+        <v>496</v>
+      </c>
+      <c r="K31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>497</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>497</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="H32" t="s">
+        <v>421</v>
+      </c>
+      <c r="I32" t="s">
+        <v>499</v>
+      </c>
+      <c r="J32" t="s">
+        <v>500</v>
+      </c>
+      <c r="K32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>501</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H33" t="s">
+        <v>421</v>
+      </c>
+      <c r="I33" t="s">
+        <v>499</v>
+      </c>
+      <c r="J33" t="s">
+        <v>500</v>
+      </c>
+      <c r="K33" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +3172,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,7 +3230,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2910,7 +3283,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2919,175 +3292,175 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
         <v>121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
         <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
         <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
         <v>127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
         <v>129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
         <v>131</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>133</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>134</v>
-      </c>
-      <c r="F18" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3155,15 +3528,15 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
+        <v>418</v>
+      </c>
+      <c r="N1" t="s">
         <v>419</v>
-      </c>
-      <c r="N1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>6</v>
@@ -3174,25 +3547,25 @@
         <v>15</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
@@ -3203,25 +3576,25 @@
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J3" t="s">
         <v>410</v>
       </c>
-      <c r="J3" t="s">
-        <v>411</v>
-      </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -3232,25 +3605,25 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>6</v>
@@ -3261,25 +3634,25 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>6</v>
@@ -3290,25 +3663,25 @@
         <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -3319,25 +3692,25 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>6</v>
@@ -3345,28 +3718,28 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>6</v>
@@ -3374,28 +3747,28 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -3403,28 +3776,28 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>6</v>
@@ -3432,28 +3805,28 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
+        <v>401</v>
+      </c>
+      <c r="J11" t="s">
         <v>402</v>
       </c>
-      <c r="J11" t="s">
-        <v>403</v>
-      </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>6</v>
@@ -3461,28 +3834,28 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
+        <v>393</v>
+      </c>
+      <c r="J12" t="s">
         <v>394</v>
       </c>
-      <c r="J12" t="s">
-        <v>395</v>
-      </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>6</v>
@@ -3490,28 +3863,28 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
+        <v>397</v>
+      </c>
+      <c r="J13" t="s">
         <v>398</v>
       </c>
-      <c r="J13" t="s">
-        <v>399</v>
-      </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>6</v>
@@ -3519,28 +3892,28 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
+        <v>399</v>
+      </c>
+      <c r="J14" t="s">
         <v>400</v>
       </c>
-      <c r="J14" t="s">
-        <v>401</v>
-      </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>6</v>
@@ -3548,28 +3921,28 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
+        <v>395</v>
+      </c>
+      <c r="J15" t="s">
         <v>396</v>
       </c>
-      <c r="J15" t="s">
-        <v>397</v>
-      </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>6</v>
@@ -3577,28 +3950,28 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
+        <v>360</v>
+      </c>
+      <c r="J16" t="s">
         <v>361</v>
       </c>
-      <c r="J16" t="s">
-        <v>362</v>
-      </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>6</v>
@@ -3606,28 +3979,28 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>6</v>
@@ -3635,28 +4008,28 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
+        <v>405</v>
+      </c>
+      <c r="J18" t="s">
         <v>406</v>
       </c>
-      <c r="J18" t="s">
-        <v>407</v>
-      </c>
       <c r="K18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>6</v>
@@ -3664,37 +4037,37 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -3702,28 +4075,28 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
+        <v>403</v>
+      </c>
+      <c r="J20" t="s">
         <v>404</v>
       </c>
-      <c r="J20" t="s">
-        <v>405</v>
-      </c>
       <c r="K20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>6</v>
@@ -3731,28 +4104,28 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
+        <v>373</v>
+      </c>
+      <c r="J21" t="s">
         <v>374</v>
       </c>
-      <c r="J21" t="s">
-        <v>375</v>
-      </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>6</v>
@@ -3760,28 +4133,28 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I22" t="s">
+        <v>407</v>
+      </c>
+      <c r="J22" t="s">
         <v>408</v>
       </c>
-      <c r="J22" t="s">
-        <v>409</v>
-      </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>6</v>
@@ -3789,28 +4162,28 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>6</v>
@@ -3818,28 +4191,28 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>6</v>
@@ -3847,28 +4220,28 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>6</v>
@@ -3876,28 +4249,28 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>6</v>
@@ -3905,28 +4278,28 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>6</v>
@@ -3934,28 +4307,28 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>6</v>
@@ -3963,28 +4336,28 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>6</v>
@@ -3992,28 +4365,28 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>6</v>
@@ -4021,28 +4394,28 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>6</v>
@@ -4050,28 +4423,28 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -4079,28 +4452,28 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -4108,28 +4481,28 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>6</v>
@@ -4137,28 +4510,28 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I35" t="s">
+        <v>377</v>
+      </c>
+      <c r="J35" t="s">
         <v>378</v>
       </c>
-      <c r="J35" t="s">
-        <v>379</v>
-      </c>
       <c r="K35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>6</v>
@@ -4166,28 +4539,28 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>6</v>
@@ -4195,28 +4568,28 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>6</v>
@@ -4224,28 +4597,28 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I38" t="s">
+        <v>381</v>
+      </c>
+      <c r="J38" t="s">
         <v>382</v>
       </c>
-      <c r="J38" t="s">
-        <v>383</v>
-      </c>
       <c r="K38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>6</v>
@@ -4253,28 +4626,28 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>6</v>
@@ -4282,28 +4655,28 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>6</v>
@@ -4311,28 +4684,28 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>6</v>
@@ -4340,28 +4713,28 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>6</v>
@@ -4369,28 +4742,28 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I43" t="s">
+        <v>387</v>
+      </c>
+      <c r="J43" t="s">
         <v>388</v>
       </c>
-      <c r="J43" t="s">
-        <v>389</v>
-      </c>
       <c r="K43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>6</v>
@@ -4398,28 +4771,28 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
         <v>390</v>
       </c>
-      <c r="J44" t="s">
-        <v>391</v>
-      </c>
       <c r="K44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>6</v>
@@ -4427,28 +4800,28 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>6</v>
@@ -4456,28 +4829,28 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>6</v>
@@ -4485,10 +4858,10 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -4498,7 +4871,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>5</v>
@@ -4506,10 +4879,10 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -4519,7 +4892,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>6</v>
@@ -4527,10 +4900,10 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -4540,7 +4913,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>6</v>
@@ -4548,10 +4921,10 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
@@ -4561,7 +4934,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>6</v>
@@ -4569,10 +4942,10 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -4582,7 +4955,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>6</v>
@@ -4590,10 +4963,10 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -4603,7 +4976,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>6</v>
@@ -4611,10 +4984,10 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -4624,7 +4997,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>6</v>
@@ -4632,10 +5005,10 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -4645,7 +5018,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>6</v>
@@ -4653,28 +5026,28 @@
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="J55" s="14" t="s">
-        <v>177</v>
-      </c>
       <c r="K55" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>6</v>
@@ -4682,28 +5055,28 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I56" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="J56" s="14" t="s">
-        <v>190</v>
-      </c>
       <c r="K56" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>6</v>
@@ -4711,28 +5084,28 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>192</v>
-      </c>
       <c r="K57" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>6</v>
@@ -4740,10 +5113,10 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
@@ -4753,7 +5126,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>6</v>
@@ -4761,10 +5134,10 @@
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -4774,7 +5147,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>6</v>
@@ -4782,10 +5155,10 @@
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -4795,7 +5168,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>6</v>
@@ -4803,10 +5176,10 @@
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
@@ -4816,7 +5189,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>6</v>
@@ -4824,10 +5197,10 @@
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -4837,7 +5210,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>6</v>
@@ -4845,10 +5218,10 @@
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -4858,7 +5231,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>6</v>
@@ -4866,10 +5239,10 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -4879,7 +5252,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>6</v>
@@ -4887,10 +5260,10 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
@@ -4900,7 +5273,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>6</v>
@@ -4908,10 +5281,10 @@
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -4921,7 +5294,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>6</v>
@@ -4929,10 +5302,10 @@
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
@@ -4942,7 +5315,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>6</v>
@@ -4950,28 +5323,28 @@
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I68" t="s">
+        <v>274</v>
+      </c>
+      <c r="J68" t="s">
         <v>275</v>
       </c>
-      <c r="J68" t="s">
-        <v>276</v>
-      </c>
       <c r="K68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>6</v>
@@ -4979,28 +5352,28 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I69" t="s">
+        <v>276</v>
+      </c>
+      <c r="J69" t="s">
         <v>277</v>
       </c>
-      <c r="J69" t="s">
-        <v>278</v>
-      </c>
       <c r="K69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>6</v>
@@ -5008,10 +5381,10 @@
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
@@ -5021,7 +5394,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>6</v>
@@ -5029,10 +5402,10 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -5042,7 +5415,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>6</v>
@@ -5050,10 +5423,10 @@
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -5063,7 +5436,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>6</v>
@@ -5071,10 +5444,10 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
@@ -5084,7 +5457,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>6</v>
@@ -5092,10 +5465,10 @@
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
@@ -5105,7 +5478,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>6</v>
@@ -5113,10 +5486,10 @@
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -5126,7 +5499,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>6</v>
@@ -5134,10 +5507,10 @@
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -5147,7 +5520,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>6</v>
@@ -5155,10 +5528,10 @@
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
@@ -5168,7 +5541,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>6</v>
@@ -5176,10 +5549,10 @@
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
@@ -5189,7 +5562,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>6</v>
@@ -5197,10 +5570,10 @@
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
@@ -5210,7 +5583,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>6</v>
@@ -5218,10 +5591,10 @@
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
@@ -5231,7 +5604,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>6</v>
@@ -5239,10 +5612,10 @@
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
@@ -5252,7 +5625,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>6</v>
@@ -5260,10 +5633,10 @@
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
@@ -5273,7 +5646,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>6</v>
@@ -5281,10 +5654,10 @@
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
@@ -5294,7 +5667,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>6</v>
@@ -5302,10 +5675,10 @@
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{660004C8-89B3-4B98-B5B1-4AA088484D6D}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D6BFA59-14EE-48C2-8F31-DDFD2672A36B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="527">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1631,20 +1631,22 @@
     <t>'2022/01/14 17:03:27</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>'2022/01/14 17:09:28</t>
   </si>
   <si>
     <t>'2022/01/14 17:23:23</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC027</t>
+  </si>
+  <si>
+    <t>Create a wire transfer template (free form)and search it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2188,10 +2190,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2274,23 +2276,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2730,7 +2732,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -3182,7 +3184,7 @@
         <v>500</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -3204,6 +3206,23 @@
       </c>
       <c r="K32" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>525</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -3216,20 +3235,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3539,10 +3558,10 @@
         <v>69</v>
       </c>
       <c r="I14" t="s">
+        <v>523</v>
+      </c>
+      <c r="J14" t="s">
         <v>524</v>
-      </c>
-      <c r="J14" t="s">
-        <v>525</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
@@ -3643,16 +3662,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414AA4E1-2F53-4458-9B23-2B82D433B8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D6BFA59-14EE-48C2-8F31-DDFD2672A36B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Premier" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Premier!$A$1:$L$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Premier!$A$1:$L$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="527">
   <si>
     <t>Application_Name</t>
   </si>
@@ -302,15 +303,6 @@
     <t>TC010</t>
   </si>
   <si>
-    <t>'2021/11/17 22:19:06</t>
-  </si>
-  <si>
-    <t>'2021/11/17 22:21:20</t>
-  </si>
-  <si>
-    <t>'2021/11/17 22:21:58</t>
-  </si>
-  <si>
     <t>'2021/11/18 13:34:38</t>
   </si>
   <si>
@@ -821,48 +813,6 @@
     <t>TC075</t>
   </si>
   <si>
-    <t>Premier_TC076</t>
-  </si>
-  <si>
-    <t>TC076</t>
-  </si>
-  <si>
-    <t>Premier_TC077</t>
-  </si>
-  <si>
-    <t>TC077</t>
-  </si>
-  <si>
-    <t>Premier_TC078</t>
-  </si>
-  <si>
-    <t>TC078</t>
-  </si>
-  <si>
-    <t>Premier_TC079</t>
-  </si>
-  <si>
-    <t>TC079</t>
-  </si>
-  <si>
-    <t>Premier_TC080</t>
-  </si>
-  <si>
-    <t>TC080</t>
-  </si>
-  <si>
-    <t>Premier_TC081</t>
-  </si>
-  <si>
-    <t>TC081</t>
-  </si>
-  <si>
-    <t>Premier_TC082</t>
-  </si>
-  <si>
-    <t>TC082</t>
-  </si>
-  <si>
     <t>'2021/12/22 11:01:11</t>
   </si>
   <si>
@@ -956,9 +906,6 @@
     <t>Create a Demand deposit Account for individual customers(Search Customer)</t>
   </si>
   <si>
-    <t xml:space="preserve">Update  Saving account </t>
-  </si>
-  <si>
     <t>Create a Certificate  Account for individual customers</t>
   </si>
   <si>
@@ -968,9 +915,6 @@
     <t>Create a Certificate  Account for individual customers(Search Customer)</t>
   </si>
   <si>
-    <t>Update  Certificate  account</t>
-  </si>
-  <si>
     <t>Create a Loan Account for individual customers</t>
   </si>
   <si>
@@ -1049,15 +993,6 @@
     <t>DD-DD account maintenance update overdrafts</t>
   </si>
   <si>
-    <t>DD-DD account maintenance add new relationship</t>
-  </si>
-  <si>
-    <t>DD-DD account maintenance update relationship</t>
-  </si>
-  <si>
-    <t>DD-DD account maintenance remove relationship</t>
-  </si>
-  <si>
     <t>DD-DD account maintenance update status</t>
   </si>
   <si>
@@ -1067,18 +1002,9 @@
     <t>DD-DD account maintenance update codes -statement notifications</t>
   </si>
   <si>
-    <t>Savings-Savings account maintenance update Tickler</t>
-  </si>
-  <si>
     <t>Savings-Savings account maintenance update hold</t>
   </si>
   <si>
-    <t>Savings-Savings account maintenance Savings add new relationship</t>
-  </si>
-  <si>
-    <t>Savings-Savings account maintenance update relationship</t>
-  </si>
-  <si>
     <t>Savings-Savings account maintenance remove relationship</t>
   </si>
   <si>
@@ -1091,24 +1017,12 @@
     <t>Savings-Savings account maintenance update codes statement notification</t>
   </si>
   <si>
-    <t>Certificates-Certificates account maintenance update Tickler</t>
-  </si>
-  <si>
     <t>Certificates-Certificates account maintenance update hold</t>
   </si>
   <si>
-    <t>Certificates-Certificates account maintenance Certificates add new relationship</t>
-  </si>
-  <si>
     <t>Certificates-Certificates account maintenance update status</t>
   </si>
   <si>
-    <t>Certificates-Certificates account maintenance update relationship</t>
-  </si>
-  <si>
-    <t>Certificates-Certificates account maintenance remove relationship</t>
-  </si>
-  <si>
     <t xml:space="preserve">Certificates-Certificates account maintenance update codes - statement notiifcation </t>
   </si>
   <si>
@@ -1130,55 +1044,22 @@
     <t>'2021/12/22 23:08:23</t>
   </si>
   <si>
-    <t>'2021/12/22 23:55:54</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:16:25</t>
-  </si>
-  <si>
     <t>'2021/12/23 00:20:26</t>
   </si>
   <si>
-    <t>'2021/12/23 00:23:18</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:26:04</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:29:23</t>
-  </si>
-  <si>
     <t>'2021/12/23 00:33:31</t>
   </si>
   <si>
-    <t>'2021/12/23 00:36:16</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:39:29</t>
-  </si>
-  <si>
-    <t>'2021/12/23 00:43:04</t>
-  </si>
-  <si>
     <t>'2021/12/23 21:57:38</t>
   </si>
   <si>
     <t>'2021/12/23 21:59:24</t>
   </si>
   <si>
-    <t>'2021/12/23 22:05:53</t>
-  </si>
-  <si>
     <t>'2021/12/23 22:09:54</t>
   </si>
   <si>
     <t>'2021/12/24 13:16:20</t>
-  </si>
-  <si>
-    <t>'2021/12/24 13:21:22</t>
-  </si>
-  <si>
-    <t>'2021/12/24 13:26:25</t>
   </si>
   <si>
     <t>'2021/12/24 13:31:48</t>
@@ -1455,6 +1336,138 @@
     <t>'2021/12/21 19:05:08</t>
   </si>
   <si>
+    <t>ExecutionStatus_5</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_6</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_7</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_8</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_9</t>
+  </si>
+  <si>
+    <t>ExecutionStatus_10</t>
+  </si>
+  <si>
+    <t>'2022/01/06 16:40:34</t>
+  </si>
+  <si>
+    <t>'2022/01/06 16:54:54</t>
+  </si>
+  <si>
+    <t>'2022/01/06 20:33:14</t>
+  </si>
+  <si>
+    <t>'2022/01/06 20:36:38</t>
+  </si>
+  <si>
+    <t>'2022/01/04 22:54:31</t>
+  </si>
+  <si>
+    <t>'2022/01/05 00:52:18</t>
+  </si>
+  <si>
+    <t>'2022/01/05 01:40:51</t>
+  </si>
+  <si>
+    <t>'2022/01/05 01:59:16</t>
+  </si>
+  <si>
+    <t>'2022/01/05 02:44:34</t>
+  </si>
+  <si>
+    <t>'2022/01/05 03:36:14</t>
+  </si>
+  <si>
+    <t>'2022/01/05 03:54:39</t>
+  </si>
+  <si>
+    <t>'2022/01/05 04:50:43</t>
+  </si>
+  <si>
+    <t>'2022/01/05 19:28:39</t>
+  </si>
+  <si>
+    <t>'2022/01/05 19:32:47</t>
+  </si>
+  <si>
+    <t>'2022/01/06 15:59:57</t>
+  </si>
+  <si>
+    <t>'2022/01/06 16:13:01</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:05:13</t>
+  </si>
+  <si>
+    <t>'2022/01/06 19:08:43</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance Stop Payments</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance add new/update relationship</t>
+  </si>
+  <si>
+    <t>'2022/01/10 22:35:22</t>
+  </si>
+  <si>
+    <t>'2022/01/10 22:37:25</t>
+  </si>
+  <si>
+    <t>'2022/01/10 22:39:32</t>
+  </si>
+  <si>
+    <t>'2022/01/10 23:17:04</t>
+  </si>
+  <si>
+    <t>'2022/01/10 23:18:51</t>
+  </si>
+  <si>
+    <t>'2022/01/11 14:28:36</t>
+  </si>
+  <si>
+    <t>'2022/01/11 14:30:27</t>
+  </si>
+  <si>
+    <t>'2022/01/12 13:36:57</t>
+  </si>
+  <si>
+    <t>'2022/01/12 13:40:03</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance Stop Payments</t>
+  </si>
+  <si>
+    <t>Update  Saving account with warnings</t>
+  </si>
+  <si>
+    <t>Update  Certificate  account with warnings</t>
+  </si>
+  <si>
+    <t>'2022/01/12 19:45:22</t>
+  </si>
+  <si>
+    <t>'2022/01/12 19:47:53</t>
+  </si>
+  <si>
+    <t>'2022/01/12 19:49:00</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:19:06</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:21:20</t>
+  </si>
+  <si>
+    <t>'2021/11/17 22:21:58</t>
+  </si>
+  <si>
     <t>CC_CORP_TC018</t>
   </si>
   <si>
@@ -1535,9 +1548,6 @@
     <t>'2022/01/07 13:58:23</t>
   </si>
   <si>
-    <t>https://portal.cert.fec-frms.fiservapps.com/portal/login?c=D010019</t>
-  </si>
-  <si>
     <t>CC_CORP_TC025</t>
   </si>
   <si>
@@ -1562,6 +1572,69 @@
   </si>
   <si>
     <t>'2022/01/12 14:46:06</t>
+  </si>
+  <si>
+    <t>'2022/01/12 22:12:40</t>
+  </si>
+  <si>
+    <t>'2022/01/12 22:15:02</t>
+  </si>
+  <si>
+    <t>https://portal.cert.fec-frms.fiservapps.com/portal/login?c=D010019</t>
+  </si>
+  <si>
+    <t>'2022/01/13 19:43:01</t>
+  </si>
+  <si>
+    <t>'2022/01/13 19:53:41</t>
+  </si>
+  <si>
+    <t>'2022/01/13 22:01:14</t>
+  </si>
+  <si>
+    <t>'2022/01/13 22:05:29</t>
+  </si>
+  <si>
+    <t>'2022/01/14 08:38:46</t>
+  </si>
+  <si>
+    <t>'2022/01/14 08:41:38</t>
+  </si>
+  <si>
+    <t>'2022/01/14 09:43:22</t>
+  </si>
+  <si>
+    <t>'2022/01/14 09:55:02</t>
+  </si>
+  <si>
+    <t>'2022/01/14 10:23:21</t>
+  </si>
+  <si>
+    <t>'2022/01/14 10:33:54</t>
+  </si>
+  <si>
+    <t>'2022/01/14 15:37:39</t>
+  </si>
+  <si>
+    <t>'2022/01/14 15:43:25</t>
+  </si>
+  <si>
+    <t>'2022/01/14 15:45:25</t>
+  </si>
+  <si>
+    <t>'2022/01/14 15:57:59</t>
+  </si>
+  <si>
+    <t>'2022/01/14 16:44:49</t>
+  </si>
+  <si>
+    <t>'2022/01/14 17:03:27</t>
+  </si>
+  <si>
+    <t>'2022/01/14 17:09:28</t>
+  </si>
+  <si>
+    <t>'2022/01/14 17:23:23</t>
   </si>
   <si>
     <t>CC_CORP_TC027</t>
@@ -1618,7 +1691,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1628,6 +1701,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,16 +1893,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2108,7 +2185,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,13 +2215,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,7 +2240,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2183,18 +2260,17 @@
         <v>67</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{4D28C060-3FC7-4384-B377-95BDC209822A}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{E2A5E61D-28EC-4233-AFA8-278DC779E7DC}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{2A8B23C1-C7BA-47E8-B0D7-206F6F1578A8}"/>
-    <hyperlink ref="E2" r:id="rId4" tooltip="https://portal.cert.fec-frms.fiservapps.com/portal/login?c=d010019" xr:uid="{C2F5B005-8811-4AAA-9A78-6DA23B925BF2}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{795D2318-ED88-4911-BD2D-6C2865044338}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{2A8B23C1-C7BA-47E8-B0D7-206F6F1578A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2202,14 +2278,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="79" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2277,10 +2353,10 @@
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
         <v>70</v>
@@ -2306,10 +2382,10 @@
         <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
         <v>70</v>
@@ -2335,10 +2411,10 @@
         <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>469</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>470</v>
       </c>
       <c r="K4" t="s">
         <v>70</v>
@@ -2364,10 +2440,10 @@
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>469</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>471</v>
       </c>
       <c r="K5" t="s">
         <v>70</v>
@@ -2407,13 +2483,13 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I7" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="J7" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="K7" t="s">
         <v>70</v>
@@ -2436,13 +2512,13 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I8" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="J8" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="K8" t="s">
         <v>70</v>
@@ -2465,13 +2541,13 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="J9" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="K9" t="s">
         <v>70</v>
@@ -2494,13 +2570,13 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I10" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="J10" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="K10" t="s">
         <v>70</v>
@@ -2523,13 +2599,13 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I11" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="J11" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="K11" t="s">
         <v>70</v>
@@ -2552,13 +2628,13 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I12" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="J12" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="K12" t="s">
         <v>70</v>
@@ -2581,13 +2657,13 @@
         <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I13" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="J13" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="K13" t="s">
         <v>70</v>
@@ -2610,13 +2686,13 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I14" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="J14" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
@@ -2639,13 +2715,13 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I15" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="J15" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="K15" t="s">
         <v>70</v>
@@ -2668,16 +2744,16 @@
         <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I16" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="J16" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2699,7 +2775,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2708,19 +2784,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I18" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="J18" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="K18" t="s">
         <v>70</v>
@@ -2728,7 +2804,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2737,19 +2813,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="H19" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I19" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="J19" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="K19" t="s">
         <v>70</v>
@@ -2757,7 +2833,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2766,19 +2842,19 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="H20" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I20" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="J20" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="K20" t="s">
         <v>70</v>
@@ -2786,7 +2862,7 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2795,19 +2871,19 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="H21" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I21" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="J21" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="K21" t="s">
         <v>70</v>
@@ -2815,7 +2891,7 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2824,19 +2900,19 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="H22" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I22" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="J22" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="K22" t="s">
         <v>70</v>
@@ -2844,7 +2920,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -2853,19 +2929,19 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I23" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="J23" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="K23" t="s">
         <v>70</v>
@@ -2873,7 +2949,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2882,19 +2958,19 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H24" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I24" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="J24" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K24" t="s">
         <v>70</v>
@@ -2902,7 +2978,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -2911,19 +2987,19 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H25" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I25" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="J25" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K25" t="s">
         <v>70</v>
@@ -2931,7 +3007,7 @@
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -2940,19 +3016,19 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="H26" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I26" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="J26" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="K26" t="s">
         <v>70</v>
@@ -2960,7 +3036,7 @@
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -2969,19 +3045,19 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H27" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I27" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="J27" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K27" t="s">
         <v>70</v>
@@ -2989,7 +3065,7 @@
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -2998,19 +3074,19 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H28" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I28" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="J28" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K28" t="s">
         <v>70</v>
@@ -3018,7 +3094,7 @@
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -3027,19 +3103,19 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H29" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I29" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="J29" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K29" t="s">
         <v>70</v>
@@ -3047,7 +3123,7 @@
     </row>
     <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -3056,19 +3132,19 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H30" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I30" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K30" t="s">
         <v>70</v>
@@ -3076,7 +3152,7 @@
     </row>
     <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -3085,19 +3161,19 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F31" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H31" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I31" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="J31" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K31" t="s">
         <v>70</v>
@@ -3105,7 +3181,7 @@
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -3114,27 +3190,27 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H32" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="I32" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="J32" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -3143,22 +3219,10 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="H33" t="s">
-        <v>421</v>
-      </c>
-      <c r="I33" t="s">
-        <v>499</v>
-      </c>
-      <c r="J33" t="s">
-        <v>500</v>
-      </c>
-      <c r="K33" t="s">
-        <v>70</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -3169,10 +3233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,7 +3251,7 @@
     <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3224,13 +3288,16 @@
       <c r="L1" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -3238,8 +3305,29 @@
       <c r="F2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G2" s="18">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J2" t="s">
+        <v>516</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -3253,7 +3341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3267,7 +3355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -3281,7 +3369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3294,8 +3382,20 @@
       <c r="F6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J6" t="s">
+        <v>508</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3408,20 @@
       <c r="F7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>509</v>
+      </c>
+      <c r="J7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -3322,8 +3434,20 @@
       <c r="F8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>511</v>
+      </c>
+      <c r="J8" t="s">
+        <v>512</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -3336,8 +3460,20 @@
       <c r="F9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>513</v>
+      </c>
+      <c r="J9" t="s">
+        <v>514</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -3351,7 +3487,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -3362,105 +3498,153 @@
         <v>86</v>
       </c>
       <c r="F11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>521</v>
+      </c>
+      <c r="J13" t="s">
+        <v>522</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
         <v>122</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>523</v>
+      </c>
+      <c r="J14" t="s">
+        <v>524</v>
+      </c>
+      <c r="K14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
         <v>124</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>517</v>
+      </c>
+      <c r="J15" t="s">
+        <v>518</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
         <v>126</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" t="s">
-        <v>129</v>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>519</v>
+      </c>
+      <c r="J16" t="s">
+        <v>520</v>
+      </c>
+      <c r="K16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3470,10 +3654,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,12 +3669,12 @@
     <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
@@ -3528,15 +3712,33 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="N1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="O1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>430</v>
+      </c>
+      <c r="R1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S1" t="s">
+        <v>432</v>
+      </c>
+      <c r="T1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>6</v>
@@ -3551,21 +3753,21 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
@@ -3576,25 +3778,25 @@
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="J3" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="K3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>6</v>
@@ -3605,25 +3807,25 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="J4" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="K4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>6</v>
@@ -3634,25 +3836,25 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="J5" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="K5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>6</v>
@@ -3663,25 +3865,25 @@
         <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="J6" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="K6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -3692,25 +3894,25 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="J7" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="K7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>6</v>
@@ -3721,25 +3923,25 @@
         <v>74</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="J8" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="K8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>6</v>
@@ -3750,25 +3952,25 @@
         <v>77</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="J9" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="K9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>6</v>
@@ -3779,25 +3981,25 @@
         <v>80</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s">
+        <v>369</v>
+      </c>
+      <c r="J10" t="s">
+        <v>377</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="I10" t="s">
-        <v>409</v>
-      </c>
-      <c r="J10" t="s">
-        <v>417</v>
-      </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>105</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>6</v>
@@ -3808,25 +4010,25 @@
         <v>83</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="J11" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="K11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>6</v>
@@ -3837,25 +4039,25 @@
         <v>86</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="J12" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="K12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>6</v>
@@ -3863,28 +4065,28 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="J13" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>6</v>
@@ -3892,28 +4094,28 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="J14" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>6</v>
@@ -3921,28 +4123,28 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="J15" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="K15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>6</v>
@@ -3950,28 +4152,28 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="J16" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="K16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>6</v>
@@ -3979,28 +4181,28 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="J17" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="K17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>6</v>
@@ -4008,28 +4210,28 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="J18" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="K18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>6</v>
@@ -4037,20 +4239,20 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="J19" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="K19" t="s">
         <v>70</v>
@@ -4065,9 +4267,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>6</v>
@@ -4075,28 +4277,28 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="J20" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="K20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>6</v>
@@ -4104,28 +4306,28 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I21" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="J21" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="K21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>6</v>
@@ -4133,28 +4335,28 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I22" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="J22" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="K22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>6</v>
@@ -4162,28 +4364,40 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I23" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="J23" t="s">
-        <v>363</v>
+        <v>435</v>
       </c>
       <c r="K23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>6</v>
@@ -4191,28 +4405,28 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="J24" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="K24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>6</v>
@@ -4220,28 +4434,42 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="14"/>
+        <v>287</v>
+      </c>
+      <c r="G25" s="14">
+        <v>4</v>
+      </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J25" t="s">
-        <v>364</v>
+        <v>439</v>
       </c>
       <c r="K25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="L25" t="s">
+        <v>132</v>
+      </c>
+      <c r="M25" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>6</v>
@@ -4249,28 +4477,28 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="J26" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="K26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>6</v>
@@ -4278,28 +4506,42 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G27" s="14"/>
+        <v>281</v>
+      </c>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
       <c r="H27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J27" t="s">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="K27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>6</v>
@@ -4307,28 +4549,28 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J28" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>6</v>
@@ -4336,28 +4578,42 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="G29" s="14"/>
+        <v>283</v>
+      </c>
+      <c r="G29" s="14">
+        <v>4</v>
+      </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J29" t="s">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="K29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" t="s">
+        <v>132</v>
+      </c>
+      <c r="N29" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>6</v>
@@ -4365,28 +4621,28 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>305</v>
+        <v>464</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I30" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="J30" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="K30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>6</v>
@@ -4394,28 +4650,42 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G31" s="14"/>
+        <v>288</v>
+      </c>
+      <c r="G31" s="14">
+        <v>4</v>
+      </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J31" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="L31" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" t="s">
+        <v>132</v>
+      </c>
+      <c r="N31" t="s">
+        <v>132</v>
+      </c>
+      <c r="O31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>6</v>
@@ -4423,28 +4693,28 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J32" t="s">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="K32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>6</v>
@@ -4452,28 +4722,42 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="G33" s="14"/>
+        <v>290</v>
+      </c>
+      <c r="G33" s="14">
+        <v>4</v>
+      </c>
       <c r="H33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="J33" t="s">
-        <v>372</v>
+        <v>445</v>
       </c>
       <c r="K33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="L33" t="s">
+        <v>132</v>
+      </c>
+      <c r="M33" t="s">
+        <v>132</v>
+      </c>
+      <c r="N33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>6</v>
@@ -4481,28 +4765,28 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>309</v>
+        <v>465</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I34" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="J34" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>6</v>
@@ -4510,28 +4794,37 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I35" t="s">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="J35" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="K35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" t="s">
+        <v>132</v>
+      </c>
+      <c r="N35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>6</v>
@@ -4539,28 +4832,57 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="G36" s="14"/>
+        <v>292</v>
+      </c>
+      <c r="G36" s="14">
+        <v>10</v>
+      </c>
       <c r="H36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I36" t="s">
-        <v>377</v>
+        <v>448</v>
       </c>
       <c r="J36" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="K36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" t="s">
+        <v>132</v>
+      </c>
+      <c r="P36" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36" t="s">
+        <v>132</v>
+      </c>
+      <c r="S36" t="s">
+        <v>132</v>
+      </c>
+      <c r="T36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>6</v>
@@ -4568,28 +4890,28 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I37" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="J37" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>6</v>
@@ -4597,28 +4919,28 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>314</v>
+        <v>203</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>295</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="J38" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="K38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>6</v>
@@ -4626,28 +4948,28 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>313</v>
+        <v>204</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>6</v>
@@ -4655,28 +4977,28 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>315</v>
+        <v>205</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="K40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>6</v>
@@ -4684,28 +5006,28 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>316</v>
+        <v>206</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="J41" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>6</v>
@@ -4713,28 +5035,28 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>317</v>
+        <v>207</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="J42" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="K42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>6</v>
@@ -4742,28 +5064,28 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>318</v>
+        <v>208</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I43" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>6</v>
@@ -4771,28 +5093,28 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>319</v>
+        <v>209</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I44" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="J44" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="K44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>6</v>
@@ -4800,28 +5122,28 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>320</v>
+        <v>210</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="J45" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="K45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>6</v>
@@ -4829,28 +5151,28 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="J46" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="K46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>6</v>
@@ -4858,10 +5180,10 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -4869,30 +5191,38 @@
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="H48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" t="s">
+        <v>450</v>
+      </c>
+      <c r="J48" t="s">
+        <v>451</v>
+      </c>
+      <c r="K48" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>6</v>
@@ -4900,10 +5230,10 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
@@ -4913,7 +5243,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>6</v>
@@ -4921,10 +5251,10 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
@@ -4934,7 +5264,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>6</v>
@@ -4942,10 +5272,10 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -4955,7 +5285,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>6</v>
@@ -4963,10 +5293,10 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>278</v>
+        <v>216</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -4976,18 +5306,18 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>279</v>
+      <c r="E53" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
@@ -4997,18 +5327,18 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>280</v>
+      <c r="E54" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
@@ -5018,28 +5348,28 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="15" t="s">
-        <v>187</v>
+      <c r="E55" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14" t="s">
         <v>69</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K55" s="14" t="s">
         <v>70</v>
@@ -5047,28 +5377,28 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="15" t="s">
-        <v>184</v>
+      <c r="E56" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14" t="s">
         <v>69</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K56" s="14" t="s">
         <v>70</v>
@@ -5076,28 +5406,28 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="15" t="s">
-        <v>185</v>
+      <c r="E57" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14" t="s">
         <v>69</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K57" s="14" t="s">
         <v>70</v>
@@ -5105,18 +5435,18 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="15" t="s">
-        <v>221</v>
+      <c r="E58" s="14" t="s">
+        <v>218</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
@@ -5126,18 +5456,18 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="15" t="s">
-        <v>223</v>
+      <c r="E59" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -5147,18 +5477,18 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="15" t="s">
-        <v>225</v>
+      <c r="E60" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -5168,123 +5498,163 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>333</v>
+      <c r="E61" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="H61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" t="s">
+        <v>454</v>
+      </c>
+      <c r="J61" t="s">
+        <v>455</v>
+      </c>
+      <c r="K61" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>334</v>
+      <c r="E62" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="H62" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" t="s">
+        <v>454</v>
+      </c>
+      <c r="J62" t="s">
+        <v>456</v>
+      </c>
+      <c r="K62" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>335</v>
+      <c r="E63" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="H63" t="s">
+        <v>69</v>
+      </c>
+      <c r="I63" t="s">
+        <v>457</v>
+      </c>
+      <c r="J63" t="s">
+        <v>458</v>
+      </c>
+      <c r="K63" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>336</v>
+      <c r="E64" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>453</v>
       </c>
       <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
+      <c r="H64" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" t="s">
+        <v>462</v>
+      </c>
+      <c r="K64" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>337</v>
+      <c r="E65" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>452</v>
       </c>
       <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
+      <c r="H65" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" t="s">
+        <v>459</v>
+      </c>
+      <c r="J65" t="s">
+        <v>460</v>
+      </c>
+      <c r="K65" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>338</v>
+      <c r="E66" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>317</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -5294,49 +5664,57 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>339</v>
+      <c r="E67" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
+      <c r="H67" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" t="s">
+        <v>257</v>
+      </c>
+      <c r="J67" t="s">
+        <v>258</v>
+      </c>
+      <c r="K67" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>340</v>
+      <c r="E68" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>319</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" t="s">
         <v>69</v>
       </c>
       <c r="I68" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="J68" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="K68" t="s">
         <v>70</v>
@@ -5344,68 +5722,68 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>341</v>
+      <c r="E69" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="G69" s="14"/>
-      <c r="H69" t="s">
-        <v>69</v>
-      </c>
-      <c r="I69" t="s">
-        <v>276</v>
-      </c>
-      <c r="J69" t="s">
-        <v>277</v>
-      </c>
-      <c r="K69" t="s">
-        <v>70</v>
-      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>342</v>
+      <c r="E70" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
+      <c r="H70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" t="s">
+        <v>466</v>
+      </c>
+      <c r="J70" t="s">
+        <v>467</v>
+      </c>
+      <c r="K70" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>343</v>
+      <c r="E71" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>463</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -5415,39 +5793,47 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>344</v>
+      <c r="E72" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>322</v>
       </c>
       <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
+      <c r="H72" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" t="s">
+        <v>466</v>
+      </c>
+      <c r="J72" t="s">
+        <v>468</v>
+      </c>
+      <c r="K72" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>345</v>
+      <c r="E73" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>323</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
@@ -5457,39 +5843,47 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>346</v>
+      <c r="E74" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>324</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
+      <c r="H74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" t="s">
+        <v>504</v>
+      </c>
+      <c r="J74" t="s">
+        <v>505</v>
+      </c>
+      <c r="K74" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>347</v>
+      <c r="E75" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -5499,18 +5893,18 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
-      <c r="E76" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>348</v>
+      <c r="E76" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -5520,171 +5914,24 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
-      <c r="E77" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>349</v>
+      <c r="E77" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>327</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F81" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D6BFA59-14EE-48C2-8F31-DDFD2672A36B}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D782646-2406-488C-BA03-C437A4B0C52D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="538">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1607,12 +1607,6 @@
     <t>'2022/01/14 09:55:02</t>
   </si>
   <si>
-    <t>'2022/01/14 10:23:21</t>
-  </si>
-  <si>
-    <t>'2022/01/14 10:33:54</t>
-  </si>
-  <si>
     <t>'2022/01/14 15:37:39</t>
   </si>
   <si>
@@ -1641,12 +1635,52 @@
   </si>
   <si>
     <t>Create a wire transfer template (free form)and search it</t>
+  </si>
+  <si>
+    <t>'2022/01/19 16:06:04</t>
+  </si>
+  <si>
+    <t>'2022/01/19 16:15:35</t>
+  </si>
+  <si>
+    <t>'2022/01/19 17:48:05</t>
+  </si>
+  <si>
+    <t>'2022/01/19 17:56:43</t>
+  </si>
+  <si>
+    <t>'2022/01/19 19:04:25</t>
+  </si>
+  <si>
+    <t>'2022/01/19 19:12:53</t>
+  </si>
+  <si>
+    <t>'2022/01/19 22:00:36</t>
+  </si>
+  <si>
+    <t>'2022/01/19 22:05:42</t>
+  </si>
+  <si>
+    <t>'2022/01/19 22:34:23</t>
+  </si>
+  <si>
+    <t>'2022/01/19 22:44:24</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/01/20 16:11:42</t>
+  </si>
+  <si>
+    <t>'2022/01/20 16:17:17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2190,10 +2224,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2278,21 +2312,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A10" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3210,7 +3244,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -3219,10 +3253,10 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -3233,25 +3267,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3291,8 +3325,11 @@
       <c r="M1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -3306,16 +3343,16 @@
         <v>53</v>
       </c>
       <c r="G2" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="J2" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="K2" t="s">
         <v>132</v>
@@ -3326,8 +3363,11 @@
       <c r="M2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -3341,7 +3381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3355,7 +3395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -3369,7 +3409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3395,7 +3435,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -3421,7 +3461,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -3447,7 +3487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -3473,7 +3513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -3486,8 +3526,20 @@
       <c r="F10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>525</v>
+      </c>
+      <c r="J10" t="s">
+        <v>526</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -3500,8 +3552,20 @@
       <c r="F11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>527</v>
+      </c>
+      <c r="J11" t="s">
+        <v>528</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -3514,8 +3578,20 @@
       <c r="F12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>529</v>
+      </c>
+      <c r="J12" t="s">
+        <v>530</v>
+      </c>
+      <c r="K12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -3532,21 +3608,21 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>109</v>
@@ -3558,16 +3634,16 @@
         <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -3584,16 +3660,16 @@
         <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -3610,21 +3686,21 @@
         <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>115</v>
@@ -3632,8 +3708,20 @@
       <c r="F17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" t="s">
+        <v>536</v>
+      </c>
+      <c r="J17" t="s">
+        <v>537</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -3662,16 +3750,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D782646-2406-488C-BA03-C437A4B0C52D}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0C7A65-B464-4497-B419-B2E1121195A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1017,9 +1017,6 @@
     <t>Savings-Savings account maintenance update codes statement notification</t>
   </si>
   <si>
-    <t>Certificates-Certificates account maintenance update hold</t>
-  </si>
-  <si>
     <t>Certificates-Certificates account maintenance update status</t>
   </si>
   <si>
@@ -1655,32 +1652,34 @@
     <t>'2022/01/19 19:12:53</t>
   </si>
   <si>
-    <t>'2022/01/19 22:00:36</t>
-  </si>
-  <si>
-    <t>'2022/01/19 22:05:42</t>
-  </si>
-  <si>
     <t>'2022/01/19 22:34:23</t>
   </si>
   <si>
     <t>'2022/01/19 22:44:24</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>'2022/01/20 16:11:42</t>
   </si>
   <si>
     <t>'2022/01/20 16:17:17</t>
+  </si>
+  <si>
+    <t>Certificates-Certificates account maintenance update maturity information</t>
+  </si>
+  <si>
+    <t>'2022/01/25 17:54:31</t>
+  </si>
+  <si>
+    <t>'2022/01/25 17:56:28</t>
+  </si>
+  <si>
+    <t>'2022/01/25 17:58:07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1887,7 +1886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1935,6 +1934,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2219,15 +2219,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2249,13 +2249,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,7 +2288,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -2318,15 +2318,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2445,10 +2445,10 @@
         <v>69</v>
       </c>
       <c r="I4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J4" t="s">
         <v>469</v>
-      </c>
-      <c r="J4" t="s">
-        <v>470</v>
       </c>
       <c r="K4" t="s">
         <v>70</v>
@@ -2474,10 +2474,10 @@
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K5" t="s">
         <v>70</v>
@@ -2517,13 +2517,13 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I7" t="s">
         <v>381</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>382</v>
-      </c>
-      <c r="J7" t="s">
-        <v>383</v>
       </c>
       <c r="K7" t="s">
         <v>70</v>
@@ -2546,13 +2546,13 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I8" t="s">
+        <v>383</v>
+      </c>
+      <c r="J8" t="s">
         <v>384</v>
-      </c>
-      <c r="J8" t="s">
-        <v>385</v>
       </c>
       <c r="K8" t="s">
         <v>70</v>
@@ -2575,13 +2575,13 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K9" t="s">
         <v>70</v>
@@ -2604,13 +2604,13 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I10" t="s">
+        <v>386</v>
+      </c>
+      <c r="J10" t="s">
         <v>387</v>
-      </c>
-      <c r="J10" t="s">
-        <v>388</v>
       </c>
       <c r="K10" t="s">
         <v>70</v>
@@ -2633,13 +2633,13 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I11" t="s">
+        <v>388</v>
+      </c>
+      <c r="J11" t="s">
         <v>389</v>
-      </c>
-      <c r="J11" t="s">
-        <v>390</v>
       </c>
       <c r="K11" t="s">
         <v>70</v>
@@ -2662,13 +2662,13 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K12" t="s">
         <v>70</v>
@@ -2691,13 +2691,13 @@
         <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I13" t="s">
+        <v>391</v>
+      </c>
+      <c r="J13" t="s">
         <v>392</v>
-      </c>
-      <c r="J13" t="s">
-        <v>393</v>
       </c>
       <c r="K13" t="s">
         <v>70</v>
@@ -2720,13 +2720,13 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I14" t="s">
+        <v>393</v>
+      </c>
+      <c r="J14" t="s">
         <v>394</v>
-      </c>
-      <c r="J14" t="s">
-        <v>395</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
@@ -2749,13 +2749,13 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I15" t="s">
+        <v>395</v>
+      </c>
+      <c r="J15" t="s">
         <v>396</v>
-      </c>
-      <c r="J15" t="s">
-        <v>397</v>
       </c>
       <c r="K15" t="s">
         <v>70</v>
@@ -2778,13 +2778,13 @@
         <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I16" t="s">
+        <v>397</v>
+      </c>
+      <c r="J16" t="s">
         <v>398</v>
-      </c>
-      <c r="J16" t="s">
-        <v>399</v>
       </c>
       <c r="K16" t="s">
         <v>132</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2818,19 +2818,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" t="s">
+        <v>380</v>
+      </c>
+      <c r="I18" t="s">
         <v>401</v>
       </c>
-      <c r="H18" t="s">
-        <v>381</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>402</v>
-      </c>
-      <c r="J18" t="s">
-        <v>403</v>
       </c>
       <c r="K18" t="s">
         <v>70</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2847,19 +2847,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="H19" t="s">
+        <v>380</v>
+      </c>
+      <c r="I19" t="s">
         <v>405</v>
       </c>
-      <c r="H19" t="s">
-        <v>381</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>406</v>
-      </c>
-      <c r="J19" t="s">
-        <v>407</v>
       </c>
       <c r="K19" t="s">
         <v>70</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2876,19 +2876,19 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="H20" t="s">
+        <v>380</v>
+      </c>
+      <c r="I20" t="s">
         <v>409</v>
       </c>
-      <c r="H20" t="s">
-        <v>381</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>410</v>
-      </c>
-      <c r="J20" t="s">
-        <v>411</v>
       </c>
       <c r="K20" t="s">
         <v>70</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2905,19 +2905,19 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="H21" t="s">
+        <v>380</v>
+      </c>
+      <c r="I21" t="s">
         <v>413</v>
       </c>
-      <c r="H21" t="s">
-        <v>381</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>414</v>
-      </c>
-      <c r="J21" t="s">
-        <v>415</v>
       </c>
       <c r="K21" t="s">
         <v>70</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2934,19 +2934,19 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="H22" t="s">
+        <v>380</v>
+      </c>
+      <c r="I22" t="s">
         <v>417</v>
       </c>
-      <c r="H22" t="s">
-        <v>381</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>418</v>
-      </c>
-      <c r="J22" t="s">
-        <v>419</v>
       </c>
       <c r="K22" t="s">
         <v>70</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -2963,19 +2963,19 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>419</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="H23" t="s">
+        <v>380</v>
+      </c>
+      <c r="I23" t="s">
         <v>421</v>
       </c>
-      <c r="H23" t="s">
-        <v>381</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>422</v>
-      </c>
-      <c r="J23" t="s">
-        <v>423</v>
       </c>
       <c r="K23" t="s">
         <v>70</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2992,19 +2992,19 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
+        <v>471</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="H24" t="s">
+        <v>380</v>
+      </c>
+      <c r="I24" t="s">
         <v>473</v>
       </c>
-      <c r="H24" t="s">
-        <v>381</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>474</v>
-      </c>
-      <c r="J24" t="s">
-        <v>475</v>
       </c>
       <c r="K24" t="s">
         <v>70</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -3021,19 +3021,19 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
+        <v>475</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="H25" t="s">
+        <v>380</v>
+      </c>
+      <c r="I25" t="s">
         <v>477</v>
       </c>
-      <c r="H25" t="s">
-        <v>381</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>478</v>
-      </c>
-      <c r="J25" t="s">
-        <v>479</v>
       </c>
       <c r="K25" t="s">
         <v>70</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -3050,19 +3050,19 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="H26" t="s">
+        <v>380</v>
+      </c>
+      <c r="I26" t="s">
         <v>425</v>
       </c>
-      <c r="H26" t="s">
-        <v>381</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>426</v>
-      </c>
-      <c r="J26" t="s">
-        <v>427</v>
       </c>
       <c r="K26" t="s">
         <v>70</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -3079,19 +3079,19 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
+        <v>479</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="H27" t="s">
+        <v>380</v>
+      </c>
+      <c r="I27" t="s">
         <v>481</v>
       </c>
-      <c r="H27" t="s">
-        <v>381</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>482</v>
-      </c>
-      <c r="J27" t="s">
-        <v>483</v>
       </c>
       <c r="K27" t="s">
         <v>70</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -3108,19 +3108,19 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
+        <v>483</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="H28" t="s">
+        <v>380</v>
+      </c>
+      <c r="I28" t="s">
         <v>485</v>
       </c>
-      <c r="H28" t="s">
-        <v>381</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>486</v>
-      </c>
-      <c r="J28" t="s">
-        <v>487</v>
       </c>
       <c r="K28" t="s">
         <v>70</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -3137,19 +3137,19 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
+        <v>487</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="H29" t="s">
+        <v>380</v>
+      </c>
+      <c r="I29" t="s">
         <v>489</v>
       </c>
-      <c r="H29" t="s">
-        <v>381</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>490</v>
-      </c>
-      <c r="J29" t="s">
-        <v>491</v>
       </c>
       <c r="K29" t="s">
         <v>70</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -3166,19 +3166,19 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
+        <v>491</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="H30" t="s">
+        <v>380</v>
+      </c>
+      <c r="I30" t="s">
         <v>493</v>
       </c>
-      <c r="H30" t="s">
-        <v>381</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>494</v>
-      </c>
-      <c r="J30" t="s">
-        <v>495</v>
       </c>
       <c r="K30" t="s">
         <v>70</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -3195,19 +3195,19 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
+        <v>495</v>
+      </c>
+      <c r="F31" t="s">
         <v>496</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
+        <v>380</v>
+      </c>
+      <c r="I31" t="s">
         <v>497</v>
       </c>
-      <c r="H31" t="s">
-        <v>381</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>498</v>
-      </c>
-      <c r="J31" t="s">
-        <v>499</v>
       </c>
       <c r="K31" t="s">
         <v>70</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -3224,19 +3224,19 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
+        <v>499</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="H32" t="s">
+        <v>380</v>
+      </c>
+      <c r="I32" t="s">
         <v>501</v>
       </c>
-      <c r="H32" t="s">
-        <v>381</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>502</v>
-      </c>
-      <c r="J32" t="s">
-        <v>503</v>
       </c>
       <c r="K32" t="s">
         <v>70</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -3253,10 +3253,10 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
+        <v>522</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>523</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -3269,20 +3269,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3323,10 +3323,10 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3349,10 +3349,10 @@
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K2" t="s">
         <v>132</v>
@@ -3426,10 +3426,10 @@
         <v>69</v>
       </c>
       <c r="I6" t="s">
+        <v>506</v>
+      </c>
+      <c r="J6" t="s">
         <v>507</v>
-      </c>
-      <c r="J6" t="s">
-        <v>508</v>
       </c>
       <c r="K6" t="s">
         <v>132</v>
@@ -3452,10 +3452,10 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
+        <v>508</v>
+      </c>
+      <c r="J7" t="s">
         <v>509</v>
-      </c>
-      <c r="J7" t="s">
-        <v>510</v>
       </c>
       <c r="K7" t="s">
         <v>132</v>
@@ -3478,10 +3478,10 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
+        <v>510</v>
+      </c>
+      <c r="J8" t="s">
         <v>511</v>
-      </c>
-      <c r="J8" t="s">
-        <v>512</v>
       </c>
       <c r="K8" t="s">
         <v>132</v>
@@ -3504,10 +3504,10 @@
         <v>69</v>
       </c>
       <c r="I9" t="s">
+        <v>512</v>
+      </c>
+      <c r="J9" t="s">
         <v>513</v>
-      </c>
-      <c r="J9" t="s">
-        <v>514</v>
       </c>
       <c r="K9" t="s">
         <v>70</v>
@@ -3530,10 +3530,10 @@
         <v>69</v>
       </c>
       <c r="I10" t="s">
+        <v>524</v>
+      </c>
+      <c r="J10" t="s">
         <v>525</v>
-      </c>
-      <c r="J10" t="s">
-        <v>526</v>
       </c>
       <c r="K10" t="s">
         <v>132</v>
@@ -3556,10 +3556,10 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
+        <v>526</v>
+      </c>
+      <c r="J11" t="s">
         <v>527</v>
-      </c>
-      <c r="J11" t="s">
-        <v>528</v>
       </c>
       <c r="K11" t="s">
         <v>132</v>
@@ -3582,10 +3582,10 @@
         <v>69</v>
       </c>
       <c r="I12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J12" t="s">
         <v>529</v>
-      </c>
-      <c r="J12" t="s">
-        <v>530</v>
       </c>
       <c r="K12" t="s">
         <v>70</v>
@@ -3608,10 +3608,10 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J13" t="s">
         <v>519</v>
-      </c>
-      <c r="J13" t="s">
-        <v>520</v>
       </c>
       <c r="K13" t="s">
         <v>132</v>
@@ -3634,10 +3634,10 @@
         <v>69</v>
       </c>
       <c r="I14" t="s">
+        <v>520</v>
+      </c>
+      <c r="J14" t="s">
         <v>521</v>
-      </c>
-      <c r="J14" t="s">
-        <v>522</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
@@ -3660,10 +3660,10 @@
         <v>69</v>
       </c>
       <c r="I15" t="s">
+        <v>514</v>
+      </c>
+      <c r="J15" t="s">
         <v>515</v>
-      </c>
-      <c r="J15" t="s">
-        <v>516</v>
       </c>
       <c r="K15" t="s">
         <v>132</v>
@@ -3686,10 +3686,10 @@
         <v>69</v>
       </c>
       <c r="I16" t="s">
+        <v>516</v>
+      </c>
+      <c r="J16" t="s">
         <v>517</v>
-      </c>
-      <c r="J16" t="s">
-        <v>518</v>
       </c>
       <c r="K16" t="s">
         <v>70</v>
@@ -3712,10 +3712,10 @@
         <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J17" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K17" t="s">
         <v>132</v>
@@ -3744,22 +3744,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3800,28 +3800,28 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N1" t="s">
         <v>378</v>
       </c>
-      <c r="N1" t="s">
-        <v>379</v>
-      </c>
       <c r="O1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P1" t="s">
         <v>428</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>429</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>430</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>431</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>432</v>
-      </c>
-      <c r="T1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3873,10 +3873,10 @@
         <v>99</v>
       </c>
       <c r="I3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J3" t="s">
         <v>369</v>
-      </c>
-      <c r="J3" t="s">
-        <v>370</v>
       </c>
       <c r="K3" t="s">
         <v>70</v>
@@ -3902,10 +3902,10 @@
         <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K4" t="s">
         <v>70</v>
@@ -3931,10 +3931,10 @@
         <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K5" t="s">
         <v>70</v>
@@ -3960,10 +3960,10 @@
         <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K6" t="s">
         <v>70</v>
@@ -3989,10 +3989,10 @@
         <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K7" t="s">
         <v>70</v>
@@ -4018,10 +4018,10 @@
         <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K8" t="s">
         <v>70</v>
@@ -4047,10 +4047,10 @@
         <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K9" t="s">
         <v>70</v>
@@ -4076,10 +4076,10 @@
         <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K10" t="s">
         <v>70</v>
@@ -4105,10 +4105,10 @@
         <v>99</v>
       </c>
       <c r="I11" t="s">
+        <v>360</v>
+      </c>
+      <c r="J11" t="s">
         <v>361</v>
-      </c>
-      <c r="J11" t="s">
-        <v>362</v>
       </c>
       <c r="K11" t="s">
         <v>70</v>
@@ -4134,10 +4134,10 @@
         <v>99</v>
       </c>
       <c r="I12" t="s">
+        <v>352</v>
+      </c>
+      <c r="J12" t="s">
         <v>353</v>
-      </c>
-      <c r="J12" t="s">
-        <v>354</v>
       </c>
       <c r="K12" t="s">
         <v>70</v>
@@ -4163,10 +4163,10 @@
         <v>99</v>
       </c>
       <c r="I13" t="s">
+        <v>356</v>
+      </c>
+      <c r="J13" t="s">
         <v>357</v>
-      </c>
-      <c r="J13" t="s">
-        <v>358</v>
       </c>
       <c r="K13" t="s">
         <v>132</v>
@@ -4192,10 +4192,10 @@
         <v>99</v>
       </c>
       <c r="I14" t="s">
+        <v>358</v>
+      </c>
+      <c r="J14" t="s">
         <v>359</v>
-      </c>
-      <c r="J14" t="s">
-        <v>360</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
@@ -4221,10 +4221,10 @@
         <v>99</v>
       </c>
       <c r="I15" t="s">
+        <v>354</v>
+      </c>
+      <c r="J15" t="s">
         <v>355</v>
-      </c>
-      <c r="J15" t="s">
-        <v>356</v>
       </c>
       <c r="K15" t="s">
         <v>70</v>
@@ -4250,10 +4250,10 @@
         <v>99</v>
       </c>
       <c r="I16" t="s">
+        <v>330</v>
+      </c>
+      <c r="J16" t="s">
         <v>331</v>
-      </c>
-      <c r="J16" t="s">
-        <v>332</v>
       </c>
       <c r="K16" t="s">
         <v>70</v>
@@ -4279,10 +4279,10 @@
         <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K17" t="s">
         <v>70</v>
@@ -4308,10 +4308,10 @@
         <v>99</v>
       </c>
       <c r="I18" t="s">
+        <v>364</v>
+      </c>
+      <c r="J18" t="s">
         <v>365</v>
-      </c>
-      <c r="J18" t="s">
-        <v>366</v>
       </c>
       <c r="K18" t="s">
         <v>70</v>
@@ -4337,10 +4337,10 @@
         <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K19" t="s">
         <v>70</v>
@@ -4365,7 +4365,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>280</v>
@@ -4375,10 +4375,10 @@
         <v>99</v>
       </c>
       <c r="I20" t="s">
+        <v>362</v>
+      </c>
+      <c r="J20" t="s">
         <v>363</v>
-      </c>
-      <c r="J20" t="s">
-        <v>364</v>
       </c>
       <c r="K20" t="s">
         <v>70</v>
@@ -4394,7 +4394,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>134</v>
@@ -4404,10 +4404,10 @@
         <v>99</v>
       </c>
       <c r="I21" t="s">
+        <v>335</v>
+      </c>
+      <c r="J21" t="s">
         <v>336</v>
-      </c>
-      <c r="J21" t="s">
-        <v>337</v>
       </c>
       <c r="K21" t="s">
         <v>70</v>
@@ -4423,7 +4423,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>135</v>
@@ -4433,10 +4433,10 @@
         <v>99</v>
       </c>
       <c r="I22" t="s">
+        <v>366</v>
+      </c>
+      <c r="J22" t="s">
         <v>367</v>
-      </c>
-      <c r="J22" t="s">
-        <v>368</v>
       </c>
       <c r="K22" t="s">
         <v>70</v>
@@ -4462,10 +4462,10 @@
         <v>99</v>
       </c>
       <c r="I23" t="s">
+        <v>433</v>
+      </c>
+      <c r="J23" t="s">
         <v>434</v>
-      </c>
-      <c r="J23" t="s">
-        <v>435</v>
       </c>
       <c r="K23" t="s">
         <v>70</v>
@@ -4503,10 +4503,10 @@
         <v>99</v>
       </c>
       <c r="I24" t="s">
+        <v>435</v>
+      </c>
+      <c r="J24" t="s">
         <v>436</v>
-      </c>
-      <c r="J24" t="s">
-        <v>437</v>
       </c>
       <c r="K24" t="s">
         <v>70</v>
@@ -4534,10 +4534,10 @@
         <v>99</v>
       </c>
       <c r="I25" t="s">
+        <v>437</v>
+      </c>
+      <c r="J25" t="s">
         <v>438</v>
-      </c>
-      <c r="J25" t="s">
-        <v>439</v>
       </c>
       <c r="K25" t="s">
         <v>132</v>
@@ -4575,10 +4575,10 @@
         <v>99</v>
       </c>
       <c r="I26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K26" t="s">
         <v>70</v>
@@ -4606,10 +4606,10 @@
         <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K27" t="s">
         <v>132</v>
@@ -4647,10 +4647,10 @@
         <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K28" t="s">
         <v>132</v>
@@ -4678,10 +4678,10 @@
         <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K29" t="s">
         <v>70</v>
@@ -4712,17 +4712,17 @@
         <v>156</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" t="s">
         <v>99</v>
       </c>
       <c r="I30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K30" t="s">
         <v>70</v>
@@ -4750,10 +4750,10 @@
         <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K31" t="s">
         <v>132</v>
@@ -4791,10 +4791,10 @@
         <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K32" t="s">
         <v>132</v>
@@ -4822,10 +4822,10 @@
         <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K33" t="s">
         <v>132</v>
@@ -4856,17 +4856,17 @@
         <v>164</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" t="s">
         <v>99</v>
       </c>
       <c r="I34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K34" t="s">
         <v>70</v>
@@ -4892,10 +4892,10 @@
         <v>99</v>
       </c>
       <c r="I35" t="s">
+        <v>445</v>
+      </c>
+      <c r="J35" t="s">
         <v>446</v>
-      </c>
-      <c r="J35" t="s">
-        <v>447</v>
       </c>
       <c r="K35" t="s">
         <v>70</v>
@@ -4932,10 +4932,10 @@
         <v>99</v>
       </c>
       <c r="I36" t="s">
+        <v>447</v>
+      </c>
+      <c r="J36" t="s">
         <v>448</v>
-      </c>
-      <c r="J36" t="s">
-        <v>449</v>
       </c>
       <c r="K36" t="s">
         <v>70</v>
@@ -4988,10 +4988,10 @@
         <v>99</v>
       </c>
       <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
         <v>339</v>
-      </c>
-      <c r="J37" t="s">
-        <v>340</v>
       </c>
       <c r="K37" t="s">
         <v>70</v>
@@ -5017,10 +5017,10 @@
         <v>99</v>
       </c>
       <c r="I38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J38" t="s">
         <v>341</v>
-      </c>
-      <c r="J38" t="s">
-        <v>342</v>
       </c>
       <c r="K38" t="s">
         <v>70</v>
@@ -5046,10 +5046,10 @@
         <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
         <v>70</v>
@@ -5075,10 +5075,10 @@
         <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K40" t="s">
         <v>70</v>
@@ -5104,10 +5104,10 @@
         <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K41" t="s">
         <v>70</v>
@@ -5133,10 +5133,10 @@
         <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K42" t="s">
         <v>70</v>
@@ -5162,10 +5162,10 @@
         <v>99</v>
       </c>
       <c r="I43" t="s">
+        <v>346</v>
+      </c>
+      <c r="J43" t="s">
         <v>347</v>
-      </c>
-      <c r="J43" t="s">
-        <v>348</v>
       </c>
       <c r="K43" t="s">
         <v>70</v>
@@ -5191,10 +5191,10 @@
         <v>99</v>
       </c>
       <c r="I44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J44" t="s">
         <v>349</v>
-      </c>
-      <c r="J44" t="s">
-        <v>350</v>
       </c>
       <c r="K44" t="s">
         <v>70</v>
@@ -5220,10 +5220,10 @@
         <v>99</v>
       </c>
       <c r="I45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s">
         <v>70</v>
@@ -5249,10 +5249,10 @@
         <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s">
         <v>70</v>
@@ -5299,10 +5299,10 @@
         <v>99</v>
       </c>
       <c r="I48" t="s">
+        <v>449</v>
+      </c>
+      <c r="J48" t="s">
         <v>450</v>
-      </c>
-      <c r="J48" t="s">
-        <v>451</v>
       </c>
       <c r="K48" t="s">
         <v>70</v>
@@ -5604,10 +5604,10 @@
         <v>69</v>
       </c>
       <c r="I61" t="s">
+        <v>453</v>
+      </c>
+      <c r="J61" t="s">
         <v>454</v>
-      </c>
-      <c r="J61" t="s">
-        <v>455</v>
       </c>
       <c r="K61" t="s">
         <v>70</v>
@@ -5633,10 +5633,10 @@
         <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J62" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K62" t="s">
         <v>70</v>
@@ -5662,10 +5662,10 @@
         <v>69</v>
       </c>
       <c r="I63" t="s">
+        <v>456</v>
+      </c>
+      <c r="J63" t="s">
         <v>457</v>
-      </c>
-      <c r="J63" t="s">
-        <v>458</v>
       </c>
       <c r="K63" t="s">
         <v>70</v>
@@ -5684,17 +5684,17 @@
         <v>230</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" t="s">
         <v>69</v>
       </c>
       <c r="I64" t="s">
+        <v>460</v>
+      </c>
+      <c r="J64" t="s">
         <v>461</v>
-      </c>
-      <c r="J64" t="s">
-        <v>462</v>
       </c>
       <c r="K64" t="s">
         <v>70</v>
@@ -5713,17 +5713,17 @@
         <v>232</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" t="s">
         <v>69</v>
       </c>
       <c r="I65" t="s">
+        <v>458</v>
+      </c>
+      <c r="J65" t="s">
         <v>459</v>
-      </c>
-      <c r="J65" t="s">
-        <v>460</v>
       </c>
       <c r="K65" t="s">
         <v>70</v>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="19" t="s">
         <v>238</v>
       </c>
       <c r="F68" s="15" t="s">
@@ -5817,17 +5817,25 @@
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="19" t="s">
         <v>240</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>320</v>
       </c>
       <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
+      <c r="H69" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" t="s">
+        <v>535</v>
+      </c>
+      <c r="J69" t="s">
+        <v>536</v>
+      </c>
+      <c r="K69" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
@@ -5838,7 +5846,7 @@
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="19" t="s">
         <v>242</v>
       </c>
       <c r="F70" s="15" t="s">
@@ -5849,10 +5857,10 @@
         <v>69</v>
       </c>
       <c r="I70" t="s">
+        <v>465</v>
+      </c>
+      <c r="J70" t="s">
         <v>466</v>
-      </c>
-      <c r="J70" t="s">
-        <v>467</v>
       </c>
       <c r="K70" t="s">
         <v>70</v>
@@ -5867,17 +5875,25 @@
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="19" t="s">
         <v>244</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
+      <c r="H71" t="s">
+        <v>69</v>
+      </c>
+      <c r="I71" t="s">
+        <v>535</v>
+      </c>
+      <c r="J71" t="s">
+        <v>537</v>
+      </c>
+      <c r="K71" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
@@ -5888,7 +5904,7 @@
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="19" t="s">
         <v>246</v>
       </c>
       <c r="F72" s="15" t="s">
@@ -5899,10 +5915,10 @@
         <v>69</v>
       </c>
       <c r="I72" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K72" t="s">
         <v>70</v>
@@ -5913,11 +5929,11 @@
         <v>247</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="17" t="s">
         <v>248</v>
       </c>
       <c r="F73" s="15" t="s">
@@ -5934,11 +5950,11 @@
         <v>249</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="19" t="s">
         <v>250</v>
       </c>
       <c r="F74" s="15" t="s">
@@ -5949,10 +5965,10 @@
         <v>69</v>
       </c>
       <c r="I74" t="s">
+        <v>503</v>
+      </c>
+      <c r="J74" t="s">
         <v>504</v>
-      </c>
-      <c r="J74" t="s">
-        <v>505</v>
       </c>
       <c r="K74" t="s">
         <v>70</v>
@@ -5967,11 +5983,11 @@
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="19" t="s">
         <v>252</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -5992,7 +6008,7 @@
         <v>254</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>325</v>
+        <v>534</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -6013,7 +6029,7 @@
         <v>256</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9DB26682-CAE1-4D78-AC77-D2D2F129E94D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBDEAF1-8D9C-448C-8AA1-1FC203F022F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,11 @@
     <sheet name="Premier" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Premier!$A$1:$L$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Premier!$A$1:$L$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="530">
   <si>
     <t>Application_Name</t>
   </si>
@@ -561,12 +561,6 @@
     <t>TC044</t>
   </si>
   <si>
-    <t>'2021/12/17 19:54:21</t>
-  </si>
-  <si>
-    <t>'2021/12/17 19:56:23</t>
-  </si>
-  <si>
     <t>Premier_TC050</t>
   </si>
   <si>
@@ -600,18 +594,6 @@
     <t>TC053</t>
   </si>
   <si>
-    <t>'2021/12/20 19:35:01</t>
-  </si>
-  <si>
-    <t>'2021/12/20 19:36:35</t>
-  </si>
-  <si>
-    <t>'2021/12/20 19:38:09</t>
-  </si>
-  <si>
-    <t>'2021/12/20 19:40:04</t>
-  </si>
-  <si>
     <t>Premier_TC036</t>
   </si>
   <si>
@@ -834,30 +816,6 @@
     <t>TC078</t>
   </si>
   <si>
-    <t>Premier_TC079</t>
-  </si>
-  <si>
-    <t>TC079</t>
-  </si>
-  <si>
-    <t>Premier_TC080</t>
-  </si>
-  <si>
-    <t>TC080</t>
-  </si>
-  <si>
-    <t>Premier_TC081</t>
-  </si>
-  <si>
-    <t>TC081</t>
-  </si>
-  <si>
-    <t>Premier_TC082</t>
-  </si>
-  <si>
-    <t>TC082</t>
-  </si>
-  <si>
     <t>'2021/12/22 11:01:11</t>
   </si>
   <si>
@@ -1084,27 +1042,6 @@
   </si>
   <si>
     <t>Savings-Savings account maintenance update codes statement notification</t>
-  </si>
-  <si>
-    <t>Certificates-Certificates account maintenance update Tickler</t>
-  </si>
-  <si>
-    <t>Certificates-Certificates account maintenance update hold</t>
-  </si>
-  <si>
-    <t>Certificates-Certificates account maintenance Certificates add new relationship</t>
-  </si>
-  <si>
-    <t>Certificates-Certificates account maintenance update status</t>
-  </si>
-  <si>
-    <t>Certificates-Certificates account maintenance update relationship</t>
-  </si>
-  <si>
-    <t>Certificates-Certificates account maintenance remove relationship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certificates-Certificates account maintenance update codes - statement notiifcation </t>
   </si>
   <si>
     <t>TC018</t>
@@ -1450,64 +1387,276 @@
     <t>ExecutionStatus_10</t>
   </si>
   <si>
-    <t>'2022/01/06 16:40:34</t>
-  </si>
-  <si>
-    <t>'2022/01/06 16:54:54</t>
-  </si>
-  <si>
     <t>'2022/01/06 20:33:14</t>
   </si>
   <si>
     <t>'2022/01/06 20:36:38</t>
   </si>
   <si>
-    <t>'2022/01/04 22:54:31</t>
-  </si>
-  <si>
-    <t>'2022/01/05 00:52:18</t>
-  </si>
-  <si>
-    <t>'2022/01/05 01:40:51</t>
-  </si>
-  <si>
-    <t>'2022/01/05 01:59:16</t>
-  </si>
-  <si>
-    <t>'2022/01/05 02:44:34</t>
-  </si>
-  <si>
-    <t>'2022/01/05 03:36:14</t>
-  </si>
-  <si>
-    <t>'2022/01/05 03:54:39</t>
-  </si>
-  <si>
-    <t>'2022/01/05 04:50:43</t>
-  </si>
-  <si>
     <t>'2022/01/05 19:28:39</t>
   </si>
   <si>
     <t>'2022/01/05 19:32:47</t>
   </si>
   <si>
-    <t>'2022/01/06 15:59:57</t>
-  </si>
-  <si>
-    <t>'2022/01/06 16:13:01</t>
-  </si>
-  <si>
-    <t>'2022/01/06 19:05:13</t>
-  </si>
-  <si>
-    <t>'2022/01/06 19:08:43</t>
+    <t>'2022/01/07 12:58:37</t>
+  </si>
+  <si>
+    <t>'2022/01/07 13:04:04</t>
+  </si>
+  <si>
+    <t>'2022/01/07 20:39:32</t>
+  </si>
+  <si>
+    <t>'2022/01/07 20:41:59</t>
+  </si>
+  <si>
+    <t>'2022/01/07 21:06:49</t>
+  </si>
+  <si>
+    <t>'2022/01/07 21:22:23</t>
+  </si>
+  <si>
+    <t>'2022/01/07 21:34:30</t>
+  </si>
+  <si>
+    <t>'2022/01/07 21:43:55</t>
+  </si>
+  <si>
+    <t>'2022/01/07 21:58:07</t>
+  </si>
+  <si>
+    <t>'2022/01/10 14:38:43</t>
+  </si>
+  <si>
+    <t>'2022/01/10 14:40:46</t>
+  </si>
+  <si>
+    <t>'2022/01/10 14:43:16</t>
+  </si>
+  <si>
+    <t>'2022/01/10 14:47:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a loan account with a real estate collateral and validate the association of collateral with the loan’ account
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a loan account with a insurance collateral and validate the association of collateral with the loan’ account
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delinking/delete an already associated collateral from loan account and validate that collateral is delinked successfully
+If collateral does not exist Create a real estate collateral for loan account
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t>'2022/01/11 21:01:12</t>
+  </si>
+  <si>
+    <t>'2022/01/11 21:21:57</t>
+  </si>
+  <si>
+    <t>'2022/01/11 22:12:25</t>
+  </si>
+  <si>
+    <t>'2022/01/12 16:38:27</t>
+  </si>
+  <si>
+    <t>'2022/01/12 16:48:18</t>
+  </si>
+  <si>
+    <t>'2022/01/12 16:51:32</t>
+  </si>
+  <si>
+    <t>'2022/01/12 17:07:59</t>
+  </si>
+  <si>
+    <t>'2022/01/12 17:13:23</t>
+  </si>
+  <si>
+    <t>'2022/01/12 20:23:58</t>
+  </si>
+  <si>
+    <t>'2022/01/12 20:41:30</t>
+  </si>
+  <si>
+    <t>'2022/01/13 16:33:09</t>
+  </si>
+  <si>
+    <t>'2022/01/13 16:40:49</t>
+  </si>
+  <si>
+    <t>'2022/01/13 20:54:11</t>
+  </si>
+  <si>
+    <t>'2022/01/13 20:57:25</t>
+  </si>
+  <si>
+    <t>Premier_TC079</t>
+  </si>
+  <si>
+    <t>TC079</t>
+  </si>
+  <si>
+    <t>Premier_TC080</t>
+  </si>
+  <si>
+    <t>TC080</t>
+  </si>
+  <si>
+    <t>'2022/01/18 13:24:36</t>
+  </si>
+  <si>
+    <t>'2022/01/18 13:27:54</t>
+  </si>
+  <si>
+    <t>Premier_TC081</t>
+  </si>
+  <si>
+    <t>Premier_TC082</t>
+  </si>
+  <si>
+    <t>TC081</t>
+  </si>
+  <si>
+    <t>TC082</t>
+  </si>
+  <si>
+    <t>TC083</t>
+  </si>
+  <si>
+    <t>TC084</t>
+  </si>
+  <si>
+    <t>Premier_TC083</t>
+  </si>
+  <si>
+    <t>Premier_TC084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Agreement Under Master Agreement
+if Line does not exist create Line account </t>
+  </si>
+  <si>
+    <t>Create New Commitment Under Master Agreement
+if Master Agreement does not exist create Master Agreement</t>
+  </si>
+  <si>
+    <t>Create New Line of Credit Under Master Agreement
+if Master Agreement does not exist create Master Agreement</t>
+  </si>
+  <si>
+    <t>Create New Letter of Credit Under Master Agreement
+if Master Agreement does not exist create Master Agreement</t>
+  </si>
+  <si>
+    <t>Create New Sub Loan Under Master Agreement
+if Master Agreement does not exist create Master Agreement</t>
+  </si>
+  <si>
+    <t>Create New Master Mortgage Under Master Agreement
+if Master Agreement does not exist create Master Agreement</t>
+  </si>
+  <si>
+    <t>'2022/01/19 12:03:53</t>
+  </si>
+  <si>
+    <t>'2022/01/19 12:08:48</t>
+  </si>
+  <si>
+    <t>'2022/01/19 15:10:25</t>
+  </si>
+  <si>
+    <t>'2022/01/19 15:12:03</t>
+  </si>
+  <si>
+    <t>'2022/01/19 16:47:03</t>
+  </si>
+  <si>
+    <t>'2022/01/19 17:00:13</t>
+  </si>
+  <si>
+    <t>'2022/01/19 17:06:02</t>
+  </si>
+  <si>
+    <t>'2022/01/19 17:08:11</t>
+  </si>
+  <si>
+    <t>'2022/01/19 17:23:38</t>
+  </si>
+  <si>
+    <t>'2022/01/19 17:25:34</t>
+  </si>
+  <si>
+    <t>'2022/01/24 14:34:33</t>
+  </si>
+  <si>
+    <t>'2022/01/24 14:42:07</t>
+  </si>
+  <si>
+    <t>'2022/01/24 15:09:10</t>
+  </si>
+  <si>
+    <t>'2022/01/24 15:13:25</t>
+  </si>
+  <si>
+    <t>'2022/01/24 15:25:40</t>
+  </si>
+  <si>
+    <t>'2022/01/24 15:28:54</t>
+  </si>
+  <si>
+    <t>'2022/01/24 19:23:28</t>
+  </si>
+  <si>
+    <t>'2022/01/24 19:24:54</t>
+  </si>
+  <si>
+    <t>'2022/01/24 19:28:09</t>
+  </si>
+  <si>
+    <t>'2022/01/24 19:29:35</t>
+  </si>
+  <si>
+    <t>'2022/01/25 11:00:16</t>
+  </si>
+  <si>
+    <t>'2022/01/25 11:02:40</t>
+  </si>
+  <si>
+    <t>'2022/01/25 11:03:16</t>
+  </si>
+  <si>
+    <t>'2022/01/25 11:05:49</t>
+  </si>
+  <si>
+    <t>'2022/01/25 13:17:32</t>
+  </si>
+  <si>
+    <t>'2022/01/25 13:22:08</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/01/25 17:43:12</t>
+  </si>
+  <si>
+    <t>'2022/01/25 17:50:20</t>
+  </si>
+  <si>
+    <t>'2022/01/25 18:11:52</t>
+  </si>
+  <si>
+    <t>'2022/01/25 18:12:49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1566,7 +1715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1703,12 +1852,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1754,6 +1916,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2043,10 +2206,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2113,7 +2276,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2137,15 +2300,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2264,10 +2427,10 @@
         <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="J4" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
@@ -2293,10 +2456,10 @@
         <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="J5" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -2322,10 +2485,10 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="J6" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -2348,13 +2511,13 @@
         <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="J7" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
@@ -2377,13 +2540,13 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I8" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="J8" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
@@ -2406,13 +2569,13 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I9" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="J9" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
@@ -2435,13 +2598,13 @@
         <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I10" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="J10" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -2464,13 +2627,13 @@
         <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I11" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="J11" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
@@ -2493,13 +2656,13 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I12" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="J12" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -2522,13 +2685,13 @@
         <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I13" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="J13" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="K13" t="s">
         <v>71</v>
@@ -2551,13 +2714,13 @@
         <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I14" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="J14" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -2580,13 +2743,13 @@
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I15" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="J15" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -2609,13 +2772,13 @@
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I16" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="J16" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="K16" t="s">
         <v>133</v>
@@ -2640,7 +2803,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2649,19 +2812,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="H18" t="s">
+        <v>387</v>
+      </c>
+      <c r="I18" t="s">
         <v>408</v>
       </c>
-      <c r="I18" t="s">
-        <v>429</v>
-      </c>
       <c r="J18" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
@@ -2669,7 +2832,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2678,19 +2841,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="H19" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I19" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="J19" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -2698,7 +2861,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2707,19 +2870,19 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="H20" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I20" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="J20" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
@@ -2727,7 +2890,7 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2736,19 +2899,19 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="H21" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I21" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="J21" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
@@ -2756,7 +2919,7 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2765,19 +2928,19 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="H22" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I22" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="J22" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
@@ -2785,7 +2948,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -2794,19 +2957,19 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="H23" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I23" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="J23" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
@@ -2814,7 +2977,7 @@
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2823,19 +2986,19 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="H24" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I24" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="J24" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
@@ -2857,14 +3020,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3150,24 +3313,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3208,28 +3371,28 @@
         <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="N1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="O1" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="P1" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="Q1" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="R1" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="S1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="T1" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -3274,17 +3437,17 @@
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" t="s">
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J3" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="K3" t="s">
         <v>71</v>
@@ -3303,17 +3466,17 @@
         <v>22</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" t="s">
         <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J4" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="K4" t="s">
         <v>71</v>
@@ -3332,17 +3495,17 @@
         <v>28</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" t="s">
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J5" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="K5" t="s">
         <v>71</v>
@@ -3361,17 +3524,17 @@
         <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" t="s">
         <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J6" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="K6" t="s">
         <v>71</v>
@@ -3390,17 +3553,17 @@
         <v>30</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" t="s">
         <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J7" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="K7" t="s">
         <v>71</v>
@@ -3419,17 +3582,17 @@
         <v>75</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" t="s">
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J8" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
@@ -3448,17 +3611,17 @@
         <v>78</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" t="s">
         <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J9" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="K9" t="s">
         <v>71</v>
@@ -3477,17 +3640,17 @@
         <v>81</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" t="s">
         <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J10" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -3513,10 +3676,10 @@
         <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="J11" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="K11" t="s">
         <v>71</v>
@@ -3535,17 +3698,17 @@
         <v>87</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" t="s">
         <v>100</v>
       </c>
       <c r="I12" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="J12" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -3564,17 +3727,17 @@
         <v>106</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" t="s">
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="J13" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="K13" t="s">
         <v>133</v>
@@ -3593,17 +3756,17 @@
         <v>108</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" t="s">
         <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="J14" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="K14" t="s">
         <v>71</v>
@@ -3629,10 +3792,10 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="J15" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="K15" t="s">
         <v>71</v>
@@ -3651,23 +3814,23 @@
         <v>112</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" t="s">
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="J16" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="K16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>113</v>
       </c>
@@ -3680,23 +3843,23 @@
         <v>114</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" t="s">
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="J17" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="K17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>115</v>
       </c>
@@ -3709,23 +3872,23 @@
         <v>116</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" t="s">
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="J18" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="K18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>137</v>
       </c>
@@ -3738,32 +3901,23 @@
         <v>131</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" t="s">
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J19" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
       </c>
-      <c r="L19" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" t="s">
-        <v>71</v>
-      </c>
-      <c r="N19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>138</v>
       </c>
@@ -3773,26 +3927,26 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" t="s">
         <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J20" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="K20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>139</v>
       </c>
@@ -3802,7 +3956,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>135</v>
@@ -3812,16 +3966,16 @@
         <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="J21" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="K21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>140</v>
       </c>
@@ -3831,7 +3985,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>136</v>
@@ -3841,16 +3995,16 @@
         <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="J22" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="K22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>141</v>
       </c>
@@ -3863,35 +4017,23 @@
         <v>142</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" t="s">
         <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="J23" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="K23" t="s">
         <v>71</v>
       </c>
-      <c r="L23" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" t="s">
-        <v>133</v>
-      </c>
-      <c r="N23" t="s">
-        <v>133</v>
-      </c>
-      <c r="O23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>143</v>
       </c>
@@ -3904,28 +4046,28 @@
         <v>144</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" t="s">
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="J24" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="K24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3933,37 +4075,23 @@
         <v>146</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G25" s="14">
-        <v>4</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G25" s="14"/>
       <c r="H25" t="s">
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J25" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" t="s">
-        <v>133</v>
-      </c>
-      <c r="M25" t="s">
-        <v>133</v>
-      </c>
-      <c r="N25" t="s">
-        <v>133</v>
-      </c>
-      <c r="O25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>147</v>
       </c>
@@ -3976,28 +4104,28 @@
         <v>148</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" t="s">
         <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="J26" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="K26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -4005,42 +4133,28 @@
         <v>151</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" s="14">
-        <v>4</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G27" s="14"/>
       <c r="H27" t="s">
         <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="J27" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
-      </c>
-      <c r="L27" t="s">
-        <v>133</v>
-      </c>
-      <c r="M27" t="s">
-        <v>133</v>
-      </c>
-      <c r="N27" t="s">
-        <v>133</v>
-      </c>
-      <c r="O27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -4048,28 +4162,28 @@
         <v>153</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" t="s">
         <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J28" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -4077,37 +4191,23 @@
         <v>155</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G29" s="14">
-        <v>4</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G29" s="14"/>
       <c r="H29" t="s">
         <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="J29" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="K29" t="s">
         <v>71</v>
       </c>
-      <c r="L29" t="s">
-        <v>133</v>
-      </c>
-      <c r="M29" t="s">
-        <v>133</v>
-      </c>
-      <c r="N29" t="s">
-        <v>133</v>
-      </c>
-      <c r="O29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>156</v>
       </c>
@@ -4120,28 +4220,28 @@
         <v>157</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" t="s">
         <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="J30" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="K30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -4149,42 +4249,28 @@
         <v>159</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G31" s="14">
-        <v>4</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G31" s="14"/>
       <c r="H31" t="s">
         <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="J31" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="K31" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" t="s">
-        <v>133</v>
-      </c>
-      <c r="M31" t="s">
-        <v>133</v>
-      </c>
-      <c r="N31" t="s">
-        <v>133</v>
-      </c>
-      <c r="O31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -4192,28 +4278,28 @@
         <v>161</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" t="s">
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J32" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -4221,37 +4307,23 @@
         <v>163</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G33" s="14">
-        <v>4</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G33" s="14"/>
       <c r="H33" t="s">
         <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="J33" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="K33" t="s">
-        <v>133</v>
-      </c>
-      <c r="L33" t="s">
-        <v>133</v>
-      </c>
-      <c r="M33" t="s">
-        <v>133</v>
-      </c>
-      <c r="N33" t="s">
-        <v>133</v>
-      </c>
-      <c r="O33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>164</v>
       </c>
@@ -4264,23 +4336,23 @@
         <v>165</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" t="s">
         <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="J34" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="K34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>166</v>
       </c>
@@ -4293,37 +4365,28 @@
         <v>167</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" t="s">
         <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="J35" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="K35" t="s">
         <v>71</v>
       </c>
-      <c r="L35" t="s">
-        <v>133</v>
-      </c>
-      <c r="M35" t="s">
-        <v>133</v>
-      </c>
-      <c r="N35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>168</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -4331,52 +4394,23 @@
         <v>169</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="G36" s="14">
-        <v>10</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G36" s="14"/>
       <c r="H36" t="s">
         <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="J36" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="K36" t="s">
         <v>71</v>
       </c>
-      <c r="L36" t="s">
-        <v>71</v>
-      </c>
-      <c r="M36" t="s">
-        <v>71</v>
-      </c>
-      <c r="N36" t="s">
-        <v>71</v>
-      </c>
-      <c r="O36" t="s">
-        <v>133</v>
-      </c>
-      <c r="P36" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>71</v>
-      </c>
-      <c r="R36" t="s">
-        <v>133</v>
-      </c>
-      <c r="S36" t="s">
-        <v>133</v>
-      </c>
-      <c r="T36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>170</v>
       </c>
@@ -4389,25 +4423,25 @@
         <v>171</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" t="s">
         <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="J37" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>6</v>
@@ -4415,28 +4449,28 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" t="s">
         <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J38" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>6</v>
@@ -4444,28 +4478,28 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" t="s">
         <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J39" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>6</v>
@@ -4473,28 +4507,28 @@
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" t="s">
         <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>6</v>
@@ -4502,28 +4536,28 @@
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" t="s">
         <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J41" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>6</v>
@@ -4531,28 +4565,28 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" t="s">
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J42" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="K42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>6</v>
@@ -4560,28 +4594,28 @@
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" t="s">
         <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="J43" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="K43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>6</v>
@@ -4589,28 +4623,28 @@
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" t="s">
         <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="J44" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>6</v>
@@ -4618,28 +4652,28 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" t="s">
         <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>6</v>
@@ -4650,25 +4684,25 @@
         <v>172</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" t="s">
         <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="J46" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="K46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>6</v>
@@ -4676,41 +4710,49 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" t="s">
+        <v>468</v>
+      </c>
+      <c r="J47" t="s">
+        <v>469</v>
+      </c>
+      <c r="K47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" t="s">
         <v>100</v>
       </c>
       <c r="I48" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="J48" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="K48" t="s">
         <v>71</v>
@@ -4718,7 +4760,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>6</v>
@@ -4726,20 +4768,28 @@
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="H49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" t="s">
+        <v>470</v>
+      </c>
+      <c r="J49" t="s">
+        <v>471</v>
+      </c>
+      <c r="K49" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>6</v>
@@ -4747,20 +4797,28 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
+      <c r="H50" t="s">
+        <v>100</v>
+      </c>
+      <c r="I50" t="s">
+        <v>470</v>
+      </c>
+      <c r="J50" t="s">
+        <v>472</v>
+      </c>
+      <c r="K50" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>6</v>
@@ -4768,20 +4826,28 @@
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
+      <c r="H51" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" t="s">
+        <v>465</v>
+      </c>
+      <c r="J51" t="s">
+        <v>467</v>
+      </c>
+      <c r="K51" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>6</v>
@@ -4789,20 +4855,28 @@
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="H52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" t="s">
+        <v>509</v>
+      </c>
+      <c r="J52" t="s">
+        <v>510</v>
+      </c>
+      <c r="K52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>6</v>
@@ -4810,20 +4884,28 @@
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="H53" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" t="s">
+        <v>511</v>
+      </c>
+      <c r="J53" t="s">
+        <v>512</v>
+      </c>
+      <c r="K53" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>6</v>
@@ -4831,49 +4913,57 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="H54" t="s">
+        <v>100</v>
+      </c>
+      <c r="I54" t="s">
+        <v>513</v>
+      </c>
+      <c r="J54" t="s">
+        <v>514</v>
+      </c>
+      <c r="K54" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G55" s="14"/>
-      <c r="H55" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="K55" s="14" t="s">
+      <c r="H55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" t="s">
+        <v>528</v>
+      </c>
+      <c r="J55" t="s">
+        <v>529</v>
+      </c>
+      <c r="K55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>6</v>
@@ -4881,28 +4971,28 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G56" s="14"/>
-      <c r="H56" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="K56" s="14" t="s">
+      <c r="H56" t="s">
+        <v>100</v>
+      </c>
+      <c r="I56" t="s">
+        <v>515</v>
+      </c>
+      <c r="J56" t="s">
+        <v>516</v>
+      </c>
+      <c r="K56" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>6</v>
@@ -4910,28 +5000,28 @@
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="G57" s="14"/>
-      <c r="H57" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="K57" s="14" t="s">
+      <c r="H57" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" t="s">
+        <v>517</v>
+      </c>
+      <c r="J57" t="s">
+        <v>518</v>
+      </c>
+      <c r="K57" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>6</v>
@@ -4939,20 +5029,28 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
+      <c r="H58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" t="s">
+        <v>519</v>
+      </c>
+      <c r="J58" t="s">
+        <v>520</v>
+      </c>
+      <c r="K58" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>6</v>
@@ -4960,20 +5058,28 @@
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
+      <c r="H59" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" t="s">
+        <v>521</v>
+      </c>
+      <c r="J59" t="s">
+        <v>522</v>
+      </c>
+      <c r="K59" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>6</v>
@@ -4981,20 +5087,28 @@
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="H60" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" t="s">
+        <v>523</v>
+      </c>
+      <c r="J60" t="s">
+        <v>524</v>
+      </c>
+      <c r="K60" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>6</v>
@@ -5002,10 +5116,10 @@
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
@@ -5015,7 +5129,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>6</v>
@@ -5023,10 +5137,10 @@
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
@@ -5036,7 +5150,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>6</v>
@@ -5044,10 +5158,10 @@
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -5057,7 +5171,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>6</v>
@@ -5065,10 +5179,10 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -5078,7 +5192,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>6</v>
@@ -5086,10 +5200,10 @@
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
@@ -5099,7 +5213,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>6</v>
@@ -5107,10 +5221,10 @@
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
@@ -5120,7 +5234,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>6</v>
@@ -5128,10 +5242,10 @@
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
@@ -5141,7 +5255,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>6</v>
@@ -5149,20 +5263,20 @@
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" t="s">
         <v>70</v>
       </c>
       <c r="I68" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="J68" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K68" t="s">
         <v>71</v>
@@ -5170,7 +5284,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>6</v>
@@ -5178,20 +5292,20 @@
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" t="s">
         <v>70</v>
       </c>
       <c r="I69" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="J69" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="K69" t="s">
         <v>71</v>
@@ -5199,7 +5313,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>6</v>
@@ -5207,10 +5321,10 @@
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
@@ -5220,7 +5334,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>6</v>
@@ -5228,10 +5342,10 @@
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -5241,7 +5355,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>6</v>
@@ -5249,10 +5363,10 @@
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
@@ -5262,7 +5376,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>6</v>
@@ -5270,10 +5384,10 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
@@ -5283,7 +5397,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>6</v>
@@ -5291,10 +5405,10 @@
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
@@ -5304,7 +5418,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>6</v>
@@ -5312,10 +5426,10 @@
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -5325,7 +5439,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>6</v>
@@ -5333,10 +5447,10 @@
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -5346,7 +5460,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>6</v>
@@ -5354,10 +5468,10 @@
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
@@ -5365,9 +5479,9 @@
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>6</v>
@@ -5375,20 +5489,28 @@
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>348</v>
+        <v>462</v>
       </c>
       <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H78" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>6</v>
@@ -5396,20 +5518,28 @@
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>349</v>
+        <v>463</v>
       </c>
       <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H79" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="48" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>6</v>
@@ -5417,20 +5547,28 @@
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>350</v>
+        <v>464</v>
       </c>
       <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H80" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>264</v>
+        <v>479</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>6</v>
@@ -5438,20 +5576,28 @@
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14" t="s">
-        <v>265</v>
+        <v>480</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="G81" s="17"/>
+      <c r="H81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I81" t="s">
+        <v>483</v>
+      </c>
+      <c r="J81" t="s">
+        <v>484</v>
+      </c>
+      <c r="K81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>6</v>
@@ -5459,20 +5605,28 @@
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14" t="s">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>352</v>
+        <v>494</v>
       </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>100</v>
+      </c>
+      <c r="I82" t="s">
+        <v>499</v>
+      </c>
+      <c r="J82" t="s">
+        <v>500</v>
+      </c>
+      <c r="K82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>268</v>
+        <v>485</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>6</v>
@@ -5480,20 +5634,28 @@
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14" t="s">
-        <v>269</v>
+        <v>487</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>353</v>
+        <v>495</v>
       </c>
       <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>100</v>
+      </c>
+      <c r="I83" t="s">
+        <v>501</v>
+      </c>
+      <c r="J83" t="s">
+        <v>502</v>
+      </c>
+      <c r="K83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>270</v>
+        <v>486</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>6</v>
@@ -5501,16 +5663,82 @@
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14" t="s">
-        <v>271</v>
+        <v>488</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>354</v>
+        <v>496</v>
       </c>
       <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
+      <c r="H84" t="s">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>503</v>
+      </c>
+      <c r="J84" t="s">
+        <v>504</v>
+      </c>
+      <c r="K84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" t="s">
+        <v>100</v>
+      </c>
+      <c r="I85" t="s">
+        <v>507</v>
+      </c>
+      <c r="J85" t="s">
+        <v>508</v>
+      </c>
+      <c r="K85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" t="s">
+        <v>100</v>
+      </c>
+      <c r="I86" t="s">
+        <v>505</v>
+      </c>
+      <c r="J86" t="s">
+        <v>506</v>
+      </c>
+      <c r="K86" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0C7A65-B464-4497-B419-B2E1121195A3}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C920C1-ED47-47EA-BB68-0D04DDD7F44C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="565">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1674,13 +1674,94 @@
   </si>
   <si>
     <t>'2022/01/25 17:58:07</t>
+  </si>
+  <si>
+    <t>Premier_TC076</t>
+  </si>
+  <si>
+    <t>TC076</t>
+  </si>
+  <si>
+    <t>Premier_TC077</t>
+  </si>
+  <si>
+    <t>TC077</t>
+  </si>
+  <si>
+    <t>Premier_TC078</t>
+  </si>
+  <si>
+    <t>TC078</t>
+  </si>
+  <si>
+    <t>Premier_TC079</t>
+  </si>
+  <si>
+    <t>TC079</t>
+  </si>
+  <si>
+    <t>Premier_TC080</t>
+  </si>
+  <si>
+    <t>TC080</t>
+  </si>
+  <si>
+    <t>Premier_TC081</t>
+  </si>
+  <si>
+    <t>TC081</t>
+  </si>
+  <si>
+    <t>Premier_TC082</t>
+  </si>
+  <si>
+    <t>TC082</t>
+  </si>
+  <si>
+    <t>Premier_TC083</t>
+  </si>
+  <si>
+    <t>TC083</t>
+  </si>
+  <si>
+    <t>Premier_TC084</t>
+  </si>
+  <si>
+    <t>TC084</t>
+  </si>
+  <si>
+    <t>Create a loan account with a real estate collateral and validate the association of collateral with the loan account</t>
+  </si>
+  <si>
+    <t>Create a loan account with a insurance collateral and validate the association of collateral with the loan account</t>
+  </si>
+  <si>
+    <t>Delinking/delete an already associated collateral from loan account and validate that collateral is delinked successfully</t>
+  </si>
+  <si>
+    <t>Create New Agreement Under Master Agreement</t>
+  </si>
+  <si>
+    <t>Create New Commitment Under Master Agreement</t>
+  </si>
+  <si>
+    <t>Create New Line of Credit Under Master Agreement</t>
+  </si>
+  <si>
+    <t>Create New Letter of Credit Under Master Agreement</t>
+  </si>
+  <si>
+    <t>Create New Sub Loan Under Master Agreement</t>
+  </si>
+  <si>
+    <t>Create New Master Mortgage Under Master Agreement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1711,17 +1792,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1744,7 +1833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1881,12 +1970,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1914,27 +2016,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3081,7 +3188,7 @@
       <c r="E27" t="s">
         <v>479</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>480</v>
       </c>
       <c r="H27" t="s">
@@ -3342,7 +3449,7 @@
       <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="11">
         <v>2</v>
       </c>
       <c r="H2" t="s">
@@ -3742,2300 +3849,2517 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:T77"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="14" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="K2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="K2" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="K3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="K3" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="K4" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="K5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="K5" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="K6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="K6" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="K7" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="K8" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="K9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="K9" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="B10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="K10" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="B11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="K11" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
+      <c r="B12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="K12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="K12" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
+      <c r="B14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="K14" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="B15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="K15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="K15" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="s">
+      <c r="B16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="K16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="K16" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+      <c r="B17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="K17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="K17" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
+      <c r="B18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="K18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="K18" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="B19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="K19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="K19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
+      <c r="B20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="K20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="K20" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="B21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="K21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="K21" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
+      <c r="B22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="K22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="K22" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
+      <c r="B23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="14" t="s">
         <v>434</v>
       </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="s">
+      <c r="B24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="K24" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14" t="s">
+      <c r="B25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="15">
         <v>4</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
+      <c r="B26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="K26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="K26" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
+      <c r="B27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="15">
         <v>4</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
+      <c r="B28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
+      <c r="B29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="15">
         <v>4</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="K29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="K29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
+      <c r="B30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="K30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="K30" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
+      <c r="B31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="15">
         <v>4</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
+      <c r="B32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
+      <c r="B33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="15">
         <v>4</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="s">
+      <c r="B34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" t="s">
+      <c r="G34" s="15"/>
+      <c r="H34" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="K34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="K34" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14" t="s">
+      <c r="B35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" t="s">
+      <c r="G35" s="15"/>
+      <c r="H35" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="K35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14" t="s">
+      <c r="B36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="15">
         <v>10</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="K36" t="s">
-        <v>70</v>
-      </c>
-      <c r="L36" t="s">
-        <v>70</v>
-      </c>
-      <c r="M36" t="s">
-        <v>70</v>
-      </c>
-      <c r="N36" t="s">
-        <v>70</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="K36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="Q36" t="s">
-        <v>70</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="Q36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="T36" t="s">
+      <c r="T36" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14" t="s">
+      <c r="B37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" t="s">
+      <c r="G37" s="15"/>
+      <c r="H37" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="K37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="K37" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14" t="s">
+      <c r="B38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="G38" s="14"/>
-      <c r="H38" t="s">
+      <c r="G38" s="15"/>
+      <c r="H38" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="K38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="K38" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14" t="s">
+      <c r="B39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" t="s">
+      <c r="G39" s="15"/>
+      <c r="H39" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="K39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="K39" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
+      <c r="B40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" t="s">
+      <c r="G40" s="15"/>
+      <c r="H40" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="K40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="K40" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14" t="s">
+      <c r="B41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" t="s">
+      <c r="G41" s="15"/>
+      <c r="H41" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="K41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="K41" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14" t="s">
+      <c r="B42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" t="s">
+      <c r="G42" s="15"/>
+      <c r="H42" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="K42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="K42" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14" t="s">
+      <c r="B43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15" t="s">
         <v>208</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" t="s">
+      <c r="G43" s="15"/>
+      <c r="H43" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="K43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="K43" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14" t="s">
+      <c r="B44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15" t="s">
         <v>209</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" t="s">
+      <c r="G44" s="15"/>
+      <c r="H44" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="K44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="K44" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14" t="s">
+      <c r="B45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
         <v>210</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" t="s">
+      <c r="G45" s="15"/>
+      <c r="H45" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="K45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="K45" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14" t="s">
+      <c r="B46" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="G46" s="14"/>
-      <c r="H46" t="s">
+      <c r="G46" s="15"/>
+      <c r="H46" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="K46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="K46" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14" t="s">
+      <c r="B47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14" t="s">
+      <c r="B48" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" t="s">
+      <c r="G48" s="15"/>
+      <c r="H48" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="K48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="K48" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14" t="s">
+      <c r="B49" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14" t="s">
+      <c r="B50" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14" t="s">
+      <c r="B51" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14" t="s">
+      <c r="B52" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14" t="s">
+      <c r="B53" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14" t="s">
+      <c r="B54" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14" t="s">
+      <c r="B55" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14" t="s">
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="J55" s="14" t="s">
+      <c r="J55" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="K55" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="K55" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14" t="s">
+      <c r="B56" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14" t="s">
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="K56" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="K56" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14" t="s">
+      <c r="B57" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14" t="s">
+      <c r="G57" s="15"/>
+      <c r="H57" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="J57" s="14" t="s">
+      <c r="J57" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K57" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="K57" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14" t="s">
+      <c r="B58" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14" t="s">
+      <c r="B59" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14" t="s">
+      <c r="B60" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14" t="s">
+      <c r="B61" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="G61" s="14"/>
-      <c r="H61" t="s">
+      <c r="G61" s="15"/>
+      <c r="H61" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="K61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="K61" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L61" s="15"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14" t="s">
+      <c r="B62" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="G62" s="14"/>
-      <c r="H62" t="s">
+      <c r="G62" s="15"/>
+      <c r="H62" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="K62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="K62" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L62" s="15"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14" t="s">
+      <c r="B63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="G63" s="14"/>
-      <c r="H63" t="s">
+      <c r="G63" s="15"/>
+      <c r="H63" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="K63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="K63" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L63" s="15"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14" t="s">
+      <c r="B64" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G64" s="14"/>
-      <c r="H64" t="s">
+      <c r="G64" s="15"/>
+      <c r="H64" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="K64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="K64" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L64" s="15"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14" t="s">
+      <c r="B65" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="G65" s="14"/>
-      <c r="H65" t="s">
+      <c r="G65" s="15"/>
+      <c r="H65" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="K65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="K65" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L65" s="15"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14" t="s">
+      <c r="B66" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14" t="s">
+      <c r="B67" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="G67" s="14"/>
-      <c r="H67" t="s">
+      <c r="G67" s="15"/>
+      <c r="H67" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="K67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="K67" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L67" s="15"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="19" t="s">
+      <c r="B68" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="G68" s="14"/>
-      <c r="H68" t="s">
+      <c r="G68" s="15"/>
+      <c r="H68" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="K68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="K68" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L68" s="15"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="19" t="s">
+      <c r="B69" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="G69" s="14"/>
-      <c r="H69" t="s">
+      <c r="G69" s="15"/>
+      <c r="H69" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="K69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="K69" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L69" s="15"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="19" t="s">
+      <c r="B70" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="G70" s="14"/>
-      <c r="H70" t="s">
+      <c r="G70" s="15"/>
+      <c r="H70" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="K70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="K70" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L70" s="15"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="19" t="s">
+      <c r="B71" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="G71" s="14"/>
-      <c r="H71" t="s">
+      <c r="G71" s="15"/>
+      <c r="H71" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="K71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="K71" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L71" s="15"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="19" t="s">
+      <c r="B72" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="G72" s="14"/>
-      <c r="H72" t="s">
+      <c r="G72" s="15"/>
+      <c r="H72" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="K72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="K72" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L72" s="15"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="17" t="s">
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="19" t="s">
+      <c r="B74" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="G74" s="14"/>
-      <c r="H74" t="s">
+      <c r="G74" s="15"/>
+      <c r="H74" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="K74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="K74" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L74" s="15"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="19" t="s">
+      <c r="B75" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14" t="s">
+      <c r="B76" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F76" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14" t="s">
+      <c r="B77" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+    </row>
+    <row r="78" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+    </row>
+    <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+    </row>
+    <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C920C1-ED47-47EA-BB68-0D04DDD7F44C}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E3834A-5816-444F-91FD-0237344B8290}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="567">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1755,6 +1755,12 @@
   </si>
   <si>
     <t>Create New Master Mortgage Under Master Agreement</t>
+  </si>
+  <si>
+    <t>'2022/01/27 16:26:12</t>
+  </si>
+  <si>
+    <t>'2022/01/27 16:32:45</t>
   </si>
 </sst>
 </file>
@@ -3852,7 +3858,7 @@
   <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3867,7 +3873,7 @@
     <col min="9" max="9" width="19" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="12" width="17.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="14"/>
+    <col min="13" max="16384" width="9.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6045,12 +6051,12 @@
       </c>
       <c r="L72" s="15"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>247</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -6061,10 +6067,18 @@
         <v>323</v>
       </c>
       <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
+      <c r="H73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I73" t="s">
+        <v>565</v>
+      </c>
+      <c r="J73" t="s">
+        <v>566</v>
+      </c>
+      <c r="K73" t="s">
+        <v>70</v>
+      </c>
       <c r="L73" s="15"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -6102,7 +6116,7 @@
         <v>251</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D6BFA59-14EE-48C2-8F31-DDFD2672A36B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2C2102-CE52-4E48-A4F3-B738A962DAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="533">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1188,58 +1187,16 @@
     <t>sthangapalam</t>
   </si>
   <si>
-    <t>'2021/12/23 16:53:46</t>
-  </si>
-  <si>
-    <t>'2021/12/23 16:56:12</t>
-  </si>
-  <si>
-    <t>'2021/12/23 21:35:20</t>
-  </si>
-  <si>
-    <t>'2021/12/23 21:42:51</t>
-  </si>
-  <si>
-    <t>'2021/12/23 21:48:42</t>
-  </si>
-  <si>
     <t>'2021/12/22 16:56:10</t>
   </si>
   <si>
     <t>'2021/12/22 17:15:05</t>
   </si>
   <si>
-    <t>'2021/12/23 19:31:45</t>
-  </si>
-  <si>
-    <t>'2021/12/23 19:39:36</t>
-  </si>
-  <si>
-    <t>'2021/12/23 21:58:14</t>
-  </si>
-  <si>
-    <t>'2021/12/24 12:27:18</t>
-  </si>
-  <si>
-    <t>'2021/12/24 12:39:16</t>
-  </si>
-  <si>
-    <t>'2022/01/03 12:58:15</t>
-  </si>
-  <si>
-    <t>'2022/01/03 13:01:06</t>
-  </si>
-  <si>
     <t>'2022/01/03 17:22:57</t>
   </si>
   <si>
     <t>'2022/01/03 17:29:38</t>
-  </si>
-  <si>
-    <t>'2022/01/03 17:42:48</t>
-  </si>
-  <si>
-    <t>'2022/01/03 17:48:05</t>
   </si>
   <si>
     <t>CC_CORP_TC012</t>
@@ -1641,6 +1598,68 @@
   </si>
   <si>
     <t>Create a wire transfer template (free form)and search it</t>
+  </si>
+  <si>
+    <t>'2022/01/21 12:56:00</t>
+  </si>
+  <si>
+    <t>'2022/01/21 13:44:26</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC039</t>
+  </si>
+  <si>
+    <t>Initiate Ach Payment(Zero Payment) using free form- Approval
+if Existing template , do a payment activity
+elseCreate batch template, use that template and do payments</t>
+  </si>
+  <si>
+    <t>'2022/01/24 15:24:40</t>
+  </si>
+  <si>
+    <t>'2022/01/24 15:27:08</t>
+  </si>
+  <si>
+    <t>'2022/01/24 16:02:28</t>
+  </si>
+  <si>
+    <t>'2022/01/24 16:09:57</t>
+  </si>
+  <si>
+    <t>'2022/01/24 18:12:39</t>
+  </si>
+  <si>
+    <t>'2022/01/24 19:00:28</t>
+  </si>
+  <si>
+    <t>'2022/01/24 19:23:16</t>
+  </si>
+  <si>
+    <t>'2022/01/24 19:57:47</t>
+  </si>
+  <si>
+    <t>'2022/01/24 20:43:58</t>
+  </si>
+  <si>
+    <t>'2022/01/24 20:46:26</t>
+  </si>
+  <si>
+    <t>'2022/01/24 21:03:05</t>
+  </si>
+  <si>
+    <t>'2022/01/24 21:07:13</t>
+  </si>
+  <si>
+    <t>'2022/01/25 11:25:10</t>
+  </si>
+  <si>
+    <t>'2022/01/25 11:31:23</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC032</t>
+  </si>
+  <si>
+    <t>Initiate Wire transfer Payment  using wire  select free form- Reject, Initiatior- cancel</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2204,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,13 +2234,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,7 +2259,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2276,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,10 +2430,10 @@
         <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="J4" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="K4" t="s">
         <v>70</v>
@@ -2440,10 +2459,10 @@
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="J5" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="K5" t="s">
         <v>70</v>
@@ -2486,10 +2505,10 @@
         <v>381</v>
       </c>
       <c r="I7" t="s">
-        <v>382</v>
+        <v>517</v>
       </c>
       <c r="J7" t="s">
-        <v>383</v>
+        <v>518</v>
       </c>
       <c r="K7" t="s">
         <v>70</v>
@@ -2515,13 +2534,13 @@
         <v>381</v>
       </c>
       <c r="I8" t="s">
-        <v>384</v>
+        <v>519</v>
       </c>
       <c r="J8" t="s">
-        <v>385</v>
+        <v>520</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2544,10 +2563,10 @@
         <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>384</v>
+        <v>521</v>
       </c>
       <c r="J9" t="s">
-        <v>386</v>
+        <v>522</v>
       </c>
       <c r="K9" t="s">
         <v>70</v>
@@ -2573,10 +2592,10 @@
         <v>381</v>
       </c>
       <c r="I10" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J10" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K10" t="s">
         <v>70</v>
@@ -2602,10 +2621,10 @@
         <v>381</v>
       </c>
       <c r="I11" t="s">
-        <v>389</v>
+        <v>523</v>
       </c>
       <c r="J11" t="s">
-        <v>390</v>
+        <v>524</v>
       </c>
       <c r="K11" t="s">
         <v>70</v>
@@ -2631,13 +2650,13 @@
         <v>381</v>
       </c>
       <c r="I12" t="s">
-        <v>384</v>
+        <v>529</v>
       </c>
       <c r="J12" t="s">
-        <v>391</v>
+        <v>530</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2660,10 +2679,10 @@
         <v>381</v>
       </c>
       <c r="I13" t="s">
-        <v>392</v>
+        <v>525</v>
       </c>
       <c r="J13" t="s">
-        <v>393</v>
+        <v>526</v>
       </c>
       <c r="K13" t="s">
         <v>70</v>
@@ -2689,10 +2708,10 @@
         <v>381</v>
       </c>
       <c r="I14" t="s">
-        <v>394</v>
+        <v>527</v>
       </c>
       <c r="J14" t="s">
-        <v>395</v>
+        <v>528</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
@@ -2718,10 +2737,10 @@
         <v>381</v>
       </c>
       <c r="I15" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="J15" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="K15" t="s">
         <v>70</v>
@@ -2732,7 +2751,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -2747,13 +2766,13 @@
         <v>381</v>
       </c>
       <c r="I16" t="s">
-        <v>398</v>
+        <v>513</v>
       </c>
       <c r="J16" t="s">
-        <v>399</v>
+        <v>514</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2775,7 +2794,7 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -2784,19 +2803,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H18" t="s">
         <v>381</v>
       </c>
       <c r="I18" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="J18" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="K18" t="s">
         <v>70</v>
@@ -2804,7 +2823,7 @@
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -2813,19 +2832,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="H19" t="s">
         <v>381</v>
       </c>
       <c r="I19" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="J19" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="K19" t="s">
         <v>70</v>
@@ -2833,7 +2852,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -2842,19 +2861,19 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="H20" t="s">
         <v>381</v>
       </c>
       <c r="I20" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="J20" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="K20" t="s">
         <v>70</v>
@@ -2862,7 +2881,7 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -2871,19 +2890,19 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="H21" t="s">
         <v>381</v>
       </c>
       <c r="I21" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="J21" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="K21" t="s">
         <v>70</v>
@@ -2891,7 +2910,7 @@
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -2900,19 +2919,19 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H22" t="s">
         <v>381</v>
       </c>
       <c r="I22" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="J22" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="K22" t="s">
         <v>70</v>
@@ -2920,7 +2939,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -2929,19 +2948,19 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H23" t="s">
         <v>381</v>
       </c>
       <c r="I23" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="J23" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="K23" t="s">
         <v>70</v>
@@ -2949,7 +2968,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -2958,19 +2977,19 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="H24" t="s">
         <v>381</v>
       </c>
       <c r="I24" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="J24" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="K24" t="s">
         <v>70</v>
@@ -2978,7 +2997,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -2987,19 +3006,19 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="H25" t="s">
         <v>381</v>
       </c>
       <c r="I25" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="J25" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="K25" t="s">
         <v>70</v>
@@ -3007,7 +3026,7 @@
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -3016,19 +3035,19 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="H26" t="s">
         <v>381</v>
       </c>
       <c r="I26" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="J26" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="K26" t="s">
         <v>70</v>
@@ -3036,7 +3055,7 @@
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -3045,19 +3064,19 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H27" t="s">
         <v>381</v>
       </c>
       <c r="I27" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="J27" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="K27" t="s">
         <v>70</v>
@@ -3065,7 +3084,7 @@
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -3074,19 +3093,19 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H28" t="s">
         <v>381</v>
       </c>
       <c r="I28" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="J28" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="K28" t="s">
         <v>70</v>
@@ -3094,7 +3113,7 @@
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -3103,19 +3122,19 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="H29" t="s">
         <v>381</v>
       </c>
       <c r="I29" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="J29" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="K29" t="s">
         <v>70</v>
@@ -3123,7 +3142,7 @@
     </row>
     <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -3132,19 +3151,19 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H30" t="s">
         <v>381</v>
       </c>
       <c r="I30" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="J30" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="K30" t="s">
         <v>70</v>
@@ -3152,7 +3171,7 @@
     </row>
     <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -3161,19 +3180,19 @@
         <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F31" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="H31" t="s">
         <v>381</v>
       </c>
       <c r="I31" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="J31" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="K31" t="s">
         <v>70</v>
@@ -3181,7 +3200,7 @@
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -3190,19 +3209,19 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="H32" t="s">
         <v>381</v>
       </c>
       <c r="I32" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="J32" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="K32" t="s">
         <v>70</v>
@@ -3210,7 +3229,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -3219,10 +3238,44 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>526</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>531</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>531</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>515</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -3312,10 +3365,10 @@
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="J2" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="K2" t="s">
         <v>132</v>
@@ -3386,10 +3439,10 @@
         <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="J6" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="K6" t="s">
         <v>132</v>
@@ -3412,10 +3465,10 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="J7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="K7" t="s">
         <v>132</v>
@@ -3438,10 +3491,10 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="J8" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="K8" t="s">
         <v>132</v>
@@ -3464,10 +3517,10 @@
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="J9" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="K9" t="s">
         <v>70</v>
@@ -3532,10 +3585,10 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="J13" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="K13" t="s">
         <v>132</v>
@@ -3558,10 +3611,10 @@
         <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="J14" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
@@ -3584,10 +3637,10 @@
         <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="J15" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="K15" t="s">
         <v>132</v>
@@ -3610,10 +3663,10 @@
         <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="J16" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="K16" t="s">
         <v>70</v>
@@ -3718,22 +3771,22 @@
         <v>379</v>
       </c>
       <c r="O1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="P1" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="Q1" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="R1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="S1" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="T1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -4374,10 +4427,10 @@
         <v>99</v>
       </c>
       <c r="I23" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="J23" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="K23" t="s">
         <v>70</v>
@@ -4415,10 +4468,10 @@
         <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="J24" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="K24" t="s">
         <v>70</v>
@@ -4446,10 +4499,10 @@
         <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J25" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="K25" t="s">
         <v>132</v>
@@ -4518,10 +4571,10 @@
         <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J27" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="K27" t="s">
         <v>132</v>
@@ -4559,10 +4612,10 @@
         <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J28" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K28" t="s">
         <v>132</v>
@@ -4590,10 +4643,10 @@
         <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J29" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="K29" t="s">
         <v>70</v>
@@ -4624,7 +4677,7 @@
         <v>156</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" t="s">
@@ -4662,10 +4715,10 @@
         <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J31" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="K31" t="s">
         <v>132</v>
@@ -4703,10 +4756,10 @@
         <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J32" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="K32" t="s">
         <v>132</v>
@@ -4734,10 +4787,10 @@
         <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="J33" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="K33" t="s">
         <v>132</v>
@@ -4768,7 +4821,7 @@
         <v>164</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" t="s">
@@ -4804,10 +4857,10 @@
         <v>99</v>
       </c>
       <c r="I35" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="J35" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="K35" t="s">
         <v>70</v>
@@ -4844,10 +4897,10 @@
         <v>99</v>
       </c>
       <c r="I36" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="J36" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="K36" t="s">
         <v>70</v>
@@ -5211,10 +5264,10 @@
         <v>99</v>
       </c>
       <c r="I48" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="J48" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="K48" t="s">
         <v>70</v>
@@ -5516,10 +5569,10 @@
         <v>69</v>
       </c>
       <c r="I61" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="J61" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="K61" t="s">
         <v>70</v>
@@ -5545,10 +5598,10 @@
         <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="J62" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="K62" t="s">
         <v>70</v>
@@ -5574,10 +5627,10 @@
         <v>69</v>
       </c>
       <c r="I63" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="J63" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="K63" t="s">
         <v>70</v>
@@ -5596,17 +5649,17 @@
         <v>230</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" t="s">
         <v>69</v>
       </c>
       <c r="I64" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="J64" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="K64" t="s">
         <v>70</v>
@@ -5625,17 +5678,17 @@
         <v>232</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" t="s">
         <v>69</v>
       </c>
       <c r="I65" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="J65" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="K65" t="s">
         <v>70</v>
@@ -5761,10 +5814,10 @@
         <v>69</v>
       </c>
       <c r="I70" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="J70" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="K70" t="s">
         <v>70</v>
@@ -5783,7 +5836,7 @@
         <v>244</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
@@ -5811,10 +5864,10 @@
         <v>69</v>
       </c>
       <c r="I72" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="J72" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="K72" t="s">
         <v>70</v>
@@ -5861,10 +5914,10 @@
         <v>69</v>
       </c>
       <c r="I74" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="J74" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="K74" t="s">
         <v>70</v>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E3834A-5816-444F-91FD-0237344B8290}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="577">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1761,12 +1761,43 @@
   </si>
   <si>
     <t>'2022/01/27 16:32:45</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/01/28 19:53:08</t>
+  </si>
+  <si>
+    <t>'2022/01/28 19:59:36</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:18:44</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:20:39</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:30:21</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:31:47</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:47:38</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:51:18</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:55:10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2337,10 +2368,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2431,15 +2462,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3388,14 +3419,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3858,22 +3889,22 @@
   <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="14" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="14" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="14" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="14" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="14" width="19.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="14" width="17.42578125" collapsed="true"/>
+    <col min="13" max="16384" style="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6127,10 +6158,18 @@
         <v>325</v>
       </c>
       <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
+      <c r="H75" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75" t="s">
+        <v>574</v>
+      </c>
+      <c r="J75" t="s">
+        <v>575</v>
+      </c>
+      <c r="K75" t="s">
+        <v>70</v>
+      </c>
       <c r="L75" s="15"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -6160,7 +6199,7 @@
         <v>255</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
@@ -6171,10 +6210,18 @@
         <v>326</v>
       </c>
       <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
+      <c r="H77" t="s">
+        <v>69</v>
+      </c>
+      <c r="I77" t="s">
+        <v>574</v>
+      </c>
+      <c r="J77" t="s">
+        <v>576</v>
+      </c>
+      <c r="K77" t="s">
+        <v>70</v>
+      </c>
       <c r="L77" s="15"/>
     </row>
     <row r="78" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9Z2G8A\OneDrive - Fiserv Corp\Desktop\Republic UAT\TestAutomation\git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350BC08B-AB01-4AC1-83DA-A25762AA1F62}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="573">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1652,12 +1652,6 @@
     <t>'2022/01/19 19:12:53</t>
   </si>
   <si>
-    <t>'2022/01/19 22:34:23</t>
-  </si>
-  <si>
-    <t>'2022/01/19 22:44:24</t>
-  </si>
-  <si>
     <t>'2022/01/20 16:11:42</t>
   </si>
   <si>
@@ -1763,34 +1757,28 @@
     <t>'2022/01/27 16:32:45</t>
   </si>
   <si>
+    <t>'2022/01/28 20:47:38</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:51:18</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:55:10</t>
+  </si>
+  <si>
+    <t>'2022/01/31 18:25:23</t>
+  </si>
+  <si>
+    <t>'2022/01/31 18:34:37</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>'2022/01/28 19:53:08</t>
-  </si>
-  <si>
-    <t>'2022/01/28 19:59:36</t>
-  </si>
-  <si>
-    <t>'2022/01/28 20:18:44</t>
-  </si>
-  <si>
-    <t>'2022/01/28 20:20:39</t>
-  </si>
-  <si>
-    <t>'2022/01/28 20:30:21</t>
-  </si>
-  <si>
-    <t>'2022/01/28 20:31:47</t>
-  </si>
-  <si>
-    <t>'2022/01/28 20:47:38</t>
-  </si>
-  <si>
-    <t>'2022/01/28 20:51:18</t>
-  </si>
-  <si>
-    <t>'2022/01/28 20:55:10</t>
+    <t>'2022/01/31 19:04:42</t>
+  </si>
+  <si>
+    <t>'2022/01/31 19:05:57</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2351,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2456,8 +2444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A20" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="H2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,7 +3466,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -3486,29 +3474,18 @@
       <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
+      <c r="G2" s="11"/>
       <c r="H2" t="s">
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="J2" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3844,7 +3821,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>115</v>
@@ -3856,10 +3833,10 @@
         <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K17" t="s">
         <v>132</v>
@@ -3889,7 +3866,7 @@
   <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5982,10 +5959,10 @@
         <v>69</v>
       </c>
       <c r="I69" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>70</v>
@@ -6042,10 +6019,10 @@
         <v>69</v>
       </c>
       <c r="I71" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="J71" s="15" t="s">
         <v>535</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>537</v>
       </c>
       <c r="K71" s="15" t="s">
         <v>70</v>
@@ -6102,10 +6079,10 @@
         <v>69</v>
       </c>
       <c r="I73" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J73" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K73" t="s">
         <v>70</v>
@@ -6142,12 +6119,12 @@
       </c>
       <c r="L74" s="15"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>251</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -6162,10 +6139,10 @@
         <v>69</v>
       </c>
       <c r="I75" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="J75" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="K75" t="s">
         <v>70</v>
@@ -6177,7 +6154,7 @@
         <v>253</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -6185,21 +6162,29 @@
         <v>254</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
+      <c r="H76" t="s">
+        <v>69</v>
+      </c>
+      <c r="I76" t="s">
+        <v>571</v>
+      </c>
+      <c r="J76" t="s">
+        <v>572</v>
+      </c>
+      <c r="K76" t="s">
+        <v>70</v>
+      </c>
       <c r="L76" s="15"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>255</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
@@ -6214,10 +6199,10 @@
         <v>69</v>
       </c>
       <c r="I77" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="J77" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K77" t="s">
         <v>70</v>
@@ -6226,7 +6211,7 @@
     </row>
     <row r="78" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>6</v>
@@ -6234,10 +6219,10 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -6248,7 +6233,7 @@
     </row>
     <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>6</v>
@@ -6256,10 +6241,10 @@
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -6270,7 +6255,7 @@
     </row>
     <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>6</v>
@@ -6278,10 +6263,10 @@
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -6292,7 +6277,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>6</v>
@@ -6300,10 +6285,10 @@
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -6314,7 +6299,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>6</v>
@@ -6322,10 +6307,10 @@
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -6336,7 +6321,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>6</v>
@@ -6344,10 +6329,10 @@
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -6358,7 +6343,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>6</v>
@@ -6366,10 +6351,10 @@
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -6380,7 +6365,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>6</v>
@@ -6388,10 +6373,10 @@
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -6402,7 +6387,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>6</v>
@@ -6410,10 +6395,10 @@
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{DAF2207D-6EEF-4B6A-A45F-E4DA9721D19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C920C1-ED47-47EA-BB68-0D04DDD7F44C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA62B3A-DEF8-4FF0-BA86-88400B15D35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="586">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1755,12 +1755,76 @@
   </si>
   <si>
     <t>Create New Master Mortgage Under Master Agreement</t>
+  </si>
+  <si>
+    <t>Premier_TC085</t>
+  </si>
+  <si>
+    <t>TC085</t>
+  </si>
+  <si>
+    <t>Create New Sweep from Savings Account to Savings Account</t>
+  </si>
+  <si>
+    <t>Premier_TC086</t>
+  </si>
+  <si>
+    <t>Premier_TC087</t>
+  </si>
+  <si>
+    <t>Premier_TC088</t>
+  </si>
+  <si>
+    <t>TC086</t>
+  </si>
+  <si>
+    <t>TC087</t>
+  </si>
+  <si>
+    <t>TC088</t>
+  </si>
+  <si>
+    <t>Create New Sweep from Savings Account to DDA Account</t>
+  </si>
+  <si>
+    <t>Create New Sweep from Savings Account to Loan Account</t>
+  </si>
+  <si>
+    <t>Create New Sweep from DDA Account to Loan Account</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:45:16</t>
+  </si>
+  <si>
+    <t>'2022/01/28 20:48:30</t>
+  </si>
+  <si>
+    <t>'2022/01/31 15:01:05</t>
+  </si>
+  <si>
+    <t>'2022/01/31 15:03:36</t>
+  </si>
+  <si>
+    <t>'2022/01/31 15:23:23</t>
+  </si>
+  <si>
+    <t>'2022/01/31 15:36:28</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/01/31 15:44:57</t>
+  </si>
+  <si>
+    <t>'2022/01/31 15:47:06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1828,7 +1892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2331,10 +2395,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2425,15 +2489,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3382,14 +3446,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3849,25 +3913,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="14" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="14" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="14" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="73.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="14" width="14.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="13.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="14" width="16.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="14" width="17.42578125" collapsed="true"/>
+    <col min="13" max="16384" style="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5366,7 +5431,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>198</v>
       </c>
@@ -5385,7 +5450,9 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="K47" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
@@ -5435,7 +5502,9 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
+      <c r="K49" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
@@ -5456,7 +5525,9 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
+      <c r="K50" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
@@ -5477,7 +5548,9 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
+      <c r="K51" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
@@ -5498,7 +5571,9 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
+      <c r="K52" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
@@ -5519,7 +5594,9 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
+      <c r="K53" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
@@ -5540,7 +5617,9 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
+      <c r="K54" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
@@ -5567,7 +5646,7 @@
       <c r="J55" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5596,7 +5675,7 @@
       <c r="J56" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5625,7 +5704,7 @@
       <c r="J57" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K57" s="15" t="s">
+      <c r="K57" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5648,13 +5727,15 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
+      <c r="K58" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="19"/>
@@ -5669,7 +5750,9 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
+      <c r="K59" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
@@ -5690,7 +5773,9 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
+      <c r="K60" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="L60" s="15"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -6050,7 +6135,7 @@
         <v>247</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -6182,7 +6267,9 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
+      <c r="K78" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L78" s="15"/>
     </row>
     <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -6204,7 +6291,9 @@
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
+      <c r="K79" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L79" s="15"/>
     </row>
     <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -6226,7 +6315,9 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
+      <c r="K80" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L80" s="15"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -6248,7 +6339,9 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
+      <c r="K81" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L81" s="15"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -6270,7 +6363,9 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
+      <c r="K82" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L82" s="15"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -6292,7 +6387,9 @@
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
+      <c r="K83" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L83" s="15"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -6314,7 +6411,9 @@
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
+      <c r="K84" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L84" s="15"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -6336,7 +6435,9 @@
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
+      <c r="K85" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L85" s="15"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -6358,8 +6459,126 @@
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
+      <c r="K86" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="L86" s="15"/>
+    </row>
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" t="s">
+        <v>99</v>
+      </c>
+      <c r="I87" t="s">
+        <v>577</v>
+      </c>
+      <c r="J87" t="s">
+        <v>578</v>
+      </c>
+      <c r="K87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" t="s">
+        <v>99</v>
+      </c>
+      <c r="I88" t="s">
+        <v>579</v>
+      </c>
+      <c r="J88" t="s">
+        <v>580</v>
+      </c>
+      <c r="K88" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="G89" s="15"/>
+      <c r="H89" t="s">
+        <v>99</v>
+      </c>
+      <c r="I89" t="s">
+        <v>581</v>
+      </c>
+      <c r="J89" t="s">
+        <v>582</v>
+      </c>
+      <c r="K89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" t="s">
+        <v>99</v>
+      </c>
+      <c r="I90" t="s">
+        <v>584</v>
+      </c>
+      <c r="J90" t="s">
+        <v>585</v>
+      </c>
+      <c r="K90" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350BC08B-AB01-4AC1-83DA-A25762AA1F62}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CFFD4BD-D831-4B50-98CF-733D531FC900}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="584">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1772,20 +1772,52 @@
     <t>'2022/01/31 18:34:37</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>'2022/01/31 19:04:42</t>
   </si>
   <si>
     <t>'2022/01/31 19:05:57</t>
+  </si>
+  <si>
+    <t>Premier_TC085</t>
+  </si>
+  <si>
+    <t>TC085</t>
+  </si>
+  <si>
+    <t>Create New Sweep from Savings Account to Savings Account</t>
+  </si>
+  <si>
+    <t>Premier_TC086</t>
+  </si>
+  <si>
+    <t>TC086</t>
+  </si>
+  <si>
+    <t>Create New Sweep from Savings Account to DDA Account</t>
+  </si>
+  <si>
+    <t>Premier_TC087</t>
+  </si>
+  <si>
+    <t>TC087</t>
+  </si>
+  <si>
+    <t>Create New Sweep from Savings Account to Loan Account</t>
+  </si>
+  <si>
+    <t>Premier_TC088</t>
+  </si>
+  <si>
+    <t>TC088</t>
+  </si>
+  <si>
+    <t>Create New Sweep from DDA Account to Loan Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2356,10 +2388,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2450,15 +2482,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3407,14 +3439,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3863,25 +3895,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:T86"/>
+  <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="14" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="14" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="14" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="14" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="14" width="19.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" style="14" width="17.42578125" collapsed="true"/>
-    <col min="13" max="16384" style="14" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6149,7 +6181,7 @@
       </c>
       <c r="L75" s="15"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>253</v>
       </c>
@@ -6169,10 +6201,10 @@
         <v>69</v>
       </c>
       <c r="I76" t="s">
+        <v>570</v>
+      </c>
+      <c r="J76" t="s">
         <v>571</v>
-      </c>
-      <c r="J76" t="s">
-        <v>572</v>
       </c>
       <c r="K76" t="s">
         <v>70</v>
@@ -6407,6 +6439,94 @@
       <c r="K86" s="15"/>
       <c r="L86" s="15"/>
     </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CFFD4BD-D831-4B50-98CF-733D531FC900}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02728C62-4314-41CD-922E-2346080B5AD7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="593">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1812,12 +1812,40 @@
   </si>
   <si>
     <t>Create New Sweep from DDA Account to Loan Account</t>
+  </si>
+  <si>
+    <t>EPP_TC018</t>
+  </si>
+  <si>
+    <t>Verify that an Outgoing transaction failed in GFC can be cancelled successfully</t>
+  </si>
+  <si>
+    <t>'2022/02/03 21:33:30</t>
+  </si>
+  <si>
+    <t>'2022/02/03 21:37:11</t>
+  </si>
+  <si>
+    <t>EPP_TC019</t>
+  </si>
+  <si>
+    <t>Verify that an Outgoing transaction failed in GFC can be release successfully</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/02/03 21:54:01</t>
+  </si>
+  <si>
+    <t>'2022/02/03 22:11:29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2045,7 +2073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2099,6 +2127,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2383,15 +2414,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2413,7 +2444,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2452,7 +2483,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -2482,15 +2513,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3431,22 +3462,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="H2:P2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="71.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3465,7 +3496,7 @@
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -3498,12 +3529,12 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="11"/>
@@ -3530,7 +3561,7 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3544,7 +3575,7 @@
       <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3558,7 +3589,7 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3572,7 +3603,7 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H6" t="s">
@@ -3598,7 +3629,7 @@
       <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="9" t="s">
         <v>75</v>
       </c>
       <c r="H7" t="s">
@@ -3624,7 +3655,7 @@
       <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="9" t="s">
         <v>78</v>
       </c>
       <c r="H8" t="s">
@@ -3650,7 +3681,7 @@
       <c r="E9" t="s">
         <v>80</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>81</v>
       </c>
       <c r="H9" t="s">
@@ -3676,7 +3707,7 @@
       <c r="E10" t="s">
         <v>83</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H10" t="s">
@@ -3692,7 +3723,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -3702,7 +3733,7 @@
       <c r="E11" t="s">
         <v>86</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="9" t="s">
         <v>116</v>
       </c>
       <c r="H11" t="s">
@@ -3718,7 +3749,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -3728,7 +3759,7 @@
       <c r="E12" t="s">
         <v>105</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="9" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
@@ -3744,7 +3775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -3754,7 +3785,7 @@
       <c r="E13" t="s">
         <v>107</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="9" t="s">
         <v>120</v>
       </c>
       <c r="H13" t="s">
@@ -3770,7 +3801,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -3780,7 +3811,7 @@
       <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="9" t="s">
         <v>122</v>
       </c>
       <c r="H14" t="s">
@@ -3796,7 +3827,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -3806,7 +3837,7 @@
       <c r="E15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="9" t="s">
         <v>124</v>
       </c>
       <c r="H15" t="s">
@@ -3822,7 +3853,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -3832,7 +3863,7 @@
       <c r="E16" t="s">
         <v>113</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H16" t="s">
@@ -3848,7 +3879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -3858,7 +3889,7 @@
       <c r="E17" t="s">
         <v>115</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H17" t="s">
@@ -3884,8 +3915,51 @@
       <c r="E18" t="s">
         <v>130</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="9" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>584</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" t="s">
+        <v>591</v>
+      </c>
+      <c r="J19" t="s">
+        <v>592</v>
+      </c>
+      <c r="K19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>588</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3897,23 +3971,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" style="14" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="14" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="14" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="14" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="14" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="14" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="14" width="19.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="14" width="17.42578125" collapsed="true"/>
+    <col min="13" max="16384" style="14" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02728C62-4314-41CD-922E-2346080B5AD7}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{037991BE-9395-431E-9AE5-8AE00747D25E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="598">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1820,25 +1820,40 @@
     <t>Verify that an Outgoing transaction failed in GFC can be cancelled successfully</t>
   </si>
   <si>
-    <t>'2022/02/03 21:33:30</t>
-  </si>
-  <si>
-    <t>'2022/02/03 21:37:11</t>
-  </si>
-  <si>
     <t>EPP_TC019</t>
   </si>
   <si>
     <t>Verify that an Outgoing transaction failed in GFC can be release successfully</t>
   </si>
   <si>
+    <t>'2022/02/03 21:54:01</t>
+  </si>
+  <si>
+    <t>'2022/02/03 22:11:29</t>
+  </si>
+  <si>
+    <t>EPP_TC021</t>
+  </si>
+  <si>
+    <t>'2022/02/04 23:57:53</t>
+  </si>
+  <si>
+    <t>'2022/02/05 00:09:37</t>
+  </si>
+  <si>
+    <t>EPP_TC020</t>
+  </si>
+  <si>
+    <t>Verify that an Outgoing transaction failed in GFC can be repair and approved successfully</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>'2022/02/03 21:54:01</t>
-  </si>
-  <si>
-    <t>'2022/02/03 22:11:29</t>
+    <t>'2022/02/05 00:43:01</t>
+  </si>
+  <si>
+    <t>'2022/02/05 00:52:20</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2068,12 +2083,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2103,7 +2131,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,9 +2154,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3462,10 +3497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3481,28 +3516,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="22" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="8" t="s">
@@ -3525,19 +3560,21 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="26"/>
       <c r="H2" t="s">
         <v>69</v>
       </c>
@@ -3552,60 +3589,72 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="G6" s="25"/>
       <c r="H6" t="s">
         <v>69</v>
       </c>
@@ -3620,18 +3669,21 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>75</v>
       </c>
+      <c r="G7" s="25"/>
       <c r="H7" t="s">
         <v>69</v>
       </c>
@@ -3646,18 +3698,21 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>78</v>
       </c>
+      <c r="G8" s="25"/>
       <c r="H8" t="s">
         <v>69</v>
       </c>
@@ -3672,18 +3727,21 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>81</v>
       </c>
+      <c r="G9" s="25"/>
       <c r="H9" t="s">
         <v>69</v>
       </c>
@@ -3698,18 +3756,21 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>84</v>
       </c>
+      <c r="G10" s="25"/>
       <c r="H10" t="s">
         <v>69</v>
       </c>
@@ -3724,18 +3785,21 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>116</v>
       </c>
+      <c r="G11" s="25"/>
       <c r="H11" t="s">
         <v>69</v>
       </c>
@@ -3750,18 +3814,21 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="B12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>118</v>
       </c>
+      <c r="G12" s="25"/>
       <c r="H12" t="s">
         <v>69</v>
       </c>
@@ -3776,18 +3843,21 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>120</v>
       </c>
+      <c r="G13" s="25"/>
       <c r="H13" t="s">
         <v>69</v>
       </c>
@@ -3802,18 +3872,21 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="G14" s="25"/>
       <c r="H14" t="s">
         <v>69</v>
       </c>
@@ -3828,18 +3901,21 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>124</v>
       </c>
+      <c r="G15" s="25"/>
       <c r="H15" t="s">
         <v>69</v>
       </c>
@@ -3854,18 +3930,21 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="G16" s="25"/>
       <c r="H16" t="s">
         <v>69</v>
       </c>
@@ -3880,18 +3959,21 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>128</v>
       </c>
+      <c r="G17" s="25"/>
       <c r="H17" t="s">
         <v>69</v>
       </c>
@@ -3906,63 +3988,128 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>585</v>
       </c>
+      <c r="G19" s="25"/>
       <c r="H19" t="s">
         <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J19" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>588</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>589</v>
-      </c>
+      <c r="F20" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="G20" s="25"/>
       <c r="H20" t="s">
         <v>69</v>
       </c>
+      <c r="I20" t="s">
+        <v>596</v>
+      </c>
+      <c r="J20" t="s">
+        <v>597</v>
+      </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
+        <v>591</v>
+      </c>
+      <c r="J22" t="s">
+        <v>592</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3977,2210 +4124,2210 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="14" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="14" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="14" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="14" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="14" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="14" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="14" width="19.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="14" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" style="14" width="17.42578125" collapsed="true"/>
-    <col min="13" max="16384" style="14" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="13" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="13" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="13" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="13" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="13" width="19.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="13" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="13" width="17.42578125" collapsed="true"/>
+    <col min="13" max="16384" style="13" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="B9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="B13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
+      <c r="B15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="B17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="B18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
+      <c r="B19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="14"/>
+      <c r="H19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" s="14" t="s">
+      <c r="K19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
+      <c r="B20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
+      <c r="B21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
+      <c r="B22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="B23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14" t="s">
+      <c r="G23" s="14"/>
+      <c r="H23" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="K23" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="14" t="s">
+      <c r="K23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="B24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
+      <c r="B25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <v>4</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="O25" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
+      <c r="B26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="14" t="s">
+      <c r="G26" s="14"/>
+      <c r="H26" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="B27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>4</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
+      <c r="B28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="14" t="s">
+      <c r="G28" s="14"/>
+      <c r="H28" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
+      <c r="B29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>4</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="K29" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" s="14" t="s">
+      <c r="K29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="O29" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
+      <c r="B30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="14" t="s">
+      <c r="G30" s="14"/>
+      <c r="H30" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
+      <c r="B31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>4</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
+      <c r="B32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="14" t="s">
+      <c r="G32" s="14"/>
+      <c r="H32" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
+      <c r="B33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <v>4</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="M33" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
+      <c r="B34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="14" t="s">
+      <c r="G34" s="14"/>
+      <c r="H34" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
+      <c r="B35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="14" t="s">
+      <c r="G35" s="14"/>
+      <c r="H35" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="K35" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="14" t="s">
+      <c r="K35" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M35" s="14" t="s">
+      <c r="M35" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15" t="s">
+      <c r="B36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <v>10</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="K36" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="O36" s="14" t="s">
+      <c r="K36" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q36" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R36" s="14" t="s">
+      <c r="Q36" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R36" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S36" s="14" t="s">
+      <c r="S36" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="T36" s="14" t="s">
+      <c r="T36" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
+      <c r="B37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="14" t="s">
+      <c r="G37" s="14"/>
+      <c r="H37" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
+      <c r="B38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="14" t="s">
+      <c r="G38" s="14"/>
+      <c r="H38" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
+      <c r="B39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="14" t="s">
+      <c r="G39" s="14"/>
+      <c r="H39" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
+      <c r="B40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="14" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
+      <c r="B41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="14" t="s">
+      <c r="G41" s="14"/>
+      <c r="H41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="B42" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="14" t="s">
+      <c r="G42" s="14"/>
+      <c r="H42" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
+      <c r="B43" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="14" t="s">
+      <c r="G43" s="14"/>
+      <c r="H43" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
+      <c r="B44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="14" t="s">
+      <c r="G44" s="14"/>
+      <c r="H44" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="J44" s="14" t="s">
+      <c r="J44" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15" t="s">
+      <c r="B45" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="14" t="s">
+      <c r="G45" s="14"/>
+      <c r="H45" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="J45" s="14" t="s">
+      <c r="J45" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15" t="s">
+      <c r="B46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="14" t="s">
+      <c r="G46" s="14"/>
+      <c r="H46" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="J46" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
+      <c r="B47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
+      <c r="B48" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="14" t="s">
+      <c r="G48" s="14"/>
+      <c r="H48" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15" t="s">
+      <c r="B49" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15" t="s">
+      <c r="B50" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15" t="s">
+      <c r="B51" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15" t="s">
+      <c r="B52" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15" t="s">
+      <c r="B53" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
+      <c r="B54" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15" t="s">
+      <c r="B55" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15" t="s">
+      <c r="G55" s="14"/>
+      <c r="H55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="J55" s="15" t="s">
+      <c r="J55" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="K55" s="15" t="s">
+      <c r="K55" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
+      <c r="B56" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15" t="s">
+      <c r="G56" s="14"/>
+      <c r="H56" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="J56" s="15" t="s">
+      <c r="J56" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15" t="s">
+      <c r="B57" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15" t="s">
+      <c r="G57" s="14"/>
+      <c r="H57" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="J57" s="15" t="s">
+      <c r="J57" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="K57" s="15" t="s">
+      <c r="K57" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15" t="s">
+      <c r="B58" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19" t="s">
+      <c r="B59" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="s">
+      <c r="B60" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15" t="s">
+      <c r="B61" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15" t="s">
+      <c r="G61" s="14"/>
+      <c r="H61" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="J61" s="15" t="s">
+      <c r="J61" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="K61" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L61" s="15"/>
+      <c r="K61" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L61" s="14"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15" t="s">
+      <c r="B62" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15" t="s">
+      <c r="G62" s="14"/>
+      <c r="H62" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="I62" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="J62" s="15" t="s">
+      <c r="J62" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="K62" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L62" s="15"/>
+      <c r="K62" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L62" s="14"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15" t="s">
+      <c r="B63" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15" t="s">
+      <c r="G63" s="14"/>
+      <c r="H63" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="J63" s="15" t="s">
+      <c r="J63" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="K63" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L63" s="15"/>
+      <c r="K63" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L63" s="14"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
+      <c r="B64" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15" t="s">
+      <c r="G64" s="14"/>
+      <c r="H64" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="15" t="s">
+      <c r="I64" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="J64" s="15" t="s">
+      <c r="J64" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="K64" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L64" s="15"/>
+      <c r="K64" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L64" s="14"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15" t="s">
+      <c r="B65" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15" t="s">
+      <c r="G65" s="14"/>
+      <c r="H65" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="J65" s="15" t="s">
+      <c r="J65" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="K65" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L65" s="15"/>
+      <c r="K65" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L65" s="14"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15" t="s">
+      <c r="B66" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15" t="s">
+      <c r="B67" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15" t="s">
+      <c r="G67" s="14"/>
+      <c r="H67" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="J67" s="15" t="s">
+      <c r="J67" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="K67" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L67" s="15"/>
+      <c r="K67" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L67" s="14"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="21" t="s">
+      <c r="B68" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15" t="s">
+      <c r="G68" s="14"/>
+      <c r="H68" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="J68" s="15" t="s">
+      <c r="J68" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="K68" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L68" s="15"/>
+      <c r="K68" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L68" s="14"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="21" t="s">
+      <c r="B69" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15" t="s">
+      <c r="G69" s="14"/>
+      <c r="H69" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="I69" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="J69" s="15" t="s">
+      <c r="J69" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="K69" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L69" s="15"/>
+      <c r="K69" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L69" s="14"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="21" t="s">
+      <c r="B70" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15" t="s">
+      <c r="G70" s="14"/>
+      <c r="H70" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="J70" s="15" t="s">
+      <c r="J70" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="K70" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L70" s="15"/>
+      <c r="K70" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L70" s="14"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="21" t="s">
+      <c r="B71" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15" t="s">
+      <c r="G71" s="14"/>
+      <c r="H71" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="J71" s="15" t="s">
+      <c r="J71" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="K71" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L71" s="15"/>
+      <c r="K71" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L71" s="14"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="21" t="s">
+      <c r="B72" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15" t="s">
+      <c r="G72" s="14"/>
+      <c r="H72" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="J72" s="15" t="s">
+      <c r="J72" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="K72" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L72" s="15"/>
+      <c r="K72" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L72" s="14"/>
     </row>
     <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="22" t="s">
+      <c r="B73" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="G73" s="15"/>
+      <c r="G73" s="14"/>
       <c r="H73" t="s">
         <v>69</v>
       </c>
@@ -6193,54 +6340,54 @@
       <c r="K73" t="s">
         <v>70</v>
       </c>
-      <c r="L73" s="15"/>
+      <c r="L73" s="14"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="21" t="s">
+      <c r="B74" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15" t="s">
+      <c r="G74" s="14"/>
+      <c r="H74" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="I74" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="K74" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L74" s="15"/>
+      <c r="K74" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L74" s="14"/>
     </row>
     <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="21" t="s">
+      <c r="B75" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="G75" s="15"/>
+      <c r="G75" s="14"/>
       <c r="H75" t="s">
         <v>69</v>
       </c>
@@ -6253,24 +6400,24 @@
       <c r="K75" t="s">
         <v>70</v>
       </c>
-      <c r="L75" s="15"/>
+      <c r="L75" s="14"/>
     </row>
     <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15" t="s">
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="G76" s="15"/>
+      <c r="G76" s="14"/>
       <c r="H76" t="s">
         <v>69</v>
       </c>
@@ -6283,24 +6430,24 @@
       <c r="K76" t="s">
         <v>70</v>
       </c>
-      <c r="L76" s="15"/>
+      <c r="L76" s="14"/>
     </row>
     <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15" t="s">
+      <c r="B77" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="G77" s="15"/>
+      <c r="G77" s="14"/>
       <c r="H77" t="s">
         <v>69</v>
       </c>
@@ -6313,293 +6460,293 @@
       <c r="K77" t="s">
         <v>70</v>
       </c>
-      <c r="L77" s="15"/>
+      <c r="L77" s="14"/>
     </row>
     <row r="78" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="B78" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15" t="s">
+      <c r="B78" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
     </row>
     <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="B79" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15" t="s">
+      <c r="B79" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
     </row>
     <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15" t="s">
+      <c r="B80" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="F80" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15" t="s">
+      <c r="B81" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15" t="s">
+      <c r="B82" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15" t="s">
+      <c r="B83" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15" t="s">
+      <c r="B84" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15" t="s">
+      <c r="B85" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15" t="s">
+      <c r="B86" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="F86" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="B87" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15" t="s">
+      <c r="B87" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="F87" s="18" t="s">
+      <c r="F87" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
+      <c r="B88" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="F88" s="18" t="s">
+      <c r="F88" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15" t="s">
+      <c r="B89" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="F89" s="18" t="s">
+      <c r="F89" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15" t="s">
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F90" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E9F88CB-AC08-4B72-89AD-8AD35652C800}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D852F-2B39-4B21-AC43-5388B58E60B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="646">
   <si>
     <t>Application_Name</t>
   </si>
@@ -2000,12 +1999,30 @@
   </si>
   <si>
     <t>'2022/02/03 15:55:41</t>
+  </si>
+  <si>
+    <t>CC_CORP_TC036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initiate Wire transfer Payment  using wire via select payee- - approve
+if payee exist use that else
+create a payee and use that payee for wire transfer </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/02/09 15:12:43</t>
+  </si>
+  <si>
+    <t>'2022/02/09 15:28:49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2557,16 +2574,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2649,23 +2666,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5698D2-2A68-44BF-B3E0-84682E6FAE93}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3873,7 +3890,7 @@
         <v>625</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>14</v>
@@ -3899,40 +3916,40 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" t="s">
+        <v>380</v>
+      </c>
+      <c r="I41" t="s">
+        <v>644</v>
+      </c>
+      <c r="J41" t="s">
+        <v>645</v>
+      </c>
+      <c r="K41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>629</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>633</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>6</v>
@@ -3942,28 +3959,28 @@
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18" t="s">
         <v>380</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="K42" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>6</v>
@@ -3973,22 +3990,53 @@
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18" t="s">
         <v>380</v>
       </c>
       <c r="I43" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="I44" s="18" t="s">
         <v>639</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J44" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K44" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4008,16 +4056,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="71.42578125" style="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" style="8" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="24" width="71.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="8" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" style="8" width="17.42578125" collapsed="true"/>
+    <col min="12" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4630,17 +4678,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" style="8" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="8" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="8" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="8" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="8" width="17.42578125" collapsed="true"/>
+    <col min="13" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E9F88CB-AC08-4B72-89AD-8AD35652C800}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19D9A716-B921-41B7-B52E-6B0F2850B621}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App_Info" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="649">
   <si>
     <t>Application_Name</t>
   </si>
@@ -2000,13 +2000,38 @@
   </si>
   <si>
     <t>'2022/02/03 15:55:41</t>
+  </si>
+  <si>
+    <t>Verify Outgoing Transaction that found Initial hit for OFAC check can be released from the Regulatory check pool</t>
+  </si>
+  <si>
+    <t>Verify outgoing payment can be cancelled and submitted successfully same day that got failed during 'OFAC Check'</t>
+  </si>
+  <si>
+    <t>EPP_TC022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>'2022/02/09 19:54:16</t>
+  </si>
+  <si>
+    <t>'2022/02/09 20:06:29</t>
+  </si>
+  <si>
+    <t>'2022/02/09 20:57:15</t>
+  </si>
+  <si>
+    <t>'2022/02/09 21:08:58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2055,6 +2080,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2216,7 +2246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2273,6 +2303,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2557,16 +2590,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2588,7 +2621,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2613,7 +2646,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2657,15 +2690,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4000,24 +4033,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="9.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="71.42578125" style="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="17.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" style="8" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="9.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="24" width="71.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="8" width="11.28515625" collapsed="true"/>
+    <col min="9" max="11" bestFit="true" customWidth="true" style="8" width="17.42578125" collapsed="true"/>
+    <col min="12" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4543,7 +4576,7 @@
         <v>546</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4584,7 +4617,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>550</v>
       </c>
@@ -4596,8 +4629,8 @@
       <c r="E22" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>547</v>
+      <c r="F22" s="25" t="s">
+        <v>641</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="8" t="s">
@@ -4610,6 +4643,35 @@
         <v>552</v>
       </c>
       <c r="K22" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>647</v>
+      </c>
+      <c r="J23" t="s">
+        <v>648</v>
+      </c>
+      <c r="K23" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4630,17 +4692,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="8" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.140625" style="8" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="9.140625" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="15.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="8" width="8.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="8" width="73.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="8" width="11.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="8" width="17.42578125" collapsed="true"/>
+    <col min="13" max="16384" style="8" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19D9A716-B921-41B7-B52E-6B0F2850B621}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30BF0CC7-D34D-451D-B264-16BE8067A392}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="651">
   <si>
     <t>Application_Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
     <t>TestDescription</t>
   </si>
   <si>
@@ -201,25 +198,13 @@
     <t>Initiate Transfer future one to one account (Checking to saving) + Payment Activity - Edit transfer for future date and view</t>
   </si>
   <si>
-    <t>Create a Manual payment[Bank FRB]</t>
-  </si>
-  <si>
     <t>EPP_TC002</t>
   </si>
   <si>
-    <t>Create a Manual payment[Cust FRB]</t>
-  </si>
-  <si>
     <t>EPP_TC003</t>
   </si>
   <si>
-    <t>Create a Manual payment[Incoming_Cust FRB]</t>
-  </si>
-  <si>
     <t>EPP_TC004</t>
-  </si>
-  <si>
-    <t>Create a Manual payment[Incoming_Bank FRB]</t>
   </si>
   <si>
     <t>Initiate Transfer recurring day many to one account (Status-Pending) +Checking +saving to loan</t>
@@ -1703,9 +1688,6 @@
     <t>EPP_TC019</t>
   </si>
   <si>
-    <t>Verify that an Outgoing transaction failed in GFC can be release successfully</t>
-  </si>
-  <si>
     <t>'2022/02/03 21:54:01</t>
   </si>
   <si>
@@ -1722,9 +1704,6 @@
   </si>
   <si>
     <t>EPP_TC020</t>
-  </si>
-  <si>
-    <t>Verify that an Outgoing transaction failed in GFC can be repair and approved successfully</t>
   </si>
   <si>
     <t>'2022/02/05 00:43:01</t>
@@ -2011,26 +1990,52 @@
     <t>EPP_TC022</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>'2022/02/09 19:54:16</t>
-  </si>
-  <si>
-    <t>'2022/02/09 20:06:29</t>
-  </si>
-  <si>
     <t>'2022/02/09 20:57:15</t>
   </si>
   <si>
     <t>'2022/02/09 21:08:58</t>
+  </si>
+  <si>
+    <t>Manual_TS#</t>
+  </si>
+  <si>
+    <t>EPP_TS09_TC03</t>
+  </si>
+  <si>
+    <t>EPP_TS09_TC01</t>
+  </si>
+  <si>
+    <t>EPP_TS10_TC01</t>
+  </si>
+  <si>
+    <t>EPP_TS10_TC05</t>
+  </si>
+  <si>
+    <t>EPP_TS10_TC07</t>
+  </si>
+  <si>
+    <t>Verify Outgoing CT payment is released from repair by operator after the payment is sent to repair from insufficient funds stage</t>
+  </si>
+  <si>
+    <t>Verify Outgoing CT where payment is released from GFC Hold by operator same day when payment is stuck in insufficient funds stage</t>
+  </si>
+  <si>
+    <t>Create, approve and search a Manual outgoing payment via Bank FRB</t>
+  </si>
+  <si>
+    <t>Create, approve and search a Manual outgoing payment via Cust FRB</t>
+  </si>
+  <si>
+    <t>Create, approve and search a Manual incoming payment  via Cust FRB</t>
+  </si>
+  <si>
+    <t>Create, approve and search a Manual incoming via Bank FRB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2084,8 +2089,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2246,7 +2252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2289,23 +2295,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2596,15 +2616,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.7109375" collapsed="true"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2613,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -2627,7 +2647,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2638,10 +2658,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,10 +2672,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,10 +2683,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2685,200 +2705,200 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="63.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="63.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -2888,330 +2908,330 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -3221,808 +3241,808 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4035,644 +4055,644 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC91813-AD9F-4B65-8DAD-DE1B79C09543}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="16.42578125" collapsed="true"/>
-    <col min="2" max="2" style="8" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="9.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="24" width="71.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="8" width="11.28515625" collapsed="true"/>
-    <col min="9" max="11" bestFit="true" customWidth="true" style="8" width="17.42578125" collapsed="true"/>
-    <col min="12" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="24" collapsed="1"/>
+    <col min="3" max="3" width="9.85546875" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="71.42578125" style="28" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="11" width="17.42578125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="24" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="K1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="8" t="s">
+      <c r="B4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="F7" s="26" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="B8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="F8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K8" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="J9" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K9" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="J15" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="K15" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="J16" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="K16" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="J17" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="K17" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="B18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="F18" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>644</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="B22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="J22" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>641</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="K22" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>642</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" t="s">
-        <v>647</v>
-      </c>
-      <c r="J23" t="s">
-        <v>648</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4686,90 +4706,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
   <dimension ref="A1:T90"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="15.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="8" width="8.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="8" width="73.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="8" width="11.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="8" width="19.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="8" width="13.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" style="8" width="17.42578125" collapsed="true"/>
-    <col min="13" max="16384" style="8" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="8" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.140625" style="8" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.28515625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="17.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O1" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>399</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
@@ -4777,28 +4797,28 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
@@ -4806,28 +4826,28 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -4835,28 +4855,28 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
@@ -4864,28 +4884,28 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>6</v>
@@ -4893,28 +4913,28 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>6</v>
@@ -4922,28 +4942,28 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="K7" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>6</v>
@@ -4951,28 +4971,28 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>6</v>
@@ -4980,28 +5000,28 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>6</v>
@@ -5009,28 +5029,28 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>6</v>
@@ -5038,28 +5058,28 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>6</v>
@@ -5067,28 +5087,28 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -5096,28 +5116,28 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
@@ -5125,28 +5145,28 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>6</v>
@@ -5154,28 +5174,28 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>6</v>
@@ -5183,28 +5203,28 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>6</v>
@@ -5212,28 +5232,28 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>6</v>
@@ -5241,28 +5261,28 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>6</v>
@@ -5270,37 +5290,37 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>6</v>
@@ -5308,28 +5328,28 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>6</v>
@@ -5337,28 +5357,28 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>6</v>
@@ -5366,28 +5386,28 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>6</v>
@@ -5395,40 +5415,40 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>6</v>
@@ -5436,28 +5456,28 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>6</v>
@@ -5465,42 +5485,42 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G25" s="9">
         <v>4</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>6</v>
@@ -5508,28 +5528,28 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>6</v>
@@ -5537,42 +5557,42 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G27" s="9">
         <v>4</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>6</v>
@@ -5580,28 +5600,28 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>6</v>
@@ -5609,42 +5629,42 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G29" s="9">
         <v>4</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>6</v>
@@ -5652,28 +5672,28 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>6</v>
@@ -5681,42 +5701,42 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G31" s="9">
         <v>4</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I31" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>414</v>
-      </c>
       <c r="K31" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>6</v>
@@ -5724,28 +5744,28 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>6</v>
@@ -5753,42 +5773,42 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G33" s="9">
         <v>4</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>6</v>
@@ -5796,28 +5816,28 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>6</v>
@@ -5825,37 +5845,37 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>6</v>
@@ -5863,57 +5883,57 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G36" s="9">
         <v>10</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>6</v>
@@ -5921,28 +5941,28 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>6</v>
@@ -5950,28 +5970,28 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>6</v>
@@ -5979,28 +5999,28 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>6</v>
@@ -6008,28 +6028,28 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>6</v>
@@ -6037,28 +6057,28 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>6</v>
@@ -6066,28 +6086,28 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I42" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>345</v>
-      </c>
       <c r="K42" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>6</v>
@@ -6095,28 +6115,28 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>6</v>
@@ -6124,28 +6144,28 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>6</v>
@@ -6153,28 +6173,28 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>6</v>
@@ -6182,28 +6202,28 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>6</v>
@@ -6211,10 +6231,10 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -6224,7 +6244,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>6</v>
@@ -6232,28 +6252,28 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>6</v>
@@ -6261,10 +6281,10 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -6274,7 +6294,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>6</v>
@@ -6282,10 +6302,10 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -6295,7 +6315,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>6</v>
@@ -6303,10 +6323,10 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -6316,7 +6336,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>6</v>
@@ -6324,10 +6344,10 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -6337,7 +6357,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>6</v>
@@ -6345,10 +6365,10 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -6358,7 +6378,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>6</v>
@@ -6366,10 +6386,10 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -6379,7 +6399,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>6</v>
@@ -6387,28 +6407,28 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>6</v>
@@ -6416,28 +6436,28 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>6</v>
@@ -6445,28 +6465,28 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>6</v>
@@ -6474,10 +6494,10 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -6487,7 +6507,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>6</v>
@@ -6495,10 +6515,10 @@
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -6508,7 +6528,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>6</v>
@@ -6516,10 +6536,10 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -6530,7 +6550,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>6</v>
@@ -6538,29 +6558,29 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>6</v>
@@ -6568,29 +6588,29 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>6</v>
@@ -6598,29 +6618,29 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>6</v>
@@ -6628,29 +6648,29 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>6</v>
@@ -6658,29 +6678,29 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>6</v>
@@ -6688,10 +6708,10 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -6702,7 +6722,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>6</v>
@@ -6710,29 +6730,29 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>6</v>
@@ -6740,29 +6760,29 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="15" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>6</v>
@@ -6770,29 +6790,29 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L69" s="9"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>6</v>
@@ -6800,29 +6820,29 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L70" s="9"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>6</v>
@@ -6830,29 +6850,29 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="15" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L71" s="9"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>6</v>
@@ -6860,29 +6880,29 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>6</v>
@@ -6890,29 +6910,29 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I73" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J73" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K73" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>6</v>
@@ -6920,29 +6940,29 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>6</v>
@@ -6950,29 +6970,29 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I75" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="J75" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K75" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>5</v>
@@ -6980,29 +7000,29 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I76" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="J76" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K76" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>6</v>
@@ -7010,29 +7030,29 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I77" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="J77" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="K77" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>6</v>
@@ -7040,10 +7060,10 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -7054,7 +7074,7 @@
     </row>
     <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>6</v>
@@ -7062,10 +7082,10 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -7076,7 +7096,7 @@
     </row>
     <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>6</v>
@@ -7084,10 +7104,10 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -7098,7 +7118,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>6</v>
@@ -7106,10 +7126,10 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -7120,7 +7140,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>6</v>
@@ -7128,10 +7148,10 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -7142,7 +7162,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>6</v>
@@ -7150,10 +7170,10 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -7164,7 +7184,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>6</v>
@@ -7172,10 +7192,10 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -7186,7 +7206,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>6</v>
@@ -7194,10 +7214,10 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -7208,7 +7228,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>6</v>
@@ -7216,10 +7236,10 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -7230,7 +7250,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>6</v>
@@ -7238,10 +7258,10 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -7252,7 +7272,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>6</v>
@@ -7260,10 +7280,10 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -7274,7 +7294,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>6</v>
@@ -7282,10 +7302,10 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -7296,7 +7316,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>5</v>
@@ -7304,10 +7324,10 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>

--- a/src/main/resources/testdesign/testcontroller/master.xlsx
+++ b/src/main/resources/testdesign/testcontroller/master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testcontroller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARK7SF\Desktop\Republic UAT\Git\workspace\Test_Automation\src\main\resources\testdesign\testcontroller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A32160D8-A2FB-4473-A29A-2446DBE517AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CFFD4BD-D831-4B50-98CF-733D531FC900}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C836579-C5C0-4CC8-B696-69940929415D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="706">
   <si>
     <t>Application_Name</t>
   </si>
@@ -1812,6 +1812,391 @@
   </si>
   <si>
     <t>Create New Sweep from DDA Account to Loan Account</t>
+  </si>
+  <si>
+    <t>Premier_TC089</t>
+  </si>
+  <si>
+    <t>TC089</t>
+  </si>
+  <si>
+    <t>Loans-Loan account maintenance update Payments</t>
+  </si>
+  <si>
+    <t>Modelling - Create a note calculator via payment amount</t>
+  </si>
+  <si>
+    <t>Modelling - Create a note calculator via principal advance</t>
+  </si>
+  <si>
+    <t>Modelling - Create a note calculator via balloon payment amount</t>
+  </si>
+  <si>
+    <t>Modelling - Create a note calculator via number of payments</t>
+  </si>
+  <si>
+    <t>Modelling - Create a note calculator via interest rate</t>
+  </si>
+  <si>
+    <t>TC090</t>
+  </si>
+  <si>
+    <t>TC091</t>
+  </si>
+  <si>
+    <t>TC092</t>
+  </si>
+  <si>
+    <t>TC093</t>
+  </si>
+  <si>
+    <t>TC094</t>
+  </si>
+  <si>
+    <t>Premier_TC090</t>
+  </si>
+  <si>
+    <t>Premier_TC091</t>
+  </si>
+  <si>
+    <t>Premier_TC092</t>
+  </si>
+  <si>
+    <t>Premier_TC093</t>
+  </si>
+  <si>
+    <t>Premier_TC094</t>
+  </si>
+  <si>
+    <t>'2022/02/03 20:14:25</t>
+  </si>
+  <si>
+    <t>'2022/02/03 20:16:54</t>
+  </si>
+  <si>
+    <t>'2022/02/03 20:17:49</t>
+  </si>
+  <si>
+    <t>'2022/02/03 20:18:57</t>
+  </si>
+  <si>
+    <t>'2022/02/03 20:21:37</t>
+  </si>
+  <si>
+    <t>'2022/02/03 20:22:52</t>
+  </si>
+  <si>
+    <t>'2022/02/04 17:04:22</t>
+  </si>
+  <si>
+    <t>'2022/02/04 17:05:46</t>
+  </si>
+  <si>
+    <t>'2022/02/04 17:07:06</t>
+  </si>
+  <si>
+    <t>'2022/02/04 17:09:17</t>
+  </si>
+  <si>
+    <t>'2022/02/04 17:13:30</t>
+  </si>
+  <si>
+    <t>'2022/02/04 17:19:39</t>
+  </si>
+  <si>
+    <t>Premier_TC095</t>
+  </si>
+  <si>
+    <t>TC095</t>
+  </si>
+  <si>
+    <t>Premier_TC096</t>
+  </si>
+  <si>
+    <t>Premier_TC097</t>
+  </si>
+  <si>
+    <t>Premier_TC098</t>
+  </si>
+  <si>
+    <t>TC096</t>
+  </si>
+  <si>
+    <t>TC097</t>
+  </si>
+  <si>
+    <t>TC098</t>
+  </si>
+  <si>
+    <t>Modelling - Create a Deposit calculator_Certificate via Maturity Value</t>
+  </si>
+  <si>
+    <t>Modelling - Create a Deposit calculator_Certificate via Initial Deposit</t>
+  </si>
+  <si>
+    <t>Modelling - Create a Deposit calculator_Certificate via Deposit Amount</t>
+  </si>
+  <si>
+    <t>Modelling - Create a Deposit calculator_Certificate via Withdrawal Amount</t>
+  </si>
+  <si>
+    <t>'2022/02/07 17:08:26</t>
+  </si>
+  <si>
+    <t>'2022/02/07 17:10:32</t>
+  </si>
+  <si>
+    <t>'2022/02/07 17:14:49</t>
+  </si>
+  <si>
+    <t>'2022/02/07 17:16:00</t>
+  </si>
+  <si>
+    <t>'2022/02/07 17:19:54</t>
+  </si>
+  <si>
+    <t>'2022/02/07 17:21:06</t>
+  </si>
+  <si>
+    <t>'2022/02/07 17:22:23</t>
+  </si>
+  <si>
+    <t>Premier_TC099</t>
+  </si>
+  <si>
+    <t>TC099</t>
+  </si>
+  <si>
+    <t>Create a certificates IRA Accounts
+Search existing porfolio number
+if no portfolio Create new Portfolio while adding a new customer along with it  (individual)enter name/taxcode/taxnumber/dob in name(handle multiple) search criteria+add address+click next+select new option on dulplicate page+create portfolio for same
++Create Certificate account+account inquiry</t>
+  </si>
+  <si>
+    <t>Premier_TC100</t>
+  </si>
+  <si>
+    <t>TC100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update  Certificate account IRA info +account inquiry
+if account does not exist create certificates account </t>
+  </si>
+  <si>
+    <t>'2022/02/09 14:28:45</t>
+  </si>
+  <si>
+    <t>'2022/02/09 14:31:31</t>
+  </si>
+  <si>
+    <t>'2022/02/09 18:05:28</t>
+  </si>
+  <si>
+    <t>'2022/02/09 18:07:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance change product +account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD-DD account maintenance change portfolio +account inquiry
+if account does not exist create DD account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance change product +account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savings-Savings account maintenance change protfolio +account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance update product +account inquiry
+if account does not exist create Certificates account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificates-Certificates account maintenance update portfolio+account inquiry
+if account does not exist create Certificates account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update product+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t>Premier_TC101</t>
+  </si>
+  <si>
+    <t>Premier_TC102</t>
+  </si>
+  <si>
+    <t>Premier_TC103</t>
+  </si>
+  <si>
+    <t>Premier_TC104</t>
+  </si>
+  <si>
+    <t>Premier_TC105</t>
+  </si>
+  <si>
+    <t>Premier_TC106</t>
+  </si>
+  <si>
+    <t>Premier_TC107</t>
+  </si>
+  <si>
+    <t>Premier_TC108</t>
+  </si>
+  <si>
+    <t>TC101</t>
+  </si>
+  <si>
+    <t>TC102</t>
+  </si>
+  <si>
+    <t>TC103</t>
+  </si>
+  <si>
+    <t>TC104</t>
+  </si>
+  <si>
+    <t>TC105</t>
+  </si>
+  <si>
+    <t>TC106</t>
+  </si>
+  <si>
+    <t>TC107</t>
+  </si>
+  <si>
+    <t>TC108</t>
+  </si>
+  <si>
+    <t>'2022/02/10 12:17:47</t>
+  </si>
+  <si>
+    <t>'2022/02/10 12:19:40</t>
+  </si>
+  <si>
+    <t>'2022/02/10 13:56:16</t>
+  </si>
+  <si>
+    <t>'2022/02/10 13:58:16</t>
+  </si>
+  <si>
+    <t>'2022/02/10 14:43:04</t>
+  </si>
+  <si>
+    <t>'2022/02/10 14:44:49</t>
+  </si>
+  <si>
+    <t>'2022/02/10 14:45:43</t>
+  </si>
+  <si>
+    <t>'2022/02/10 14:47:35</t>
+  </si>
+  <si>
+    <t>'2022/02/10 19:19:12</t>
+  </si>
+  <si>
+    <t>'2022/02/10 19:23:25</t>
+  </si>
+  <si>
+    <t>'2022/02/10 19:24:40</t>
+  </si>
+  <si>
+    <t>'2022/02/10 19:26:16</t>
+  </si>
+  <si>
+    <t>'2022/02/11 13:17:35</t>
+  </si>
+  <si>
+    <t>'2022/02/11 13:23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loans-Loan account maintenance update Line+account inquiry
+if account does not exist create Loan account </t>
+  </si>
+  <si>
+    <t>'2022/02/11 13:24:10</t>
+  </si>
+  <si>
+    <t>'2022/02/11 13:25:44</t>
+  </si>
+  <si>
+    <t>Premier_TC109</t>
+  </si>
+  <si>
+    <t>TC109</t>
+  </si>
+  <si>
+    <t>'2022/02/14 11:17:36</t>
+  </si>
+  <si>
+    <t>'2022/02/14 11:19:36</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance add NSF FEE with service charge+account inquiry
+if account does not exist create DD account</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance add NSF FEE with account analysis+account inquiry
+if account does not exist create DD account</t>
+  </si>
+  <si>
+    <t>DD-DD account maintenance update codes - codes +account inquiry
+if account does not exist create DD account</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance add stop payment fee with account analysis+account inquiry
+if account does not exist create Savings account</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance add stop payment fee with service charge+account inquiry
+if account does not exist create Savings account</t>
+  </si>
+  <si>
+    <t>Savings-Savings account maintenance balances Interest- deposit rate index +account inquiry
+if account does not exist create Savings account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan-Loan account maintenance Interest Fees- deposit rate index +account inquiry
+if account does not exist create Savings account </t>
+  </si>
+  <si>
+    <t>TC110</t>
+  </si>
+  <si>
+    <t>TC111</t>
+  </si>
+  <si>
+    <t>TC112</t>
+  </si>
+  <si>
+    <t>TC113</t>
+  </si>
+  <si>
+    <t>TC114</t>
+  </si>
+  <si>
+    <t>TC115</t>
+  </si>
+  <si>
+    <t>Premier_TC110</t>
+  </si>
+  <si>
+    <t>Premier_TC111</t>
+  </si>
+  <si>
+    <t>Premier_TC112</t>
+  </si>
+  <si>
+    <t>Premier_TC113</t>
+  </si>
+  <si>
+    <t>Premier_TC114</t>
+  </si>
+  <si>
+    <t>Premier_TC115</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +2270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2045,7 +2430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2097,7 +2482,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -3895,10 +4279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B76D93-F2C0-4CD2-AA8C-AD315425546C}">
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4681,9 +5065,7 @@
       <c r="F25" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="G25" s="15">
-        <v>4</v>
-      </c>
+      <c r="G25" s="15"/>
       <c r="H25" s="14" t="s">
         <v>99</v>
       </c>
@@ -4753,9 +5135,7 @@
       <c r="F27" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="G27" s="15">
-        <v>4</v>
-      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="14" t="s">
         <v>99</v>
       </c>
@@ -4825,9 +5205,7 @@
       <c r="F29" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="G29" s="15">
-        <v>4</v>
-      </c>
+      <c r="G29" s="15"/>
       <c r="H29" s="14" t="s">
         <v>99</v>
       </c>
@@ -4897,9 +5275,7 @@
       <c r="F31" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="G31" s="15">
-        <v>4</v>
-      </c>
+      <c r="G31" s="15"/>
       <c r="H31" s="14" t="s">
         <v>99</v>
       </c>
@@ -4969,9 +5345,7 @@
       <c r="F33" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="G33" s="15">
-        <v>4</v>
-      </c>
+      <c r="G33" s="15"/>
       <c r="H33" s="14" t="s">
         <v>99</v>
       </c>
@@ -5079,9 +5453,7 @@
       <c r="F36" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="G36" s="15">
-        <v>10</v>
-      </c>
+      <c r="G36" s="15"/>
       <c r="H36" s="14" t="s">
         <v>99</v>
       </c>
@@ -5700,7 +6072,7 @@
       <c r="A59" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="19"/>
@@ -5920,7 +6292,7 @@
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="21" t="s">
         <v>236</v>
       </c>
       <c r="F67" s="18" t="s">
@@ -6100,7 +6472,7 @@
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="21" t="s">
         <v>248</v>
       </c>
       <c r="F73" s="18" t="s">
@@ -6186,11 +6558,11 @@
         <v>253</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="21" t="s">
         <v>254</v>
       </c>
       <c r="F76" s="18" t="s">
@@ -6220,7 +6592,7 @@
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="21" t="s">
         <v>256</v>
       </c>
       <c r="F77" s="18" t="s">
@@ -6250,7 +6622,7 @@
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="21" t="s">
         <v>537</v>
       </c>
       <c r="F78" s="18" t="s">
@@ -6510,7 +6882,7 @@
         <v>581</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -6527,6 +6899,723 @@
       <c r="K90" s="15"/>
       <c r="L90" s="15"/>
     </row>
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="H91" t="s">
+        <v>99</v>
+      </c>
+      <c r="I91" t="s">
+        <v>612</v>
+      </c>
+      <c r="J91" t="s">
+        <v>613</v>
+      </c>
+      <c r="K91" t="s">
+        <v>70</v>
+      </c>
+      <c r="L91" s="15"/>
+    </row>
+    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="G92" s="15"/>
+      <c r="H92" t="s">
+        <v>99</v>
+      </c>
+      <c r="I92" t="s">
+        <v>602</v>
+      </c>
+      <c r="J92" t="s">
+        <v>603</v>
+      </c>
+      <c r="K92" t="s">
+        <v>70</v>
+      </c>
+      <c r="L92" s="15"/>
+    </row>
+    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="G93" s="15"/>
+      <c r="H93" t="s">
+        <v>99</v>
+      </c>
+      <c r="I93" t="s">
+        <v>604</v>
+      </c>
+      <c r="J93" t="s">
+        <v>605</v>
+      </c>
+      <c r="K93" t="s">
+        <v>70</v>
+      </c>
+      <c r="L93" s="15"/>
+    </row>
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="G94" s="15"/>
+      <c r="H94" t="s">
+        <v>99</v>
+      </c>
+      <c r="I94" t="s">
+        <v>606</v>
+      </c>
+      <c r="J94" t="s">
+        <v>607</v>
+      </c>
+      <c r="K94" t="s">
+        <v>70</v>
+      </c>
+      <c r="L94" s="15"/>
+    </row>
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="G95" s="15"/>
+      <c r="H95" t="s">
+        <v>99</v>
+      </c>
+      <c r="I95" t="s">
+        <v>608</v>
+      </c>
+      <c r="J95" t="s">
+        <v>609</v>
+      </c>
+      <c r="K95" t="s">
+        <v>70</v>
+      </c>
+      <c r="L95" s="15"/>
+    </row>
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="G96" s="15"/>
+      <c r="H96" t="s">
+        <v>99</v>
+      </c>
+      <c r="I96" t="s">
+        <v>610</v>
+      </c>
+      <c r="J96" t="s">
+        <v>611</v>
+      </c>
+      <c r="K96" t="s">
+        <v>70</v>
+      </c>
+      <c r="L96" s="15"/>
+    </row>
+    <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="G97" s="15"/>
+      <c r="H97" t="s">
+        <v>99</v>
+      </c>
+      <c r="I97" t="s">
+        <v>626</v>
+      </c>
+      <c r="J97" t="s">
+        <v>627</v>
+      </c>
+      <c r="K97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="G98" s="15"/>
+      <c r="H98" t="s">
+        <v>99</v>
+      </c>
+      <c r="I98" t="s">
+        <v>628</v>
+      </c>
+      <c r="J98" t="s">
+        <v>629</v>
+      </c>
+      <c r="K98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="G99" s="15"/>
+      <c r="H99" t="s">
+        <v>99</v>
+      </c>
+      <c r="I99" t="s">
+        <v>630</v>
+      </c>
+      <c r="J99" t="s">
+        <v>631</v>
+      </c>
+      <c r="K99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="G100" s="15"/>
+      <c r="H100" t="s">
+        <v>99</v>
+      </c>
+      <c r="I100" t="s">
+        <v>630</v>
+      </c>
+      <c r="J100" t="s">
+        <v>632</v>
+      </c>
+      <c r="K100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="H101" t="s">
+        <v>99</v>
+      </c>
+      <c r="I101" t="s">
+        <v>639</v>
+      </c>
+      <c r="J101" t="s">
+        <v>640</v>
+      </c>
+      <c r="K101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="H102" t="s">
+        <v>99</v>
+      </c>
+      <c r="I102" t="s">
+        <v>641</v>
+      </c>
+      <c r="J102" t="s">
+        <v>642</v>
+      </c>
+      <c r="K102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="G103" s="15"/>
+      <c r="H103" t="s">
+        <v>99</v>
+      </c>
+      <c r="I103" t="s">
+        <v>666</v>
+      </c>
+      <c r="J103" t="s">
+        <v>667</v>
+      </c>
+      <c r="K103" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="G104" s="15"/>
+      <c r="H104" t="s">
+        <v>99</v>
+      </c>
+      <c r="I104" t="s">
+        <v>668</v>
+      </c>
+      <c r="J104" t="s">
+        <v>669</v>
+      </c>
+      <c r="K104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="G105" s="15"/>
+      <c r="H105" t="s">
+        <v>99</v>
+      </c>
+      <c r="I105" t="s">
+        <v>670</v>
+      </c>
+      <c r="J105" t="s">
+        <v>671</v>
+      </c>
+      <c r="K105" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="G106" s="15"/>
+      <c r="H106" t="s">
+        <v>99</v>
+      </c>
+      <c r="I106" t="s">
+        <v>672</v>
+      </c>
+      <c r="J106" t="s">
+        <v>673</v>
+      </c>
+      <c r="K106" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="G107" s="15"/>
+      <c r="H107" t="s">
+        <v>99</v>
+      </c>
+      <c r="I107" t="s">
+        <v>674</v>
+      </c>
+      <c r="J107" t="s">
+        <v>675</v>
+      </c>
+      <c r="K107" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="G108" s="15"/>
+      <c r="H108" t="s">
+        <v>99</v>
+      </c>
+      <c r="I108" t="s">
+        <v>676</v>
+      </c>
+      <c r="J108" t="s">
+        <v>677</v>
+      </c>
+      <c r="K108" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="G109" s="15"/>
+      <c r="H109" t="s">
+        <v>99</v>
+      </c>
+      <c r="I109" t="s">
+        <v>678</v>
+      </c>
+      <c r="J109" t="s">
+        <v>679</v>
+      </c>
+      <c r="K109" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="G110" s="15"/>
+      <c r="H110" t="s">
+        <v>99</v>
+      </c>
+      <c r="I110" t="s">
+        <v>681</v>
+      </c>
+      <c r="J110" t="s">
+        <v>682</v>
+      </c>
+      <c r="K110" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="G111" s="15"/>
+      <c r="H111" t="s">
+        <v>99</v>
+      </c>
+      <c r="I111" t="s">
+     